--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B21693DB-B143-4D97-A9FC-5117E14F7F34}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{584920B3-84C4-4FE2-AB2A-A60503FB1959}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>Lea</t>
   </si>
@@ -141,6 +141,42 @@
   </si>
   <si>
     <t>15:9:t</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Villach</t>
+  </si>
+  <si>
+    <t>Ylva</t>
+  </si>
+  <si>
+    <t>L:Celi:Thery:Stefie:Kati R:Lea:Franzi</t>
+  </si>
+  <si>
+    <t>L:Kati K:Celi:Thery:Stefie:Kati R:Lea</t>
+  </si>
+  <si>
+    <t>L:Celi:Thery:Kati K:Kati R:Lea:Franzi</t>
+  </si>
+  <si>
+    <t>l:26:12:3:22:2:4</t>
+  </si>
+  <si>
+    <t>l:4:12:22:3:2:28</t>
+  </si>
+  <si>
+    <t>7:16:T</t>
+  </si>
+  <si>
+    <t>23:20:T</t>
+  </si>
+  <si>
+    <t>8:5:t</t>
+  </si>
+  <si>
+    <t>7:18:T</t>
+  </si>
+  <si>
+    <t>18:11:t</t>
   </si>
 </sst>
 </file>
@@ -253,7 +289,217 @@
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -756,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG16"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AE10" sqref="AE10"/>
@@ -783,10 +1029,10 @@
     </row>
     <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>43518</v>
+        <v>43545</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -914,60 +1160,72 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
-        <v>8</v>
+        <f t="shared" ref="M5:M16" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <v>3</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5" si="1" xml:space="preserve"> C5 + E5 + G5 + I5 + K5</f>
-        <v>1</v>
+        <f t="shared" ref="N5:N16" si="1" xml:space="preserve"> C5 + E5 + G5 + I5 + K5</f>
+        <v>7</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5" si="2">M5 - N5</f>
-        <v>7</v>
+        <f t="shared" ref="O5:O16" si="2">M5 - N5</f>
+        <v>-4</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" ref="P5" si="3" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
-        <v>8</v>
+        <f t="shared" ref="P5:P16" si="3" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q14" si="4">IF(P5 &lt; 1, 3, IF(P5 &gt;= P$15, 1, 2))</f>
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+        <f>IF(P5 &lt; 1, 3, IF(P5 &gt;= P$16, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="AD5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AE5" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -984,118 +1242,145 @@
         <v>0</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q16" si="4">IF(P6 &lt; 1, 3, IF(P6 &gt;= P$16, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S6">
         <v>2</v>
       </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M13" si="5" xml:space="preserve"> B6 + D6 + F6 + H6 + J6</f>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N13" si="6" xml:space="preserve"> C6 + E6 + G6 + I6 + K6</f>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
         <v>2</v>
       </c>
-      <c r="O6" s="1">
-        <f t="shared" ref="O6:O13" si="7">M6 - N6</f>
-        <v>-2</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" ref="P6:P13" si="8" xml:space="preserve"> IF(M6+N6=0, 0, IF(N6=0, "MAX", M6/N6))</f>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
       <c r="X6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
       </c>
       <c r="AC6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AD6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>-7</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="3"/>
+        <v>0.22222222222222221</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7">
+        <v>8</v>
+      </c>
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="U7">
+      <c r="V7">
+        <v>9</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
         <v>8</v>
       </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>4</v>
-      </c>
-      <c r="X7">
-        <v>3</v>
-      </c>
       <c r="AC7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AE7" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -1106,60 +1391,66 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-3</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>12</v>
+      </c>
+      <c r="U8">
         <v>6</v>
       </c>
-      <c r="T8">
-        <v>7</v>
-      </c>
-      <c r="U8">
-        <v>9</v>
-      </c>
       <c r="V8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X8">
-        <v>4</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>15</v>
       </c>
       <c r="AE8" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -1173,63 +1464,69 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="N9">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="8"/>
-        <v>1.625</v>
+        <f t="shared" si="3"/>
+        <v>1.2352941176470589</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T9">
+        <v>13</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9">
+        <v>13</v>
+      </c>
+      <c r="W9">
         <v>9</v>
-      </c>
-      <c r="U9">
-        <v>10</v>
-      </c>
-      <c r="V9">
-        <v>5</v>
-      </c>
-      <c r="W9">
-        <v>11</v>
       </c>
       <c r="X9">
         <v>6</v>
       </c>
-      <c r="AC9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>34</v>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>16</v>
       </c>
       <c r="AE9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -1246,47 +1543,57 @@
         <v>0</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-1</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T10">
+        <v>18</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>14</v>
+      </c>
+      <c r="W10">
         <v>13</v>
-      </c>
-      <c r="U10">
-        <v>11</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>12</v>
       </c>
       <c r="X10">
         <v>7</v>
       </c>
-      <c r="AC10" t="s">
-        <v>31</v>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -1294,7 +1601,7 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1303,88 +1610,112 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11" si="9" xml:space="preserve"> B11 + D11 + F11 + H11 + J11</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11" si="10" xml:space="preserve"> C11 + E11 + G11 + I11 + K11</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11" si="11">M11 - N11</f>
-        <v>-1</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" ref="P11" si="12" xml:space="preserve"> IF(M11+N11=0, 0, IF(N11=0, "MAX", M11/N11))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>MAX</v>
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U11">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X11">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>8</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
       <c r="M12">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>-6</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>22</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
         <v>17</v>
       </c>
-      <c r="T12">
-        <v>15</v>
-      </c>
       <c r="W12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="X12">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="Y12">
+        <v>9</v>
+      </c>
+      <c r="Z12">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -1392,44 +1723,71 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
       <c r="F13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
       <c r="M13">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>-11</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="T13">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="U13">
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <v>19</v>
       </c>
       <c r="W13">
+        <v>23</v>
+      </c>
+      <c r="X13">
+        <v>14</v>
+      </c>
+      <c r="Y13">
+        <v>11</v>
+      </c>
+      <c r="Z13">
         <v>25</v>
       </c>
     </row>
@@ -1438,191 +1796,1137 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
       <c r="M14">
-        <f t="shared" ref="M14" si="13" xml:space="preserve"> B14 + D14 + F14 + H14 + J14</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14" si="14" xml:space="preserve"> C14 + E14 + G14 + I14 + K14</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" ref="O14" si="15">M14 - N14</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" ref="P14" si="16" xml:space="preserve"> IF(M14+N14=0, 0, IF(N14=0, "MAX", M14/N14))</f>
-        <v>3.6</v>
+        <f t="shared" si="3"/>
+        <v>1.6</v>
       </c>
       <c r="Q14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14">
+        <v>24</v>
+      </c>
+      <c r="U14">
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <v>20</v>
+      </c>
+      <c r="W14">
+        <v>25</v>
+      </c>
+      <c r="X14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15" si="5" xml:space="preserve"> B15 + D15 + F15 + H15 + J15</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15" si="6" xml:space="preserve"> C15 + E15 + G15 + I15 + K15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" ref="O15" si="7">M15 - N15</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" ref="P15" si="8" xml:space="preserve"> IF(M15+N15=0, 0, IF(N15=0, "MAX", M15/N15))</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>25</v>
+      </c>
+      <c r="U15">
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4">
+        <v>25</v>
+      </c>
+      <c r="G16" s="4">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4">
+        <v>11</v>
+      </c>
+      <c r="I16" s="4">
+        <v>25</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="2"/>
+        <v>-29</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="3"/>
+        <v>0.69473684210526321</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>17</v>
+      </c>
+      <c r="V16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>43538</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U25" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26" si="9" xml:space="preserve"> B26 + D26 + F26 + H26 + J26</f>
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26" si="10" xml:space="preserve"> C26 + E26 + G26 + I26 + K26</f>
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" ref="O26" si="11">M26 - N26</f>
+        <v>7</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" ref="P26" si="12" xml:space="preserve"> IF(M26+N26=0, 0, IF(N26=0, "MAX", M26/N26))</f>
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q35" si="13">IF(P26 &lt; 1, 3, IF(P26 &gt;= P$36, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T14">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M34" si="14" xml:space="preserve"> B27 + D27 + F27 + H27 + J27</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N34" si="15" xml:space="preserve"> C27 + E27 + G27 + I27 + K27</f>
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ref="O27:O34" si="16">M27 - N27</f>
+        <v>-2</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" ref="P27:P34" si="17" xml:space="preserve"> IF(M27+N27=0, 0, IF(N27=0, "MAX", M27/N27))</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="17"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>8</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>7</v>
+      </c>
+      <c r="U29">
+        <v>9</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>6</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="17"/>
+        <v>1.625</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>9</v>
+      </c>
+      <c r="U30">
+        <v>10</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>11</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>12</v>
+      </c>
+      <c r="T31">
+        <v>13</v>
+      </c>
+      <c r="U31">
+        <v>11</v>
+      </c>
+      <c r="V31">
+        <v>7</v>
+      </c>
+      <c r="W31">
+        <v>12</v>
+      </c>
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32" si="18" xml:space="preserve"> B32 + D32 + F32 + H32 + J32</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32" si="19" xml:space="preserve"> C32 + E32 + G32 + I32 + K32</f>
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" ref="O32" si="20">M32 - N32</f>
+        <v>-1</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" ref="P32" si="21" xml:space="preserve"> IF(M32+N32=0, 0, IF(N32=0, "MAX", M32/N32))</f>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>14</v>
+      </c>
+      <c r="T32">
+        <v>14</v>
+      </c>
+      <c r="U32">
+        <v>25</v>
+      </c>
+      <c r="V32">
+        <v>9</v>
+      </c>
+      <c r="W32">
+        <v>14</v>
+      </c>
+      <c r="X32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>17</v>
+      </c>
+      <c r="T33">
+        <v>15</v>
+      </c>
+      <c r="W33">
+        <v>15</v>
+      </c>
+      <c r="X33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="17"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="S34">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4">
+      <c r="T34">
+        <v>16</v>
+      </c>
+      <c r="W34">
         <v>25</v>
       </c>
-      <c r="C15" s="4">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35" si="22" xml:space="preserve"> B35 + D35 + F35 + H35 + J35</f>
+        <v>18</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35" si="23" xml:space="preserve"> C35 + E35 + G35 + I35 + K35</f>
+        <v>5</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" ref="O35" si="24">M35 - N35</f>
+        <v>13</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" ref="P35" si="25" xml:space="preserve"> IF(M35+N35=0, 0, IF(N35=0, "MAX", M35/N35))</f>
+        <v>3.6</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S35">
         <v>19</v>
       </c>
-      <c r="D15" s="4">
+      <c r="T35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4">
         <v>25</v>
       </c>
-      <c r="E15" s="4">
+      <c r="C36" s="4">
+        <v>19</v>
+      </c>
+      <c r="D36" s="4">
+        <v>25</v>
+      </c>
+      <c r="E36" s="4">
         <v>9</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F36" s="4">
         <v>25</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G36" s="4">
         <v>10</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
-        <f t="shared" ref="M15" si="17" xml:space="preserve"> B15 + D15 + F15 + H15 + J15</f>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
+        <f t="shared" ref="M36" si="26" xml:space="preserve"> B36 + D36 + F36 + H36 + J36</f>
         <v>75</v>
       </c>
-      <c r="N15" s="4">
-        <f t="shared" ref="N15" si="18" xml:space="preserve"> C15 + E15 + G15 + I15 + K15</f>
+      <c r="N36" s="4">
+        <f t="shared" ref="N36" si="27" xml:space="preserve"> C36 + E36 + G36 + I36 + K36</f>
         <v>38</v>
       </c>
-      <c r="O15" s="4">
-        <f t="shared" ref="O15" si="19">M15 - N15</f>
+      <c r="O36" s="4">
+        <f t="shared" ref="O36" si="28">M36 - N36</f>
         <v>37</v>
       </c>
-      <c r="P15" s="5">
-        <f t="shared" ref="P15" si="20" xml:space="preserve"> IF(M15+N15=0, 0, IF(N15=0, "MAX", M15/N15))</f>
+      <c r="P36" s="5">
+        <f t="shared" ref="P36" si="29" xml:space="preserve"> IF(M36+N36=0, 0, IF(N36=0, "MAX", M36/N36))</f>
         <v>1.9736842105263157</v>
       </c>
-      <c r="S15">
+      <c r="S36">
         <v>24</v>
       </c>
-      <c r="T15">
+      <c r="T36">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="P16"/>
-      <c r="S16">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P37"/>
+      <c r="S37">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A26:P26 A27:L31">
+    <cfRule type="expression" dxfId="53" priority="190">
+      <formula>$Q26 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="191">
+      <formula>$Q26 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="192">
+      <formula>$Q26 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:L34">
+    <cfRule type="expression" dxfId="50" priority="67">
+      <formula>$Q34 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="68">
+      <formula>$Q34 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="69">
+      <formula>$Q34 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:L33">
+    <cfRule type="expression" dxfId="47" priority="64">
+      <formula>$Q33 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="65">
+      <formula>$Q33 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="66">
+      <formula>$Q33 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:P31 M33:P34">
+    <cfRule type="expression" dxfId="44" priority="58">
+      <formula>$Q27 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="59">
+      <formula>$Q27 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="60">
+      <formula>$Q27 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:L32">
+    <cfRule type="expression" dxfId="41" priority="40">
+      <formula>$Q32 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$Q32 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="42">
+      <formula>$Q32 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:P32">
+    <cfRule type="expression" dxfId="38" priority="37">
+      <formula>$Q32 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$Q32 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="39">
+      <formula>$Q32 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:L35">
+    <cfRule type="expression" dxfId="35" priority="34">
+      <formula>$Q35 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>$Q35 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="36">
+      <formula>$Q35 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:P35">
+    <cfRule type="expression" dxfId="32" priority="31">
+      <formula>$Q35 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$Q35 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>$Q35 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A6:L10">
-    <cfRule type="expression" dxfId="23" priority="160">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="161">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="162">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="20" priority="37">
+    <cfRule type="expression" dxfId="26" priority="25">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="38">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="39">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="17" priority="34">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="35">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="36">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P10 M12:P13">
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="30">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:P11">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L14">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P14">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$Q14 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$Q14 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$Q14 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:L15">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$Q15 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$Q15 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$Q15 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:P15">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$Q14 = 3</formula>
+      <formula>$Q15 = 3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q14 = 2</formula>
+      <formula>$Q15 = 2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$Q14 = 1</formula>
+      <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9AEF9CD3-72AF-4F70-BA4C-6834E2001456}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B3922C47-A5E4-4357-92EC-3DF1C1119F30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,9 +279,6 @@
     <t>14:13:t</t>
   </si>
   <si>
-    <t>7:9:W:Lilli/Franzi</t>
-  </si>
-  <si>
     <t>12:13:W:Franzi/Lilli</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Brückl hotvolleys - WSL 4</t>
+  </si>
+  <si>
+    <t>8:9:W:Lilli/Franzi</t>
   </si>
 </sst>
 </file>
@@ -3216,7 +3216,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AE27" sqref="AE27"/>
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,7 +3242,7 @@
         <v>43551</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3729,19 +3729,19 @@
         <v>7</v>
       </c>
       <c r="AC8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s">
         <v>77</v>
       </c>
       <c r="AG8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -3829,7 +3829,7 @@
         <v>8</v>
       </c>
       <c r="AC9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD9" t="s">
         <v>66</v>
@@ -3838,7 +3838,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG9" t="s">
         <v>83</v>
@@ -3929,7 +3929,7 @@
         <v>9</v>
       </c>
       <c r="AC10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD10" t="s">
         <v>65</v>
@@ -3938,7 +3938,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" t="s">
         <v>84</v>
@@ -4029,7 +4029,7 @@
         <v>10</v>
       </c>
       <c r="AC11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s">
         <v>67</v>
@@ -4041,7 +4041,7 @@
         <v>78</v>
       </c>
       <c r="AG11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>81</v>
       </c>
       <c r="AG16" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="16:16" x14ac:dyDescent="0.25">

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{894479E9-11BE-479B-83AD-53D96E9032BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B235A137-A4A8-4891-91B6-7F541F7F1206}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpieleUL" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="137">
   <si>
     <t>Lea</t>
   </si>
@@ -404,6 +404,33 @@
   </si>
   <si>
     <t>21:12:W:Lea/Steffi</t>
+  </si>
+  <si>
+    <t>Bojana</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>L:Bojana:Sabsi:Alex:Dragi:Vali:Leonie</t>
+  </si>
+  <si>
+    <t>l:7:10:3:12:5:8</t>
+  </si>
+  <si>
+    <t>11:5:t</t>
+  </si>
+  <si>
+    <t>7:11:T</t>
+  </si>
+  <si>
+    <t>13:15:t</t>
+  </si>
+  <si>
+    <t>24:21:t</t>
+  </si>
+  <si>
+    <t>12:3:t</t>
   </si>
 </sst>
 </file>
@@ -568,7 +595,154 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="129">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2712,46 +2886,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M11:P12 A5:P9">
-    <cfRule type="expression" dxfId="107" priority="28">
+    <cfRule type="expression" dxfId="128" priority="28">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="29">
+    <cfRule type="expression" dxfId="127" priority="29">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="30">
+    <cfRule type="expression" dxfId="126" priority="30">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L12">
-    <cfRule type="expression" dxfId="104" priority="22">
+    <cfRule type="expression" dxfId="125" priority="22">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="23">
+    <cfRule type="expression" dxfId="124" priority="23">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="24">
+    <cfRule type="expression" dxfId="123" priority="24">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="101" priority="16">
+    <cfRule type="expression" dxfId="122" priority="16">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="17">
+    <cfRule type="expression" dxfId="121" priority="17">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="18">
+    <cfRule type="expression" dxfId="120" priority="18">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="98" priority="13">
+    <cfRule type="expression" dxfId="119" priority="13">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="14">
+    <cfRule type="expression" dxfId="118" priority="14">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="15">
+    <cfRule type="expression" dxfId="117" priority="15">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2763,7 +2937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
@@ -5298,288 +5472,288 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A46:P46 A47:L51">
-    <cfRule type="expression" dxfId="95" priority="250">
+    <cfRule type="expression" dxfId="116" priority="250">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="251">
+    <cfRule type="expression" dxfId="115" priority="251">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="252">
+    <cfRule type="expression" dxfId="114" priority="252">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:L54">
-    <cfRule type="expression" dxfId="92" priority="127">
+    <cfRule type="expression" dxfId="113" priority="127">
       <formula>$Q54 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="128">
+    <cfRule type="expression" dxfId="112" priority="128">
       <formula>$Q54 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="129">
+    <cfRule type="expression" dxfId="111" priority="129">
       <formula>$Q54 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:L53">
-    <cfRule type="expression" dxfId="89" priority="124">
+    <cfRule type="expression" dxfId="110" priority="124">
       <formula>$Q53 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="125">
+    <cfRule type="expression" dxfId="109" priority="125">
       <formula>$Q53 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="126">
+    <cfRule type="expression" dxfId="108" priority="126">
       <formula>$Q53 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M47:P51 M53:P54">
-    <cfRule type="expression" dxfId="86" priority="118">
+    <cfRule type="expression" dxfId="107" priority="118">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="119">
+    <cfRule type="expression" dxfId="106" priority="119">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="120">
+    <cfRule type="expression" dxfId="105" priority="120">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:L52">
-    <cfRule type="expression" dxfId="83" priority="100">
+    <cfRule type="expression" dxfId="104" priority="100">
       <formula>$Q52 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="101">
+    <cfRule type="expression" dxfId="103" priority="101">
       <formula>$Q52 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="102">
+    <cfRule type="expression" dxfId="102" priority="102">
       <formula>$Q52 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52:P52">
-    <cfRule type="expression" dxfId="80" priority="97">
+    <cfRule type="expression" dxfId="101" priority="97">
       <formula>$Q52 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="98">
+    <cfRule type="expression" dxfId="100" priority="98">
       <formula>$Q52 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="99">
+    <cfRule type="expression" dxfId="99" priority="99">
       <formula>$Q52 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:L55">
-    <cfRule type="expression" dxfId="77" priority="94">
+    <cfRule type="expression" dxfId="98" priority="94">
       <formula>$Q55 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="95">
+    <cfRule type="expression" dxfId="97" priority="95">
       <formula>$Q55 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="96">
+    <cfRule type="expression" dxfId="96" priority="96">
       <formula>$Q55 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M55:P55">
-    <cfRule type="expression" dxfId="74" priority="91">
+    <cfRule type="expression" dxfId="95" priority="91">
       <formula>$Q55 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="92">
+    <cfRule type="expression" dxfId="94" priority="92">
       <formula>$Q55 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="93">
+    <cfRule type="expression" dxfId="93" priority="93">
       <formula>$Q55 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:P25 A26:L30">
-    <cfRule type="expression" dxfId="71" priority="88">
+    <cfRule type="expression" dxfId="92" priority="88">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="89">
+    <cfRule type="expression" dxfId="91" priority="89">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="90">
+    <cfRule type="expression" dxfId="90" priority="90">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:L33">
-    <cfRule type="expression" dxfId="68" priority="85">
+    <cfRule type="expression" dxfId="89" priority="85">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="86">
+    <cfRule type="expression" dxfId="88" priority="86">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="87">
+    <cfRule type="expression" dxfId="87" priority="87">
       <formula>$Q33 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L32">
-    <cfRule type="expression" dxfId="65" priority="82">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="83">
+    <cfRule type="expression" dxfId="85" priority="83">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="84">
+    <cfRule type="expression" dxfId="84" priority="84">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:P30 M32:P33">
-    <cfRule type="expression" dxfId="62" priority="79">
+    <cfRule type="expression" dxfId="83" priority="79">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="80">
+    <cfRule type="expression" dxfId="82" priority="80">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="81">
+    <cfRule type="expression" dxfId="81" priority="81">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="59" priority="76">
+    <cfRule type="expression" dxfId="80" priority="76">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="77">
+    <cfRule type="expression" dxfId="79" priority="77">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="78">
+    <cfRule type="expression" dxfId="78" priority="78">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="56" priority="73">
+    <cfRule type="expression" dxfId="77" priority="73">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="74">
+    <cfRule type="expression" dxfId="76" priority="74">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="75">
+    <cfRule type="expression" dxfId="75" priority="75">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:L34">
-    <cfRule type="expression" dxfId="53" priority="70">
+    <cfRule type="expression" dxfId="74" priority="70">
       <formula>$Q34 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="71">
+    <cfRule type="expression" dxfId="73" priority="71">
       <formula>$Q34 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="72">
+    <cfRule type="expression" dxfId="72" priority="72">
       <formula>$Q34 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:P34">
-    <cfRule type="expression" dxfId="50" priority="67">
+    <cfRule type="expression" dxfId="71" priority="67">
       <formula>$Q34 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="68">
+    <cfRule type="expression" dxfId="70" priority="68">
       <formula>$Q34 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="69">
+    <cfRule type="expression" dxfId="69" priority="69">
       <formula>$Q34 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:L35">
-    <cfRule type="expression" dxfId="47" priority="64">
+    <cfRule type="expression" dxfId="68" priority="64">
       <formula>$Q35 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="65">
+    <cfRule type="expression" dxfId="67" priority="65">
       <formula>$Q35 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="66">
+    <cfRule type="expression" dxfId="66" priority="66">
       <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:P35">
-    <cfRule type="expression" dxfId="44" priority="61">
+    <cfRule type="expression" dxfId="65" priority="61">
       <formula>$Q35 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="62">
+    <cfRule type="expression" dxfId="64" priority="62">
       <formula>$Q35 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="63">
+    <cfRule type="expression" dxfId="63" priority="63">
       <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A6:L10">
-    <cfRule type="expression" dxfId="41" priority="28">
+    <cfRule type="expression" dxfId="62" priority="28">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="29">
+    <cfRule type="expression" dxfId="61" priority="29">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="30">
+    <cfRule type="expression" dxfId="60" priority="30">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="38" priority="25">
+    <cfRule type="expression" dxfId="59" priority="25">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="26">
+    <cfRule type="expression" dxfId="58" priority="26">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="27">
+    <cfRule type="expression" dxfId="57" priority="27">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="35" priority="22">
+    <cfRule type="expression" dxfId="56" priority="22">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="23">
+    <cfRule type="expression" dxfId="55" priority="23">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="24">
+    <cfRule type="expression" dxfId="54" priority="24">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P10 M12:P13">
-    <cfRule type="expression" dxfId="32" priority="19">
+    <cfRule type="expression" dxfId="53" priority="19">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="20">
+    <cfRule type="expression" dxfId="52" priority="20">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="51" priority="21">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="29" priority="16">
+    <cfRule type="expression" dxfId="50" priority="16">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" dxfId="49" priority="17">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="48" priority="18">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:P11">
-    <cfRule type="expression" dxfId="26" priority="13">
+    <cfRule type="expression" dxfId="47" priority="13">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="46" priority="14">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="45" priority="15">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L14">
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="44" priority="10">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="43" priority="11">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="42" priority="12">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P14">
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="40" priority="8">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="39" priority="9">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5590,10 +5764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BDAFE5-3AEF-49E8-9ED9-A9BAA79160EC}">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5615,817 +5789,1605 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>43554</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>43556</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S8" t="s">
         <v>5</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U8" t="s">
         <v>6</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W8" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y8" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA8" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC8" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD8" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE8" t="s">
         <v>16</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF8" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ref="M5:N13" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
-        <v>3</v>
-      </c>
-      <c r="N5">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M16" si="0" xml:space="preserve"> B9 + D9 + F9 + H9 + J9</f>
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N16" si="1" xml:space="preserve"> C9 + E9 + G9 + I9 + K9</f>
+        <v>6</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O16" si="2">M9 - N9</f>
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" ref="P9:P16" si="3" xml:space="preserve"> IF(M9+N9=0, 0, IF(N9=0, "MAX", M9/N9))</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q9">
+        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= P$16, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" ref="O5:O13" si="1">M5 - N5</f>
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="P5" s="3">
-        <f t="shared" ref="P5:P13" si="2" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5:Q11" si="3">IF(P5 &lt; 1, 3, IF(P5 &gt;= P$13, 1, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>4</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="P10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Q10">
+        <f>IF(P10 &lt; 1, 3, IF(P10 &gt;= P$16, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q11">
+        <f>IF(P11 &lt; 1, 3, IF(P11 &gt;= P$16, 1, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>7</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>6</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>8</v>
-      </c>
-      <c r="X7">
-        <v>9</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P8" s="3">
+      <c r="O12" s="1">
         <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="Q8">
+        <v>-5</v>
+      </c>
+      <c r="P12" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q12">
+        <f>IF(P12 &lt; 1, 3, IF(P12 &gt;= P$16, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="V8">
-        <v>4</v>
-      </c>
-      <c r="W8">
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="Q13">
+        <f>IF(P13 &lt; 1, 3, IF(P13 &gt;= P$16, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>17</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>IF(P14 &lt; 1, 3, IF(P14 &gt;= P$16, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
         <v>10</v>
       </c>
-      <c r="X8">
-        <v>10</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="V14">
+        <v>15</v>
+      </c>
+      <c r="W14">
+        <v>19</v>
+      </c>
+      <c r="X14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="str">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="2"/>
-        <v>MAX</v>
-      </c>
-      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>5</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
+        <v>1.25</v>
+      </c>
+      <c r="Q15">
+        <f>IF(P15 &lt; 1, 3, IF(P15 &gt;= P$16, 1, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>17</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>16</v>
+      </c>
+      <c r="V15">
+        <v>16</v>
+      </c>
+      <c r="W15">
+        <v>23</v>
+      </c>
+      <c r="X15">
         <v>11</v>
       </c>
-      <c r="V9">
-        <v>6</v>
-      </c>
-      <c r="W9">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4">
+        <v>25</v>
+      </c>
+      <c r="G16" s="4">
         <v>11</v>
       </c>
-      <c r="X9">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>6</v>
-      </c>
-      <c r="T10">
-        <v>5</v>
-      </c>
-      <c r="U10">
-        <v>12</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>12</v>
-      </c>
-      <c r="X10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="S11">
-        <v>8</v>
-      </c>
-      <c r="T11">
-        <v>6</v>
-      </c>
-      <c r="U11">
-        <v>15</v>
-      </c>
-      <c r="V11">
-        <v>9</v>
-      </c>
-      <c r="W11">
-        <v>13</v>
-      </c>
-      <c r="X11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="P12" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>MAX</v>
-      </c>
-      <c r="Q12">
-        <f>IF(P12 &lt; 1, 3, IF(P12 &gt;= P$13, 1, 2))</f>
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>9</v>
-      </c>
-      <c r="T12">
-        <v>7</v>
-      </c>
-      <c r="U12">
-        <v>17</v>
-      </c>
-      <c r="V12">
-        <v>11</v>
-      </c>
-      <c r="W12">
-        <v>25</v>
-      </c>
-      <c r="X12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4">
-        <v>25</v>
-      </c>
-      <c r="G13" s="4">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="O13" s="4">
+      <c r="N16" s="4">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="P13" s="5">
+        <v>50</v>
+      </c>
+      <c r="O16" s="4">
         <f t="shared" si="2"/>
-        <v>1.7441860465116279</v>
-      </c>
-      <c r="S13">
-        <v>10</v>
-      </c>
-      <c r="T13">
-        <v>8</v>
-      </c>
-      <c r="U13">
+        <v>25</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="S16">
         <v>18</v>
       </c>
-      <c r="V13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="P14"/>
-      <c r="S14">
+      <c r="T16">
+        <v>9</v>
+      </c>
+      <c r="U16">
+        <v>18</v>
+      </c>
+      <c r="V16">
+        <v>18</v>
+      </c>
+      <c r="W16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17">
         <v>11</v>
       </c>
-      <c r="T14">
-        <v>9</v>
-      </c>
-      <c r="U14">
-        <v>22</v>
-      </c>
-      <c r="V14">
+      <c r="U17">
+        <v>19</v>
+      </c>
+      <c r="V17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="S15">
-        <v>12</v>
-      </c>
-      <c r="T15">
-        <v>11</v>
-      </c>
-      <c r="U15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="S16">
-        <v>15</v>
-      </c>
-      <c r="T16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.25">
-      <c r="S17">
-        <v>16</v>
-      </c>
-      <c r="T17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S18">
         <v>22</v>
       </c>
       <c r="T18">
+        <v>12</v>
+      </c>
+      <c r="U18">
+        <v>20</v>
+      </c>
+      <c r="V18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19">
+        <v>23</v>
+      </c>
+      <c r="T19">
+        <v>13</v>
+      </c>
+      <c r="U19">
+        <v>22</v>
+      </c>
+      <c r="V19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20">
+        <v>24</v>
+      </c>
+      <c r="T20">
+        <v>15</v>
+      </c>
+      <c r="U20">
+        <v>24</v>
+      </c>
+      <c r="V20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>43554</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
+      <c r="S21">
+        <v>25</v>
+      </c>
+      <c r="T21">
+        <v>17</v>
+      </c>
+      <c r="U21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="19:20" x14ac:dyDescent="0.25">
-      <c r="S19">
+      <c r="AD23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:N32" si="4" xml:space="preserve"> B24 + D24 + F24 + H24 + J24</f>
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ref="O24:O32" si="5">M24 - N24</f>
+        <v>-4</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" ref="P24:P32" si="6" xml:space="preserve"> IF(M24+N24=0, 0, IF(N24=0, "MAX", M24/N24))</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:Q30" si="7">IF(P24 &lt; 1, 3, IF(P24 &gt;= P$32, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>7</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>6</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>8</v>
+      </c>
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>7</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="P28" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>MAX</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>11</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>11</v>
+      </c>
+      <c r="X28">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>12</v>
+      </c>
+      <c r="V29">
+        <v>7</v>
+      </c>
+      <c r="W29">
+        <v>12</v>
+      </c>
+      <c r="X29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>15</v>
+      </c>
+      <c r="V30">
+        <v>9</v>
+      </c>
+      <c r="W30">
+        <v>13</v>
+      </c>
+      <c r="X30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>MAX</v>
+      </c>
+      <c r="Q31">
+        <f>IF(P31 &lt; 1, 3, IF(P31 &gt;= P$32, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>9</v>
+      </c>
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>17</v>
+      </c>
+      <c r="V31">
+        <v>11</v>
+      </c>
+      <c r="W31">
         <v>25</v>
       </c>
-      <c r="T19">
+      <c r="X31">
         <v>15</v>
       </c>
     </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4">
+        <v>25</v>
+      </c>
+      <c r="C32" s="4">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4">
+        <v>25</v>
+      </c>
+      <c r="E32" s="4">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4">
+        <v>25</v>
+      </c>
+      <c r="G32" s="4">
+        <v>15</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="6"/>
+        <v>1.7441860465116279</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
+        <v>18</v>
+      </c>
+      <c r="V32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P33"/>
+      <c r="S33">
+        <v>11</v>
+      </c>
+      <c r="T33">
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <v>22</v>
+      </c>
+      <c r="V33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>12</v>
+      </c>
+      <c r="T34">
+        <v>11</v>
+      </c>
+      <c r="U34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>15</v>
+      </c>
+      <c r="T35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>16</v>
+      </c>
+      <c r="T36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>22</v>
+      </c>
+      <c r="T37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>25</v>
+      </c>
+      <c r="T38">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>$Q12 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
-      <formula>$Q12 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>$Q12 = 1</formula>
+  <conditionalFormatting sqref="M31:P31">
+    <cfRule type="expression" dxfId="38" priority="22">
+      <formula>$Q31 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="23">
+      <formula>$Q31 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="24">
+      <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:P5 A6:L10">
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>$Q5 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="23">
-      <formula>$Q5 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24">
-      <formula>$Q5 = 1</formula>
+  <conditionalFormatting sqref="A24:P24 A25:L29">
+    <cfRule type="expression" dxfId="35" priority="43">
+      <formula>$Q24 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="44">
+      <formula>$Q24 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="45">
+      <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>$Q12 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17">
-      <formula>$Q12 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="18">
-      <formula>$Q12 = 1</formula>
+  <conditionalFormatting sqref="A31:L31">
+    <cfRule type="expression" dxfId="32" priority="37">
+      <formula>$Q31 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="38">
+      <formula>$Q31 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="39">
+      <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:P10">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>$Q6 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14">
-      <formula>$Q6 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15">
-      <formula>$Q6 = 1</formula>
+  <conditionalFormatting sqref="M25:P29">
+    <cfRule type="expression" dxfId="29" priority="34">
+      <formula>$Q25 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="35">
+      <formula>$Q25 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="36">
+      <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="5" priority="10">
-      <formula>$Q11 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11">
-      <formula>$Q11 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>$Q11 = 1</formula>
+  <conditionalFormatting sqref="A30:L30">
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>$Q30 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="32">
+      <formula>$Q30 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="33">
+      <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:P11">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$Q11 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>$Q11 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$Q11 = 1</formula>
+  <conditionalFormatting sqref="M30:P30">
+    <cfRule type="expression" dxfId="23" priority="28">
+      <formula>$Q30 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="29">
+      <formula>$Q30 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="30">
+      <formula>$Q30 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:P15">
+    <cfRule type="expression" dxfId="20" priority="4">
+      <formula>$Q15 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="5">
+      <formula>$Q15 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="6">
+      <formula>$Q15 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:P9 A10:L13 B14:L14">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$Q9 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>$Q9 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="21">
+      <formula>$Q9 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:L15">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$Q15 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>$Q15 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>$Q15 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:P14">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$Q10 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$Q10 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>$Q10 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$Q14 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q14 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B235A137-A4A8-4891-91B6-7F541F7F1206}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F347146-1A32-4BBF-B263-A9A5303ED09F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpieleUL" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="162">
   <si>
     <t>Lea</t>
   </si>
@@ -431,6 +431,81 @@
   </si>
   <si>
     <t>12:3:t</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - WSL 3</t>
+  </si>
+  <si>
+    <t>Nadine</t>
+  </si>
+  <si>
+    <t>l:16:14:25:9:4:24</t>
+  </si>
+  <si>
+    <t>L:Nadine:Celi:Thery:Kati K:Nina:Lea</t>
+  </si>
+  <si>
+    <t>1:7:T</t>
+  </si>
+  <si>
+    <t>3:12:W:Nina/Lea</t>
+  </si>
+  <si>
+    <t>6:20:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>4:19:w:2/14</t>
+  </si>
+  <si>
+    <t>12:17:T</t>
+  </si>
+  <si>
+    <t>23:22:T</t>
+  </si>
+  <si>
+    <t>13:17:W:Kati R/Kati K</t>
+  </si>
+  <si>
+    <t>16:17:t</t>
+  </si>
+  <si>
+    <t>4:12:T</t>
+  </si>
+  <si>
+    <t>7:19:T</t>
+  </si>
+  <si>
+    <t>11:22:W:Yassi/Thery</t>
+  </si>
+  <si>
+    <t>4:11:W:Kati R/Celi</t>
+  </si>
+  <si>
+    <t>15:21:T</t>
+  </si>
+  <si>
+    <t>15:18:t</t>
+  </si>
+  <si>
+    <t>16:24:w:14/2</t>
+  </si>
+  <si>
+    <t>22:19:t</t>
+  </si>
+  <si>
+    <t>L:Celi:Thery:Stefie:Nina:Lea:Nadine</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>8:19:W:Kati R/Stefie</t>
+  </si>
+  <si>
+    <t>16:23:W:Yassi/Kati K</t>
+  </si>
+  <si>
+    <t>15:23:t</t>
   </si>
 </sst>
 </file>
@@ -595,7 +670,133 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="147">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2034,7 +2235,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="Q5">
-        <f>IF(P5 &lt; 1, 3, IF(P5 &gt;= SpieleAR!P$15, 1, 2))</f>
+        <f>IF(P5 &lt; 1, 3, IF(P5 &gt;= SpieleAR!P$36, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S5">
@@ -2119,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <f>IF(P6 &lt; 1, 3, IF(P6 &gt;= SpieleAR!P$15, 1, 2))</f>
+        <f>IF(P6 &lt; 1, 3, IF(P6 &gt;= SpieleAR!P$36, 1, 2))</f>
         <v>2</v>
       </c>
       <c r="S6">
@@ -2219,7 +2420,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="Q7">
-        <f>IF(P7 &lt; 1, 3, IF(P7 &gt;= SpieleAR!P$15, 1, 2))</f>
+        <f>IF(P7 &lt; 1, 3, IF(P7 &gt;= SpieleAR!P$36, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S7">
@@ -2313,7 +2514,7 @@
         <v>0.25</v>
       </c>
       <c r="Q8">
-        <f>IF(P8 &lt; 1, 3, IF(P8 &gt;= SpieleAR!P$15, 1, 2))</f>
+        <f>IF(P8 &lt; 1, 3, IF(P8 &gt;= SpieleAR!P$36, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S8">
@@ -2413,7 +2614,7 @@
         <v>0.17647058823529413</v>
       </c>
       <c r="Q9">
-        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= SpieleAR!P$15, 1, 2))</f>
+        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= SpieleAR!P$36, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S9">
@@ -2513,7 +2714,7 @@
         <v>1.2666666666666666</v>
       </c>
       <c r="Q10">
-        <f>IF(P10 &lt; 1, 3, IF(P10 &gt;= SpieleAR!P$15, 1, 2))</f>
+        <f>IF(P10 &lt; 1, 3, IF(P10 &gt;= SpieleAR!P$36, 1, 2))</f>
         <v>2</v>
       </c>
       <c r="S10">
@@ -2613,7 +2814,7 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="Q11">
-        <f>IF(P11 &lt; 1, 3, IF(P11 &gt;= SpieleAR!P$15, 1, 2))</f>
+        <f>IF(P11 &lt; 1, 3, IF(P11 &gt;= SpieleAR!P$36, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S11">
@@ -2689,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>IF(P12 &lt; 1, 3, IF(P12 &gt;= SpieleAR!P$15, 1, 2))</f>
+        <f>IF(P12 &lt; 1, 3, IF(P12 &gt;= SpieleAR!P$36, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S12">
@@ -2886,46 +3087,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M11:P12 A5:P9">
-    <cfRule type="expression" dxfId="128" priority="28">
+    <cfRule type="expression" dxfId="146" priority="28">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="29">
+    <cfRule type="expression" dxfId="145" priority="29">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="30">
+    <cfRule type="expression" dxfId="144" priority="30">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L12">
-    <cfRule type="expression" dxfId="125" priority="22">
+    <cfRule type="expression" dxfId="143" priority="22">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="23">
+    <cfRule type="expression" dxfId="142" priority="23">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="24">
+    <cfRule type="expression" dxfId="141" priority="24">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="122" priority="16">
+    <cfRule type="expression" dxfId="140" priority="16">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="17">
+    <cfRule type="expression" dxfId="139" priority="17">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="18">
+    <cfRule type="expression" dxfId="138" priority="18">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="119" priority="13">
+    <cfRule type="expression" dxfId="137" priority="13">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="14">
+    <cfRule type="expression" dxfId="136" priority="14">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="15">
+    <cfRule type="expression" dxfId="135" priority="15">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2935,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AG78"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,10 +3163,10 @@
     </row>
     <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>43554</v>
+        <v>43559</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3096,57 +3297,69 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M15" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N15" si="1" xml:space="preserve"> C5 + E5 + G5 + I5 + K5</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ref="O5:O15" si="2">M5 - N5</f>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" ref="P5:P15" si="3" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
-        <v>1.25</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="Q5">
-        <f>IF(P5 &lt; 1, 3, IF(P5 &gt;= P$15, 1, 2))</f>
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
+        <f t="shared" ref="Q5:Q13" si="4">IF(P5 &lt; 1, 3, IF(P5 &gt;= P$15, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
       </c>
       <c r="AC5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="AE5" t="s">
-        <v>102</v>
+        <v>157</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -3157,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -3171,28 +3384,28 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q14" si="4">IF(P6 &lt; 1, 3, IF(P6 &gt;= P$15, 1, 2))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -3203,14 +3416,23 @@
       <c r="X6">
         <v>1</v>
       </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
       <c r="AC6" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AD6" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AE6" t="s">
-        <v>101</v>
+        <v>139</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -3221,43 +3443,55 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7">
+        <v>11</v>
+      </c>
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
       <c r="V7">
         <v>2</v>
       </c>
@@ -3265,16 +3499,25 @@
         <v>2</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>13</v>
       </c>
       <c r="AC7" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="AD7" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="AE7" t="s">
-        <v>109</v>
+        <v>149</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -3282,63 +3525,72 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="U8">
         <v>6</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>15</v>
       </c>
       <c r="AC8" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="AD8" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="AE8" t="s">
-        <v>110</v>
+        <v>150</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -3346,63 +3598,84 @@
         <v>0</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="3"/>
-        <v>1.5555555555555556</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
         <v>9</v>
       </c>
-      <c r="X9">
-        <v>5</v>
+      <c r="Y9">
+        <v>9</v>
+      </c>
+      <c r="Z9">
+        <v>16</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>144</v>
       </c>
       <c r="AD9" t="s">
-        <v>106</v>
+        <v>148</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -3413,13 +3686,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
@@ -3427,39 +3700,55 @@
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T10">
+        <v>20</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
         <v>12</v>
       </c>
-      <c r="U10">
-        <v>14</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>16</v>
-      </c>
-      <c r="X10">
-        <v>6</v>
+      <c r="Y10">
+        <v>11</v>
+      </c>
+      <c r="Z10">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>143</v>
       </c>
       <c r="AD10" t="s">
-        <v>105</v>
+        <v>156</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -3470,13 +3759,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
@@ -3484,11 +3767,11 @@
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="3"/>
@@ -3499,58 +3782,79 @@
         <v>3</v>
       </c>
       <c r="S11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T11">
+        <v>23</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
         <v>13</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
+        <v>12</v>
+      </c>
+      <c r="Z11">
         <v>18</v>
       </c>
-      <c r="V11">
-        <v>9</v>
-      </c>
-      <c r="W11">
-        <v>21</v>
-      </c>
-      <c r="X11">
-        <v>9</v>
+      <c r="AC11" t="s">
+        <v>155</v>
       </c>
       <c r="AD11" t="s">
-        <v>104</v>
+        <v>146</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
@@ -3560,16 +3864,25 @@
         <v>16</v>
       </c>
       <c r="T12">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="U12">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="V12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W12">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="X12">
+        <v>17</v>
+      </c>
+      <c r="Y12">
+        <v>15</v>
+      </c>
+      <c r="Z12">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -3577,7 +3890,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -3586,45 +3899,60 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="3"/>
-        <v>0.42857142857142855</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q13">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="S13">
+      <c r="T13">
+        <v>25</v>
+      </c>
+      <c r="U13">
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <v>17</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
         <v>19</v>
       </c>
-      <c r="T13">
-        <v>17</v>
-      </c>
-      <c r="U13">
-        <v>24</v>
-      </c>
-      <c r="V13">
-        <v>13</v>
+      <c r="Y13">
+        <v>16</v>
+      </c>
+      <c r="Z13">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -3632,22 +3960,28 @@
         <v>25</v>
       </c>
       <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
         <v>5</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
@@ -3655,55 +3989,65 @@
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1.125</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S14">
+        <f>IF(P14 &lt; 1, 3, IF(P14 &gt;= P$15, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>16</v>
+      </c>
+      <c r="V14">
+        <v>18</v>
+      </c>
+      <c r="W14">
+        <v>11</v>
+      </c>
+      <c r="X14">
         <v>20</v>
       </c>
-      <c r="T14">
+      <c r="Y14">
         <v>18</v>
       </c>
-      <c r="U14">
-        <v>25</v>
-      </c>
-      <c r="V14">
-        <v>15</v>
+      <c r="Z14">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
         <v>25</v>
-      </c>
-      <c r="C15" s="4">
-        <v>21</v>
       </c>
       <c r="D15" s="4">
         <v>25</v>
       </c>
       <c r="E15" s="4">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4">
         <v>15</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>25</v>
       </c>
-      <c r="G15" s="4">
-        <v>9</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="4">
+        <v>19</v>
+      </c>
+      <c r="I15" s="4">
+        <v>25</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -3713,44 +4057,68 @@
       </c>
       <c r="N15" s="4">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>-23</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="S15">
-        <v>22</v>
-      </c>
-      <c r="T15">
+        <v>0.76530612244897955</v>
+      </c>
+      <c r="U15">
+        <v>17</v>
+      </c>
+      <c r="V15">
         <v>19</v>
+      </c>
+      <c r="W15">
+        <v>15</v>
+      </c>
+      <c r="X15">
+        <v>23</v>
+      </c>
+      <c r="Y15">
+        <v>19</v>
+      </c>
+      <c r="Z15">
+        <v>25</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="P16"/>
-      <c r="S16">
-        <v>24</v>
-      </c>
-      <c r="T16">
-        <v>21</v>
+      <c r="U16">
+        <v>23</v>
+      </c>
+      <c r="V16">
+        <v>22</v>
+      </c>
+      <c r="X16">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="S17">
-        <v>25</v>
+      <c r="U17">
+        <v>24</v>
+      </c>
+      <c r="V17">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
+      <c r="U18">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -3767,594 +4135,475 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>43545</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="6"/>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>43554</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S25" t="s">
         <v>5</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U25" t="s">
         <v>6</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W25" t="s">
         <v>7</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y25" t="s">
         <v>8</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AA25" t="s">
         <v>9</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC25" t="s">
         <v>14</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AD25" t="s">
         <v>15</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AE25" t="s">
         <v>16</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AF25" t="s">
         <v>17</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG25" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <f t="shared" ref="M25:M36" si="5" xml:space="preserve"> B25 + D25 + F25 + H25 + J25</f>
-        <v>3</v>
-      </c>
-      <c r="N25">
-        <f t="shared" ref="N25:N36" si="6" xml:space="preserve"> C25 + E25 + G25 + I25 + K25</f>
-        <v>7</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" ref="O25:O36" si="7">M25 - N25</f>
-        <v>-4</v>
-      </c>
-      <c r="P25" s="3">
-        <f t="shared" ref="P25:P36" si="8" xml:space="preserve"> IF(M25+N25=0, 0, IF(N25=0, "MAX", M25/N25))</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Q25">
-        <f>IF(P25 &lt; 1, 3, IF(P25 &gt;= P$36, 1, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="M26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="M26:M36" si="5" xml:space="preserve"> B26 + D26 + F26 + H26 + J26</f>
+        <v>5</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="N26:N36" si="6" xml:space="preserve"> C26 + E26 + G26 + I26 + K26</f>
+        <v>4</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="O26:O36" si="7">M26 - N26</f>
+        <v>1</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="P26:P36" si="8" xml:space="preserve"> IF(M26+N26=0, 0, IF(N26=0, "MAX", M26/N26))</f>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q36" si="9">IF(P26 &lt; 1, 3, IF(P26 &gt;= P$36, 1, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="S26">
+        <f>IF(P26 &lt; 1, 3, IF(P26 &gt;= P$36, 1, 2))</f>
         <v>2</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>1</v>
       </c>
-      <c r="V26">
-        <v>7</v>
-      </c>
-      <c r="W26">
-        <v>2</v>
-      </c>
       <c r="X26">
-        <v>3</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="AD26" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="7"/>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" si="8"/>
-        <v>0.22222222222222221</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="Q27:Q35" si="9">IF(P27 &lt; 1, 3, IF(P27 &gt;= P$36, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>4</v>
-      </c>
-      <c r="Y27">
-        <v>3</v>
-      </c>
-      <c r="Z27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>100</v>
       </c>
       <c r="AE27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="7"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q28">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X28">
-        <v>5</v>
-      </c>
-      <c r="Y28">
-        <v>4</v>
-      </c>
-      <c r="Z28">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>103</v>
       </c>
       <c r="AE28" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29">
-        <v>9</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="3">
         <f t="shared" si="8"/>
-        <v>1.2352941176470589</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q29">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V29">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="W29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X29">
-        <v>6</v>
-      </c>
-      <c r="Y29">
-        <v>6</v>
-      </c>
-      <c r="Z29">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>39</v>
       </c>
       <c r="AE29" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P30" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="Q30">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T30">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="U30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V30">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="W30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X30">
-        <v>7</v>
-      </c>
-      <c r="Y30">
-        <v>7</v>
-      </c>
-      <c r="Z30">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <f t="shared" si="6"/>
@@ -4362,56 +4611,52 @@
       </c>
       <c r="O31" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P31" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
         <f t="shared" si="8"/>
-        <v>MAX</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T31">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="U31">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="V31">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="W31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X31">
-        <v>10</v>
-      </c>
-      <c r="Y31">
-        <v>8</v>
-      </c>
-      <c r="Z31">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
@@ -4419,11 +4664,11 @@
       </c>
       <c r="N32">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" si="7"/>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="8"/>
@@ -4434,57 +4679,42 @@
         <v>3</v>
       </c>
       <c r="S32">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T32">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="U32">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="V32">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="W32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X32">
-        <v>11</v>
-      </c>
-      <c r="Y32">
         <v>9</v>
       </c>
-      <c r="Z32">
-        <v>21</v>
+      <c r="AD32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
@@ -4492,11 +4722,11 @@
       </c>
       <c r="N33">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="7"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" si="8"/>
@@ -4507,193 +4737,195 @@
         <v>3</v>
       </c>
       <c r="S33">
+        <v>16</v>
+      </c>
+      <c r="T33">
+        <v>14</v>
+      </c>
+      <c r="U33">
+        <v>21</v>
+      </c>
+      <c r="V33">
         <v>11</v>
       </c>
-      <c r="T33">
-        <v>23</v>
-      </c>
-      <c r="U33">
-        <v>12</v>
-      </c>
-      <c r="V33">
-        <v>19</v>
-      </c>
       <c r="W33">
-        <v>23</v>
-      </c>
-      <c r="X33">
-        <v>14</v>
-      </c>
-      <c r="Y33">
-        <v>11</v>
-      </c>
-      <c r="Z33">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P34" s="3">
         <f t="shared" si="8"/>
-        <v>1.6</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="Q34">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34">
+        <v>19</v>
+      </c>
+      <c r="T34">
+        <v>17</v>
+      </c>
+      <c r="U34">
+        <v>24</v>
+      </c>
+      <c r="V34">
         <v>13</v>
-      </c>
-      <c r="T34">
-        <v>24</v>
-      </c>
-      <c r="U34">
-        <v>13</v>
-      </c>
-      <c r="V34">
-        <v>20</v>
-      </c>
-      <c r="W34">
-        <v>25</v>
-      </c>
-      <c r="X34">
-        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35" si="10" xml:space="preserve"> B35 + D35 + F35 + H35 + J35</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35" si="11" xml:space="preserve"> C35 + E35 + G35 + I35 + K35</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" ref="O35" si="12">M35 - N35</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" ref="P35" si="13" xml:space="preserve"> IF(M35+N35=0, 0, IF(N35=0, "MAX", M35/N35))</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>20</v>
       </c>
       <c r="T35">
+        <v>18</v>
+      </c>
+      <c r="U35">
         <v>25</v>
       </c>
-      <c r="U35">
-        <v>14</v>
-      </c>
       <c r="V35">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4">
+        <v>21</v>
+      </c>
+      <c r="D36" s="4">
         <v>25</v>
       </c>
-      <c r="D36" s="4">
-        <v>17</v>
-      </c>
       <c r="E36" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F36" s="4">
         <v>25</v>
       </c>
       <c r="G36" s="4">
-        <v>20</v>
-      </c>
-      <c r="H36" s="4">
-        <v>11</v>
-      </c>
-      <c r="I36" s="4">
-        <v>25</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N36" s="4">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="7"/>
-        <v>-29</v>
+        <v>30</v>
       </c>
       <c r="P36" s="5">
         <f t="shared" si="8"/>
-        <v>0.69473684210526321</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>17</v>
-      </c>
-      <c r="V36">
-        <v>25</v>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S36">
+        <v>22</v>
+      </c>
+      <c r="T36">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="P37"/>
+      <c r="S37">
+        <v>24</v>
+      </c>
+      <c r="T37">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
+      <c r="S38">
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -4717,10 +4949,10 @@
     </row>
     <row r="43" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
-        <v>43538</v>
+        <v>43545</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -4848,60 +5080,72 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46" si="14" xml:space="preserve"> B46 + D46 + F46 + H46 + J46</f>
-        <v>8</v>
+        <f t="shared" ref="M46:M57" si="10" xml:space="preserve"> B46 + D46 + F46 + H46 + J46</f>
+        <v>3</v>
       </c>
       <c r="N46">
-        <f t="shared" ref="N46" si="15" xml:space="preserve"> C46 + E46 + G46 + I46 + K46</f>
-        <v>1</v>
+        <f t="shared" ref="N46:N57" si="11" xml:space="preserve"> C46 + E46 + G46 + I46 + K46</f>
+        <v>7</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" ref="O46" si="16">M46 - N46</f>
-        <v>7</v>
+        <f t="shared" ref="O46:O57" si="12">M46 - N46</f>
+        <v>-4</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" ref="P46" si="17" xml:space="preserve"> IF(M46+N46=0, 0, IF(N46=0, "MAX", M46/N46))</f>
-        <v>8</v>
+        <f t="shared" ref="P46:P57" si="13" xml:space="preserve"> IF(M46+N46=0, 0, IF(N46=0, "MAX", M46/N46))</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="Q46">
-        <f t="shared" ref="Q46:Q55" si="18">IF(P46 &lt; 1, 3, IF(P46 &gt;= P$56, 1, 2))</f>
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="X46">
+        <f>IF(P46 &lt; 1, 3, IF(P46 &gt;= P$57, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
         <v>0</v>
       </c>
       <c r="AC46" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AD46" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AE46" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
@@ -4918,118 +5162,145 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" ref="M47:M54" si="19" xml:space="preserve"> B47 + D47 + F47 + H47 + J47</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" ref="N47:N54" si="20" xml:space="preserve"> C47 + E47 + G47 + I47 + K47</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" ref="O47:O54" si="21">M47 - N47</f>
-        <v>-2</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" ref="P47:P54" si="22" xml:space="preserve"> IF(M47+N47=0, 0, IF(N47=0, "MAX", M47/N47))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="Q47:Q57" si="14">IF(P47 &lt; 1, 3, IF(P47 &gt;= P$57, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>4</v>
       </c>
       <c r="U47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>6</v>
       </c>
       <c r="AC47" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AD47" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AE47" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
       <c r="M48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="N48">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="21"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-7</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" si="22"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="13"/>
+        <v>0.22222222222222221</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="S48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T48">
+        <v>8</v>
+      </c>
+      <c r="U48">
         <v>5</v>
       </c>
-      <c r="U48">
+      <c r="V48">
+        <v>9</v>
+      </c>
+      <c r="W48">
+        <v>5</v>
+      </c>
+      <c r="X48">
+        <v>4</v>
+      </c>
+      <c r="Y48">
+        <v>3</v>
+      </c>
+      <c r="Z48">
         <v>8</v>
       </c>
-      <c r="V48">
-        <v>2</v>
-      </c>
-      <c r="W48">
-        <v>4</v>
-      </c>
-      <c r="X48">
-        <v>3</v>
-      </c>
       <c r="AC48" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AE48" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
@@ -5040,60 +5311,66 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
       </c>
       <c r="M49">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="N49">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>-3</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0.5</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <v>12</v>
+      </c>
+      <c r="U49">
         <v>6</v>
       </c>
-      <c r="T49">
-        <v>7</v>
-      </c>
-      <c r="U49">
-        <v>9</v>
-      </c>
       <c r="V49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X49">
-        <v>4</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="Y49">
+        <v>4</v>
+      </c>
+      <c r="Z49">
+        <v>15</v>
       </c>
       <c r="AE49" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
@@ -5107,63 +5384,69 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
         <v>5</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>2</v>
       </c>
       <c r="M50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="13"/>
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>7</v>
+      </c>
+      <c r="T50">
         <v>13</v>
       </c>
-      <c r="N50">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="O50" s="1">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="P50" s="3">
-        <f t="shared" si="22"/>
-        <v>1.625</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="S50">
-        <v>10</v>
-      </c>
-      <c r="T50">
+      <c r="U50">
+        <v>7</v>
+      </c>
+      <c r="V50">
+        <v>13</v>
+      </c>
+      <c r="W50">
         <v>9</v>
-      </c>
-      <c r="U50">
-        <v>10</v>
-      </c>
-      <c r="V50">
-        <v>5</v>
-      </c>
-      <c r="W50">
-        <v>11</v>
       </c>
       <c r="X50">
         <v>6</v>
       </c>
-      <c r="AC50" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>34</v>
+      <c r="Y50">
+        <v>6</v>
+      </c>
+      <c r="Z50">
+        <v>16</v>
       </c>
       <c r="AE50" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
@@ -5180,47 +5463,57 @@
         <v>0</v>
       </c>
       <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>-1</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="S51">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T51">
+        <v>18</v>
+      </c>
+      <c r="U51">
+        <v>8</v>
+      </c>
+      <c r="V51">
+        <v>14</v>
+      </c>
+      <c r="W51">
         <v>13</v>
-      </c>
-      <c r="U51">
-        <v>11</v>
-      </c>
-      <c r="V51">
-        <v>7</v>
-      </c>
-      <c r="W51">
-        <v>12</v>
       </c>
       <c r="X51">
         <v>7</v>
       </c>
-      <c r="AC51" t="s">
-        <v>31</v>
+      <c r="Y51">
+        <v>7</v>
+      </c>
+      <c r="Z51">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
@@ -5228,7 +5521,7 @@
         <v>23</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -5237,88 +5530,112 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" ref="M52" si="23" xml:space="preserve"> B52 + D52 + F52 + H52 + J52</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" ref="N52" si="24" xml:space="preserve"> C52 + E52 + G52 + I52 + K52</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" ref="O52" si="25">M52 - N52</f>
-        <v>-1</v>
-      </c>
-      <c r="P52" s="3">
-        <f t="shared" ref="P52" si="26" xml:space="preserve"> IF(M52+N52=0, 0, IF(N52=0, "MAX", M52/N52))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P52" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>MAX</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="S52">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T52">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U52">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="V52">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X52">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="Y52">
+        <v>8</v>
+      </c>
+      <c r="Z52">
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
       </c>
       <c r="M53">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="20"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="21"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-6</v>
       </c>
       <c r="P53" s="3">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="S53">
+        <v>10</v>
+      </c>
+      <c r="T53">
+        <v>22</v>
+      </c>
+      <c r="U53">
+        <v>10</v>
+      </c>
+      <c r="V53">
         <v>17</v>
       </c>
-      <c r="T53">
-        <v>15</v>
-      </c>
       <c r="W53">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="X53">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="Y53">
+        <v>9</v>
+      </c>
+      <c r="Z53">
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
@@ -5326,44 +5643,71 @@
         <v>24</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
       <c r="F54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
       <c r="M54">
-        <f t="shared" si="19"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>-11</v>
       </c>
       <c r="P54" s="3">
-        <f t="shared" si="22"/>
-        <v>1.2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="S54">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="T54">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="U54">
+        <v>12</v>
+      </c>
+      <c r="V54">
+        <v>19</v>
       </c>
       <c r="W54">
+        <v>23</v>
+      </c>
+      <c r="X54">
+        <v>14</v>
+      </c>
+      <c r="Y54">
+        <v>11</v>
+      </c>
+      <c r="Z54">
         <v>25</v>
       </c>
     </row>
@@ -5372,388 +5716,1312 @@
         <v>25</v>
       </c>
       <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="13"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>13</v>
+      </c>
+      <c r="T55">
+        <v>24</v>
+      </c>
+      <c r="U55">
+        <v>13</v>
+      </c>
+      <c r="V55">
+        <v>20</v>
+      </c>
+      <c r="W55">
+        <v>25</v>
+      </c>
+      <c r="X55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ref="M56" si="15" xml:space="preserve"> B56 + D56 + F56 + H56 + J56</f>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56" si="16" xml:space="preserve"> C56 + E56 + G56 + I56 + K56</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" ref="O56" si="17">M56 - N56</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" ref="P56" si="18" xml:space="preserve"> IF(M56+N56=0, 0, IF(N56=0, "MAX", M56/N56))</f>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>25</v>
+      </c>
+      <c r="U56">
+        <v>14</v>
+      </c>
+      <c r="V56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4">
+        <v>13</v>
+      </c>
+      <c r="C57" s="4">
+        <v>25</v>
+      </c>
+      <c r="D57" s="4">
+        <v>17</v>
+      </c>
+      <c r="E57" s="4">
+        <v>25</v>
+      </c>
+      <c r="F57" s="4">
+        <v>25</v>
+      </c>
+      <c r="G57" s="4">
+        <v>20</v>
+      </c>
+      <c r="H57" s="4">
+        <v>11</v>
+      </c>
+      <c r="I57" s="4">
+        <v>25</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="O57" s="4">
+        <f t="shared" si="12"/>
+        <v>-29</v>
+      </c>
+      <c r="P57" s="5">
+        <f t="shared" si="13"/>
+        <v>0.69473684210526321</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>17</v>
+      </c>
+      <c r="V57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P58"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>43538</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="10"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <f t="shared" ref="M55" si="27" xml:space="preserve"> B55 + D55 + F55 + H55 + J55</f>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S66" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" t="s">
+        <v>6</v>
+      </c>
+      <c r="W66" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG66" t="s">
         <v>18</v>
       </c>
-      <c r="N55">
-        <f t="shared" ref="N55" si="28" xml:space="preserve"> C55 + E55 + G55 + I55 + K55</f>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67" si="19" xml:space="preserve"> B67 + D67 + F67 + H67 + J67</f>
+        <v>8</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67" si="20" xml:space="preserve"> C67 + E67 + G67 + I67 + K67</f>
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" ref="O67" si="21">M67 - N67</f>
+        <v>7</v>
+      </c>
+      <c r="P67" s="3">
+        <f t="shared" ref="P67" si="22" xml:space="preserve"> IF(M67+N67=0, 0, IF(N67=0, "MAX", M67/N67))</f>
+        <v>8</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q76" si="23">IF(P67 &lt; 1, 3, IF(P67 &gt;= P$77, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ref="M68:M75" si="24" xml:space="preserve"> B68 + D68 + F68 + H68 + J68</f>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ref="N68:N75" si="25" xml:space="preserve"> C68 + E68 + G68 + I68 + K68</f>
+        <v>2</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" ref="O68:O75" si="26">M68 - N68</f>
+        <v>-2</v>
+      </c>
+      <c r="P68" s="3">
+        <f t="shared" ref="P68:P75" si="27" xml:space="preserve"> IF(M68+N68=0, 0, IF(N68=0, "MAX", M68/N68))</f>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>4</v>
+      </c>
+      <c r="U68">
+        <v>4</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="P69" s="3">
+        <f t="shared" si="27"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="S69">
+        <v>4</v>
+      </c>
+      <c r="T69">
         <v>5</v>
       </c>
-      <c r="O55" s="1">
-        <f t="shared" ref="O55" si="29">M55 - N55</f>
+      <c r="U69">
+        <v>8</v>
+      </c>
+      <c r="V69">
+        <v>2</v>
+      </c>
+      <c r="W69">
+        <v>4</v>
+      </c>
+      <c r="X69">
+        <v>3</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>6</v>
+      </c>
+      <c r="T70">
+        <v>7</v>
+      </c>
+      <c r="U70">
+        <v>9</v>
+      </c>
+      <c r="V70">
+        <v>3</v>
+      </c>
+      <c r="W70">
+        <v>6</v>
+      </c>
+      <c r="X70">
+        <v>4</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
-      <c r="P55" s="3">
-        <f t="shared" ref="P55" si="30" xml:space="preserve"> IF(M55+N55=0, 0, IF(N55=0, "MAX", M55/N55))</f>
+      <c r="N71">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="P71" s="3">
+        <f t="shared" si="27"/>
+        <v>1.625</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>10</v>
+      </c>
+      <c r="T71">
+        <v>9</v>
+      </c>
+      <c r="U71">
+        <v>10</v>
+      </c>
+      <c r="V71">
+        <v>5</v>
+      </c>
+      <c r="W71">
+        <v>11</v>
+      </c>
+      <c r="X71">
+        <v>6</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>12</v>
+      </c>
+      <c r="T72">
+        <v>13</v>
+      </c>
+      <c r="U72">
+        <v>11</v>
+      </c>
+      <c r="V72">
+        <v>7</v>
+      </c>
+      <c r="W72">
+        <v>12</v>
+      </c>
+      <c r="X72">
+        <v>7</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ref="M73" si="28" xml:space="preserve"> B73 + D73 + F73 + H73 + J73</f>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" ref="N73" si="29" xml:space="preserve"> C73 + E73 + G73 + I73 + K73</f>
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" ref="O73" si="30">M73 - N73</f>
+        <v>-1</v>
+      </c>
+      <c r="P73" s="3">
+        <f t="shared" ref="P73" si="31" xml:space="preserve"> IF(M73+N73=0, 0, IF(N73=0, "MAX", M73/N73))</f>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="S73">
+        <v>14</v>
+      </c>
+      <c r="T73">
+        <v>14</v>
+      </c>
+      <c r="U73">
+        <v>25</v>
+      </c>
+      <c r="V73">
+        <v>9</v>
+      </c>
+      <c r="W73">
+        <v>14</v>
+      </c>
+      <c r="X73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="P74" s="3">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="S74">
+        <v>17</v>
+      </c>
+      <c r="T74">
+        <v>15</v>
+      </c>
+      <c r="W74">
+        <v>15</v>
+      </c>
+      <c r="X74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="P75" s="3">
+        <f t="shared" si="27"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>18</v>
+      </c>
+      <c r="T75">
+        <v>16</v>
+      </c>
+      <c r="W75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ref="M76" si="32" xml:space="preserve"> B76 + D76 + F76 + H76 + J76</f>
+        <v>18</v>
+      </c>
+      <c r="N76">
+        <f t="shared" ref="N76" si="33" xml:space="preserve"> C76 + E76 + G76 + I76 + K76</f>
+        <v>5</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" ref="O76" si="34">M76 - N76</f>
+        <v>13</v>
+      </c>
+      <c r="P76" s="3">
+        <f t="shared" ref="P76" si="35" xml:space="preserve"> IF(M76+N76=0, 0, IF(N76=0, "MAX", M76/N76))</f>
         <v>3.6</v>
       </c>
-      <c r="Q55">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="S55">
+      <c r="Q76">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="S76">
         <v>19</v>
       </c>
-      <c r="T55">
+      <c r="T76">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4">
         <v>25</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C77" s="4">
         <v>19</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D77" s="4">
         <v>25</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E77" s="4">
         <v>9</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F77" s="4">
         <v>25</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G77" s="4">
         <v>10</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4">
-        <f t="shared" ref="M56" si="31" xml:space="preserve"> B56 + D56 + F56 + H56 + J56</f>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4">
+        <f t="shared" ref="M77" si="36" xml:space="preserve"> B77 + D77 + F77 + H77 + J77</f>
         <v>75</v>
       </c>
-      <c r="N56" s="4">
-        <f t="shared" ref="N56" si="32" xml:space="preserve"> C56 + E56 + G56 + I56 + K56</f>
+      <c r="N77" s="4">
+        <f t="shared" ref="N77" si="37" xml:space="preserve"> C77 + E77 + G77 + I77 + K77</f>
         <v>38</v>
       </c>
-      <c r="O56" s="4">
-        <f t="shared" ref="O56" si="33">M56 - N56</f>
+      <c r="O77" s="4">
+        <f t="shared" ref="O77" si="38">M77 - N77</f>
         <v>37</v>
       </c>
-      <c r="P56" s="5">
-        <f t="shared" ref="P56" si="34" xml:space="preserve"> IF(M56+N56=0, 0, IF(N56=0, "MAX", M56/N56))</f>
+      <c r="P77" s="5">
+        <f t="shared" ref="P77" si="39" xml:space="preserve"> IF(M77+N77=0, 0, IF(N77=0, "MAX", M77/N77))</f>
         <v>1.9736842105263157</v>
       </c>
-      <c r="S56">
+      <c r="S77">
         <v>24</v>
       </c>
-      <c r="T56">
+      <c r="T77">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P57"/>
-      <c r="S57">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P78"/>
+      <c r="S78">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A67:P67 A68:L72">
+    <cfRule type="expression" dxfId="134" priority="274">
+      <formula>$Q67 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="275">
+      <formula>$Q67 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="276">
+      <formula>$Q67 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:L75">
+    <cfRule type="expression" dxfId="131" priority="151">
+      <formula>$Q75 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="152">
+      <formula>$Q75 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="153">
+      <formula>$Q75 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:L74">
+    <cfRule type="expression" dxfId="128" priority="148">
+      <formula>$Q74 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="149">
+      <formula>$Q74 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="150">
+      <formula>$Q74 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M68:P72 M74:P75">
+    <cfRule type="expression" dxfId="125" priority="142">
+      <formula>$Q68 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="143">
+      <formula>$Q68 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="144">
+      <formula>$Q68 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:L73">
+    <cfRule type="expression" dxfId="122" priority="124">
+      <formula>$Q73 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="125">
+      <formula>$Q73 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="126">
+      <formula>$Q73 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M73:P73">
+    <cfRule type="expression" dxfId="119" priority="121">
+      <formula>$Q73 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="122">
+      <formula>$Q73 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="123">
+      <formula>$Q73 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:L76">
+    <cfRule type="expression" dxfId="116" priority="118">
+      <formula>$Q76 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="119">
+      <formula>$Q76 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="120">
+      <formula>$Q76 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M76:P76">
+    <cfRule type="expression" dxfId="113" priority="115">
+      <formula>$Q76 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="116">
+      <formula>$Q76 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="117">
+      <formula>$Q76 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A46:P46 A47:L51">
-    <cfRule type="expression" dxfId="116" priority="250">
+    <cfRule type="expression" dxfId="110" priority="112">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="251">
+    <cfRule type="expression" dxfId="109" priority="113">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="252">
+    <cfRule type="expression" dxfId="108" priority="114">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:L54">
-    <cfRule type="expression" dxfId="113" priority="127">
+    <cfRule type="expression" dxfId="107" priority="109">
       <formula>$Q54 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="128">
+    <cfRule type="expression" dxfId="106" priority="110">
       <formula>$Q54 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="129">
+    <cfRule type="expression" dxfId="105" priority="111">
       <formula>$Q54 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:L53">
-    <cfRule type="expression" dxfId="110" priority="124">
+    <cfRule type="expression" dxfId="104" priority="106">
       <formula>$Q53 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="125">
+    <cfRule type="expression" dxfId="103" priority="107">
       <formula>$Q53 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="126">
+    <cfRule type="expression" dxfId="102" priority="108">
       <formula>$Q53 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M47:P51 M53:P54">
-    <cfRule type="expression" dxfId="107" priority="118">
+    <cfRule type="expression" dxfId="101" priority="103">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="119">
+    <cfRule type="expression" dxfId="100" priority="104">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="120">
+    <cfRule type="expression" dxfId="99" priority="105">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:L52">
-    <cfRule type="expression" dxfId="104" priority="100">
+    <cfRule type="expression" dxfId="98" priority="100">
       <formula>$Q52 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="101">
+    <cfRule type="expression" dxfId="97" priority="101">
       <formula>$Q52 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="102">
+    <cfRule type="expression" dxfId="96" priority="102">
       <formula>$Q52 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52:P52">
-    <cfRule type="expression" dxfId="101" priority="97">
+    <cfRule type="expression" dxfId="95" priority="97">
       <formula>$Q52 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="98">
+    <cfRule type="expression" dxfId="94" priority="98">
       <formula>$Q52 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="99">
+    <cfRule type="expression" dxfId="93" priority="99">
       <formula>$Q52 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:L55">
-    <cfRule type="expression" dxfId="98" priority="94">
+    <cfRule type="expression" dxfId="92" priority="94">
       <formula>$Q55 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="95">
+    <cfRule type="expression" dxfId="91" priority="95">
       <formula>$Q55 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="96">
+    <cfRule type="expression" dxfId="90" priority="96">
       <formula>$Q55 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M55:P55">
-    <cfRule type="expression" dxfId="95" priority="91">
+    <cfRule type="expression" dxfId="89" priority="91">
       <formula>$Q55 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="92">
+    <cfRule type="expression" dxfId="88" priority="92">
       <formula>$Q55 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="93">
+    <cfRule type="expression" dxfId="87" priority="93">
       <formula>$Q55 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:P25 A26:L30">
-    <cfRule type="expression" dxfId="92" priority="88">
-      <formula>$Q25 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="89">
-      <formula>$Q25 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="90">
-      <formula>$Q25 = 1</formula>
+  <conditionalFormatting sqref="A56:L56">
+    <cfRule type="expression" dxfId="86" priority="88">
+      <formula>$Q56 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="89">
+      <formula>$Q56 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="90">
+      <formula>$Q56 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M56:P56">
+    <cfRule type="expression" dxfId="83" priority="85">
+      <formula>$Q56 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="86">
+      <formula>$Q56 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="87">
+      <formula>$Q56 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:P26 A27:L31">
+    <cfRule type="expression" dxfId="80" priority="52">
+      <formula>$Q26 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="53">
+      <formula>$Q26 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="54">
+      <formula>$Q26 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:L34">
+    <cfRule type="expression" dxfId="77" priority="49">
+      <formula>$Q34 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="50">
+      <formula>$Q34 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="51">
+      <formula>$Q34 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:L33">
-    <cfRule type="expression" dxfId="89" priority="85">
+    <cfRule type="expression" dxfId="74" priority="46">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="86">
+    <cfRule type="expression" dxfId="73" priority="47">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="87">
+    <cfRule type="expression" dxfId="72" priority="48">
       <formula>$Q33 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:P31 M33:P34">
+    <cfRule type="expression" dxfId="71" priority="43">
+      <formula>$Q27 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="44">
+      <formula>$Q27 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="45">
+      <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L32">
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="68" priority="40">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83">
+    <cfRule type="expression" dxfId="67" priority="41">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="66" priority="42">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:P30 M32:P33">
-    <cfRule type="expression" dxfId="83" priority="79">
-      <formula>$Q26 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="80">
-      <formula>$Q26 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="81">
-      <formula>$Q26 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="80" priority="76">
-      <formula>$Q31 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="77">
-      <formula>$Q31 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="78">
-      <formula>$Q31 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="77" priority="73">
-      <formula>$Q31 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="74">
-      <formula>$Q31 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="75">
-      <formula>$Q31 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:L34">
-    <cfRule type="expression" dxfId="74" priority="70">
-      <formula>$Q34 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="71">
-      <formula>$Q34 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="72">
-      <formula>$Q34 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:P34">
-    <cfRule type="expression" dxfId="71" priority="67">
-      <formula>$Q34 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68">
-      <formula>$Q34 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="69">
-      <formula>$Q34 = 1</formula>
+  <conditionalFormatting sqref="M32:P32">
+    <cfRule type="expression" dxfId="65" priority="37">
+      <formula>$Q32 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="38">
+      <formula>$Q32 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="39">
+      <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:L35">
-    <cfRule type="expression" dxfId="68" priority="64">
+    <cfRule type="expression" dxfId="62" priority="34">
       <formula>$Q35 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="65">
+    <cfRule type="expression" dxfId="61" priority="35">
       <formula>$Q35 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="66">
+    <cfRule type="expression" dxfId="60" priority="36">
       <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:P35">
-    <cfRule type="expression" dxfId="65" priority="61">
+    <cfRule type="expression" dxfId="59" priority="31">
       <formula>$Q35 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="62">
+    <cfRule type="expression" dxfId="58" priority="32">
       <formula>$Q35 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="63">
+    <cfRule type="expression" dxfId="57" priority="33">
       <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A6:L10">
-    <cfRule type="expression" dxfId="62" priority="28">
+    <cfRule type="expression" dxfId="56" priority="22">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="29">
+    <cfRule type="expression" dxfId="55" priority="23">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="30">
+    <cfRule type="expression" dxfId="54" priority="24">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="53" priority="19">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="26">
+    <cfRule type="expression" dxfId="52" priority="20">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="27">
+    <cfRule type="expression" dxfId="51" priority="21">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="56" priority="22">
+    <cfRule type="expression" dxfId="50" priority="16">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="23">
+    <cfRule type="expression" dxfId="49" priority="17">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="48" priority="18">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P10 M12:P13">
-    <cfRule type="expression" dxfId="53" priority="19">
+    <cfRule type="expression" dxfId="47" priority="13">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="20">
+    <cfRule type="expression" dxfId="46" priority="14">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="21">
+    <cfRule type="expression" dxfId="45" priority="15">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="50" priority="16">
+    <cfRule type="expression" dxfId="44" priority="10">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="17">
+    <cfRule type="expression" dxfId="43" priority="11">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="18">
+    <cfRule type="expression" dxfId="42" priority="12">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:P11">
-    <cfRule type="expression" dxfId="47" priority="13">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="14">
+    <cfRule type="expression" dxfId="40" priority="8">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="15">
+    <cfRule type="expression" dxfId="39" priority="9">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L14">
-    <cfRule type="expression" dxfId="44" priority="10">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="11">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="12">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P14">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5766,8 +7034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BDAFE5-3AEF-49E8-9ED9-A9BAA79160EC}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5976,7 +7244,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="Q9">
-        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= P$16, 1, 2))</f>
+        <f t="shared" ref="Q9:Q15" si="4">IF(P9 &lt; 1, 3, IF(P9 &gt;= P$16, 1, 2))</f>
         <v>1</v>
       </c>
       <c r="S9">
@@ -6037,7 +7305,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="Q10">
-        <f>IF(P10 &lt; 1, 3, IF(P10 &gt;= P$16, 1, 2))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S10">
@@ -6107,7 +7375,7 @@
         <v>1.2</v>
       </c>
       <c r="Q11">
-        <f>IF(P11 &lt; 1, 3, IF(P11 &gt;= P$16, 1, 2))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S11">
@@ -6177,7 +7445,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="Q12">
-        <f>IF(P12 &lt; 1, 3, IF(P12 &gt;= P$16, 1, 2))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S12">
@@ -6244,7 +7512,7 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="Q13">
-        <f>IF(P13 &lt; 1, 3, IF(P13 &gt;= P$16, 1, 2))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S13">
@@ -6308,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>IF(P14 &lt; 1, 3, IF(P14 &gt;= P$16, 1, 2))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S14">
@@ -6369,7 +7637,7 @@
         <v>1.25</v>
       </c>
       <c r="Q15">
-        <f>IF(P15 &lt; 1, 3, IF(P15 &gt;= P$16, 1, 2))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S15">
@@ -6673,23 +7941,23 @@
         <v>3</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:N32" si="4" xml:space="preserve"> B24 + D24 + F24 + H24 + J24</f>
+        <f t="shared" ref="M24:N32" si="5" xml:space="preserve"> B24 + D24 + F24 + H24 + J24</f>
         <v>3</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" ref="O24:O32" si="5">M24 - N24</f>
+        <f t="shared" ref="O24:O32" si="6">M24 - N24</f>
         <v>-4</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" ref="P24:P32" si="6" xml:space="preserve"> IF(M24+N24=0, 0, IF(N24=0, "MAX", M24/N24))</f>
+        <f t="shared" ref="P24:P32" si="7" xml:space="preserve"> IF(M24+N24=0, 0, IF(N24=0, "MAX", M24/N24))</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="Q24">
-        <f t="shared" ref="Q24:Q30" si="7">IF(P24 &lt; 1, 3, IF(P24 &gt;= P$32, 1, 2))</f>
+        <f t="shared" ref="Q24:Q30" si="8">IF(P24 &lt; 1, 3, IF(P24 &gt;= P$32, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S24">
@@ -6734,23 +8002,23 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S25">
@@ -6804,23 +8072,23 @@
         <v>2</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="S26">
@@ -6871,23 +8139,23 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="S27">
@@ -6938,23 +8206,23 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>MAX</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S28">
@@ -7002,23 +8270,23 @@
         <v>4</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="S29">
@@ -7057,23 +8325,23 @@
         <v>4</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S30">
@@ -7118,19 +8386,19 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="1">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
       <c r="P31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>MAX</v>
       </c>
       <c r="Q31">
@@ -7182,19 +8450,19 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7441860465116279</v>
       </c>
       <c r="S32">
@@ -7270,112 +8538,112 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="23">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:P24 A25:L29">
-    <cfRule type="expression" dxfId="35" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="32" priority="37">
+    <cfRule type="expression" dxfId="26" priority="37">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="39">
+    <cfRule type="expression" dxfId="24" priority="39">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P29">
-    <cfRule type="expression" dxfId="29" priority="34">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="36">
+    <cfRule type="expression" dxfId="21" priority="36">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:L30">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="20" priority="31">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="18" priority="33">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:P30">
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="29">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:P15">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9 A10:L13 B14:L14">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:L15">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P14">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F347146-1A32-4BBF-B263-A9A5303ED09F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3E7C2A2D-49AD-4C22-BDD9-280C060E0FAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpieleUL" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="179">
   <si>
     <t>Lea</t>
   </si>
@@ -208,9 +208,6 @@
     <t>5:16:T</t>
   </si>
   <si>
-    <t>5: 1/4</t>
-  </si>
-  <si>
     <t>7:4:t</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>15:15:W:Lilli/Selina</t>
   </si>
   <si>
-    <t>7: 3/4</t>
-  </si>
-  <si>
     <t>8:8:W:Lilli/Selina</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
     <t>23:22:t</t>
   </si>
   <si>
-    <t>6: 2/4</t>
-  </si>
-  <si>
     <t>17:11:w:25/20</t>
   </si>
   <si>
@@ -262,9 +253,6 @@
     <t>22:18:T</t>
   </si>
   <si>
-    <t>6:2/4</t>
-  </si>
-  <si>
     <t>3:6:T</t>
   </si>
   <si>
@@ -280,9 +268,6 @@
     <t>12:13:W:Franzi/Lilli</t>
   </si>
   <si>
-    <t>6:4/2</t>
-  </si>
-  <si>
     <t>10:6:w:25/20</t>
   </si>
   <si>
@@ -506,6 +491,72 @@
   </si>
   <si>
     <t>15:23:t</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - ATSC 4</t>
+  </si>
+  <si>
+    <t>Larissa</t>
+  </si>
+  <si>
+    <t>Alina</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>L:Ylva:Yassi:Stefie:Lea:Nina:Kati K</t>
+  </si>
+  <si>
+    <t>L:Ylva:Lilli:Stefie:Selina:Nina:Kati K</t>
+  </si>
+  <si>
+    <t>l:1:8:11:21:13:10</t>
+  </si>
+  <si>
+    <t>l:8:11:21:13:10:25</t>
+  </si>
+  <si>
+    <t>23:24:t</t>
+  </si>
+  <si>
+    <t>9:18:T</t>
+  </si>
+  <si>
+    <t>9:19:W:Lilli/Yassi</t>
+  </si>
+  <si>
+    <t>10:16:T</t>
+  </si>
+  <si>
+    <t>8:9:t</t>
+  </si>
+  <si>
+    <t>16:18:t</t>
+  </si>
+  <si>
+    <t>3:15:w:18/8</t>
+  </si>
+  <si>
+    <t>5:21:w:25/10</t>
+  </si>
+  <si>
+    <t>2:14:W:Lilli/Ylva</t>
+  </si>
+  <si>
+    <t>5:21:W:Larissa/Nina</t>
+  </si>
+  <si>
+    <t>10:18:w:18/13</t>
+  </si>
+  <si>
+    <t>19:22:W:Yassi/Kati K</t>
+  </si>
+  <si>
+    <t>15:21:t</t>
+  </si>
+  <si>
+    <t>24:24:w:25/10</t>
   </si>
 </sst>
 </file>
@@ -515,7 +566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,29 +598,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,27 +609,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -627,14 +636,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -658,19 +664,159 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
+  <dxfs count="168">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2034,9 +2180,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E7DBE4-F64F-4D58-971E-86C19A50F49D}">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2056,12 +2204,12 @@
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>43551</v>
+        <v>43561</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2186,947 +2334,1846 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M13" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
-        <v>14</v>
+        <f t="shared" ref="M5:M16" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N13" si="1" xml:space="preserve"> C5 + E5 + G5 + I5 + K5</f>
-        <v>25</v>
+        <f t="shared" ref="N5:N16" si="1" xml:space="preserve"> C5 + E5 + G5 + I5 + K5</f>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:O13" si="2">M5 - N5</f>
-        <v>-11</v>
+        <f t="shared" ref="O5:O16" si="2">M5 - N5</f>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" ref="P5:P13" si="3" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
-        <v>0.56000000000000005</v>
+        <f t="shared" ref="P5:P16" si="3" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>IF(P5 &lt; 1, 3, IF(P5 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="AD5" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="AE5" t="s">
         <v>56</v>
       </c>
-      <c r="AF5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q6">
-        <f>IF(P6 &lt; 1, 3, IF(P6 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>2</v>
+        <f>IF(P6 &lt; 1, 3, IF(P6 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6">
         <v>4</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>5</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="AD6" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="AE6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q7">
-        <f>IF(P7 &lt; 1, 3, IF(P7 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <f>IF(P7 &lt; 1, 3, IF(P7 &gt;= SpieleAR!P$13, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V7">
         <v>6</v>
       </c>
       <c r="W7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X7">
-        <v>7</v>
-      </c>
-      <c r="Y7">
-        <v>7</v>
-      </c>
-      <c r="Z7">
-        <v>5</v>
-      </c>
-      <c r="AA7">
-        <v>3</v>
-      </c>
-      <c r="AB7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AC7" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="AD7" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="AE7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M9" si="4" xml:space="preserve"> B8 + D8 + F8 + H8 + J8</f>
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N9" si="5" xml:space="preserve"> C8 + E8 + G8 + I8 + K8</f>
+        <v>7</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ref="O8:O9" si="6">M8 - N8</f>
+        <v>-5</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" ref="P8:P9" si="7" xml:space="preserve"> IF(M8+N8=0, 0, IF(N8=0, "MAX", M8/N8))</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q8">
+        <f>IF(P8 &lt; 1, 3, IF(P8 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>15</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+      <c r="Q9">
+        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10" si="8" xml:space="preserve"> B10 + D10 + F10 + H10 + J10</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10" si="9" xml:space="preserve"> C10 + E10 + G10 + I10 + K10</f>
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" ref="O10" si="10">M10 - N10</f>
+        <v>-3</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" ref="P10" si="11" xml:space="preserve"> IF(M10+N10=0, 0, IF(N10=0, "MAX", M10/N10))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>IF(P10 &lt; 1, 3, IF(P10 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>12</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q11">
+        <f>IF(P11 &lt; 1, 3, IF(P11 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>12</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>14</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>IF(P12 &lt; 1, 3, IF(P12 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>9</v>
+      </c>
+      <c r="T12">
+        <v>14</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>18</v>
+      </c>
+      <c r="X12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>IF(P13 &lt; 1, 3, IF(P13 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>13</v>
+      </c>
+      <c r="T13">
+        <v>19</v>
+      </c>
+      <c r="U13">
+        <v>16</v>
+      </c>
+      <c r="V13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>IF(P14 &lt; 1, 3, IF(P14 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>16</v>
+      </c>
+      <c r="T14">
+        <v>21</v>
+      </c>
+      <c r="U14">
+        <v>17</v>
+      </c>
+      <c r="V14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O8" s="1">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P15" s="3">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>IF(P15 &lt; 1, 3, IF(P15 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>17</v>
+      </c>
+      <c r="T15">
+        <v>24</v>
+      </c>
+      <c r="U15">
+        <v>18</v>
+      </c>
+      <c r="V15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4">
+        <v>25</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="2"/>
+        <v>-24</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="3"/>
+        <v>0.68831168831168832</v>
+      </c>
+      <c r="S16">
+        <v>24</v>
+      </c>
+      <c r="T16">
+        <v>24</v>
+      </c>
+      <c r="U16">
+        <v>19</v>
+      </c>
+      <c r="V16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P17" s="2"/>
+      <c r="S17">
+        <v>25</v>
+      </c>
+      <c r="T17">
+        <v>25</v>
+      </c>
+      <c r="U17">
+        <v>21</v>
+      </c>
+      <c r="V17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="T18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>43551</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M30" si="12" xml:space="preserve"> B22 + D22 + F22 + H22 + J22</f>
+        <v>14</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N30" si="13" xml:space="preserve"> C22 + E22 + G22 + I22 + K22</f>
+        <v>25</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" ref="O22:O30" si="14">M22 - N22</f>
+        <v>-11</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" ref="P22:P30" si="15" xml:space="preserve"> IF(M22+N22=0, 0, IF(N22=0, "MAX", M22/N22))</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q22">
+        <f>IF(P22 &lt; 1, 3, IF(P22 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f>IF(P23 &lt; 1, 3, IF(P23 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>3</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="14"/>
+        <v>-5</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="15"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q24">
+        <f>IF(P24 &lt; 1, 3, IF(P24 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>7</v>
+      </c>
+      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <v>7</v>
+      </c>
+      <c r="X24">
+        <v>7</v>
+      </c>
+      <c r="Y24">
+        <v>7</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <v>6</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="14"/>
+        <v>-3</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-      <c r="Q8">
-        <f>IF(P8 &lt; 1, 3, IF(P8 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="S8">
+      <c r="Q25">
+        <f>IF(P25 &lt; 1, 3, IF(P25 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S25">
         <v>5</v>
       </c>
-      <c r="T8">
+      <c r="T25">
         <v>12</v>
       </c>
-      <c r="U8">
+      <c r="U25">
         <v>11</v>
       </c>
-      <c r="V8">
+      <c r="V25">
         <v>7</v>
       </c>
-      <c r="W8">
+      <c r="W25">
         <v>9</v>
       </c>
-      <c r="X8">
+      <c r="X25">
         <v>8</v>
       </c>
-      <c r="Y8">
+      <c r="Y25">
         <v>8</v>
       </c>
-      <c r="Z8">
+      <c r="Z25">
         <v>6</v>
       </c>
-      <c r="AA8">
-        <v>4</v>
-      </c>
-      <c r="AB8">
+      <c r="AA25">
+        <v>4</v>
+      </c>
+      <c r="AB25">
         <v>7</v>
       </c>
-      <c r="AC8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AC25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="14"/>
+        <v>-14</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="15"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="Q26">
+        <f>IF(P26 &lt; 1, 3, IF(P26 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>16</v>
+      </c>
+      <c r="U26">
+        <v>12</v>
+      </c>
+      <c r="V26">
+        <v>8</v>
+      </c>
+      <c r="W26">
+        <v>10</v>
+      </c>
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="Y26">
+        <v>10</v>
+      </c>
+      <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AA26">
+        <v>5</v>
+      </c>
+      <c r="AB26">
+        <v>8</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="15"/>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="Q27">
+        <f>IF(P27 &lt; 1, 3, IF(P27 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>7</v>
+      </c>
+      <c r="T27">
+        <v>17</v>
+      </c>
+      <c r="U27">
+        <v>14</v>
+      </c>
+      <c r="V27">
+        <v>9</v>
+      </c>
+      <c r="W27">
+        <v>13</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>11</v>
+      </c>
+      <c r="Z27">
+        <v>10</v>
+      </c>
+      <c r="AA27">
+        <v>7</v>
+      </c>
+      <c r="AB27">
+        <v>9</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="14"/>
+        <v>-5</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="15"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="Q28">
+        <f>IF(P28 &lt; 1, 3, IF(P28 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>18</v>
+      </c>
+      <c r="U28">
+        <v>15</v>
+      </c>
+      <c r="V28">
+        <v>18</v>
+      </c>
+      <c r="W28">
+        <v>16</v>
+      </c>
+      <c r="X28">
+        <v>12</v>
+      </c>
+      <c r="Y28">
+        <v>12</v>
+      </c>
+      <c r="Z28">
+        <v>11</v>
+      </c>
+      <c r="AA28">
+        <v>8</v>
+      </c>
+      <c r="AB28">
+        <v>10</v>
+      </c>
+      <c r="AC28" t="s">
         <v>87</v>
       </c>
-      <c r="AE8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AD28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f>IF(P29 &lt; 1, 3, IF(P29 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>13</v>
+      </c>
+      <c r="T29">
+        <v>20</v>
+      </c>
+      <c r="U29">
+        <v>16</v>
+      </c>
+      <c r="V29">
+        <v>21</v>
+      </c>
+      <c r="W29">
+        <v>17</v>
+      </c>
+      <c r="X29">
+        <v>15</v>
+      </c>
+      <c r="Y29">
+        <v>17</v>
+      </c>
+      <c r="Z29">
+        <v>13</v>
+      </c>
+      <c r="AA29">
+        <v>10</v>
+      </c>
+      <c r="AB29">
+        <v>12</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF29" t="s">
         <v>76</v>
       </c>
-      <c r="AG8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="AG29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4">
+        <v>25</v>
+      </c>
+      <c r="F30" s="4">
+        <v>25</v>
+      </c>
+      <c r="G30" s="4">
+        <v>22</v>
+      </c>
+      <c r="H30" s="4">
+        <v>25</v>
+      </c>
+      <c r="I30" s="4">
+        <v>20</v>
+      </c>
+      <c r="J30" s="4">
+        <v>15</v>
+      </c>
+      <c r="K30" s="4">
+        <v>13</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
+        <f t="shared" si="12"/>
+        <v>102</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="14"/>
+        <v>-3</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="15"/>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="S30">
+        <v>17</v>
+      </c>
+      <c r="T30">
+        <v>22</v>
+      </c>
+      <c r="U30">
+        <v>18</v>
+      </c>
+      <c r="V30">
+        <v>22</v>
+      </c>
+      <c r="W30">
+        <v>19</v>
+      </c>
+      <c r="X30">
+        <v>18</v>
+      </c>
+      <c r="Y30">
+        <v>22</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+      <c r="AA30">
+        <v>11</v>
+      </c>
+      <c r="AB30">
+        <v>13</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P31" s="2"/>
+      <c r="T31">
+        <v>25</v>
+      </c>
+      <c r="U31">
+        <v>19</v>
+      </c>
+      <c r="V31">
         <v>23</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" si="3"/>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="Q9">
-        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>6</v>
-      </c>
-      <c r="T9">
-        <v>16</v>
-      </c>
-      <c r="U9">
-        <v>12</v>
-      </c>
-      <c r="V9">
-        <v>8</v>
-      </c>
-      <c r="W9">
-        <v>10</v>
-      </c>
-      <c r="X9">
-        <v>9</v>
-      </c>
-      <c r="Y9">
-        <v>10</v>
-      </c>
-      <c r="Z9">
-        <v>7</v>
-      </c>
-      <c r="AA9">
-        <v>5</v>
-      </c>
-      <c r="AB9">
-        <v>8</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
+      <c r="W31">
+        <v>20</v>
+      </c>
+      <c r="X31">
+        <v>20</v>
+      </c>
+      <c r="Y31">
+        <v>23</v>
+      </c>
+      <c r="Z31">
+        <v>20</v>
+      </c>
+      <c r="AA31">
         <v>15</v>
       </c>
-      <c r="O10" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2666666666666666</v>
-      </c>
-      <c r="Q10">
-        <f>IF(P10 &lt; 1, 3, IF(P10 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>17</v>
-      </c>
-      <c r="U10">
-        <v>14</v>
-      </c>
-      <c r="V10">
-        <v>9</v>
-      </c>
-      <c r="W10">
-        <v>13</v>
-      </c>
-      <c r="X10">
-        <v>10</v>
-      </c>
-      <c r="Y10">
-        <v>11</v>
-      </c>
-      <c r="Z10">
-        <v>10</v>
-      </c>
-      <c r="AA10">
-        <v>7</v>
-      </c>
-      <c r="AB10">
-        <v>9</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="3"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="Q11">
-        <f>IF(P11 &lt; 1, 3, IF(P11 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="S11">
-        <v>10</v>
-      </c>
-      <c r="T11">
-        <v>18</v>
-      </c>
-      <c r="U11">
-        <v>15</v>
-      </c>
-      <c r="V11">
-        <v>18</v>
-      </c>
-      <c r="W11">
-        <v>16</v>
-      </c>
-      <c r="X11">
-        <v>12</v>
-      </c>
-      <c r="Y11">
-        <v>12</v>
-      </c>
-      <c r="Z11">
-        <v>11</v>
-      </c>
-      <c r="AA11">
-        <v>8</v>
-      </c>
-      <c r="AB11">
-        <v>10</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f>IF(P12 &lt; 1, 3, IF(P12 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>13</v>
-      </c>
-      <c r="T12">
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P32" s="2"/>
+      <c r="U32">
         <v>20</v>
       </c>
-      <c r="U12">
-        <v>16</v>
-      </c>
-      <c r="V12">
-        <v>21</v>
-      </c>
-      <c r="W12">
-        <v>17</v>
-      </c>
-      <c r="X12">
-        <v>15</v>
-      </c>
-      <c r="Y12">
-        <v>17</v>
-      </c>
-      <c r="Z12">
-        <v>13</v>
-      </c>
-      <c r="AA12">
-        <v>10</v>
-      </c>
-      <c r="AB12">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="V32">
         <v>25</v>
       </c>
-      <c r="D13" s="4">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="W32">
         <v>25</v>
       </c>
-      <c r="F13" s="4">
+      <c r="X32">
+        <v>22</v>
+      </c>
+      <c r="Y32">
         <v>25</v>
       </c>
-      <c r="G13" s="4">
-        <v>22</v>
-      </c>
-      <c r="H13" s="4">
-        <v>25</v>
-      </c>
-      <c r="I13" s="4">
-        <v>20</v>
-      </c>
-      <c r="J13" s="4">
-        <v>15</v>
-      </c>
-      <c r="K13" s="4">
-        <v>13</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="3"/>
-        <v>0.97142857142857142</v>
-      </c>
-      <c r="S13">
-        <v>17</v>
-      </c>
-      <c r="T13">
-        <v>22</v>
-      </c>
-      <c r="U13">
-        <v>18</v>
-      </c>
-      <c r="V13">
-        <v>22</v>
-      </c>
-      <c r="W13">
-        <v>19</v>
-      </c>
-      <c r="X13">
-        <v>18</v>
-      </c>
-      <c r="Y13">
-        <v>22</v>
-      </c>
-      <c r="Z13">
-        <v>18</v>
-      </c>
-      <c r="AA13">
-        <v>11</v>
-      </c>
-      <c r="AB13">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="P14" s="2"/>
-      <c r="T14">
-        <v>25</v>
-      </c>
-      <c r="U14">
-        <v>19</v>
-      </c>
-      <c r="V14">
-        <v>23</v>
-      </c>
-      <c r="W14">
-        <v>20</v>
-      </c>
-      <c r="X14">
-        <v>20</v>
-      </c>
-      <c r="Y14">
-        <v>23</v>
-      </c>
-      <c r="Z14">
-        <v>20</v>
-      </c>
-      <c r="AA14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="P15" s="2"/>
-      <c r="U15">
-        <v>20</v>
-      </c>
-      <c r="V15">
-        <v>25</v>
-      </c>
-      <c r="W15">
-        <v>25</v>
-      </c>
-      <c r="X15">
-        <v>22</v>
-      </c>
-      <c r="Y15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="P16" s="2"/>
-      <c r="AC16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD16" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF16" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG16" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P17" s="2"/>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M11:P12 A5:P9">
-    <cfRule type="expression" dxfId="146" priority="28">
+  <conditionalFormatting sqref="M28:P29 A22:P26">
+    <cfRule type="expression" dxfId="167" priority="49">
+      <formula>$Q22 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="50">
+      <formula>$Q22 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="51">
+      <formula>$Q22 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:L29">
+    <cfRule type="expression" dxfId="164" priority="43">
+      <formula>$Q28 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="44">
+      <formula>$Q28 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="45">
+      <formula>$Q28 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:L27">
+    <cfRule type="expression" dxfId="161" priority="37">
+      <formula>$Q27 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="38">
+      <formula>$Q27 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="39">
+      <formula>$Q27 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:P27">
+    <cfRule type="expression" dxfId="158" priority="34">
+      <formula>$Q27 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="35">
+      <formula>$Q27 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="36">
+      <formula>$Q27 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:P15 A5:P7 A11:P12">
+    <cfRule type="expression" dxfId="155" priority="19">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="29">
+    <cfRule type="expression" dxfId="154" priority="20">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="30">
+    <cfRule type="expression" dxfId="153" priority="21">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:L12">
-    <cfRule type="expression" dxfId="143" priority="22">
-      <formula>$Q11 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="23">
-      <formula>$Q11 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="24">
-      <formula>$Q11 = 1</formula>
+  <conditionalFormatting sqref="A14:L15">
+    <cfRule type="expression" dxfId="152" priority="16">
+      <formula>$Q14 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="17">
+      <formula>$Q14 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="18">
+      <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="140" priority="16">
+  <conditionalFormatting sqref="A13:L13">
+    <cfRule type="expression" dxfId="149" priority="13">
+      <formula>$Q13 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="14">
+      <formula>$Q13 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="15">
+      <formula>$Q13 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:P13">
+    <cfRule type="expression" dxfId="146" priority="10">
+      <formula>$Q13 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="11">
+      <formula>$Q13 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="12">
+      <formula>$Q13 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:P8">
+    <cfRule type="expression" dxfId="143" priority="7">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="8">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="9">
+      <formula>$Q8 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:P9">
+    <cfRule type="expression" dxfId="140" priority="4">
+      <formula>$Q9 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="5">
+      <formula>$Q9 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="6">
+      <formula>$Q9 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:P10">
+    <cfRule type="expression" dxfId="137" priority="1">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="17">
+    <cfRule type="expression" dxfId="136" priority="2">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="18">
-      <formula>$Q10 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="137" priority="13">
-      <formula>$Q10 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="14">
-      <formula>$Q10 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="15">
+    <cfRule type="expression" dxfId="135" priority="3">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3138,7 +4185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3166,7 +4213,7 @@
         <v>43559</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3353,13 +4400,13 @@
         <v>42</v>
       </c>
       <c r="AD5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AE5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AF5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -3423,16 +4470,16 @@
         <v>8</v>
       </c>
       <c r="AC6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AD6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AE6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -3508,16 +4555,16 @@
         <v>13</v>
       </c>
       <c r="AC7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AD7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AE7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -3581,16 +4628,16 @@
         <v>15</v>
       </c>
       <c r="AC8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD8" t="s">
         <v>142</v>
       </c>
-      <c r="AD8" t="s">
-        <v>147</v>
-      </c>
       <c r="AE8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AF8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -3666,16 +4713,16 @@
         <v>16</v>
       </c>
       <c r="AC9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AD9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AE9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AF9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -3739,16 +4786,16 @@
         <v>17</v>
       </c>
       <c r="AC10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AD10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AE10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AF10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -3806,21 +4853,21 @@
         <v>18</v>
       </c>
       <c r="AC11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF11" t="s">
         <v>155</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -4086,7 +5133,7 @@
         <v>25</v>
       </c>
       <c r="AE15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -4145,7 +5192,7 @@
         <v>43554</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4326,7 +5373,7 @@
         <v>29</v>
       </c>
       <c r="AE26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -4384,13 +5431,13 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AD27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AE27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -4448,13 +5495,13 @@
         <v>2</v>
       </c>
       <c r="AC28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AD28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AE28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -4512,13 +5559,13 @@
         <v>3</v>
       </c>
       <c r="AC29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AD29" t="s">
         <v>39</v>
       </c>
       <c r="AE29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -4582,7 +5629,7 @@
         <v>5</v>
       </c>
       <c r="AD30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -4639,7 +5686,7 @@
         <v>6</v>
       </c>
       <c r="AD31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
@@ -4697,7 +5744,7 @@
         <v>9</v>
       </c>
       <c r="AD32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
@@ -4952,7 +5999,7 @@
         <v>43545</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -7082,7 +8129,7 @@
         <v>43556</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7207,7 +8254,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -7257,18 +8304,18 @@
         <v>2</v>
       </c>
       <c r="AC9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AD9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AE9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7327,18 +8374,18 @@
         <v>1</v>
       </c>
       <c r="AC10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AD10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AE10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -7397,18 +8444,18 @@
         <v>2</v>
       </c>
       <c r="AC11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AD11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AE11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7467,15 +8514,15 @@
         <v>3</v>
       </c>
       <c r="AC12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AD12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -7534,12 +8581,12 @@
         <v>5</v>
       </c>
       <c r="AD13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7600,7 +8647,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -7786,7 +8833,7 @@
         <v>43554</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -7920,7 +8967,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -7970,18 +9017,18 @@
         <v>4</v>
       </c>
       <c r="AC24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AD24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AE24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8040,18 +9087,18 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AD25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AE25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -8110,15 +9157,15 @@
         <v>9</v>
       </c>
       <c r="AC26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AD26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -8177,10 +9224,10 @@
         <v>10</v>
       </c>
       <c r="AC27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AD27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -8244,12 +9291,12 @@
         <v>11</v>
       </c>
       <c r="AD28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -8310,7 +9357,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -8365,7 +9412,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B31">
         <v>3</v>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3E7C2A2D-49AD-4C22-BDD9-280C060E0FAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{082A0BBD-6F7D-4BC1-92D6-5A3BF5EC59D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpieleUL" sheetId="7" r:id="rId1"/>
-    <sheet name="SpieleAR" sheetId="6" r:id="rId2"/>
-    <sheet name="SpieleMPO" sheetId="8" r:id="rId3"/>
+    <sheet name="Pordenone" sheetId="9" r:id="rId2"/>
+    <sheet name="SpieleAR" sheetId="6" r:id="rId3"/>
+    <sheet name="SpieleMPO" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="quot_m1">SpieleAR!#REF!</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="285">
   <si>
     <t>Lea</t>
   </si>
@@ -557,6 +558,324 @@
   </si>
   <si>
     <t>24:24:w:25/10</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - POL Aquila Spilimbergo</t>
+  </si>
+  <si>
+    <t>Kati</t>
+  </si>
+  <si>
+    <t>L:Celi:Kati:Stefie:Magda:Lea:Franzi</t>
+  </si>
+  <si>
+    <t>L:Franzi:Celi:Kati:Stefie:Magda:Lea</t>
+  </si>
+  <si>
+    <t>l:2:8:13:1:11:12</t>
+  </si>
+  <si>
+    <t>5:17:w:3/2</t>
+  </si>
+  <si>
+    <t>3:13:w:7/8</t>
+  </si>
+  <si>
+    <t>3:10:w:4/11</t>
+  </si>
+  <si>
+    <t>3:11:w:5/12</t>
+  </si>
+  <si>
+    <t>9:22:W:Ylva/Celi</t>
+  </si>
+  <si>
+    <t>8:20:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>3:12:T</t>
+  </si>
+  <si>
+    <t>9:18:W:Ylva/Celi</t>
+  </si>
+  <si>
+    <t>5:15:W:Magda/Nina</t>
+  </si>
+  <si>
+    <t>4:12:W:Nina/Magda</t>
+  </si>
+  <si>
+    <t>6:15:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>12:20:W:Franzi/Yassi</t>
+  </si>
+  <si>
+    <t>4:10:T</t>
+  </si>
+  <si>
+    <t>5:14:w:7/8</t>
+  </si>
+  <si>
+    <t>5:15:w:5/13</t>
+  </si>
+  <si>
+    <t>9:18:w:4/11</t>
+  </si>
+  <si>
+    <t>11:20:w:3/12</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Mondial Chiavi Volley</t>
+  </si>
+  <si>
+    <t>L:Franzi:Celi:Nina:Lea:Magda:Kati</t>
+  </si>
+  <si>
+    <t>l:4:10:1:31:9:8</t>
+  </si>
+  <si>
+    <t>9:20:W:Yassi/Stefie</t>
+  </si>
+  <si>
+    <t>5:15:W:Magda/Franzi</t>
+  </si>
+  <si>
+    <t>9:20:W:Franzi/Magda</t>
+  </si>
+  <si>
+    <t>1:8:T</t>
+  </si>
+  <si>
+    <t>4:14:w:3/9</t>
+  </si>
+  <si>
+    <t>10:16:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>10:19:W:Ylva/Celi</t>
+  </si>
+  <si>
+    <t>8:11:T</t>
+  </si>
+  <si>
+    <t>10:19:w:6/10</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - OK Krim Lubljana</t>
+  </si>
+  <si>
+    <t>l:17:3:18:13:15:6</t>
+  </si>
+  <si>
+    <t>L:Franzi:Celi:Kati:Stefie:Nina:Lea</t>
+  </si>
+  <si>
+    <t>l:16:2:3:4:9:5</t>
+  </si>
+  <si>
+    <t>6:17:T</t>
+  </si>
+  <si>
+    <t>6:13:W:Magda/Franzi</t>
+  </si>
+  <si>
+    <t>10:23:W:Franzi/Magda</t>
+  </si>
+  <si>
+    <t>10:23:W:Yassi/Stefie</t>
+  </si>
+  <si>
+    <t>3:7:w:5/3</t>
+  </si>
+  <si>
+    <t>6:14:w:2/17</t>
+  </si>
+  <si>
+    <t>4:10:w:4/6</t>
+  </si>
+  <si>
+    <t>6:12:W:Nina/Franzi</t>
+  </si>
+  <si>
+    <t>12:22:W:Stefie/Yassi</t>
+  </si>
+  <si>
+    <t>10:19:T</t>
+  </si>
+  <si>
+    <t>9:15:W:Franzi/Nina</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Farravolo</t>
+  </si>
+  <si>
+    <t>l:11:1:2:13:10:12</t>
+  </si>
+  <si>
+    <t>l:12:11:5:2:6:10</t>
+  </si>
+  <si>
+    <t>10:23:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>7:11:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>8:11:w:1/5</t>
+  </si>
+  <si>
+    <t>11:20:w:3/10</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>2:3:t</t>
+  </si>
+  <si>
+    <t>9:15:W:Yassi/Stefie</t>
+  </si>
+  <si>
+    <t>L:Celi:Kati:Stefie:Nina:Lea:Franzi</t>
+  </si>
+  <si>
+    <t>l:63:30:28:38:62:65</t>
+  </si>
+  <si>
+    <t>l:63:28:38:62:65:26</t>
+  </si>
+  <si>
+    <t>20:12:w:26/38</t>
+  </si>
+  <si>
+    <t>9:6:t</t>
+  </si>
+  <si>
+    <t>17:9:t</t>
+  </si>
+  <si>
+    <t>22:13:W:Magda/Stefie</t>
+  </si>
+  <si>
+    <t>12:8:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>22:13:W:Franzi/Yassi</t>
+  </si>
+  <si>
+    <t>7:3:t</t>
+  </si>
+  <si>
+    <t>21:14:t</t>
+  </si>
+  <si>
+    <t>22:14:w:24/65</t>
+  </si>
+  <si>
+    <t>18:12:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - TSV Mühldorf</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Casale Pro</t>
+  </si>
+  <si>
+    <t>L:Franzi:Celi:Magda:Stefie:Nina:Lea</t>
+  </si>
+  <si>
+    <t>l:25:27:37:35:29:16</t>
+  </si>
+  <si>
+    <t>l:37:35:29:16:25:27</t>
+  </si>
+  <si>
+    <t>21:22:T</t>
+  </si>
+  <si>
+    <t>22:23:W:Ylva/Stefie</t>
+  </si>
+  <si>
+    <t>22:24:W:Stefie/Ylva</t>
+  </si>
+  <si>
+    <t>11:9:t</t>
+  </si>
+  <si>
+    <t>13:12:W:Ylva/Celi</t>
+  </si>
+  <si>
+    <t>18:17:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>20:21:T</t>
+  </si>
+  <si>
+    <t>21:24:T</t>
+  </si>
+  <si>
+    <t>10:10:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>15:13:W:Franzi/Yassi</t>
+  </si>
+  <si>
+    <t>L:Ylva:Kati:Stefie:Nina:Lea:Franzi</t>
+  </si>
+  <si>
+    <t>l:8:13:8:11:10:1</t>
+  </si>
+  <si>
+    <t>l:16:13:9:11:10:1</t>
+  </si>
+  <si>
+    <t>l:1:16:13:9:11:10</t>
+  </si>
+  <si>
+    <t>20:16:T</t>
+  </si>
+  <si>
+    <t>22:21:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>24:22:W:Franzi/Yassi</t>
+  </si>
+  <si>
+    <t>22:19:W:Magda/Stefie</t>
+  </si>
+  <si>
+    <t>10:13:T</t>
+  </si>
+  <si>
+    <t>8:11:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>7:9:t</t>
+  </si>
+  <si>
+    <t>4:11:T</t>
+  </si>
+  <si>
+    <t>12:19:W:Ylva/Celi</t>
+  </si>
+  <si>
+    <t>12:18:W:Magda/Stefie</t>
+  </si>
+  <si>
+    <t>8:14:W:Yassi/Franzi</t>
+  </si>
+  <si>
+    <t>12:18:W:Franzi/Yassi</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Fincantieri Monfalcone</t>
+  </si>
+  <si>
+    <t>17:10:t</t>
+  </si>
+  <si>
+    <t>25:24:End</t>
   </si>
 </sst>
 </file>
@@ -669,7 +988,1519 @@
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="168">
+  <dxfs count="384">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2182,8 +4013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E7DBE4-F64F-4D58-971E-86C19A50F49D}">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,7 +4788,7 @@
         <v>17</v>
       </c>
       <c r="T15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U15">
         <v>18</v>
@@ -4057,123 +5888,123 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M28:P29 A22:P26">
-    <cfRule type="expression" dxfId="167" priority="49">
+    <cfRule type="expression" dxfId="383" priority="49">
       <formula>$Q22 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="50">
+    <cfRule type="expression" dxfId="382" priority="50">
       <formula>$Q22 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="51">
+    <cfRule type="expression" dxfId="381" priority="51">
       <formula>$Q22 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:L29">
-    <cfRule type="expression" dxfId="164" priority="43">
+    <cfRule type="expression" dxfId="380" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="44">
+    <cfRule type="expression" dxfId="379" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="45">
+    <cfRule type="expression" dxfId="378" priority="45">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="161" priority="37">
+    <cfRule type="expression" dxfId="377" priority="37">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="38">
+    <cfRule type="expression" dxfId="376" priority="38">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="39">
+    <cfRule type="expression" dxfId="375" priority="39">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:P27">
-    <cfRule type="expression" dxfId="158" priority="34">
+    <cfRule type="expression" dxfId="374" priority="34">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="35">
+    <cfRule type="expression" dxfId="373" priority="35">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="36">
+    <cfRule type="expression" dxfId="372" priority="36">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P15 A5:P7 A11:P12">
-    <cfRule type="expression" dxfId="155" priority="19">
+    <cfRule type="expression" dxfId="371" priority="19">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="20">
+    <cfRule type="expression" dxfId="370" priority="20">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="21">
+    <cfRule type="expression" dxfId="369" priority="21">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L15">
-    <cfRule type="expression" dxfId="152" priority="16">
+    <cfRule type="expression" dxfId="368" priority="16">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="17">
+    <cfRule type="expression" dxfId="367" priority="17">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="18">
+    <cfRule type="expression" dxfId="366" priority="18">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="149" priority="13">
+    <cfRule type="expression" dxfId="365" priority="13">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="14">
+    <cfRule type="expression" dxfId="364" priority="14">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="15">
+    <cfRule type="expression" dxfId="363" priority="15">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="146" priority="10">
+    <cfRule type="expression" dxfId="362" priority="10">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="11">
+    <cfRule type="expression" dxfId="361" priority="11">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="12">
+    <cfRule type="expression" dxfId="360" priority="12">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:P8">
-    <cfRule type="expression" dxfId="143" priority="7">
+    <cfRule type="expression" dxfId="359" priority="7">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="8">
+    <cfRule type="expression" dxfId="358" priority="8">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="9">
+    <cfRule type="expression" dxfId="357" priority="9">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9">
-    <cfRule type="expression" dxfId="140" priority="4">
+    <cfRule type="expression" dxfId="356" priority="4">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="5">
+    <cfRule type="expression" dxfId="355" priority="5">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="6">
+    <cfRule type="expression" dxfId="354" priority="6">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:P10">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="353" priority="1">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="2">
+    <cfRule type="expression" dxfId="352" priority="2">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="3">
+    <cfRule type="expression" dxfId="351" priority="3">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4182,11 +6013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CDEDFA-6CBB-49A9-9ABF-AEAEDB20C7C2}">
+  <dimension ref="A1:AG120"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,10 +6041,10 @@
     </row>
     <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>43559</v>
+        <v>43575</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4341,6 +6172,5526 @@
         <v>2</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M14" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N14" si="1" xml:space="preserve"> C5 + E5 + G5 + I5 + K5</f>
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O14" si="2">M5 - N5</f>
+        <v>-1</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P14" si="3" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q5">
+        <f>IF(P5 &lt; 1, 3, IF(P5 &gt;= P$14, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q13" si="4">IF(P6 &lt; 1, 3, IF(P6 &gt;= P$14, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>9</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>12</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>11</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>14</v>
+      </c>
+      <c r="V9">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>15</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <v>17</v>
+      </c>
+      <c r="V10">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>18</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="U11">
+        <v>18</v>
+      </c>
+      <c r="V11">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>21</v>
+      </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="V12">
+        <v>14</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>23</v>
+      </c>
+      <c r="T13">
+        <v>13</v>
+      </c>
+      <c r="U13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8518518518518519</v>
+      </c>
+      <c r="S14">
+        <v>25</v>
+      </c>
+      <c r="T14">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>43575</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M28" si="5" xml:space="preserve"> B19 + D19 + F19 + H19 + J19</f>
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N28" si="6" xml:space="preserve"> C19 + E19 + G19 + I19 + K19</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" ref="O19:O28" si="7">M19 - N19</f>
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19:P28" si="8" xml:space="preserve"> IF(M19+N19=0, 0, IF(N19=0, "MAX", M19/N19))</f>
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <f>IF(P19 &lt; 1, 3, IF(P19 &gt;= P$28, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20:Q27" si="9">IF(P20 &lt; 1, 3, IF(P20 &gt;= P$28, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="8"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>9</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>7</v>
+      </c>
+      <c r="V23">
+        <v>7</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+      <c r="U24">
+        <v>8</v>
+      </c>
+      <c r="V24">
+        <v>8</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>13</v>
+      </c>
+      <c r="T25">
+        <v>11</v>
+      </c>
+      <c r="U25">
+        <v>9</v>
+      </c>
+      <c r="V25">
+        <v>9</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>14</v>
+      </c>
+      <c r="T26">
+        <v>12</v>
+      </c>
+      <c r="U26">
+        <v>11</v>
+      </c>
+      <c r="V26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>16</v>
+      </c>
+      <c r="T27">
+        <v>13</v>
+      </c>
+      <c r="U27">
+        <v>12</v>
+      </c>
+      <c r="V27">
+        <v>12</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
+        <v>22</v>
+      </c>
+      <c r="C28" s="4">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4">
+        <v>21</v>
+      </c>
+      <c r="E28" s="4">
+        <v>25</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86</v>
+      </c>
+      <c r="S28">
+        <v>19</v>
+      </c>
+      <c r="T28">
+        <v>18</v>
+      </c>
+      <c r="U28">
+        <v>13</v>
+      </c>
+      <c r="V28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P29"/>
+      <c r="S29">
+        <v>21</v>
+      </c>
+      <c r="T29">
+        <v>19</v>
+      </c>
+      <c r="U29">
+        <v>14</v>
+      </c>
+      <c r="V29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30">
+        <v>22</v>
+      </c>
+      <c r="T30">
+        <v>22</v>
+      </c>
+      <c r="U30">
+        <v>17</v>
+      </c>
+      <c r="V30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31">
+        <v>25</v>
+      </c>
+      <c r="U31">
+        <v>19</v>
+      </c>
+      <c r="V31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U32">
+        <v>20</v>
+      </c>
+      <c r="V32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="U33">
+        <v>21</v>
+      </c>
+      <c r="V33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>43575</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S38" t="s">
+        <v>5</v>
+      </c>
+      <c r="U38" t="s">
+        <v>6</v>
+      </c>
+      <c r="W38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:M48" si="10" xml:space="preserve"> B39 + D39 + F39 + H39 + J39</f>
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:N48" si="11" xml:space="preserve"> C39 + E39 + G39 + I39 + K39</f>
+        <v>5</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" ref="O39:O48" si="12">M39 - N39</f>
+        <v>-3</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" ref="P39:P48" si="13" xml:space="preserve"> IF(M39+N39=0, 0, IF(N39=0, "MAX", M39/N39))</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q39">
+        <f>IF(P39 &lt; 1, 3, IF(P39 &gt;= P$48, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="12"/>
+        <v>-5</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="13"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ref="Q40:Q47" si="14">IF(P40 &lt; 1, 3, IF(P40 &gt;= P$48, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>4</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <v>8</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="13"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="U42">
+        <v>4</v>
+      </c>
+      <c r="V42">
+        <v>7</v>
+      </c>
+      <c r="W42">
+        <v>4</v>
+      </c>
+      <c r="X42">
+        <v>9</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>8</v>
+      </c>
+      <c r="T43">
+        <v>8</v>
+      </c>
+      <c r="U43">
+        <v>7</v>
+      </c>
+      <c r="V43">
+        <v>12</v>
+      </c>
+      <c r="W43">
+        <v>7</v>
+      </c>
+      <c r="X43">
+        <v>11</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="12"/>
+        <v>-4</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>9</v>
+      </c>
+      <c r="U44">
+        <v>8</v>
+      </c>
+      <c r="V44">
+        <v>14</v>
+      </c>
+      <c r="W44">
+        <v>9</v>
+      </c>
+      <c r="X44">
+        <v>12</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>12</v>
+      </c>
+      <c r="T45">
+        <v>10</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
+      </c>
+      <c r="V45">
+        <v>16</v>
+      </c>
+      <c r="W45">
+        <v>10</v>
+      </c>
+      <c r="X45">
+        <v>15</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="13"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>18</v>
+      </c>
+      <c r="T46">
+        <v>12</v>
+      </c>
+      <c r="U46">
+        <v>11</v>
+      </c>
+      <c r="V46">
+        <v>17</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>20</v>
+      </c>
+      <c r="T47">
+        <v>16</v>
+      </c>
+      <c r="U47">
+        <v>12</v>
+      </c>
+      <c r="V47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4">
+        <v>25</v>
+      </c>
+      <c r="C48" s="4">
+        <v>24</v>
+      </c>
+      <c r="D48" s="4">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4">
+        <v>25</v>
+      </c>
+      <c r="F48" s="4">
+        <v>10</v>
+      </c>
+      <c r="G48" s="4">
+        <v>15</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="12"/>
+        <v>-16</v>
+      </c>
+      <c r="P48" s="5">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="S48">
+        <v>22</v>
+      </c>
+      <c r="T48">
+        <v>21</v>
+      </c>
+      <c r="U48">
+        <v>13</v>
+      </c>
+      <c r="V48">
+        <v>20</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P49"/>
+      <c r="S49">
+        <v>23</v>
+      </c>
+      <c r="T49">
+        <v>22</v>
+      </c>
+      <c r="V49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="S50">
+        <v>24</v>
+      </c>
+      <c r="T50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="S51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>43574</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="10"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S56" t="s">
+        <v>5</v>
+      </c>
+      <c r="U56" t="s">
+        <v>6</v>
+      </c>
+      <c r="W56" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ref="M57:N66" si="15" xml:space="preserve"> B57 + D57 + F57 + H57 + J57</f>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" ref="O57:O66" si="16">M57 - N57</f>
+        <v>-1</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" ref="P57:P66" si="17" xml:space="preserve"> IF(M57+N57=0, 0, IF(N57=0, "MAX", M57/N57))</f>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f>IF(P57 &lt; 1, 3, IF(P57 &gt;= P$66, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ref="Q58:Q65" si="18">IF(P58 &lt; 1, 3, IF(P58 &gt;= P$66, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>8</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="16"/>
+        <v>-4</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>3</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>14</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="16"/>
+        <v>-5</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="S60">
+        <v>4</v>
+      </c>
+      <c r="T60">
+        <v>6</v>
+      </c>
+      <c r="U60">
+        <v>5</v>
+      </c>
+      <c r="V60">
+        <v>17</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="S61">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>14</v>
+      </c>
+      <c r="U61">
+        <v>6</v>
+      </c>
+      <c r="V61">
+        <v>19</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="16"/>
+        <v>-2</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>8</v>
+      </c>
+      <c r="T62">
+        <v>15</v>
+      </c>
+      <c r="U62">
+        <v>7</v>
+      </c>
+      <c r="V62">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="16"/>
+        <v>-5</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="S63">
+        <v>9</v>
+      </c>
+      <c r="T63">
+        <v>17</v>
+      </c>
+      <c r="U63">
+        <v>8</v>
+      </c>
+      <c r="V63">
+        <v>21</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ref="M64" si="19" xml:space="preserve"> B64 + D64 + F64 + H64 + J64</f>
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <f t="shared" ref="N64" si="20" xml:space="preserve"> C64 + E64 + G64 + I64 + K64</f>
+        <v>9</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" ref="O64" si="21">M64 - N64</f>
+        <v>-8</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" ref="P64" si="22" xml:space="preserve"> IF(M64+N64=0, 0, IF(N64=0, "MAX", M64/N64))</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>11</v>
+      </c>
+      <c r="T64">
+        <v>19</v>
+      </c>
+      <c r="U64">
+        <v>9</v>
+      </c>
+      <c r="V64">
+        <v>25</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="S65">
+        <v>12</v>
+      </c>
+      <c r="T65">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4">
+        <v>14</v>
+      </c>
+      <c r="C66" s="4">
+        <v>25</v>
+      </c>
+      <c r="D66" s="4">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4">
+        <v>25</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="N66" s="4">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="O66" s="4">
+        <f t="shared" si="16"/>
+        <v>-27</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" si="17"/>
+        <v>0.46</v>
+      </c>
+      <c r="S66">
+        <v>14</v>
+      </c>
+      <c r="T66">
+        <v>22</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P67"/>
+      <c r="T67">
+        <v>25</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>43574</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="10"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S76" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" t="s">
+        <v>6</v>
+      </c>
+      <c r="W76" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ref="M77:M86" si="23" xml:space="preserve"> B77 + D77 + F77 + H77 + J77</f>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" ref="N77:N86" si="24" xml:space="preserve"> C77 + E77 + G77 + I77 + K77</f>
+        <v>2</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" ref="O77:O86" si="25">M77 - N77</f>
+        <v>-2</v>
+      </c>
+      <c r="P77" s="3">
+        <f t="shared" ref="P77:P86" si="26" xml:space="preserve"> IF(M77+N77=0, 0, IF(N77=0, "MAX", M77/N77))</f>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f>IF(P77 &lt; 1, 3, IF(P77 &gt;= P$86, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" si="25"/>
+        <v>-3</v>
+      </c>
+      <c r="P78" s="3">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" ref="Q78:Q85" si="27">IF(P78 &lt; 1, 3, IF(P78 &gt;= P$86, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>3</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
+      <c r="V78">
+        <v>5</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" si="25"/>
+        <v>-2</v>
+      </c>
+      <c r="P79" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="S79">
+        <v>2</v>
+      </c>
+      <c r="T79">
+        <v>9</v>
+      </c>
+      <c r="U79">
+        <v>4</v>
+      </c>
+      <c r="V79">
+        <v>6</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="O80" s="1">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="P80" s="3">
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>3</v>
+      </c>
+      <c r="T80">
+        <v>11</v>
+      </c>
+      <c r="U80">
+        <v>6</v>
+      </c>
+      <c r="V80">
+        <v>8</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="O81" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="P81" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="S81">
+        <v>4</v>
+      </c>
+      <c r="T81">
+        <v>14</v>
+      </c>
+      <c r="U81">
+        <v>8</v>
+      </c>
+      <c r="V81">
+        <v>14</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" si="25"/>
+        <v>-5</v>
+      </c>
+      <c r="P82" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>15</v>
+      </c>
+      <c r="U82">
+        <v>9</v>
+      </c>
+      <c r="V82">
+        <v>16</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="O83" s="1">
+        <f t="shared" si="25"/>
+        <v>-3</v>
+      </c>
+      <c r="P83" s="3">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>6</v>
+      </c>
+      <c r="T83">
+        <v>18</v>
+      </c>
+      <c r="U83">
+        <v>10</v>
+      </c>
+      <c r="V83">
+        <v>22</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="25"/>
+        <v>-5</v>
+      </c>
+      <c r="P84" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>8</v>
+      </c>
+      <c r="T84">
+        <v>19</v>
+      </c>
+      <c r="U84">
+        <v>12</v>
+      </c>
+      <c r="V84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <v>10</v>
+      </c>
+      <c r="T85">
+        <v>20</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4">
+        <v>13</v>
+      </c>
+      <c r="C86" s="4">
+        <v>25</v>
+      </c>
+      <c r="D86" s="4">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4">
+        <v>25</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="N86" s="4">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="O86" s="4">
+        <f t="shared" si="25"/>
+        <v>-25</v>
+      </c>
+      <c r="P86" s="5">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="S86">
+        <v>12</v>
+      </c>
+      <c r="T86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P87"/>
+      <c r="S87">
+        <v>13</v>
+      </c>
+      <c r="T87">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="T88">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>43574</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="10"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S92" t="s">
+        <v>5</v>
+      </c>
+      <c r="U92" t="s">
+        <v>6</v>
+      </c>
+      <c r="W92" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <f t="shared" ref="M93:M102" si="28" xml:space="preserve"> B93 + D93 + F93 + H93 + J93</f>
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <f t="shared" ref="N93:N102" si="29" xml:space="preserve"> C93 + E93 + G93 + I93 + K93</f>
+        <v>1</v>
+      </c>
+      <c r="O93" s="1">
+        <f t="shared" ref="O93:O102" si="30">M93 - N93</f>
+        <v>2</v>
+      </c>
+      <c r="P93" s="3">
+        <f t="shared" ref="P93:P102" si="31" xml:space="preserve"> IF(M93+N93=0, 0, IF(N93=0, "MAX", M93/N93))</f>
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <f>IF(P93 &lt; 1, 3, IF(P93 &gt;= P$102, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+      <c r="P94" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" ref="Q94:Q100" si="32">IF(P94 &lt; 1, 3, IF(P94 &gt;= P$102, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>2</v>
+      </c>
+      <c r="U94">
+        <v>1</v>
+      </c>
+      <c r="V94">
+        <v>4</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+      <c r="P95" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="S95">
+        <v>2</v>
+      </c>
+      <c r="T95">
+        <v>5</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
+        <v>8</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>8</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="30"/>
+        <v>-11</v>
+      </c>
+      <c r="P96" s="3">
+        <f t="shared" si="31"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="S96">
+        <v>3</v>
+      </c>
+      <c r="T96">
+        <v>7</v>
+      </c>
+      <c r="U96">
+        <v>3</v>
+      </c>
+      <c r="V96">
+        <v>10</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>12</v>
+      </c>
+      <c r="U97">
+        <v>5</v>
+      </c>
+      <c r="V97">
+        <v>11</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+      <c r="P98" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>5</v>
+      </c>
+      <c r="T98">
+        <v>13</v>
+      </c>
+      <c r="U98">
+        <v>6</v>
+      </c>
+      <c r="V98">
+        <v>12</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+      <c r="P99" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="S99">
+        <v>6</v>
+      </c>
+      <c r="T99">
+        <v>17</v>
+      </c>
+      <c r="U99">
+        <v>7</v>
+      </c>
+      <c r="V99">
+        <v>13</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="P100" s="3">
+        <f t="shared" si="31"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="S100">
+        <v>8</v>
+      </c>
+      <c r="T100">
+        <v>18</v>
+      </c>
+      <c r="U100">
+        <v>8</v>
+      </c>
+      <c r="V100">
+        <v>14</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <v>23</v>
+      </c>
+      <c r="U101">
+        <v>9</v>
+      </c>
+      <c r="V101">
+        <v>15</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4">
+        <v>10</v>
+      </c>
+      <c r="C102" s="4">
+        <v>25</v>
+      </c>
+      <c r="D102" s="4">
+        <v>13</v>
+      </c>
+      <c r="E102" s="4">
+        <v>25</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4">
+        <f t="shared" si="28"/>
+        <v>23</v>
+      </c>
+      <c r="N102" s="4">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="O102" s="4">
+        <f t="shared" si="30"/>
+        <v>-27</v>
+      </c>
+      <c r="P102" s="5">
+        <f t="shared" si="31"/>
+        <v>0.46</v>
+      </c>
+      <c r="T102">
+        <v>25</v>
+      </c>
+      <c r="U102">
+        <v>10</v>
+      </c>
+      <c r="V102">
+        <v>16</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P103"/>
+      <c r="U103">
+        <v>11</v>
+      </c>
+      <c r="V103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="U104">
+        <v>12</v>
+      </c>
+      <c r="V104">
+        <v>22</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="U105">
+        <v>13</v>
+      </c>
+      <c r="V105">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="8">
+        <v>43574</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="10"/>
+      <c r="V106">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="6"/>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N108" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S108" t="s">
+        <v>5</v>
+      </c>
+      <c r="U108" t="s">
+        <v>6</v>
+      </c>
+      <c r="W108" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <f t="shared" ref="M109:M118" si="33" xml:space="preserve"> B109 + D109 + F109 + H109 + J109</f>
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <f t="shared" ref="N109:N118" si="34" xml:space="preserve"> C109 + E109 + G109 + I109 + K109</f>
+        <v>2</v>
+      </c>
+      <c r="O109" s="1">
+        <f t="shared" ref="O109:O118" si="35">M109 - N109</f>
+        <v>1</v>
+      </c>
+      <c r="P109" s="3">
+        <f t="shared" ref="P109:P118" si="36" xml:space="preserve"> IF(M109+N109=0, 0, IF(N109=0, "MAX", M109/N109))</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q109">
+        <f>IF(P109 &lt; 1, 3, IF(P109 &gt;= P$118, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="O110" s="1">
+        <f t="shared" si="35"/>
+        <v>-5</v>
+      </c>
+      <c r="P110" s="3">
+        <f t="shared" si="36"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" ref="Q110:Q116" si="37">IF(P110 &lt; 1, 3, IF(P110 &gt;= P$118, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>4</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
+        <v>3</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>6</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="O111" s="1">
+        <f t="shared" si="35"/>
+        <v>-7</v>
+      </c>
+      <c r="P111" s="3">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="S111">
+        <v>3</v>
+      </c>
+      <c r="T111">
+        <v>10</v>
+      </c>
+      <c r="U111">
+        <v>3</v>
+      </c>
+      <c r="V111">
+        <v>4</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="O112" s="1">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="P112" s="3">
+        <f t="shared" si="36"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>4</v>
+      </c>
+      <c r="T112">
+        <v>15</v>
+      </c>
+      <c r="U112">
+        <v>5</v>
+      </c>
+      <c r="V112">
+        <v>5</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="O113" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P113" s="3">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <v>6</v>
+      </c>
+      <c r="T113">
+        <v>19</v>
+      </c>
+      <c r="U113">
+        <v>6</v>
+      </c>
+      <c r="V113">
+        <v>7</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="O114" s="1">
+        <f t="shared" si="35"/>
+        <v>-2</v>
+      </c>
+      <c r="P114" s="3">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <v>10</v>
+      </c>
+      <c r="T114">
+        <v>25</v>
+      </c>
+      <c r="U114">
+        <v>9</v>
+      </c>
+      <c r="V114">
+        <v>11</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O115" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P115" s="3">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>11</v>
+      </c>
+      <c r="V115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="O116" s="1">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="P116" s="3">
+        <f t="shared" si="36"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="U116">
+        <v>14</v>
+      </c>
+      <c r="V116">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O117" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P117" s="3">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>2</v>
+      </c>
+      <c r="V117">
+        <v>25</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4">
+        <v>10</v>
+      </c>
+      <c r="C118" s="4">
+        <v>25</v>
+      </c>
+      <c r="D118" s="4">
+        <v>14</v>
+      </c>
+      <c r="E118" s="4">
+        <v>25</v>
+      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4">
+        <f t="shared" si="33"/>
+        <v>24</v>
+      </c>
+      <c r="N118" s="4">
+        <f t="shared" si="34"/>
+        <v>50</v>
+      </c>
+      <c r="O118" s="4">
+        <f t="shared" si="35"/>
+        <v>-26</v>
+      </c>
+      <c r="P118" s="5">
+        <f t="shared" si="36"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P119"/>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A58:P61">
+    <cfRule type="expression" dxfId="350" priority="196">
+      <formula>$Q58 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="197">
+      <formula>$Q58 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="198">
+      <formula>$Q58 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:P57">
+    <cfRule type="expression" dxfId="347" priority="217">
+      <formula>$Q57 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="218">
+      <formula>$Q57 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="219">
+      <formula>$Q57 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:L65">
+    <cfRule type="expression" dxfId="344" priority="214">
+      <formula>$Q65 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="215">
+      <formula>$Q65 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="216">
+      <formula>$Q65 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:L63">
+    <cfRule type="expression" dxfId="341" priority="211">
+      <formula>$Q63 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="212">
+      <formula>$Q63 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="213">
+      <formula>$Q63 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M63:P63 M65:P65">
+    <cfRule type="expression" dxfId="338" priority="208">
+      <formula>$Q63 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="209">
+      <formula>$Q63 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="210">
+      <formula>$Q63 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:L62">
+    <cfRule type="expression" dxfId="335" priority="205">
+      <formula>$Q62 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="206">
+      <formula>$Q62 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="207">
+      <formula>$Q62 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M62:P62">
+    <cfRule type="expression" dxfId="332" priority="202">
+      <formula>$Q62 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="203">
+      <formula>$Q62 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="204">
+      <formula>$Q62 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:L64">
+    <cfRule type="expression" dxfId="329" priority="193">
+      <formula>$Q64 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="194">
+      <formula>$Q64 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="195">
+      <formula>$Q64 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M64:P64">
+    <cfRule type="expression" dxfId="326" priority="190">
+      <formula>$Q64 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="191">
+      <formula>$Q64 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="192">
+      <formula>$Q64 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:P81">
+    <cfRule type="expression" dxfId="323" priority="169">
+      <formula>$Q78 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="170">
+      <formula>$Q78 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="321" priority="171">
+      <formula>$Q78 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:P77">
+    <cfRule type="expression" dxfId="320" priority="187">
+      <formula>$Q77 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="188">
+      <formula>$Q77 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="189">
+      <formula>$Q77 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:L85">
+    <cfRule type="expression" dxfId="317" priority="184">
+      <formula>$Q85 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="185">
+      <formula>$Q85 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="186">
+      <formula>$Q85 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:L83">
+    <cfRule type="expression" dxfId="314" priority="181">
+      <formula>$Q83 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="182">
+      <formula>$Q83 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="183">
+      <formula>$Q83 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M83:P83 M85:P85">
+    <cfRule type="expression" dxfId="311" priority="178">
+      <formula>$Q83 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="179">
+      <formula>$Q83 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="180">
+      <formula>$Q83 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:L82">
+    <cfRule type="expression" dxfId="308" priority="175">
+      <formula>$Q82 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="176">
+      <formula>$Q82 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="177">
+      <formula>$Q82 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M82:P82">
+    <cfRule type="expression" dxfId="305" priority="172">
+      <formula>$Q82 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="173">
+      <formula>$Q82 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="174">
+      <formula>$Q82 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:L84">
+    <cfRule type="expression" dxfId="302" priority="166">
+      <formula>$Q84 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="167">
+      <formula>$Q84 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="168">
+      <formula>$Q84 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M84:P84">
+    <cfRule type="expression" dxfId="299" priority="163">
+      <formula>$Q84 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="164">
+      <formula>$Q84 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="165">
+      <formula>$Q84 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:P97">
+    <cfRule type="expression" dxfId="296" priority="142">
+      <formula>$Q94 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="143">
+      <formula>$Q94 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="144">
+      <formula>$Q94 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:P93">
+    <cfRule type="expression" dxfId="293" priority="160">
+      <formula>$Q93 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="161">
+      <formula>$Q93 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="162">
+      <formula>$Q93 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:L101">
+    <cfRule type="expression" dxfId="290" priority="157">
+      <formula>$Q101 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="158">
+      <formula>$Q101 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="159">
+      <formula>$Q101 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:L99">
+    <cfRule type="expression" dxfId="287" priority="154">
+      <formula>$Q99 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="155">
+      <formula>$Q99 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="156">
+      <formula>$Q99 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M99:P99 M101:P101">
+    <cfRule type="expression" dxfId="284" priority="151">
+      <formula>$Q99 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="152">
+      <formula>$Q99 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="153">
+      <formula>$Q99 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:L98">
+    <cfRule type="expression" dxfId="281" priority="148">
+      <formula>$Q98 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="149">
+      <formula>$Q98 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="150">
+      <formula>$Q98 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M98:P98">
+    <cfRule type="expression" dxfId="278" priority="145">
+      <formula>$Q98 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="146">
+      <formula>$Q98 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="147">
+      <formula>$Q98 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:L100">
+    <cfRule type="expression" dxfId="275" priority="139">
+      <formula>$Q100 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="140">
+      <formula>$Q100 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="141">
+      <formula>$Q100 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M100:P100">
+    <cfRule type="expression" dxfId="272" priority="136">
+      <formula>$Q100 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="137">
+      <formula>$Q100 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="138">
+      <formula>$Q100 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:P113">
+    <cfRule type="expression" dxfId="269" priority="115">
+      <formula>$Q110 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="116">
+      <formula>$Q110 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="117">
+      <formula>$Q110 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109:P109">
+    <cfRule type="expression" dxfId="266" priority="133">
+      <formula>$Q109 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="134">
+      <formula>$Q109 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="135">
+      <formula>$Q109 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:L117">
+    <cfRule type="expression" dxfId="263" priority="130">
+      <formula>$Q117 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="131">
+      <formula>$Q117 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="132">
+      <formula>$Q117 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115:L115">
+    <cfRule type="expression" dxfId="260" priority="127">
+      <formula>$Q115 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="128">
+      <formula>$Q115 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="129">
+      <formula>$Q115 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M115:P115 M117:P117">
+    <cfRule type="expression" dxfId="257" priority="124">
+      <formula>$Q115 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="125">
+      <formula>$Q115 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="126">
+      <formula>$Q115 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114:L114">
+    <cfRule type="expression" dxfId="254" priority="121">
+      <formula>$Q114 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="122">
+      <formula>$Q114 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="123">
+      <formula>$Q114 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M114:P114">
+    <cfRule type="expression" dxfId="251" priority="118">
+      <formula>$Q114 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="119">
+      <formula>$Q114 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="120">
+      <formula>$Q114 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:L116">
+    <cfRule type="expression" dxfId="248" priority="112">
+      <formula>$Q116 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="113">
+      <formula>$Q116 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="114">
+      <formula>$Q116 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M116:P116">
+    <cfRule type="expression" dxfId="245" priority="109">
+      <formula>$Q116 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="110">
+      <formula>$Q116 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="111">
+      <formula>$Q116 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:P9">
+    <cfRule type="expression" dxfId="242" priority="88">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="89">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="90">
+      <formula>$Q6 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:P5">
+    <cfRule type="expression" dxfId="239" priority="106">
+      <formula>$Q5 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="107">
+      <formula>$Q5 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="108">
+      <formula>$Q5 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:L13">
+    <cfRule type="expression" dxfId="236" priority="103">
+      <formula>$Q13 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="104">
+      <formula>$Q13 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="105">
+      <formula>$Q13 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:L11">
+    <cfRule type="expression" dxfId="233" priority="100">
+      <formula>$Q11 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="101">
+      <formula>$Q11 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="102">
+      <formula>$Q11 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:P11 M13:P13">
+    <cfRule type="expression" dxfId="230" priority="97">
+      <formula>$Q11 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="98">
+      <formula>$Q11 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="99">
+      <formula>$Q11 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:L10">
+    <cfRule type="expression" dxfId="227" priority="94">
+      <formula>$Q10 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="95">
+      <formula>$Q10 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="96">
+      <formula>$Q10 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:P10">
+    <cfRule type="expression" dxfId="224" priority="91">
+      <formula>$Q10 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="92">
+      <formula>$Q10 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="93">
+      <formula>$Q10 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:L12">
+    <cfRule type="expression" dxfId="221" priority="85">
+      <formula>$Q12 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="86">
+      <formula>$Q12 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="87">
+      <formula>$Q12 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:P12">
+    <cfRule type="expression" dxfId="218" priority="82">
+      <formula>$Q12 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="83">
+      <formula>$Q12 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="84">
+      <formula>$Q12 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:P43">
+    <cfRule type="expression" dxfId="215" priority="7">
+      <formula>$Q40 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="8">
+      <formula>$Q40 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="9">
+      <formula>$Q40 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:P39">
+    <cfRule type="expression" dxfId="212" priority="25">
+      <formula>$Q39 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="26">
+      <formula>$Q39 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="27">
+      <formula>$Q39 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:L47">
+    <cfRule type="expression" dxfId="209" priority="22">
+      <formula>$Q47 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="23">
+      <formula>$Q47 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="24">
+      <formula>$Q47 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:L45">
+    <cfRule type="expression" dxfId="206" priority="19">
+      <formula>$Q45 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="20">
+      <formula>$Q45 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="21">
+      <formula>$Q45 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M45:P45 M47:P47">
+    <cfRule type="expression" dxfId="203" priority="16">
+      <formula>$Q45 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="17">
+      <formula>$Q45 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="18">
+      <formula>$Q45 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:L44">
+    <cfRule type="expression" dxfId="200" priority="13">
+      <formula>$Q44 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="14">
+      <formula>$Q44 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="15">
+      <formula>$Q44 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44:P44">
+    <cfRule type="expression" dxfId="197" priority="10">
+      <formula>$Q44 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="11">
+      <formula>$Q44 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="12">
+      <formula>$Q44 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:L46">
+    <cfRule type="expression" dxfId="194" priority="4">
+      <formula>$Q46 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="5">
+      <formula>$Q46 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="6">
+      <formula>$Q46 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M46:P46">
+    <cfRule type="expression" dxfId="191" priority="1">
+      <formula>$Q46 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="2">
+      <formula>$Q46 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="3">
+      <formula>$Q46 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:P23">
+    <cfRule type="expression" dxfId="188" priority="34">
+      <formula>$Q20 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="35">
+      <formula>$Q20 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="36">
+      <formula>$Q20 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:P19">
+    <cfRule type="expression" dxfId="185" priority="52">
+      <formula>$Q19 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="53">
+      <formula>$Q19 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="54">
+      <formula>$Q19 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:L27">
+    <cfRule type="expression" dxfId="182" priority="49">
+      <formula>$Q27 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="50">
+      <formula>$Q27 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="51">
+      <formula>$Q27 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:L25">
+    <cfRule type="expression" dxfId="179" priority="46">
+      <formula>$Q25 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="47">
+      <formula>$Q25 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="48">
+      <formula>$Q25 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25:P25 M27:P27">
+    <cfRule type="expression" dxfId="176" priority="43">
+      <formula>$Q25 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="44">
+      <formula>$Q25 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="45">
+      <formula>$Q25 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:L24">
+    <cfRule type="expression" dxfId="173" priority="40">
+      <formula>$Q24 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="41">
+      <formula>$Q24 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="42">
+      <formula>$Q24 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:P24">
+    <cfRule type="expression" dxfId="170" priority="37">
+      <formula>$Q24 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="38">
+      <formula>$Q24 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="39">
+      <formula>$Q24 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:L26">
+    <cfRule type="expression" dxfId="167" priority="31">
+      <formula>$Q26 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="32">
+      <formula>$Q26 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="33">
+      <formula>$Q26 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26:P26">
+    <cfRule type="expression" dxfId="164" priority="28">
+      <formula>$Q26 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="29">
+      <formula>$Q26 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="30">
+      <formula>$Q26 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="13" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+    <col min="19" max="28" width="4" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" customWidth="1"/>
+    <col min="30" max="33" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>43559</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
@@ -8077,7 +15428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BDAFE5-3AEF-49E8-9ED9-A9BAA79160EC}">
   <dimension ref="A1:AG38"/>
   <sheetViews>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{082A0BBD-6F7D-4BC1-92D6-5A3BF5EC59D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E30A89B4-1F87-4613-89AD-02F3EB782DEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="286">
   <si>
     <t>Lea</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>25:24:End</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - VIL 4</t>
   </si>
 </sst>
 </file>
@@ -988,49 +991,7 @@
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="384">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="378">
     <dxf>
       <fill>
         <patternFill>
@@ -4011,10 +3972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E7DBE4-F64F-4D58-971E-86C19A50F49D}">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,10 +3998,10 @@
     </row>
     <row r="2" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>43561</v>
+        <v>43578</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4374,19 +4335,19 @@
         <v>4</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M9" si="4" xml:space="preserve"> B8 + D8 + F8 + H8 + J8</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N9" si="5" xml:space="preserve"> C8 + E8 + G8 + I8 + K8</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O9" si="6">M8 - N8</f>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" ref="P8:P9" si="7" xml:space="preserve"> IF(M8+N8=0, 0, IF(N8=0, "MAX", M8/N8))</f>
+        <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="Q8">
@@ -4444,19 +4405,19 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
       <c r="Q9">
@@ -4502,19 +4463,19 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10" si="8" xml:space="preserve"> B10 + D10 + F10 + H10 + J10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10" si="9" xml:space="preserve"> C10 + E10 + G10 + I10 + K10</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" ref="O10" si="10">M10 - N10</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" ref="P10" si="11" xml:space="preserve"> IF(M10+N10=0, 0, IF(N10=0, "MAX", M10/N10))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10">
@@ -4800,19 +4761,19 @@
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
         <v>25</v>
       </c>
-      <c r="C16" s="4">
-        <v>27</v>
-      </c>
       <c r="D16" s="4">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4">
         <v>25</v>
       </c>
       <c r="F16" s="4">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G16" s="4">
         <v>25</v>
@@ -4824,19 +4785,19 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="2"/>
-        <v>-24</v>
+        <v>-30</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" si="3"/>
-        <v>0.68831168831168832</v>
+        <v>0.6</v>
       </c>
       <c r="S16">
         <v>24</v>
@@ -4875,325 +4836,194 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>43551</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="6"/>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>43561</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S22" t="s">
         <v>5</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U22" t="s">
         <v>6</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W22" t="s">
         <v>7</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y22" t="s">
         <v>8</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AA22" t="s">
         <v>9</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AC22" t="s">
         <v>14</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AD22" t="s">
         <v>15</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AE22" t="s">
         <v>16</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AF22" t="s">
         <v>17</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG22" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>6</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ref="M22:M30" si="12" xml:space="preserve"> B22 + D22 + F22 + H22 + J22</f>
-        <v>14</v>
-      </c>
-      <c r="N22">
-        <f t="shared" ref="N22:N30" si="13" xml:space="preserve"> C22 + E22 + G22 + I22 + K22</f>
-        <v>25</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" ref="O22:O30" si="14">M22 - N22</f>
-        <v>-11</v>
-      </c>
-      <c r="P22" s="3">
-        <f t="shared" ref="P22:P30" si="15" xml:space="preserve"> IF(M22+N22=0, 0, IF(N22=0, "MAX", M22/N22))</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Q22">
-        <f>IF(P22 &lt; 1, 3, IF(P22 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" ref="M23:M34" si="4" xml:space="preserve"> B23 + D23 + F23 + H23 + J23</f>
+        <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" ref="N23:N34" si="5" xml:space="preserve"> C23 + E23 + G23 + I23 + K23</f>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="O23:O34" si="6">M23 - N23</f>
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" ref="P23:P34" si="7" xml:space="preserve"> IF(M23+N23=0, 0, IF(N23=0, "MAX", M23/N23))</f>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <f>IF(P23 &lt; 1, 3, IF(P23 &gt;= SpieleAR!P$36, 1, 2))</f>
         <v>2</v>
       </c>
       <c r="S23">
-        <v>3</v>
-      </c>
-      <c r="T23">
-        <v>4</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W23">
-        <v>3</v>
-      </c>
-      <c r="X23">
-        <v>5</v>
-      </c>
-      <c r="Y23">
-        <v>2</v>
-      </c>
-      <c r="Z23">
-        <v>2</v>
-      </c>
-      <c r="AA23">
-        <v>1</v>
-      </c>
-      <c r="AB23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="AD23" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="AE23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5205,806 +5035,1860 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="14"/>
-        <v>-5</v>
+        <f t="shared" si="6"/>
+        <v>-3</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="15"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="7"/>
+        <v>0.4</v>
       </c>
       <c r="Q24">
-        <f>IF(P24 &lt; 1, 3, IF(P24 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <f>IF(P24 &lt; 1, 3, IF(P24 &gt;= SpieleAR!P$13, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X24">
-        <v>7</v>
-      </c>
-      <c r="Y24">
-        <v>7</v>
-      </c>
-      <c r="Z24">
-        <v>5</v>
-      </c>
-      <c r="AA24">
-        <v>3</v>
-      </c>
-      <c r="AB24">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="AD24" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="AE24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="N25">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="14"/>
-        <v>-3</v>
+        <f t="shared" si="6"/>
+        <v>-4</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
+        <f t="shared" si="7"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q25">
-        <f>IF(P25 &lt; 1, 3, IF(P25 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <f>IF(P25 &lt; 1, 3, IF(P25 &gt;= SpieleAR!P$13, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="V25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X25">
-        <v>8</v>
-      </c>
-      <c r="Y25">
-        <v>8</v>
-      </c>
-      <c r="Z25">
-        <v>6</v>
-      </c>
-      <c r="AA25">
-        <v>4</v>
-      </c>
-      <c r="AB25">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="AD25" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="AE25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26:M27" si="8" xml:space="preserve"> B26 + D26 + F26 + H26 + J26</f>
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N27" si="9" xml:space="preserve"> C26 + E26 + G26 + I26 + K26</f>
         <v>7</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
       <c r="O26" s="1">
-        <f t="shared" si="14"/>
-        <v>-14</v>
+        <f t="shared" ref="O26:O27" si="10">M26 - N26</f>
+        <v>-5</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="15"/>
-        <v>0.17647058823529413</v>
+        <f t="shared" ref="P26:P27" si="11" xml:space="preserve"> IF(M26+N26=0, 0, IF(N26=0, "MAX", M26/N26))</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Q26">
-        <f>IF(P26 &lt; 1, 3, IF(P26 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <f>IF(P26 &lt; 1, 3, IF(P26 &gt;= SpieleAR!P$13, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T26">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V26">
         <v>8</v>
       </c>
       <c r="W26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X26">
-        <v>9</v>
-      </c>
-      <c r="Y26">
-        <v>10</v>
-      </c>
-      <c r="Z26">
-        <v>7</v>
-      </c>
-      <c r="AA26">
-        <v>5</v>
-      </c>
-      <c r="AB26">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="AD26" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="AE26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E27">
+      <c r="O27" s="1">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="11"/>
+        <v>0.375</v>
+      </c>
+      <c r="Q27">
+        <f>IF(P27 &lt; 1, 3, IF(P27 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S27">
         <v>6</v>
       </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
-        <f t="shared" si="15"/>
-        <v>1.2666666666666666</v>
-      </c>
-      <c r="Q27">
-        <f>IF(P27 &lt; 1, 3, IF(P27 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>2</v>
-      </c>
-      <c r="S27">
-        <v>7</v>
-      </c>
       <c r="T27">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="U27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="V27">
         <v>9</v>
       </c>
       <c r="W27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="X27">
-        <v>10</v>
-      </c>
-      <c r="Y27">
-        <v>11</v>
-      </c>
-      <c r="Z27">
-        <v>10</v>
-      </c>
-      <c r="AA27">
-        <v>7</v>
-      </c>
-      <c r="AB27">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AC27" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="AD27" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="AE27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="M28" si="12" xml:space="preserve"> B28 + D28 + F28 + H28 + J28</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28" si="13" xml:space="preserve"> C28 + E28 + G28 + I28 + K28</f>
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" ref="O28" si="14">M28 - N28</f>
+        <v>-3</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" ref="P28" si="15" xml:space="preserve"> IF(M28+N28=0, 0, IF(N28=0, "MAX", M28/N28))</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>IF(P28 &lt; 1, 3, IF(P28 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28">
+        <v>8</v>
+      </c>
+      <c r="V28">
+        <v>12</v>
+      </c>
+      <c r="W28">
         <v>6</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="14"/>
-        <v>-5</v>
-      </c>
-      <c r="P28" s="3">
-        <f t="shared" si="15"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="Q28">
-        <f>IF(P28 &lt; 1, 3, IF(P28 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="S28">
-        <v>10</v>
-      </c>
-      <c r="T28">
-        <v>18</v>
-      </c>
-      <c r="U28">
-        <v>15</v>
-      </c>
-      <c r="V28">
-        <v>18</v>
-      </c>
-      <c r="W28">
-        <v>16</v>
-      </c>
       <c r="X28">
-        <v>12</v>
-      </c>
-      <c r="Y28">
-        <v>12</v>
-      </c>
-      <c r="Z28">
-        <v>11</v>
-      </c>
-      <c r="AA28">
-        <v>8</v>
-      </c>
-      <c r="AB28">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="AD28" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AE28" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q29">
+        <f>IF(P29 &lt; 1, 3, IF(P29 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>12</v>
+      </c>
+      <c r="U29">
+        <v>9</v>
+      </c>
+      <c r="V29">
+        <v>14</v>
+      </c>
+      <c r="W29">
+        <v>7</v>
+      </c>
+      <c r="X29">
+        <v>23</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f>IF(P30 &lt; 1, 3, IF(P30 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>9</v>
+      </c>
+      <c r="T30">
+        <v>14</v>
+      </c>
+      <c r="U30">
+        <v>10</v>
+      </c>
+      <c r="V30">
+        <v>18</v>
+      </c>
+      <c r="X30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF(P31 &lt; 1, 3, IF(P31 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>13</v>
+      </c>
+      <c r="T31">
+        <v>19</v>
+      </c>
+      <c r="U31">
+        <v>16</v>
+      </c>
+      <c r="V31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f>IF(P32 &lt; 1, 3, IF(P32 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>16</v>
+      </c>
+      <c r="T32">
+        <v>21</v>
+      </c>
+      <c r="U32">
+        <v>17</v>
+      </c>
+      <c r="V32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f>IF(P33 &lt; 1, 3, IF(P33 &gt;= SpieleAR!P$13, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>17</v>
+      </c>
+      <c r="T33">
+        <v>23</v>
+      </c>
+      <c r="U33">
+        <v>18</v>
+      </c>
+      <c r="V33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4">
+        <v>27</v>
+      </c>
+      <c r="D34" s="4">
+        <v>21</v>
+      </c>
+      <c r="E34" s="4">
+        <v>25</v>
+      </c>
+      <c r="F34" s="4">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4">
+        <v>25</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="6"/>
+        <v>-24</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="7"/>
+        <v>0.68831168831168832</v>
+      </c>
+      <c r="S34">
+        <v>24</v>
+      </c>
+      <c r="T34">
+        <v>24</v>
+      </c>
+      <c r="U34">
+        <v>19</v>
+      </c>
+      <c r="V34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P35" s="2"/>
+      <c r="S35">
+        <v>25</v>
+      </c>
+      <c r="T35">
+        <v>25</v>
+      </c>
+      <c r="U35">
+        <v>21</v>
+      </c>
+      <c r="V35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="T36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>43551</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S39" t="s">
+        <v>5</v>
+      </c>
+      <c r="U39" t="s">
+        <v>6</v>
+      </c>
+      <c r="W39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40:M48" si="16" xml:space="preserve"> B40 + D40 + F40 + H40 + J40</f>
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:N48" si="17" xml:space="preserve"> C40 + E40 + G40 + I40 + K40</f>
+        <v>25</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" ref="O40:O48" si="18">M40 - N40</f>
+        <v>-11</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" ref="P40:P48" si="19" xml:space="preserve"> IF(M40+N40=0, 0, IF(N40=0, "MAX", M40/N40))</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q40">
+        <f>IF(P40 &lt; 1, 3, IF(P40 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <f>IF(P41 &lt; 1, 3, IF(P41 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>5</v>
+      </c>
+      <c r="Y41">
+        <v>2</v>
+      </c>
+      <c r="Z41">
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>3</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="18"/>
+        <v>-5</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="19"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q42">
+        <f>IF(P42 &lt; 1, 3, IF(P42 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>6</v>
+      </c>
+      <c r="U42">
+        <v>7</v>
+      </c>
+      <c r="V42">
+        <v>6</v>
+      </c>
+      <c r="W42">
+        <v>7</v>
+      </c>
+      <c r="X42">
+        <v>7</v>
+      </c>
+      <c r="Y42">
+        <v>7</v>
+      </c>
+      <c r="Z42">
+        <v>5</v>
+      </c>
+      <c r="AA42">
+        <v>3</v>
+      </c>
+      <c r="AB42">
+        <v>6</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="18"/>
+        <v>-3</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="19"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q43">
+        <f>IF(P43 &lt; 1, 3, IF(P43 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>12</v>
+      </c>
+      <c r="U43">
+        <v>11</v>
+      </c>
+      <c r="V43">
+        <v>7</v>
+      </c>
+      <c r="W43">
+        <v>9</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>8</v>
+      </c>
+      <c r="Z43">
+        <v>6</v>
+      </c>
+      <c r="AA43">
+        <v>4</v>
+      </c>
+      <c r="AB43">
+        <v>7</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="18"/>
+        <v>-14</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="19"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="Q44">
+        <f>IF(P44 &lt; 1, 3, IF(P44 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>6</v>
+      </c>
+      <c r="T44">
+        <v>16</v>
+      </c>
+      <c r="U44">
+        <v>12</v>
+      </c>
+      <c r="V44">
+        <v>8</v>
+      </c>
+      <c r="W44">
+        <v>10</v>
+      </c>
+      <c r="X44">
+        <v>9</v>
+      </c>
+      <c r="Y44">
+        <v>10</v>
+      </c>
+      <c r="Z44">
+        <v>7</v>
+      </c>
+      <c r="AA44">
+        <v>5</v>
+      </c>
+      <c r="AB44">
+        <v>8</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="19"/>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="Q45">
+        <f>IF(P45 &lt; 1, 3, IF(P45 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>7</v>
+      </c>
+      <c r="T45">
+        <v>17</v>
+      </c>
+      <c r="U45">
+        <v>14</v>
+      </c>
+      <c r="V45">
+        <v>9</v>
+      </c>
+      <c r="W45">
+        <v>13</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Y45">
+        <v>11</v>
+      </c>
+      <c r="Z45">
+        <v>10</v>
+      </c>
+      <c r="AA45">
+        <v>7</v>
+      </c>
+      <c r="AB45">
+        <v>9</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="18"/>
+        <v>-5</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="19"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="Q46">
+        <f>IF(P46 &lt; 1, 3, IF(P46 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>18</v>
+      </c>
+      <c r="U46">
+        <v>15</v>
+      </c>
+      <c r="V46">
+        <v>18</v>
+      </c>
+      <c r="W46">
+        <v>16</v>
+      </c>
+      <c r="X46">
+        <v>12</v>
+      </c>
+      <c r="Y46">
+        <v>12</v>
+      </c>
+      <c r="Z46">
+        <v>11</v>
+      </c>
+      <c r="AA46">
+        <v>8</v>
+      </c>
+      <c r="AB46">
+        <v>10</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="14"/>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
-      <c r="P29" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <f>IF(P29 &lt; 1, 3, IF(P29 &gt;= SpieleAR!P$36, 1, 2))</f>
-        <v>3</v>
-      </c>
-      <c r="S29">
+      <c r="P47" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f>IF(P47 &lt; 1, 3, IF(P47 &gt;= SpieleAR!P$36, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S47">
         <v>13</v>
       </c>
-      <c r="T29">
+      <c r="T47">
         <v>20</v>
       </c>
-      <c r="U29">
+      <c r="U47">
         <v>16</v>
       </c>
-      <c r="V29">
+      <c r="V47">
         <v>21</v>
       </c>
-      <c r="W29">
+      <c r="W47">
         <v>17</v>
       </c>
-      <c r="X29">
+      <c r="X47">
         <v>15</v>
       </c>
-      <c r="Y29">
+      <c r="Y47">
         <v>17</v>
       </c>
-      <c r="Z29">
+      <c r="Z47">
         <v>13</v>
       </c>
-      <c r="AA29">
+      <c r="AA47">
         <v>10</v>
       </c>
-      <c r="AB29">
+      <c r="AB47">
         <v>12</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AD47" t="s">
         <v>67</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AE47" t="s">
         <v>72</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AF47" t="s">
         <v>76</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AG47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4">
         <v>17</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C48" s="4">
         <v>25</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D48" s="4">
         <v>20</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E48" s="4">
         <v>25</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F48" s="4">
         <v>25</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G48" s="4">
         <v>22</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H48" s="4">
         <v>25</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I48" s="4">
         <v>20</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J48" s="4">
         <v>15</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K48" s="4">
         <v>13</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4">
-        <f t="shared" si="12"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4">
+        <f t="shared" si="16"/>
         <v>102</v>
       </c>
-      <c r="N30" s="4">
-        <f t="shared" si="13"/>
+      <c r="N48" s="4">
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="O30" s="4">
-        <f t="shared" si="14"/>
+      <c r="O48" s="4">
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
-      <c r="P30" s="5">
-        <f t="shared" si="15"/>
+      <c r="P48" s="5">
+        <f t="shared" si="19"/>
         <v>0.97142857142857142</v>
       </c>
-      <c r="S30">
+      <c r="S48">
         <v>17</v>
       </c>
-      <c r="T30">
+      <c r="T48">
         <v>22</v>
       </c>
-      <c r="U30">
+      <c r="U48">
         <v>18</v>
       </c>
-      <c r="V30">
+      <c r="V48">
         <v>22</v>
       </c>
-      <c r="W30">
+      <c r="W48">
         <v>19</v>
       </c>
-      <c r="X30">
+      <c r="X48">
         <v>18</v>
       </c>
-      <c r="Y30">
+      <c r="Y48">
         <v>22</v>
       </c>
-      <c r="Z30">
+      <c r="Z48">
         <v>18</v>
       </c>
-      <c r="AA30">
+      <c r="AA48">
         <v>11</v>
       </c>
-      <c r="AB30">
+      <c r="AB48">
         <v>13</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AD48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="P31" s="2"/>
-      <c r="T31">
+    <row r="49" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P49" s="2"/>
+      <c r="T49">
         <v>25</v>
       </c>
-      <c r="U31">
+      <c r="U49">
         <v>19</v>
       </c>
-      <c r="V31">
+      <c r="V49">
         <v>23</v>
       </c>
-      <c r="W31">
+      <c r="W49">
         <v>20</v>
       </c>
-      <c r="X31">
+      <c r="X49">
         <v>20</v>
       </c>
-      <c r="Y31">
+      <c r="Y49">
         <v>23</v>
       </c>
-      <c r="Z31">
+      <c r="Z49">
         <v>20</v>
       </c>
-      <c r="AA31">
+      <c r="AA49">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="P32" s="2"/>
-      <c r="U32">
+    <row r="50" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P50" s="2"/>
+      <c r="U50">
         <v>20</v>
       </c>
-      <c r="V32">
+      <c r="V50">
         <v>25</v>
       </c>
-      <c r="W32">
+      <c r="W50">
         <v>25</v>
       </c>
-      <c r="X32">
+      <c r="X50">
         <v>22</v>
       </c>
-      <c r="Y32">
+      <c r="Y50">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P33" s="2"/>
+    <row r="51" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P51" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M28:P29 A22:P26">
-    <cfRule type="expression" dxfId="383" priority="49">
-      <formula>$Q22 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="382" priority="50">
-      <formula>$Q22 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="51">
-      <formula>$Q22 = 1</formula>
+  <conditionalFormatting sqref="M46:P47 A40:P44">
+    <cfRule type="expression" dxfId="377" priority="91">
+      <formula>$Q40 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="376" priority="92">
+      <formula>$Q40 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="375" priority="93">
+      <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:L29">
-    <cfRule type="expression" dxfId="380" priority="43">
+  <conditionalFormatting sqref="A46:L47">
+    <cfRule type="expression" dxfId="374" priority="85">
+      <formula>$Q46 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="86">
+      <formula>$Q46 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="87">
+      <formula>$Q46 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:L45">
+    <cfRule type="expression" dxfId="371" priority="79">
+      <formula>$Q45 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="80">
+      <formula>$Q45 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="81">
+      <formula>$Q45 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M45:P45">
+    <cfRule type="expression" dxfId="368" priority="76">
+      <formula>$Q45 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="367" priority="77">
+      <formula>$Q45 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="78">
+      <formula>$Q45 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:P33 A23:P25 A29:P30">
+    <cfRule type="expression" dxfId="365" priority="61">
+      <formula>$Q23 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="62">
+      <formula>$Q23 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="63">
+      <formula>$Q23 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:L33">
+    <cfRule type="expression" dxfId="362" priority="58">
+      <formula>$Q32 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="59">
+      <formula>$Q32 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="60">
+      <formula>$Q32 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:L31">
+    <cfRule type="expression" dxfId="359" priority="55">
+      <formula>$Q31 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="56">
+      <formula>$Q31 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="57">
+      <formula>$Q31 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M31:P31">
+    <cfRule type="expression" dxfId="356" priority="52">
+      <formula>$Q31 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="53">
+      <formula>$Q31 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="54">
+      <formula>$Q31 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:P26">
+    <cfRule type="expression" dxfId="353" priority="49">
+      <formula>$Q26 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="352" priority="50">
+      <formula>$Q26 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="351" priority="51">
+      <formula>$Q26 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:P27">
+    <cfRule type="expression" dxfId="350" priority="46">
+      <formula>$Q27 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="47">
+      <formula>$Q27 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="48">
+      <formula>$Q27 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:P28">
+    <cfRule type="expression" dxfId="347" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="44">
+    <cfRule type="expression" dxfId="346" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="45">
+    <cfRule type="expression" dxfId="345" priority="45">
       <formula>$Q28 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="377" priority="37">
-      <formula>$Q27 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="376" priority="38">
-      <formula>$Q27 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="375" priority="39">
-      <formula>$Q27 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:P27">
-    <cfRule type="expression" dxfId="374" priority="34">
-      <formula>$Q27 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="35">
-      <formula>$Q27 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="372" priority="36">
-      <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P15 A5:P7 A11:P12">
-    <cfRule type="expression" dxfId="371" priority="19">
+    <cfRule type="expression" dxfId="344" priority="19">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="20">
+    <cfRule type="expression" dxfId="343" priority="20">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="21">
+    <cfRule type="expression" dxfId="342" priority="21">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L15">
-    <cfRule type="expression" dxfId="368" priority="16">
+    <cfRule type="expression" dxfId="341" priority="16">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="17">
+    <cfRule type="expression" dxfId="340" priority="17">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="18">
+    <cfRule type="expression" dxfId="339" priority="18">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="365" priority="13">
+    <cfRule type="expression" dxfId="338" priority="13">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="14">
+    <cfRule type="expression" dxfId="337" priority="14">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="15">
+    <cfRule type="expression" dxfId="336" priority="15">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="362" priority="10">
+    <cfRule type="expression" dxfId="335" priority="10">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="11">
+    <cfRule type="expression" dxfId="334" priority="11">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="12">
+    <cfRule type="expression" dxfId="333" priority="12">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:P8">
-    <cfRule type="expression" dxfId="359" priority="7">
+    <cfRule type="expression" dxfId="332" priority="7">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="8">
+    <cfRule type="expression" dxfId="331" priority="8">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="9">
+    <cfRule type="expression" dxfId="330" priority="9">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9">
-    <cfRule type="expression" dxfId="356" priority="4">
+    <cfRule type="expression" dxfId="329" priority="4">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="5">
+    <cfRule type="expression" dxfId="328" priority="5">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="6">
+    <cfRule type="expression" dxfId="327" priority="6">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:P10">
-    <cfRule type="expression" dxfId="353" priority="1">
+    <cfRule type="expression" dxfId="326" priority="1">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="2">
+    <cfRule type="expression" dxfId="325" priority="2">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="3">
+    <cfRule type="expression" dxfId="324" priority="3">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6016,8 +6900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CDEDFA-6CBB-49A9-9ABF-AEAEDB20C7C2}">
   <dimension ref="A1:AG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S103" sqref="S103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6249,7 +7133,7 @@
         <v>0.5</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q13" si="4">IF(P6 &lt; 1, 3, IF(P6 &gt;= P$14, 1, 2))</f>
+        <f t="shared" ref="Q6:Q12" si="4">IF(P6 &lt; 1, 3, IF(P6 &gt;= P$14, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S6">
@@ -6890,7 +7774,7 @@
         <v>0.5</v>
       </c>
       <c r="Q20">
-        <f t="shared" ref="Q20:Q27" si="9">IF(P20 &lt; 1, 3, IF(P20 &gt;= P$28, 1, 2))</f>
+        <f t="shared" ref="Q20:Q26" si="9">IF(P20 &lt; 1, 3, IF(P20 &gt;= P$28, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S20">
@@ -7622,7 +8506,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="Q40">
-        <f t="shared" ref="Q40:Q47" si="14">IF(P40 &lt; 1, 3, IF(P40 &gt;= P$48, 1, 2))</f>
+        <f t="shared" ref="Q40:Q46" si="14">IF(P40 &lt; 1, 3, IF(P40 &gt;= P$48, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S40">
@@ -10141,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="S101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T101">
         <v>23</v>
@@ -10192,6 +11076,9 @@
       <c r="P102" s="5">
         <f t="shared" si="31"/>
         <v>0.46</v>
+      </c>
+      <c r="S102">
+        <v>10</v>
       </c>
       <c r="T102">
         <v>25</v>
@@ -10837,695 +11724,695 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A58:P61">
-    <cfRule type="expression" dxfId="350" priority="196">
+    <cfRule type="expression" dxfId="323" priority="196">
       <formula>$Q58 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="197">
+    <cfRule type="expression" dxfId="322" priority="197">
       <formula>$Q58 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="198">
+    <cfRule type="expression" dxfId="321" priority="198">
       <formula>$Q58 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:P57">
-    <cfRule type="expression" dxfId="347" priority="217">
+    <cfRule type="expression" dxfId="320" priority="217">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="218">
+    <cfRule type="expression" dxfId="319" priority="218">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="219">
+    <cfRule type="expression" dxfId="318" priority="219">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:L65">
-    <cfRule type="expression" dxfId="344" priority="214">
+    <cfRule type="expression" dxfId="317" priority="214">
       <formula>$Q65 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="215">
+    <cfRule type="expression" dxfId="316" priority="215">
       <formula>$Q65 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="216">
+    <cfRule type="expression" dxfId="315" priority="216">
       <formula>$Q65 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:L63">
-    <cfRule type="expression" dxfId="341" priority="211">
+    <cfRule type="expression" dxfId="314" priority="211">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="212">
+    <cfRule type="expression" dxfId="313" priority="212">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="213">
+    <cfRule type="expression" dxfId="312" priority="213">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:P63 M65:P65">
-    <cfRule type="expression" dxfId="338" priority="208">
+    <cfRule type="expression" dxfId="311" priority="208">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="209">
+    <cfRule type="expression" dxfId="310" priority="209">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="210">
+    <cfRule type="expression" dxfId="309" priority="210">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:L62">
-    <cfRule type="expression" dxfId="335" priority="205">
+    <cfRule type="expression" dxfId="308" priority="205">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="206">
+    <cfRule type="expression" dxfId="307" priority="206">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="207">
+    <cfRule type="expression" dxfId="306" priority="207">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P62">
-    <cfRule type="expression" dxfId="332" priority="202">
+    <cfRule type="expression" dxfId="305" priority="202">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="203">
+    <cfRule type="expression" dxfId="304" priority="203">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="204">
+    <cfRule type="expression" dxfId="303" priority="204">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:L64">
-    <cfRule type="expression" dxfId="329" priority="193">
+    <cfRule type="expression" dxfId="302" priority="193">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="194">
+    <cfRule type="expression" dxfId="301" priority="194">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="195">
+    <cfRule type="expression" dxfId="300" priority="195">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:P64">
-    <cfRule type="expression" dxfId="326" priority="190">
+    <cfRule type="expression" dxfId="299" priority="190">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="191">
+    <cfRule type="expression" dxfId="298" priority="191">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="192">
+    <cfRule type="expression" dxfId="297" priority="192">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:P81">
-    <cfRule type="expression" dxfId="323" priority="169">
+    <cfRule type="expression" dxfId="296" priority="169">
       <formula>$Q78 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="170">
+    <cfRule type="expression" dxfId="295" priority="170">
       <formula>$Q78 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="171">
+    <cfRule type="expression" dxfId="294" priority="171">
       <formula>$Q78 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:P77">
-    <cfRule type="expression" dxfId="320" priority="187">
+    <cfRule type="expression" dxfId="293" priority="187">
       <formula>$Q77 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="188">
+    <cfRule type="expression" dxfId="292" priority="188">
       <formula>$Q77 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="189">
+    <cfRule type="expression" dxfId="291" priority="189">
       <formula>$Q77 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:L85">
-    <cfRule type="expression" dxfId="317" priority="184">
+    <cfRule type="expression" dxfId="290" priority="184">
       <formula>$Q85 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="185">
+    <cfRule type="expression" dxfId="289" priority="185">
       <formula>$Q85 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="186">
+    <cfRule type="expression" dxfId="288" priority="186">
       <formula>$Q85 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:L83">
-    <cfRule type="expression" dxfId="314" priority="181">
+    <cfRule type="expression" dxfId="287" priority="181">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="182">
+    <cfRule type="expression" dxfId="286" priority="182">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="183">
+    <cfRule type="expression" dxfId="285" priority="183">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P83 M85:P85">
-    <cfRule type="expression" dxfId="311" priority="178">
+    <cfRule type="expression" dxfId="284" priority="178">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="179">
+    <cfRule type="expression" dxfId="283" priority="179">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="180">
+    <cfRule type="expression" dxfId="282" priority="180">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:L82">
-    <cfRule type="expression" dxfId="308" priority="175">
+    <cfRule type="expression" dxfId="281" priority="175">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="176">
+    <cfRule type="expression" dxfId="280" priority="176">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="177">
+    <cfRule type="expression" dxfId="279" priority="177">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:P82">
-    <cfRule type="expression" dxfId="305" priority="172">
+    <cfRule type="expression" dxfId="278" priority="172">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="173">
+    <cfRule type="expression" dxfId="277" priority="173">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="174">
+    <cfRule type="expression" dxfId="276" priority="174">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:L84">
-    <cfRule type="expression" dxfId="302" priority="166">
+    <cfRule type="expression" dxfId="275" priority="166">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="167">
+    <cfRule type="expression" dxfId="274" priority="167">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="168">
+    <cfRule type="expression" dxfId="273" priority="168">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84:P84">
-    <cfRule type="expression" dxfId="299" priority="163">
+    <cfRule type="expression" dxfId="272" priority="163">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="164">
+    <cfRule type="expression" dxfId="271" priority="164">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="165">
+    <cfRule type="expression" dxfId="270" priority="165">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:P97">
-    <cfRule type="expression" dxfId="296" priority="142">
+    <cfRule type="expression" dxfId="269" priority="142">
       <formula>$Q94 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="143">
+    <cfRule type="expression" dxfId="268" priority="143">
       <formula>$Q94 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="144">
+    <cfRule type="expression" dxfId="267" priority="144">
       <formula>$Q94 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:P93">
-    <cfRule type="expression" dxfId="293" priority="160">
+    <cfRule type="expression" dxfId="266" priority="160">
       <formula>$Q93 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="161">
+    <cfRule type="expression" dxfId="265" priority="161">
       <formula>$Q93 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="162">
+    <cfRule type="expression" dxfId="264" priority="162">
       <formula>$Q93 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:L101">
-    <cfRule type="expression" dxfId="290" priority="157">
+    <cfRule type="expression" dxfId="263" priority="157">
       <formula>$Q101 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="158">
+    <cfRule type="expression" dxfId="262" priority="158">
       <formula>$Q101 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="159">
+    <cfRule type="expression" dxfId="261" priority="159">
       <formula>$Q101 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:L99">
-    <cfRule type="expression" dxfId="287" priority="154">
+    <cfRule type="expression" dxfId="260" priority="154">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="155">
+    <cfRule type="expression" dxfId="259" priority="155">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="156">
+    <cfRule type="expression" dxfId="258" priority="156">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99:P99 M101:P101">
-    <cfRule type="expression" dxfId="284" priority="151">
+    <cfRule type="expression" dxfId="257" priority="151">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="152">
+    <cfRule type="expression" dxfId="256" priority="152">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="153">
+    <cfRule type="expression" dxfId="255" priority="153">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:L98">
-    <cfRule type="expression" dxfId="281" priority="148">
+    <cfRule type="expression" dxfId="254" priority="148">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="149">
+    <cfRule type="expression" dxfId="253" priority="149">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="150">
+    <cfRule type="expression" dxfId="252" priority="150">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98:P98">
-    <cfRule type="expression" dxfId="278" priority="145">
+    <cfRule type="expression" dxfId="251" priority="145">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="146">
+    <cfRule type="expression" dxfId="250" priority="146">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="147">
+    <cfRule type="expression" dxfId="249" priority="147">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:L100">
-    <cfRule type="expression" dxfId="275" priority="139">
+    <cfRule type="expression" dxfId="248" priority="139">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="140">
+    <cfRule type="expression" dxfId="247" priority="140">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="141">
+    <cfRule type="expression" dxfId="246" priority="141">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100:P100">
-    <cfRule type="expression" dxfId="272" priority="136">
+    <cfRule type="expression" dxfId="245" priority="136">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="137">
+    <cfRule type="expression" dxfId="244" priority="137">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="138">
+    <cfRule type="expression" dxfId="243" priority="138">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:P113">
-    <cfRule type="expression" dxfId="269" priority="115">
+    <cfRule type="expression" dxfId="242" priority="115">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="116">
+    <cfRule type="expression" dxfId="241" priority="116">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="117">
+    <cfRule type="expression" dxfId="240" priority="117">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:P109">
-    <cfRule type="expression" dxfId="266" priority="133">
+    <cfRule type="expression" dxfId="239" priority="133">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="134">
+    <cfRule type="expression" dxfId="238" priority="134">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="135">
+    <cfRule type="expression" dxfId="237" priority="135">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:L117">
-    <cfRule type="expression" dxfId="263" priority="130">
+    <cfRule type="expression" dxfId="236" priority="130">
       <formula>$Q117 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="131">
+    <cfRule type="expression" dxfId="235" priority="131">
       <formula>$Q117 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="132">
+    <cfRule type="expression" dxfId="234" priority="132">
       <formula>$Q117 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:L115">
-    <cfRule type="expression" dxfId="260" priority="127">
+    <cfRule type="expression" dxfId="233" priority="127">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="128">
+    <cfRule type="expression" dxfId="232" priority="128">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="129">
+    <cfRule type="expression" dxfId="231" priority="129">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115:P115 M117:P117">
-    <cfRule type="expression" dxfId="257" priority="124">
+    <cfRule type="expression" dxfId="230" priority="124">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="125">
+    <cfRule type="expression" dxfId="229" priority="125">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="126">
+    <cfRule type="expression" dxfId="228" priority="126">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:L114">
-    <cfRule type="expression" dxfId="254" priority="121">
+    <cfRule type="expression" dxfId="227" priority="121">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="122">
+    <cfRule type="expression" dxfId="226" priority="122">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="123">
+    <cfRule type="expression" dxfId="225" priority="123">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M114:P114">
-    <cfRule type="expression" dxfId="251" priority="118">
+    <cfRule type="expression" dxfId="224" priority="118">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="119">
+    <cfRule type="expression" dxfId="223" priority="119">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="120">
+    <cfRule type="expression" dxfId="222" priority="120">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:L116">
-    <cfRule type="expression" dxfId="248" priority="112">
+    <cfRule type="expression" dxfId="221" priority="112">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="113">
+    <cfRule type="expression" dxfId="220" priority="113">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="114">
+    <cfRule type="expression" dxfId="219" priority="114">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M116:P116">
-    <cfRule type="expression" dxfId="245" priority="109">
+    <cfRule type="expression" dxfId="218" priority="109">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="110">
+    <cfRule type="expression" dxfId="217" priority="110">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="111">
+    <cfRule type="expression" dxfId="216" priority="111">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:P9">
-    <cfRule type="expression" dxfId="242" priority="88">
+    <cfRule type="expression" dxfId="215" priority="88">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="89">
+    <cfRule type="expression" dxfId="214" priority="89">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="90">
+    <cfRule type="expression" dxfId="213" priority="90">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="239" priority="106">
+    <cfRule type="expression" dxfId="212" priority="106">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="107">
+    <cfRule type="expression" dxfId="211" priority="107">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="108">
+    <cfRule type="expression" dxfId="210" priority="108">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="236" priority="103">
+    <cfRule type="expression" dxfId="209" priority="103">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="104">
+    <cfRule type="expression" dxfId="208" priority="104">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="105">
+    <cfRule type="expression" dxfId="207" priority="105">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="233" priority="100">
+    <cfRule type="expression" dxfId="206" priority="100">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="101">
+    <cfRule type="expression" dxfId="205" priority="101">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="102">
+    <cfRule type="expression" dxfId="204" priority="102">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:P11 M13:P13">
-    <cfRule type="expression" dxfId="230" priority="97">
+    <cfRule type="expression" dxfId="203" priority="97">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="98">
+    <cfRule type="expression" dxfId="202" priority="98">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="99">
+    <cfRule type="expression" dxfId="201" priority="99">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="227" priority="94">
+    <cfRule type="expression" dxfId="200" priority="94">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="95">
+    <cfRule type="expression" dxfId="199" priority="95">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="96">
+    <cfRule type="expression" dxfId="198" priority="96">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="224" priority="91">
+    <cfRule type="expression" dxfId="197" priority="91">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="92">
+    <cfRule type="expression" dxfId="196" priority="92">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="93">
+    <cfRule type="expression" dxfId="195" priority="93">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="221" priority="85">
+    <cfRule type="expression" dxfId="194" priority="85">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="86">
+    <cfRule type="expression" dxfId="193" priority="86">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="87">
+    <cfRule type="expression" dxfId="192" priority="87">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="218" priority="82">
+    <cfRule type="expression" dxfId="191" priority="82">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="83">
+    <cfRule type="expression" dxfId="190" priority="83">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="84">
+    <cfRule type="expression" dxfId="189" priority="84">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:P43">
-    <cfRule type="expression" dxfId="215" priority="7">
+    <cfRule type="expression" dxfId="188" priority="7">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="8">
+    <cfRule type="expression" dxfId="187" priority="8">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="9">
+    <cfRule type="expression" dxfId="186" priority="9">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:P39">
-    <cfRule type="expression" dxfId="212" priority="25">
+    <cfRule type="expression" dxfId="185" priority="25">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="26">
+    <cfRule type="expression" dxfId="184" priority="26">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="27">
+    <cfRule type="expression" dxfId="183" priority="27">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:L47">
-    <cfRule type="expression" dxfId="209" priority="22">
+    <cfRule type="expression" dxfId="182" priority="22">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="23">
+    <cfRule type="expression" dxfId="181" priority="23">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="24">
+    <cfRule type="expression" dxfId="180" priority="24">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="206" priority="19">
+    <cfRule type="expression" dxfId="179" priority="19">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="20">
+    <cfRule type="expression" dxfId="178" priority="20">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="21">
+    <cfRule type="expression" dxfId="177" priority="21">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45 M47:P47">
-    <cfRule type="expression" dxfId="203" priority="16">
+    <cfRule type="expression" dxfId="176" priority="16">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="17">
+    <cfRule type="expression" dxfId="175" priority="17">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="18">
+    <cfRule type="expression" dxfId="174" priority="18">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:L44">
-    <cfRule type="expression" dxfId="200" priority="13">
+    <cfRule type="expression" dxfId="173" priority="13">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="14">
+    <cfRule type="expression" dxfId="172" priority="14">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="15">
+    <cfRule type="expression" dxfId="171" priority="15">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P44">
-    <cfRule type="expression" dxfId="197" priority="10">
+    <cfRule type="expression" dxfId="170" priority="10">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="11">
+    <cfRule type="expression" dxfId="169" priority="11">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="12">
+    <cfRule type="expression" dxfId="168" priority="12">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L46">
-    <cfRule type="expression" dxfId="194" priority="4">
+    <cfRule type="expression" dxfId="167" priority="4">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="5">
+    <cfRule type="expression" dxfId="166" priority="5">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="6">
+    <cfRule type="expression" dxfId="165" priority="6">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:P46">
-    <cfRule type="expression" dxfId="191" priority="1">
+    <cfRule type="expression" dxfId="164" priority="1">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="2">
+    <cfRule type="expression" dxfId="163" priority="2">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="3">
+    <cfRule type="expression" dxfId="162" priority="3">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:P23">
-    <cfRule type="expression" dxfId="188" priority="34">
+    <cfRule type="expression" dxfId="161" priority="34">
       <formula>$Q20 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="35">
+    <cfRule type="expression" dxfId="160" priority="35">
       <formula>$Q20 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="36">
+    <cfRule type="expression" dxfId="159" priority="36">
       <formula>$Q20 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:P19">
-    <cfRule type="expression" dxfId="185" priority="52">
+    <cfRule type="expression" dxfId="158" priority="52">
       <formula>$Q19 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="53">
+    <cfRule type="expression" dxfId="157" priority="53">
       <formula>$Q19 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="54">
+    <cfRule type="expression" dxfId="156" priority="54">
       <formula>$Q19 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="182" priority="49">
+    <cfRule type="expression" dxfId="155" priority="49">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="50">
+    <cfRule type="expression" dxfId="154" priority="50">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="51">
+    <cfRule type="expression" dxfId="153" priority="51">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:L25">
-    <cfRule type="expression" dxfId="179" priority="46">
+    <cfRule type="expression" dxfId="152" priority="46">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="47">
+    <cfRule type="expression" dxfId="151" priority="47">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="48">
+    <cfRule type="expression" dxfId="150" priority="48">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P25 M27:P27">
-    <cfRule type="expression" dxfId="176" priority="43">
+    <cfRule type="expression" dxfId="149" priority="43">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="44">
+    <cfRule type="expression" dxfId="148" priority="44">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="45">
+    <cfRule type="expression" dxfId="147" priority="45">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:L24">
-    <cfRule type="expression" dxfId="173" priority="40">
+    <cfRule type="expression" dxfId="146" priority="40">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="41">
+    <cfRule type="expression" dxfId="145" priority="41">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="42">
+    <cfRule type="expression" dxfId="144" priority="42">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:P24">
-    <cfRule type="expression" dxfId="170" priority="37">
+    <cfRule type="expression" dxfId="143" priority="37">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="38">
+    <cfRule type="expression" dxfId="142" priority="38">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="39">
+    <cfRule type="expression" dxfId="141" priority="39">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:L26">
-    <cfRule type="expression" dxfId="167" priority="31">
+    <cfRule type="expression" dxfId="140" priority="31">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="32">
+    <cfRule type="expression" dxfId="139" priority="32">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="33">
+    <cfRule type="expression" dxfId="138" priority="33">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:P26">
-    <cfRule type="expression" dxfId="164" priority="28">
+    <cfRule type="expression" dxfId="137" priority="28">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="29">
+    <cfRule type="expression" dxfId="136" priority="29">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="30">
+    <cfRule type="expression" dxfId="135" priority="30">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99345BB3-AC8C-4C4D-82BE-3F22FD77A0CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2131133-5D99-4EF9-B4D3-F600ADD86BF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpieleUL" sheetId="7" r:id="rId1"/>
     <sheet name="Pordenone" sheetId="9" r:id="rId2"/>
     <sheet name="SpieleAR" sheetId="6" r:id="rId3"/>
-    <sheet name="SpieleMPO" sheetId="8" r:id="rId4"/>
+    <sheet name="U13F" sheetId="10" r:id="rId4"/>
+    <sheet name="SpieleMPO" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="quot_m1">SpieleAR!#REF!</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="345">
   <si>
     <t>Lea</t>
   </si>
@@ -1044,6 +1045,18 @@
   </si>
   <si>
     <t>17:11:w:16/2</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - ATSC</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - SVG</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Wo</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - WSL</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1169,637 @@
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="444">
+  <dxfs count="534">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7322,200 +7965,200 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M46:P47 A40:P44">
-    <cfRule type="expression" dxfId="443" priority="91">
+    <cfRule type="expression" dxfId="533" priority="91">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="92">
+    <cfRule type="expression" dxfId="532" priority="92">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="93">
+    <cfRule type="expression" dxfId="531" priority="93">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L47">
-    <cfRule type="expression" dxfId="440" priority="85">
+    <cfRule type="expression" dxfId="530" priority="85">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="86">
+    <cfRule type="expression" dxfId="529" priority="86">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="87">
+    <cfRule type="expression" dxfId="528" priority="87">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="437" priority="79">
+    <cfRule type="expression" dxfId="527" priority="79">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="80">
+    <cfRule type="expression" dxfId="526" priority="80">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="81">
+    <cfRule type="expression" dxfId="525" priority="81">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45">
-    <cfRule type="expression" dxfId="434" priority="76">
+    <cfRule type="expression" dxfId="524" priority="76">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="77">
+    <cfRule type="expression" dxfId="523" priority="77">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="78">
+    <cfRule type="expression" dxfId="522" priority="78">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:P33 A23:P25 A29:P30">
-    <cfRule type="expression" dxfId="431" priority="61">
+    <cfRule type="expression" dxfId="521" priority="61">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="62">
+    <cfRule type="expression" dxfId="520" priority="62">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="63">
+    <cfRule type="expression" dxfId="519" priority="63">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L33">
-    <cfRule type="expression" dxfId="428" priority="58">
+    <cfRule type="expression" dxfId="518" priority="58">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="59">
+    <cfRule type="expression" dxfId="517" priority="59">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="60">
+    <cfRule type="expression" dxfId="516" priority="60">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="425" priority="55">
+    <cfRule type="expression" dxfId="515" priority="55">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="56">
+    <cfRule type="expression" dxfId="514" priority="56">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="57">
+    <cfRule type="expression" dxfId="513" priority="57">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="422" priority="52">
+    <cfRule type="expression" dxfId="512" priority="52">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="53">
+    <cfRule type="expression" dxfId="511" priority="53">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="54">
+    <cfRule type="expression" dxfId="510" priority="54">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:P26">
-    <cfRule type="expression" dxfId="419" priority="49">
+    <cfRule type="expression" dxfId="509" priority="49">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="50">
+    <cfRule type="expression" dxfId="508" priority="50">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="51">
+    <cfRule type="expression" dxfId="507" priority="51">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:P27">
-    <cfRule type="expression" dxfId="416" priority="46">
+    <cfRule type="expression" dxfId="506" priority="46">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="47">
+    <cfRule type="expression" dxfId="505" priority="47">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="48">
+    <cfRule type="expression" dxfId="504" priority="48">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:P28">
-    <cfRule type="expression" dxfId="413" priority="43">
+    <cfRule type="expression" dxfId="503" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="44">
+    <cfRule type="expression" dxfId="502" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="45">
+    <cfRule type="expression" dxfId="501" priority="45">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P15 A5:P7 A11:P12">
-    <cfRule type="expression" dxfId="410" priority="19">
+    <cfRule type="expression" dxfId="500" priority="19">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="20">
+    <cfRule type="expression" dxfId="499" priority="20">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="21">
+    <cfRule type="expression" dxfId="498" priority="21">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L15">
-    <cfRule type="expression" dxfId="407" priority="16">
+    <cfRule type="expression" dxfId="497" priority="16">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="17">
+    <cfRule type="expression" dxfId="496" priority="17">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="18">
+    <cfRule type="expression" dxfId="495" priority="18">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="404" priority="13">
+    <cfRule type="expression" dxfId="494" priority="13">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="14">
+    <cfRule type="expression" dxfId="493" priority="14">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="15">
+    <cfRule type="expression" dxfId="492" priority="15">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="401" priority="10">
+    <cfRule type="expression" dxfId="491" priority="10">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="11">
+    <cfRule type="expression" dxfId="490" priority="11">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="12">
+    <cfRule type="expression" dxfId="489" priority="12">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:P8">
-    <cfRule type="expression" dxfId="398" priority="7">
+    <cfRule type="expression" dxfId="488" priority="7">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="8">
+    <cfRule type="expression" dxfId="487" priority="8">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="9">
+    <cfRule type="expression" dxfId="486" priority="9">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9">
-    <cfRule type="expression" dxfId="395" priority="4">
+    <cfRule type="expression" dxfId="485" priority="4">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="5">
+    <cfRule type="expression" dxfId="484" priority="5">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="6">
+    <cfRule type="expression" dxfId="483" priority="6">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:P10">
-    <cfRule type="expression" dxfId="392" priority="1">
+    <cfRule type="expression" dxfId="482" priority="1">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="2">
+    <cfRule type="expression" dxfId="481" priority="2">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="3">
+    <cfRule type="expression" dxfId="480" priority="3">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12349,695 +12992,695 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A58:P61">
-    <cfRule type="expression" dxfId="389" priority="196">
+    <cfRule type="expression" dxfId="479" priority="196">
       <formula>$Q58 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="197">
+    <cfRule type="expression" dxfId="478" priority="197">
       <formula>$Q58 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="198">
+    <cfRule type="expression" dxfId="477" priority="198">
       <formula>$Q58 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:P57">
-    <cfRule type="expression" dxfId="386" priority="217">
+    <cfRule type="expression" dxfId="476" priority="217">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="218">
+    <cfRule type="expression" dxfId="475" priority="218">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="219">
+    <cfRule type="expression" dxfId="474" priority="219">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:L65">
-    <cfRule type="expression" dxfId="383" priority="214">
+    <cfRule type="expression" dxfId="473" priority="214">
       <formula>$Q65 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="215">
+    <cfRule type="expression" dxfId="472" priority="215">
       <formula>$Q65 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="216">
+    <cfRule type="expression" dxfId="471" priority="216">
       <formula>$Q65 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:L63">
-    <cfRule type="expression" dxfId="380" priority="211">
+    <cfRule type="expression" dxfId="470" priority="211">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="212">
+    <cfRule type="expression" dxfId="469" priority="212">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="213">
+    <cfRule type="expression" dxfId="468" priority="213">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:P63 M65:P65">
-    <cfRule type="expression" dxfId="377" priority="208">
+    <cfRule type="expression" dxfId="467" priority="208">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="209">
+    <cfRule type="expression" dxfId="466" priority="209">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="210">
+    <cfRule type="expression" dxfId="465" priority="210">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:L62">
-    <cfRule type="expression" dxfId="374" priority="205">
+    <cfRule type="expression" dxfId="464" priority="205">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="206">
+    <cfRule type="expression" dxfId="463" priority="206">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="207">
+    <cfRule type="expression" dxfId="462" priority="207">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P62">
-    <cfRule type="expression" dxfId="371" priority="202">
+    <cfRule type="expression" dxfId="461" priority="202">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="203">
+    <cfRule type="expression" dxfId="460" priority="203">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="204">
+    <cfRule type="expression" dxfId="459" priority="204">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:L64">
-    <cfRule type="expression" dxfId="368" priority="193">
+    <cfRule type="expression" dxfId="458" priority="193">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="194">
+    <cfRule type="expression" dxfId="457" priority="194">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="195">
+    <cfRule type="expression" dxfId="456" priority="195">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:P64">
-    <cfRule type="expression" dxfId="365" priority="190">
+    <cfRule type="expression" dxfId="455" priority="190">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="191">
+    <cfRule type="expression" dxfId="454" priority="191">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="192">
+    <cfRule type="expression" dxfId="453" priority="192">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:P81">
-    <cfRule type="expression" dxfId="362" priority="169">
+    <cfRule type="expression" dxfId="452" priority="169">
       <formula>$Q78 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="170">
+    <cfRule type="expression" dxfId="451" priority="170">
       <formula>$Q78 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="171">
+    <cfRule type="expression" dxfId="450" priority="171">
       <formula>$Q78 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:P77">
-    <cfRule type="expression" dxfId="359" priority="187">
+    <cfRule type="expression" dxfId="449" priority="187">
       <formula>$Q77 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="188">
+    <cfRule type="expression" dxfId="448" priority="188">
       <formula>$Q77 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="189">
+    <cfRule type="expression" dxfId="447" priority="189">
       <formula>$Q77 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:L85">
-    <cfRule type="expression" dxfId="356" priority="184">
+    <cfRule type="expression" dxfId="446" priority="184">
       <formula>$Q85 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="185">
+    <cfRule type="expression" dxfId="445" priority="185">
       <formula>$Q85 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="186">
+    <cfRule type="expression" dxfId="444" priority="186">
       <formula>$Q85 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:L83">
-    <cfRule type="expression" dxfId="353" priority="181">
+    <cfRule type="expression" dxfId="443" priority="181">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="182">
+    <cfRule type="expression" dxfId="442" priority="182">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="183">
+    <cfRule type="expression" dxfId="441" priority="183">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P83 M85:P85">
-    <cfRule type="expression" dxfId="350" priority="178">
+    <cfRule type="expression" dxfId="440" priority="178">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="179">
+    <cfRule type="expression" dxfId="439" priority="179">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="180">
+    <cfRule type="expression" dxfId="438" priority="180">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:L82">
-    <cfRule type="expression" dxfId="347" priority="175">
+    <cfRule type="expression" dxfId="437" priority="175">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="176">
+    <cfRule type="expression" dxfId="436" priority="176">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="177">
+    <cfRule type="expression" dxfId="435" priority="177">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:P82">
-    <cfRule type="expression" dxfId="344" priority="172">
+    <cfRule type="expression" dxfId="434" priority="172">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="173">
+    <cfRule type="expression" dxfId="433" priority="173">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="174">
+    <cfRule type="expression" dxfId="432" priority="174">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:L84">
-    <cfRule type="expression" dxfId="341" priority="166">
+    <cfRule type="expression" dxfId="431" priority="166">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="167">
+    <cfRule type="expression" dxfId="430" priority="167">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="168">
+    <cfRule type="expression" dxfId="429" priority="168">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84:P84">
-    <cfRule type="expression" dxfId="338" priority="163">
+    <cfRule type="expression" dxfId="428" priority="163">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="164">
+    <cfRule type="expression" dxfId="427" priority="164">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="165">
+    <cfRule type="expression" dxfId="426" priority="165">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:P97">
-    <cfRule type="expression" dxfId="335" priority="142">
+    <cfRule type="expression" dxfId="425" priority="142">
       <formula>$Q94 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="143">
+    <cfRule type="expression" dxfId="424" priority="143">
       <formula>$Q94 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="144">
+    <cfRule type="expression" dxfId="423" priority="144">
       <formula>$Q94 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:P93">
-    <cfRule type="expression" dxfId="332" priority="160">
+    <cfRule type="expression" dxfId="422" priority="160">
       <formula>$Q93 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="161">
+    <cfRule type="expression" dxfId="421" priority="161">
       <formula>$Q93 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="162">
+    <cfRule type="expression" dxfId="420" priority="162">
       <formula>$Q93 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:L101">
-    <cfRule type="expression" dxfId="329" priority="157">
+    <cfRule type="expression" dxfId="419" priority="157">
       <formula>$Q101 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="158">
+    <cfRule type="expression" dxfId="418" priority="158">
       <formula>$Q101 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="159">
+    <cfRule type="expression" dxfId="417" priority="159">
       <formula>$Q101 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:L99">
-    <cfRule type="expression" dxfId="326" priority="154">
+    <cfRule type="expression" dxfId="416" priority="154">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="155">
+    <cfRule type="expression" dxfId="415" priority="155">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="156">
+    <cfRule type="expression" dxfId="414" priority="156">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99:P99 M101:P101">
-    <cfRule type="expression" dxfId="323" priority="151">
+    <cfRule type="expression" dxfId="413" priority="151">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="152">
+    <cfRule type="expression" dxfId="412" priority="152">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="153">
+    <cfRule type="expression" dxfId="411" priority="153">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:L98">
-    <cfRule type="expression" dxfId="320" priority="148">
+    <cfRule type="expression" dxfId="410" priority="148">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="149">
+    <cfRule type="expression" dxfId="409" priority="149">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="150">
+    <cfRule type="expression" dxfId="408" priority="150">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98:P98">
-    <cfRule type="expression" dxfId="317" priority="145">
+    <cfRule type="expression" dxfId="407" priority="145">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="146">
+    <cfRule type="expression" dxfId="406" priority="146">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="147">
+    <cfRule type="expression" dxfId="405" priority="147">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:L100">
-    <cfRule type="expression" dxfId="314" priority="139">
+    <cfRule type="expression" dxfId="404" priority="139">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="140">
+    <cfRule type="expression" dxfId="403" priority="140">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="141">
+    <cfRule type="expression" dxfId="402" priority="141">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100:P100">
-    <cfRule type="expression" dxfId="311" priority="136">
+    <cfRule type="expression" dxfId="401" priority="136">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="137">
+    <cfRule type="expression" dxfId="400" priority="137">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="138">
+    <cfRule type="expression" dxfId="399" priority="138">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:P113">
-    <cfRule type="expression" dxfId="308" priority="115">
+    <cfRule type="expression" dxfId="398" priority="115">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="116">
+    <cfRule type="expression" dxfId="397" priority="116">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="117">
+    <cfRule type="expression" dxfId="396" priority="117">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:P109">
-    <cfRule type="expression" dxfId="305" priority="133">
+    <cfRule type="expression" dxfId="395" priority="133">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="134">
+    <cfRule type="expression" dxfId="394" priority="134">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="135">
+    <cfRule type="expression" dxfId="393" priority="135">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:L117">
-    <cfRule type="expression" dxfId="302" priority="130">
+    <cfRule type="expression" dxfId="392" priority="130">
       <formula>$Q117 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="131">
+    <cfRule type="expression" dxfId="391" priority="131">
       <formula>$Q117 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="132">
+    <cfRule type="expression" dxfId="390" priority="132">
       <formula>$Q117 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:L115">
-    <cfRule type="expression" dxfId="299" priority="127">
+    <cfRule type="expression" dxfId="389" priority="127">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="128">
+    <cfRule type="expression" dxfId="388" priority="128">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="129">
+    <cfRule type="expression" dxfId="387" priority="129">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115:P115 M117:P117">
-    <cfRule type="expression" dxfId="296" priority="124">
+    <cfRule type="expression" dxfId="386" priority="124">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="125">
+    <cfRule type="expression" dxfId="385" priority="125">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="126">
+    <cfRule type="expression" dxfId="384" priority="126">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:L114">
-    <cfRule type="expression" dxfId="293" priority="121">
+    <cfRule type="expression" dxfId="383" priority="121">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="122">
+    <cfRule type="expression" dxfId="382" priority="122">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="123">
+    <cfRule type="expression" dxfId="381" priority="123">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M114:P114">
-    <cfRule type="expression" dxfId="290" priority="118">
+    <cfRule type="expression" dxfId="380" priority="118">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="119">
+    <cfRule type="expression" dxfId="379" priority="119">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="120">
+    <cfRule type="expression" dxfId="378" priority="120">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:L116">
-    <cfRule type="expression" dxfId="287" priority="112">
+    <cfRule type="expression" dxfId="377" priority="112">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="113">
+    <cfRule type="expression" dxfId="376" priority="113">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="114">
+    <cfRule type="expression" dxfId="375" priority="114">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M116:P116">
-    <cfRule type="expression" dxfId="284" priority="109">
+    <cfRule type="expression" dxfId="374" priority="109">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="110">
+    <cfRule type="expression" dxfId="373" priority="110">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="111">
+    <cfRule type="expression" dxfId="372" priority="111">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:P9">
-    <cfRule type="expression" dxfId="281" priority="88">
+    <cfRule type="expression" dxfId="371" priority="88">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="89">
+    <cfRule type="expression" dxfId="370" priority="89">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="90">
+    <cfRule type="expression" dxfId="369" priority="90">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="278" priority="106">
+    <cfRule type="expression" dxfId="368" priority="106">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="107">
+    <cfRule type="expression" dxfId="367" priority="107">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="108">
+    <cfRule type="expression" dxfId="366" priority="108">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="275" priority="103">
+    <cfRule type="expression" dxfId="365" priority="103">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="104">
+    <cfRule type="expression" dxfId="364" priority="104">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="105">
+    <cfRule type="expression" dxfId="363" priority="105">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="272" priority="100">
+    <cfRule type="expression" dxfId="362" priority="100">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="101">
+    <cfRule type="expression" dxfId="361" priority="101">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="102">
+    <cfRule type="expression" dxfId="360" priority="102">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:P11 M13:P13">
-    <cfRule type="expression" dxfId="269" priority="97">
+    <cfRule type="expression" dxfId="359" priority="97">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="98">
+    <cfRule type="expression" dxfId="358" priority="98">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="99">
+    <cfRule type="expression" dxfId="357" priority="99">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="266" priority="94">
+    <cfRule type="expression" dxfId="356" priority="94">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="95">
+    <cfRule type="expression" dxfId="355" priority="95">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="96">
+    <cfRule type="expression" dxfId="354" priority="96">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="263" priority="91">
+    <cfRule type="expression" dxfId="353" priority="91">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="92">
+    <cfRule type="expression" dxfId="352" priority="92">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="93">
+    <cfRule type="expression" dxfId="351" priority="93">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="260" priority="85">
+    <cfRule type="expression" dxfId="350" priority="85">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="86">
+    <cfRule type="expression" dxfId="349" priority="86">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="87">
+    <cfRule type="expression" dxfId="348" priority="87">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="257" priority="82">
+    <cfRule type="expression" dxfId="347" priority="82">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="83">
+    <cfRule type="expression" dxfId="346" priority="83">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="84">
+    <cfRule type="expression" dxfId="345" priority="84">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:P43">
-    <cfRule type="expression" dxfId="254" priority="7">
+    <cfRule type="expression" dxfId="344" priority="7">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="8">
+    <cfRule type="expression" dxfId="343" priority="8">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="9">
+    <cfRule type="expression" dxfId="342" priority="9">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:P39">
-    <cfRule type="expression" dxfId="251" priority="25">
+    <cfRule type="expression" dxfId="341" priority="25">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="26">
+    <cfRule type="expression" dxfId="340" priority="26">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="27">
+    <cfRule type="expression" dxfId="339" priority="27">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:L47">
-    <cfRule type="expression" dxfId="248" priority="22">
+    <cfRule type="expression" dxfId="338" priority="22">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="23">
+    <cfRule type="expression" dxfId="337" priority="23">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="24">
+    <cfRule type="expression" dxfId="336" priority="24">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="245" priority="19">
+    <cfRule type="expression" dxfId="335" priority="19">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="20">
+    <cfRule type="expression" dxfId="334" priority="20">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="21">
+    <cfRule type="expression" dxfId="333" priority="21">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45 M47:P47">
-    <cfRule type="expression" dxfId="242" priority="16">
+    <cfRule type="expression" dxfId="332" priority="16">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="17">
+    <cfRule type="expression" dxfId="331" priority="17">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="18">
+    <cfRule type="expression" dxfId="330" priority="18">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:L44">
-    <cfRule type="expression" dxfId="239" priority="13">
+    <cfRule type="expression" dxfId="329" priority="13">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="14">
+    <cfRule type="expression" dxfId="328" priority="14">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="15">
+    <cfRule type="expression" dxfId="327" priority="15">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P44">
-    <cfRule type="expression" dxfId="236" priority="10">
+    <cfRule type="expression" dxfId="326" priority="10">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="11">
+    <cfRule type="expression" dxfId="325" priority="11">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="12">
+    <cfRule type="expression" dxfId="324" priority="12">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L46">
-    <cfRule type="expression" dxfId="233" priority="4">
+    <cfRule type="expression" dxfId="323" priority="4">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="5">
+    <cfRule type="expression" dxfId="322" priority="5">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="6">
+    <cfRule type="expression" dxfId="321" priority="6">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:P46">
-    <cfRule type="expression" dxfId="230" priority="1">
+    <cfRule type="expression" dxfId="320" priority="1">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="2">
+    <cfRule type="expression" dxfId="319" priority="2">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="3">
+    <cfRule type="expression" dxfId="318" priority="3">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:P23">
-    <cfRule type="expression" dxfId="227" priority="34">
+    <cfRule type="expression" dxfId="317" priority="34">
       <formula>$Q20 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="35">
+    <cfRule type="expression" dxfId="316" priority="35">
       <formula>$Q20 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="36">
+    <cfRule type="expression" dxfId="315" priority="36">
       <formula>$Q20 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:P19">
-    <cfRule type="expression" dxfId="224" priority="52">
+    <cfRule type="expression" dxfId="314" priority="52">
       <formula>$Q19 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="53">
+    <cfRule type="expression" dxfId="313" priority="53">
       <formula>$Q19 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="54">
+    <cfRule type="expression" dxfId="312" priority="54">
       <formula>$Q19 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="221" priority="49">
+    <cfRule type="expression" dxfId="311" priority="49">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="50">
+    <cfRule type="expression" dxfId="310" priority="50">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="51">
+    <cfRule type="expression" dxfId="309" priority="51">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:L25">
-    <cfRule type="expression" dxfId="218" priority="46">
+    <cfRule type="expression" dxfId="308" priority="46">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="47">
+    <cfRule type="expression" dxfId="307" priority="47">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="48">
+    <cfRule type="expression" dxfId="306" priority="48">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P25 M27:P27">
-    <cfRule type="expression" dxfId="215" priority="43">
+    <cfRule type="expression" dxfId="305" priority="43">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="44">
+    <cfRule type="expression" dxfId="304" priority="44">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="45">
+    <cfRule type="expression" dxfId="303" priority="45">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:L24">
-    <cfRule type="expression" dxfId="212" priority="40">
+    <cfRule type="expression" dxfId="302" priority="40">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="41">
+    <cfRule type="expression" dxfId="301" priority="41">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="42">
+    <cfRule type="expression" dxfId="300" priority="42">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:P24">
-    <cfRule type="expression" dxfId="209" priority="37">
+    <cfRule type="expression" dxfId="299" priority="37">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="38">
+    <cfRule type="expression" dxfId="298" priority="38">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="39">
+    <cfRule type="expression" dxfId="297" priority="39">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:L26">
-    <cfRule type="expression" dxfId="206" priority="31">
+    <cfRule type="expression" dxfId="296" priority="31">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="32">
+    <cfRule type="expression" dxfId="295" priority="32">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="33">
+    <cfRule type="expression" dxfId="294" priority="33">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:P26">
-    <cfRule type="expression" dxfId="203" priority="28">
+    <cfRule type="expression" dxfId="293" priority="28">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="29">
+    <cfRule type="expression" dxfId="292" priority="29">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="30">
+    <cfRule type="expression" dxfId="291" priority="30">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13050,8 +13693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17040,7 +17683,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="Q102">
-        <f>IF(P102 &lt; 1, 3, IF(P102 &gt;= P$113, 1, 2))</f>
+        <f t="shared" ref="Q102:Q111" si="32">IF(P102 &lt; 1, 3, IF(P102 &gt;= P$113, 1, 2))</f>
         <v>3</v>
       </c>
       <c r="S102">
@@ -17107,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <f>IF(P103 &lt; 1, 3, IF(P103 &gt;= P$113, 1, 2))</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="S103">
@@ -17186,7 +17829,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="Q104">
-        <f>IF(P104 &lt; 1, 3, IF(P104 &gt;= P$113, 1, 2))</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="S104">
@@ -17262,7 +17905,7 @@
         <v>0.5</v>
       </c>
       <c r="Q105">
-        <f>IF(P105 &lt; 1, 3, IF(P105 &gt;= P$113, 1, 2))</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="S105">
@@ -17338,7 +17981,7 @@
         <v>1.2352941176470589</v>
       </c>
       <c r="Q106">
-        <f>IF(P106 &lt; 1, 3, IF(P106 &gt;= P$113, 1, 2))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S106">
@@ -17408,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <f>IF(P107 &lt; 1, 3, IF(P107 &gt;= P$113, 1, 2))</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="S107">
@@ -17469,7 +18112,7 @@
         <v>MAX</v>
       </c>
       <c r="Q108">
-        <f>IF(P108 &lt; 1, 3, IF(P108 &gt;= P$113, 1, 2))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S108">
@@ -17530,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <f>IF(P109 &lt; 1, 3, IF(P109 &gt;= P$113, 1, 2))</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="S109">
@@ -17603,7 +18246,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <f>IF(P110 &lt; 1, 3, IF(P110 &gt;= P$113, 1, 2))</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="S110">
@@ -17676,7 +18319,7 @@
         <v>1.6</v>
       </c>
       <c r="Q111">
-        <f>IF(P111 &lt; 1, 3, IF(P111 &gt;= P$113, 1, 2))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S111">
@@ -17703,19 +18346,19 @@
         <v>41</v>
       </c>
       <c r="M112">
-        <f t="shared" ref="M112" si="32" xml:space="preserve"> B112 + D112 + F112 + H112 + J112</f>
+        <f t="shared" ref="M112" si="33" xml:space="preserve"> B112 + D112 + F112 + H112 + J112</f>
         <v>0</v>
       </c>
       <c r="N112">
-        <f t="shared" ref="N112" si="33" xml:space="preserve"> C112 + E112 + G112 + I112 + K112</f>
+        <f t="shared" ref="N112" si="34" xml:space="preserve"> C112 + E112 + G112 + I112 + K112</f>
         <v>0</v>
       </c>
       <c r="O112" s="1">
-        <f t="shared" ref="O112" si="34">M112 - N112</f>
+        <f t="shared" ref="O112" si="35">M112 - N112</f>
         <v>0</v>
       </c>
       <c r="P112" s="3">
-        <f t="shared" ref="P112" si="35" xml:space="preserve"> IF(M112+N112=0, 0, IF(N112=0, "MAX", M112/N112))</f>
+        <f t="shared" ref="P112" si="36" xml:space="preserve"> IF(M112+N112=0, 0, IF(N112=0, "MAX", M112/N112))</f>
         <v>0</v>
       </c>
       <c r="Q112">
@@ -17962,23 +18605,23 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <f t="shared" ref="M123" si="36" xml:space="preserve"> B123 + D123 + F123 + H123 + J123</f>
+        <f t="shared" ref="M123" si="37" xml:space="preserve"> B123 + D123 + F123 + H123 + J123</f>
         <v>8</v>
       </c>
       <c r="N123">
-        <f t="shared" ref="N123" si="37" xml:space="preserve"> C123 + E123 + G123 + I123 + K123</f>
+        <f t="shared" ref="N123" si="38" xml:space="preserve"> C123 + E123 + G123 + I123 + K123</f>
         <v>1</v>
       </c>
       <c r="O123" s="1">
-        <f t="shared" ref="O123" si="38">M123 - N123</f>
+        <f t="shared" ref="O123" si="39">M123 - N123</f>
         <v>7</v>
       </c>
       <c r="P123" s="3">
-        <f t="shared" ref="P123" si="39" xml:space="preserve"> IF(M123+N123=0, 0, IF(N123=0, "MAX", M123/N123))</f>
+        <f t="shared" ref="P123" si="40" xml:space="preserve"> IF(M123+N123=0, 0, IF(N123=0, "MAX", M123/N123))</f>
         <v>8</v>
       </c>
       <c r="Q123">
-        <f t="shared" ref="Q123:Q132" si="40">IF(P123 &lt; 1, 3, IF(P123 &gt;= P$133, 1, 2))</f>
+        <f t="shared" ref="Q123:Q132" si="41">IF(P123 &lt; 1, 3, IF(P123 &gt;= P$133, 1, 2))</f>
         <v>1</v>
       </c>
       <c r="T123">
@@ -18017,23 +18660,23 @@
         <v>2</v>
       </c>
       <c r="M124">
-        <f t="shared" ref="M124:M131" si="41" xml:space="preserve"> B124 + D124 + F124 + H124 + J124</f>
+        <f t="shared" ref="M124:M131" si="42" xml:space="preserve"> B124 + D124 + F124 + H124 + J124</f>
         <v>0</v>
       </c>
       <c r="N124">
-        <f t="shared" ref="N124:N131" si="42" xml:space="preserve"> C124 + E124 + G124 + I124 + K124</f>
+        <f t="shared" ref="N124:N131" si="43" xml:space="preserve"> C124 + E124 + G124 + I124 + K124</f>
         <v>2</v>
       </c>
       <c r="O124" s="1">
-        <f t="shared" ref="O124:O131" si="43">M124 - N124</f>
+        <f t="shared" ref="O124:O131" si="44">M124 - N124</f>
         <v>-2</v>
       </c>
       <c r="P124" s="3">
-        <f t="shared" ref="P124:P131" si="44" xml:space="preserve"> IF(M124+N124=0, 0, IF(N124=0, "MAX", M124/N124))</f>
+        <f t="shared" ref="P124:P131" si="45" xml:space="preserve"> IF(M124+N124=0, 0, IF(N124=0, "MAX", M124/N124))</f>
         <v>0</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="S124">
@@ -18081,23 +18724,23 @@
         <v>2</v>
       </c>
       <c r="M125">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="O125" s="1">
+        <f t="shared" si="44"/>
+        <v>-1</v>
+      </c>
+      <c r="P125" s="3">
+        <f t="shared" si="45"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q125">
         <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
-      <c r="N125">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="O125" s="1">
-        <f t="shared" si="43"/>
-        <v>-1</v>
-      </c>
-      <c r="P125" s="3">
-        <f t="shared" si="44"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q125">
-        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="S125">
@@ -18145,23 +18788,23 @@
         <v>0</v>
       </c>
       <c r="M126">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="O126" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P126" s="3">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="Q126">
         <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="N126">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="O126" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P126" s="3">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="Q126">
-        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="S126">
@@ -18215,23 +18858,23 @@
         <v>2</v>
       </c>
       <c r="M127">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="O127" s="1">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="P127" s="3">
+        <f t="shared" si="45"/>
+        <v>1.625</v>
+      </c>
+      <c r="Q127">
         <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="N127">
-        <f t="shared" si="42"/>
-        <v>8</v>
-      </c>
-      <c r="O127" s="1">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="P127" s="3">
-        <f t="shared" si="44"/>
-        <v>1.625</v>
-      </c>
-      <c r="Q127">
-        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="S127">
@@ -18279,19 +18922,19 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N128">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O128" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P128" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Q128">
@@ -18336,23 +18979,23 @@
         <v>1</v>
       </c>
       <c r="M129">
-        <f t="shared" ref="M129" si="45" xml:space="preserve"> B129 + D129 + F129 + H129 + J129</f>
+        <f t="shared" ref="M129" si="46" xml:space="preserve"> B129 + D129 + F129 + H129 + J129</f>
         <v>0</v>
       </c>
       <c r="N129">
-        <f t="shared" ref="N129" si="46" xml:space="preserve"> C129 + E129 + G129 + I129 + K129</f>
+        <f t="shared" ref="N129" si="47" xml:space="preserve"> C129 + E129 + G129 + I129 + K129</f>
         <v>1</v>
       </c>
       <c r="O129" s="1">
-        <f t="shared" ref="O129" si="47">M129 - N129</f>
+        <f t="shared" ref="O129" si="48">M129 - N129</f>
         <v>-1</v>
       </c>
       <c r="P129" s="3">
-        <f t="shared" ref="P129" si="48" xml:space="preserve"> IF(M129+N129=0, 0, IF(N129=0, "MAX", M129/N129))</f>
+        <f t="shared" ref="P129" si="49" xml:space="preserve"> IF(M129+N129=0, 0, IF(N129=0, "MAX", M129/N129))</f>
         <v>0</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="S129">
@@ -18385,23 +19028,23 @@
         <v>2</v>
       </c>
       <c r="M130">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="O130" s="1">
+        <f t="shared" si="44"/>
+        <v>-1</v>
+      </c>
+      <c r="P130" s="3">
+        <f t="shared" si="45"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q130">
         <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="N130">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="O130" s="1">
-        <f t="shared" si="43"/>
-        <v>-1</v>
-      </c>
-      <c r="P130" s="3">
-        <f t="shared" si="44"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q130">
-        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="S130">
@@ -18434,23 +19077,23 @@
         <v>0</v>
       </c>
       <c r="M131">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="O131" s="1">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="P131" s="3">
+        <f t="shared" si="45"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q131">
         <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="N131">
-        <f t="shared" si="42"/>
-        <v>5</v>
-      </c>
-      <c r="O131" s="1">
-        <f t="shared" si="43"/>
-        <v>1</v>
-      </c>
-      <c r="P131" s="3">
-        <f t="shared" si="44"/>
-        <v>1.2</v>
-      </c>
-      <c r="Q131">
-        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="S131">
@@ -18486,23 +19129,23 @@
         <v>1</v>
       </c>
       <c r="M132">
-        <f t="shared" ref="M132" si="49" xml:space="preserve"> B132 + D132 + F132 + H132 + J132</f>
+        <f t="shared" ref="M132" si="50" xml:space="preserve"> B132 + D132 + F132 + H132 + J132</f>
         <v>18</v>
       </c>
       <c r="N132">
-        <f t="shared" ref="N132" si="50" xml:space="preserve"> C132 + E132 + G132 + I132 + K132</f>
+        <f t="shared" ref="N132" si="51" xml:space="preserve"> C132 + E132 + G132 + I132 + K132</f>
         <v>5</v>
       </c>
       <c r="O132" s="1">
-        <f t="shared" ref="O132" si="51">M132 - N132</f>
+        <f t="shared" ref="O132" si="52">M132 - N132</f>
         <v>13</v>
       </c>
       <c r="P132" s="3">
-        <f t="shared" ref="P132" si="52" xml:space="preserve"> IF(M132+N132=0, 0, IF(N132=0, "MAX", M132/N132))</f>
+        <f t="shared" ref="P132" si="53" xml:space="preserve"> IF(M132+N132=0, 0, IF(N132=0, "MAX", M132/N132))</f>
         <v>3.6</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="S132">
@@ -18538,19 +19181,19 @@
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4">
-        <f t="shared" ref="M133" si="53" xml:space="preserve"> B133 + D133 + F133 + H133 + J133</f>
+        <f t="shared" ref="M133" si="54" xml:space="preserve"> B133 + D133 + F133 + H133 + J133</f>
         <v>75</v>
       </c>
       <c r="N133" s="4">
-        <f t="shared" ref="N133" si="54" xml:space="preserve"> C133 + E133 + G133 + I133 + K133</f>
+        <f t="shared" ref="N133" si="55" xml:space="preserve"> C133 + E133 + G133 + I133 + K133</f>
         <v>38</v>
       </c>
       <c r="O133" s="4">
-        <f t="shared" ref="O133" si="55">M133 - N133</f>
+        <f t="shared" ref="O133" si="56">M133 - N133</f>
         <v>37</v>
       </c>
       <c r="P133" s="5">
-        <f t="shared" ref="P133" si="56" xml:space="preserve"> IF(M133+N133=0, 0, IF(N133=0, "MAX", M133/N133))</f>
+        <f t="shared" ref="P133" si="57" xml:space="preserve"> IF(M133+N133=0, 0, IF(N133=0, "MAX", M133/N133))</f>
         <v>1.9736842105263157</v>
       </c>
       <c r="S133">
@@ -18568,618 +19211,618 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A123:P123 A124:L128 M50:P50">
-    <cfRule type="expression" dxfId="200" priority="352">
+    <cfRule type="expression" dxfId="290" priority="352">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="353">
+    <cfRule type="expression" dxfId="289" priority="353">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="354">
+    <cfRule type="expression" dxfId="288" priority="354">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:L131">
-    <cfRule type="expression" dxfId="197" priority="229">
+    <cfRule type="expression" dxfId="287" priority="229">
       <formula>$Q131 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="230">
+    <cfRule type="expression" dxfId="286" priority="230">
       <formula>$Q131 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="231">
+    <cfRule type="expression" dxfId="285" priority="231">
       <formula>$Q131 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:L130">
-    <cfRule type="expression" dxfId="194" priority="226">
+    <cfRule type="expression" dxfId="284" priority="226">
       <formula>$Q130 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="227">
+    <cfRule type="expression" dxfId="283" priority="227">
       <formula>$Q130 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="228">
+    <cfRule type="expression" dxfId="282" priority="228">
       <formula>$Q130 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M124:P128 M130:P131">
-    <cfRule type="expression" dxfId="191" priority="220">
+    <cfRule type="expression" dxfId="281" priority="220">
       <formula>$Q124 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="221">
+    <cfRule type="expression" dxfId="280" priority="221">
       <formula>$Q124 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="222">
+    <cfRule type="expression" dxfId="279" priority="222">
       <formula>$Q124 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:L129">
-    <cfRule type="expression" dxfId="188" priority="202">
+    <cfRule type="expression" dxfId="278" priority="202">
       <formula>$Q129 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="203">
+    <cfRule type="expression" dxfId="277" priority="203">
       <formula>$Q129 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="204">
+    <cfRule type="expression" dxfId="276" priority="204">
       <formula>$Q129 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M129:P129">
-    <cfRule type="expression" dxfId="185" priority="199">
+    <cfRule type="expression" dxfId="275" priority="199">
       <formula>$Q129 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="200">
+    <cfRule type="expression" dxfId="274" priority="200">
       <formula>$Q129 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="201">
+    <cfRule type="expression" dxfId="273" priority="201">
       <formula>$Q129 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:L132">
-    <cfRule type="expression" dxfId="182" priority="196">
+    <cfRule type="expression" dxfId="272" priority="196">
       <formula>$Q132 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="197">
+    <cfRule type="expression" dxfId="271" priority="197">
       <formula>$Q132 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="198">
+    <cfRule type="expression" dxfId="270" priority="198">
       <formula>$Q132 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132:P132">
-    <cfRule type="expression" dxfId="179" priority="193">
+    <cfRule type="expression" dxfId="269" priority="193">
       <formula>$Q132 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="194">
+    <cfRule type="expression" dxfId="268" priority="194">
       <formula>$Q132 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="195">
+    <cfRule type="expression" dxfId="267" priority="195">
       <formula>$Q132 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:P102 A103:L107">
-    <cfRule type="expression" dxfId="176" priority="190">
+    <cfRule type="expression" dxfId="266" priority="190">
       <formula>$Q102 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="191">
+    <cfRule type="expression" dxfId="265" priority="191">
       <formula>$Q102 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="192">
+    <cfRule type="expression" dxfId="264" priority="192">
       <formula>$Q102 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:L110">
-    <cfRule type="expression" dxfId="173" priority="187">
+    <cfRule type="expression" dxfId="263" priority="187">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="188">
+    <cfRule type="expression" dxfId="262" priority="188">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="189">
+    <cfRule type="expression" dxfId="261" priority="189">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:L109">
-    <cfRule type="expression" dxfId="170" priority="184">
+    <cfRule type="expression" dxfId="260" priority="184">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="185">
+    <cfRule type="expression" dxfId="259" priority="185">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="186">
+    <cfRule type="expression" dxfId="258" priority="186">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103:P107 M109:P110">
-    <cfRule type="expression" dxfId="167" priority="181">
+    <cfRule type="expression" dxfId="257" priority="181">
       <formula>$Q103 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="182">
+    <cfRule type="expression" dxfId="256" priority="182">
       <formula>$Q103 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="183">
+    <cfRule type="expression" dxfId="255" priority="183">
       <formula>$Q103 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:L108">
-    <cfRule type="expression" dxfId="164" priority="178">
+    <cfRule type="expression" dxfId="254" priority="178">
       <formula>$Q108 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="179">
+    <cfRule type="expression" dxfId="253" priority="179">
       <formula>$Q108 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="180">
+    <cfRule type="expression" dxfId="252" priority="180">
       <formula>$Q108 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:P108">
-    <cfRule type="expression" dxfId="161" priority="175">
+    <cfRule type="expression" dxfId="251" priority="175">
       <formula>$Q108 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="176">
+    <cfRule type="expression" dxfId="250" priority="176">
       <formula>$Q108 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="177">
+    <cfRule type="expression" dxfId="249" priority="177">
       <formula>$Q108 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:L111">
-    <cfRule type="expression" dxfId="158" priority="172">
+    <cfRule type="expression" dxfId="248" priority="172">
       <formula>$Q111 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="173">
+    <cfRule type="expression" dxfId="247" priority="173">
       <formula>$Q111 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="174">
+    <cfRule type="expression" dxfId="246" priority="174">
       <formula>$Q111 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111:P111">
-    <cfRule type="expression" dxfId="155" priority="169">
+    <cfRule type="expression" dxfId="245" priority="169">
       <formula>$Q111 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="170">
+    <cfRule type="expression" dxfId="244" priority="170">
       <formula>$Q111 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="171">
+    <cfRule type="expression" dxfId="243" priority="171">
       <formula>$Q111 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:L112">
-    <cfRule type="expression" dxfId="152" priority="166">
+    <cfRule type="expression" dxfId="242" priority="166">
       <formula>$Q112 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="167">
+    <cfRule type="expression" dxfId="241" priority="167">
       <formula>$Q112 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="168">
+    <cfRule type="expression" dxfId="240" priority="168">
       <formula>$Q112 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:P112">
-    <cfRule type="expression" dxfId="149" priority="163">
+    <cfRule type="expression" dxfId="239" priority="163">
       <formula>$Q112 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="164">
+    <cfRule type="expression" dxfId="238" priority="164">
       <formula>$Q112 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="165">
+    <cfRule type="expression" dxfId="237" priority="165">
       <formula>$Q112 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:P82 A83:L87">
-    <cfRule type="expression" dxfId="146" priority="130">
+    <cfRule type="expression" dxfId="236" priority="130">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="131">
+    <cfRule type="expression" dxfId="235" priority="131">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="132">
+    <cfRule type="expression" dxfId="234" priority="132">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:L90">
-    <cfRule type="expression" dxfId="143" priority="127">
+    <cfRule type="expression" dxfId="233" priority="127">
       <formula>$Q90 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="128">
+    <cfRule type="expression" dxfId="232" priority="128">
       <formula>$Q90 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="129">
+    <cfRule type="expression" dxfId="231" priority="129">
       <formula>$Q90 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:L89">
-    <cfRule type="expression" dxfId="140" priority="124">
+    <cfRule type="expression" dxfId="230" priority="124">
       <formula>$Q89 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="125">
+    <cfRule type="expression" dxfId="229" priority="125">
       <formula>$Q89 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="126">
+    <cfRule type="expression" dxfId="228" priority="126">
       <formula>$Q89 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P87 M89:P90">
-    <cfRule type="expression" dxfId="137" priority="121">
+    <cfRule type="expression" dxfId="227" priority="121">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="122">
+    <cfRule type="expression" dxfId="226" priority="122">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="123">
+    <cfRule type="expression" dxfId="225" priority="123">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:L88">
-    <cfRule type="expression" dxfId="134" priority="118">
+    <cfRule type="expression" dxfId="224" priority="118">
       <formula>$Q88 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="119">
+    <cfRule type="expression" dxfId="223" priority="119">
       <formula>$Q88 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="120">
+    <cfRule type="expression" dxfId="222" priority="120">
       <formula>$Q88 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M88:P88">
-    <cfRule type="expression" dxfId="131" priority="115">
+    <cfRule type="expression" dxfId="221" priority="115">
       <formula>$Q88 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="116">
+    <cfRule type="expression" dxfId="220" priority="116">
       <formula>$Q88 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="117">
+    <cfRule type="expression" dxfId="219" priority="117">
       <formula>$Q88 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:L91">
-    <cfRule type="expression" dxfId="128" priority="112">
+    <cfRule type="expression" dxfId="218" priority="112">
       <formula>$Q91 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="113">
+    <cfRule type="expression" dxfId="217" priority="113">
       <formula>$Q91 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="114">
+    <cfRule type="expression" dxfId="216" priority="114">
       <formula>$Q91 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:P91">
-    <cfRule type="expression" dxfId="125" priority="109">
+    <cfRule type="expression" dxfId="215" priority="109">
       <formula>$Q91 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="110">
+    <cfRule type="expression" dxfId="214" priority="110">
       <formula>$Q91 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="111">
+    <cfRule type="expression" dxfId="213" priority="111">
       <formula>$Q91 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:P61 A62:L66">
-    <cfRule type="expression" dxfId="122" priority="100">
+    <cfRule type="expression" dxfId="212" priority="100">
       <formula>$Q61 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="101">
+    <cfRule type="expression" dxfId="211" priority="101">
       <formula>$Q61 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="102">
+    <cfRule type="expression" dxfId="210" priority="102">
       <formula>$Q61 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:L69">
-    <cfRule type="expression" dxfId="119" priority="97">
+    <cfRule type="expression" dxfId="209" priority="97">
       <formula>$Q69 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="98">
+    <cfRule type="expression" dxfId="208" priority="98">
       <formula>$Q69 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="99">
+    <cfRule type="expression" dxfId="207" priority="99">
       <formula>$Q69 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:L68">
-    <cfRule type="expression" dxfId="116" priority="94">
+    <cfRule type="expression" dxfId="206" priority="94">
       <formula>$Q68 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="95">
+    <cfRule type="expression" dxfId="205" priority="95">
       <formula>$Q68 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="96">
+    <cfRule type="expression" dxfId="204" priority="96">
       <formula>$Q68 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P66 M68:P69">
-    <cfRule type="expression" dxfId="113" priority="91">
+    <cfRule type="expression" dxfId="203" priority="91">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="92">
+    <cfRule type="expression" dxfId="202" priority="92">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="93">
+    <cfRule type="expression" dxfId="201" priority="93">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:L67">
-    <cfRule type="expression" dxfId="110" priority="88">
+    <cfRule type="expression" dxfId="200" priority="88">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="89">
+    <cfRule type="expression" dxfId="199" priority="89">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="90">
+    <cfRule type="expression" dxfId="198" priority="90">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:P67">
-    <cfRule type="expression" dxfId="107" priority="85">
+    <cfRule type="expression" dxfId="197" priority="85">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="86">
+    <cfRule type="expression" dxfId="196" priority="86">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="87">
+    <cfRule type="expression" dxfId="195" priority="87">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:L70">
-    <cfRule type="expression" dxfId="104" priority="82">
+    <cfRule type="expression" dxfId="194" priority="82">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="83">
+    <cfRule type="expression" dxfId="193" priority="83">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="84">
+    <cfRule type="expression" dxfId="192" priority="84">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70:P70">
-    <cfRule type="expression" dxfId="101" priority="79">
+    <cfRule type="expression" dxfId="191" priority="79">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="80">
+    <cfRule type="expression" dxfId="190" priority="80">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="81">
+    <cfRule type="expression" dxfId="189" priority="81">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:P43 A44:L46 B47:L48">
-    <cfRule type="expression" dxfId="98" priority="76">
+    <cfRule type="expression" dxfId="188" priority="76">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="77">
+    <cfRule type="expression" dxfId="187" priority="77">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="78">
+    <cfRule type="expression" dxfId="186" priority="78">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:L50">
-    <cfRule type="expression" dxfId="95" priority="70">
+    <cfRule type="expression" dxfId="185" priority="70">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="71">
+    <cfRule type="expression" dxfId="184" priority="71">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="72">
+    <cfRule type="expression" dxfId="183" priority="72">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P48">
-    <cfRule type="expression" dxfId="92" priority="67">
+    <cfRule type="expression" dxfId="182" priority="67">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="68">
+    <cfRule type="expression" dxfId="181" priority="68">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="69">
+    <cfRule type="expression" dxfId="180" priority="69">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:L49">
-    <cfRule type="expression" dxfId="89" priority="64">
+    <cfRule type="expression" dxfId="179" priority="64">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="65">
+    <cfRule type="expression" dxfId="178" priority="65">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="66">
+    <cfRule type="expression" dxfId="177" priority="66">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:P49">
-    <cfRule type="expression" dxfId="86" priority="61">
+    <cfRule type="expression" dxfId="176" priority="61">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="62">
+    <cfRule type="expression" dxfId="175" priority="62">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="63">
+    <cfRule type="expression" dxfId="174" priority="63">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="expression" dxfId="83" priority="52">
+    <cfRule type="expression" dxfId="173" priority="52">
       <formula>$Q48 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="53">
+    <cfRule type="expression" dxfId="172" priority="53">
       <formula>$Q48 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="54">
+    <cfRule type="expression" dxfId="171" priority="54">
       <formula>$Q48 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="80" priority="49">
+    <cfRule type="expression" dxfId="170" priority="49">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="50">
+    <cfRule type="expression" dxfId="169" priority="50">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="51">
+    <cfRule type="expression" dxfId="168" priority="51">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="77" priority="46">
+    <cfRule type="expression" dxfId="167" priority="46">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="47">
+    <cfRule type="expression" dxfId="166" priority="47">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="48">
+    <cfRule type="expression" dxfId="165" priority="48">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P14">
-    <cfRule type="expression" dxfId="74" priority="43">
+    <cfRule type="expression" dxfId="164" priority="43">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="44">
+    <cfRule type="expression" dxfId="163" priority="44">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="45">
+    <cfRule type="expression" dxfId="162" priority="45">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A7:L9 B10:L11">
-    <cfRule type="expression" dxfId="71" priority="40">
+    <cfRule type="expression" dxfId="161" priority="40">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="41">
+    <cfRule type="expression" dxfId="160" priority="41">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="42">
+    <cfRule type="expression" dxfId="159" priority="42">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L14">
-    <cfRule type="expression" dxfId="68" priority="37">
+    <cfRule type="expression" dxfId="158" priority="37">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="38">
+    <cfRule type="expression" dxfId="157" priority="38">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="39">
+    <cfRule type="expression" dxfId="156" priority="39">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:P11">
-    <cfRule type="expression" dxfId="65" priority="34">
+    <cfRule type="expression" dxfId="155" priority="34">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="35">
+    <cfRule type="expression" dxfId="154" priority="35">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="36">
+    <cfRule type="expression" dxfId="153" priority="36">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L12">
-    <cfRule type="expression" dxfId="62" priority="31">
+    <cfRule type="expression" dxfId="152" priority="31">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="32">
+    <cfRule type="expression" dxfId="151" priority="32">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="33">
+    <cfRule type="expression" dxfId="150" priority="33">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="59" priority="28">
+    <cfRule type="expression" dxfId="149" priority="28">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="29">
+    <cfRule type="expression" dxfId="148" priority="29">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="30">
+    <cfRule type="expression" dxfId="147" priority="30">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="56" priority="22">
+    <cfRule type="expression" dxfId="146" priority="22">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="23">
+    <cfRule type="expression" dxfId="145" priority="23">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="144" priority="24">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P6">
-    <cfRule type="expression" dxfId="53" priority="13">
+    <cfRule type="expression" dxfId="143" priority="13">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="14">
+    <cfRule type="expression" dxfId="142" priority="14">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="141" priority="15">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="50" priority="19">
+    <cfRule type="expression" dxfId="140" priority="19">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="20">
+    <cfRule type="expression" dxfId="139" priority="20">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="21">
+    <cfRule type="expression" dxfId="138" priority="21">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="47" priority="16">
+    <cfRule type="expression" dxfId="137" priority="16">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="17">
+    <cfRule type="expression" dxfId="136" priority="17">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="18">
+    <cfRule type="expression" dxfId="135" priority="18">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="44" priority="10">
+    <cfRule type="expression" dxfId="134" priority="10">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="11">
+    <cfRule type="expression" dxfId="133" priority="11">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="12">
+    <cfRule type="expression" dxfId="132" priority="12">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="131" priority="7">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="130" priority="8">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="129" priority="9">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="128" priority="4">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="127" priority="5">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6">
+    <cfRule type="expression" dxfId="126" priority="6">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="125" priority="1">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="124" priority="2">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="123" priority="3">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19189,6 +19832,1725 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF62D8F-529B-429B-AA18-57932D0B1C30}">
+  <dimension ref="A1:Q44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="13" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>43589</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:N11" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O11" si="1">M5 - N5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P11" si="2" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q6">
+        <f>IF(P6 &lt; 1, 3, IF(P6 &gt;= P$11, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>2.125</v>
+      </c>
+      <c r="Q7">
+        <f>IF(P7 &lt; 1, 3, IF(P7 &gt;= P$11, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q8">
+        <f>IF(P8 &lt; 1, 3, IF(P8 &gt;= P$11, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= P$11, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q10">
+        <f>IF(P10 &lt; 1, 3, IF(P10 &gt;= P$11, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>43589</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M22" si="3" xml:space="preserve"> B16 + D16 + F16 + H16 + J16</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:N22" si="4" xml:space="preserve"> C16 + E16 + G16 + I16 + K16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ref="O16:O22" si="5">M16 - N16</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="str">
+        <f t="shared" ref="P16:P22" si="6" xml:space="preserve"> IF(M16+N16=0, 0, IF(N16=0, "MAX", M16/N16))</f>
+        <v>MAX</v>
+      </c>
+      <c r="Q16">
+        <f>IF(P16 &lt; 1, 3, IF(P16 &gt;= P$22, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17:Q21" si="7">IF(P17 &lt; 1, 3, IF(P17 &gt;= P$22, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="6"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>43589</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M33" si="8" xml:space="preserve"> B27 + D27 + F27 + H27 + J27</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N33" si="9" xml:space="preserve"> C27 + E27 + G27 + I27 + K27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ref="O27:O33" si="10">M27 - N27</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" ref="P27:P33" si="11" xml:space="preserve"> IF(M27+N27=0, 0, IF(N27=0, "MAX", M27/N27))</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="10"/>
+        <v>-11</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="11"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:Q32" si="12">IF(P28 &lt; 1, 3, IF(P28 &gt;= P$33, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="11"/>
+        <v>1.6842105263157894</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="11"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4">
+        <v>25</v>
+      </c>
+      <c r="C33" s="4">
+        <v>20</v>
+      </c>
+      <c r="D33" s="4">
+        <v>20</v>
+      </c>
+      <c r="E33" s="4">
+        <v>25</v>
+      </c>
+      <c r="F33" s="4">
+        <v>15</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="11"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>43589</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38:M44" si="13" xml:space="preserve"> B38 + D38 + F38 + H38 + J38</f>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N44" si="14" xml:space="preserve"> C38 + E38 + G38 + I38 + K38</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" ref="O38:O44" si="15">M38 - N38</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" ref="P38:P44" si="16" xml:space="preserve"> IF(M38+N38=0, 0, IF(N38=0, "MAX", M38/N38))</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="15"/>
+        <v>-11</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39:Q43" si="17">IF(P39 &lt; 1, 3, IF(P39 &gt;= P$44, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="16"/>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="15"/>
+        <v>-5</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="16"/>
+        <v>0.375</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="15"/>
+        <v>-6</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="16"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4">
+        <v>20</v>
+      </c>
+      <c r="C44" s="4">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>25</v>
+      </c>
+      <c r="E44" s="4">
+        <v>20</v>
+      </c>
+      <c r="F44" s="4">
+        <v>15</v>
+      </c>
+      <c r="G44" s="4">
+        <v>10</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="16"/>
+        <v>1.0909090909090908</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M7:P9">
+    <cfRule type="expression" dxfId="122" priority="73">
+      <formula>$Q7 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="74">
+      <formula>$Q7 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="75">
+      <formula>$Q7 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:P10">
+    <cfRule type="expression" dxfId="119" priority="112">
+      <formula>$Q10 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="113">
+      <formula>$Q10 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="114">
+      <formula>$Q10 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:P5 A7:L9">
+    <cfRule type="expression" dxfId="116" priority="109">
+      <formula>$Q5 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="110">
+      <formula>$Q5 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="111">
+      <formula>$Q5 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:L10">
+    <cfRule type="expression" dxfId="113" priority="106">
+      <formula>$Q10 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="107">
+      <formula>$Q10 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="108">
+      <formula>$Q10 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:P6">
+    <cfRule type="expression" dxfId="110" priority="85">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="86">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="87">
+      <formula>$Q6 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:L6">
+    <cfRule type="expression" dxfId="107" priority="88">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="89">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="90">
+      <formula>$Q6 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:P20">
+    <cfRule type="expression" dxfId="104" priority="55">
+      <formula>$Q18 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="56">
+      <formula>$Q18 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="57">
+      <formula>$Q18 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:P21">
+    <cfRule type="expression" dxfId="101" priority="70">
+      <formula>$Q21 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="71">
+      <formula>$Q21 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="72">
+      <formula>$Q21 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:P16 A18:L20">
+    <cfRule type="expression" dxfId="98" priority="67">
+      <formula>$Q16 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="68">
+      <formula>$Q16 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="69">
+      <formula>$Q16 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:L21">
+    <cfRule type="expression" dxfId="95" priority="64">
+      <formula>$Q21 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="65">
+      <formula>$Q21 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="66">
+      <formula>$Q21 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:P17">
+    <cfRule type="expression" dxfId="92" priority="58">
+      <formula>$Q17 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="59">
+      <formula>$Q17 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="60">
+      <formula>$Q17 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:L17">
+    <cfRule type="expression" dxfId="89" priority="61">
+      <formula>$Q17 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="62">
+      <formula>$Q17 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="63">
+      <formula>$Q17 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:P31">
+    <cfRule type="expression" dxfId="53" priority="37">
+      <formula>$Q29 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="38">
+      <formula>$Q29 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="39">
+      <formula>$Q29 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:P32">
+    <cfRule type="expression" dxfId="50" priority="52">
+      <formula>$Q32 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="53">
+      <formula>$Q32 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="54">
+      <formula>$Q32 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:P27 A29:L31">
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>$Q27 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>$Q27 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>$Q27 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:L32">
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>$Q32 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="47">
+      <formula>$Q32 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="48">
+      <formula>$Q32 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28:P28">
+    <cfRule type="expression" dxfId="41" priority="40">
+      <formula>$Q28 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$Q28 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="42">
+      <formula>$Q28 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:L28">
+    <cfRule type="expression" dxfId="38" priority="43">
+      <formula>$Q28 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="44">
+      <formula>$Q28 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="45">
+      <formula>$Q28 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:P42">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>$Q40 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="2">
+      <formula>$Q40 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>$Q40 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:P43">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$Q43 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>$Q43 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>$Q43 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:P38 A40:L42">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$Q38 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$Q38 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>$Q38 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:L43">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$Q43 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>$Q43 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>$Q43 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M39:P39">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$Q39 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$Q39 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$Q39 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:L39">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>$Q39 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>$Q39 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>$Q39 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BDAFE5-3AEF-49E8-9ED9-A9BAA79160EC}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
@@ -20696,123 +23058,123 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="32" priority="22">
+    <cfRule type="expression" dxfId="86" priority="22">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="85" priority="23">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="84" priority="24">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:P24 A25:L29">
-    <cfRule type="expression" dxfId="29" priority="43">
+    <cfRule type="expression" dxfId="83" priority="43">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="44">
+    <cfRule type="expression" dxfId="82" priority="44">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="45">
+    <cfRule type="expression" dxfId="81" priority="45">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="26" priority="37">
+    <cfRule type="expression" dxfId="80" priority="37">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="79" priority="38">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="78" priority="39">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P29">
-    <cfRule type="expression" dxfId="23" priority="34">
+    <cfRule type="expression" dxfId="77" priority="34">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="76" priority="35">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="36">
+    <cfRule type="expression" dxfId="75" priority="36">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:L30">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="74" priority="31">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="32">
+    <cfRule type="expression" dxfId="73" priority="32">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="33">
+    <cfRule type="expression" dxfId="72" priority="33">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:P30">
-    <cfRule type="expression" dxfId="17" priority="28">
+    <cfRule type="expression" dxfId="71" priority="28">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="29">
+    <cfRule type="expression" dxfId="70" priority="29">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="30">
+    <cfRule type="expression" dxfId="69" priority="30">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:P15">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="67" priority="5">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="66" priority="6">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9 A10:L13 B14:L14">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="65" priority="19">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="64" priority="20">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="63" priority="21">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:L15">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="62" priority="16">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="61" priority="17">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="60" priority="18">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P14">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="59" priority="13">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="58" priority="14">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="57" priority="15">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2131133-5D99-4EF9-B4D3-F600ADD86BF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C5422020-2724-4B05-B37E-95CE9B09898A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpieleUL" sheetId="7" r:id="rId1"/>
     <sheet name="Pordenone" sheetId="9" r:id="rId2"/>
     <sheet name="SpieleAR" sheetId="6" r:id="rId3"/>
     <sheet name="U13F" sheetId="10" r:id="rId4"/>
-    <sheet name="SpieleMPO" sheetId="8" r:id="rId5"/>
+    <sheet name="U15F" sheetId="11" r:id="rId5"/>
+    <sheet name="SpieleMPO" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="quot_m1">SpieleAR!#REF!</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="348">
   <si>
     <t>Lea</t>
   </si>
@@ -1057,6 +1058,15 @@
   </si>
   <si>
     <t>Brückl hotvolleys - WSL</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - VIL</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - WSL 2</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - WSL 1</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1179,301 @@
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="534">
+  <dxfs count="576">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7965,200 +8269,200 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M46:P47 A40:P44">
-    <cfRule type="expression" dxfId="533" priority="91">
+    <cfRule type="expression" dxfId="575" priority="91">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="92">
+    <cfRule type="expression" dxfId="574" priority="92">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="93">
+    <cfRule type="expression" dxfId="573" priority="93">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L47">
-    <cfRule type="expression" dxfId="530" priority="85">
+    <cfRule type="expression" dxfId="572" priority="85">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="86">
+    <cfRule type="expression" dxfId="571" priority="86">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="87">
+    <cfRule type="expression" dxfId="570" priority="87">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="527" priority="79">
+    <cfRule type="expression" dxfId="569" priority="79">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="80">
+    <cfRule type="expression" dxfId="568" priority="80">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="81">
+    <cfRule type="expression" dxfId="567" priority="81">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45">
-    <cfRule type="expression" dxfId="524" priority="76">
+    <cfRule type="expression" dxfId="566" priority="76">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="77">
+    <cfRule type="expression" dxfId="565" priority="77">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="78">
+    <cfRule type="expression" dxfId="564" priority="78">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:P33 A23:P25 A29:P30">
-    <cfRule type="expression" dxfId="521" priority="61">
+    <cfRule type="expression" dxfId="563" priority="61">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="62">
+    <cfRule type="expression" dxfId="562" priority="62">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="63">
+    <cfRule type="expression" dxfId="561" priority="63">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L33">
-    <cfRule type="expression" dxfId="518" priority="58">
+    <cfRule type="expression" dxfId="560" priority="58">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="59">
+    <cfRule type="expression" dxfId="559" priority="59">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="60">
+    <cfRule type="expression" dxfId="558" priority="60">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="515" priority="55">
+    <cfRule type="expression" dxfId="557" priority="55">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="56">
+    <cfRule type="expression" dxfId="556" priority="56">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="57">
+    <cfRule type="expression" dxfId="555" priority="57">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="512" priority="52">
+    <cfRule type="expression" dxfId="554" priority="52">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="53">
+    <cfRule type="expression" dxfId="553" priority="53">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="54">
+    <cfRule type="expression" dxfId="552" priority="54">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:P26">
-    <cfRule type="expression" dxfId="509" priority="49">
+    <cfRule type="expression" dxfId="551" priority="49">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="50">
+    <cfRule type="expression" dxfId="550" priority="50">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="51">
+    <cfRule type="expression" dxfId="549" priority="51">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:P27">
-    <cfRule type="expression" dxfId="506" priority="46">
+    <cfRule type="expression" dxfId="548" priority="46">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="47">
+    <cfRule type="expression" dxfId="547" priority="47">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="48">
+    <cfRule type="expression" dxfId="546" priority="48">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:P28">
-    <cfRule type="expression" dxfId="503" priority="43">
+    <cfRule type="expression" dxfId="545" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="44">
+    <cfRule type="expression" dxfId="544" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="45">
+    <cfRule type="expression" dxfId="543" priority="45">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P15 A5:P7 A11:P12">
-    <cfRule type="expression" dxfId="500" priority="19">
+    <cfRule type="expression" dxfId="542" priority="19">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="20">
+    <cfRule type="expression" dxfId="541" priority="20">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="21">
+    <cfRule type="expression" dxfId="540" priority="21">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L15">
-    <cfRule type="expression" dxfId="497" priority="16">
+    <cfRule type="expression" dxfId="539" priority="16">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="17">
+    <cfRule type="expression" dxfId="538" priority="17">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="18">
+    <cfRule type="expression" dxfId="537" priority="18">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="494" priority="13">
+    <cfRule type="expression" dxfId="536" priority="13">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="14">
+    <cfRule type="expression" dxfId="535" priority="14">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="15">
+    <cfRule type="expression" dxfId="534" priority="15">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="491" priority="10">
+    <cfRule type="expression" dxfId="533" priority="10">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="11">
+    <cfRule type="expression" dxfId="532" priority="11">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="12">
+    <cfRule type="expression" dxfId="531" priority="12">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:P8">
-    <cfRule type="expression" dxfId="488" priority="7">
+    <cfRule type="expression" dxfId="530" priority="7">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="8">
+    <cfRule type="expression" dxfId="529" priority="8">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="9">
+    <cfRule type="expression" dxfId="528" priority="9">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9">
-    <cfRule type="expression" dxfId="485" priority="4">
+    <cfRule type="expression" dxfId="527" priority="4">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="5">
+    <cfRule type="expression" dxfId="526" priority="5">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="6">
+    <cfRule type="expression" dxfId="525" priority="6">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:P10">
-    <cfRule type="expression" dxfId="482" priority="1">
+    <cfRule type="expression" dxfId="524" priority="1">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="2">
+    <cfRule type="expression" dxfId="523" priority="2">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="3">
+    <cfRule type="expression" dxfId="522" priority="3">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12992,695 +13296,695 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A58:P61">
-    <cfRule type="expression" dxfId="479" priority="196">
+    <cfRule type="expression" dxfId="521" priority="196">
       <formula>$Q58 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="197">
+    <cfRule type="expression" dxfId="520" priority="197">
       <formula>$Q58 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="198">
+    <cfRule type="expression" dxfId="519" priority="198">
       <formula>$Q58 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:P57">
-    <cfRule type="expression" dxfId="476" priority="217">
+    <cfRule type="expression" dxfId="518" priority="217">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="218">
+    <cfRule type="expression" dxfId="517" priority="218">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="219">
+    <cfRule type="expression" dxfId="516" priority="219">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:L65">
-    <cfRule type="expression" dxfId="473" priority="214">
+    <cfRule type="expression" dxfId="515" priority="214">
       <formula>$Q65 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="215">
+    <cfRule type="expression" dxfId="514" priority="215">
       <formula>$Q65 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="216">
+    <cfRule type="expression" dxfId="513" priority="216">
       <formula>$Q65 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:L63">
-    <cfRule type="expression" dxfId="470" priority="211">
+    <cfRule type="expression" dxfId="512" priority="211">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="212">
+    <cfRule type="expression" dxfId="511" priority="212">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="213">
+    <cfRule type="expression" dxfId="510" priority="213">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:P63 M65:P65">
-    <cfRule type="expression" dxfId="467" priority="208">
+    <cfRule type="expression" dxfId="509" priority="208">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="209">
+    <cfRule type="expression" dxfId="508" priority="209">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="210">
+    <cfRule type="expression" dxfId="507" priority="210">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:L62">
-    <cfRule type="expression" dxfId="464" priority="205">
+    <cfRule type="expression" dxfId="506" priority="205">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="206">
+    <cfRule type="expression" dxfId="505" priority="206">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="207">
+    <cfRule type="expression" dxfId="504" priority="207">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P62">
-    <cfRule type="expression" dxfId="461" priority="202">
+    <cfRule type="expression" dxfId="503" priority="202">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="203">
+    <cfRule type="expression" dxfId="502" priority="203">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="204">
+    <cfRule type="expression" dxfId="501" priority="204">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:L64">
-    <cfRule type="expression" dxfId="458" priority="193">
+    <cfRule type="expression" dxfId="500" priority="193">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="194">
+    <cfRule type="expression" dxfId="499" priority="194">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="195">
+    <cfRule type="expression" dxfId="498" priority="195">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:P64">
-    <cfRule type="expression" dxfId="455" priority="190">
+    <cfRule type="expression" dxfId="497" priority="190">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="191">
+    <cfRule type="expression" dxfId="496" priority="191">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="192">
+    <cfRule type="expression" dxfId="495" priority="192">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:P81">
-    <cfRule type="expression" dxfId="452" priority="169">
+    <cfRule type="expression" dxfId="494" priority="169">
       <formula>$Q78 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="170">
+    <cfRule type="expression" dxfId="493" priority="170">
       <formula>$Q78 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="171">
+    <cfRule type="expression" dxfId="492" priority="171">
       <formula>$Q78 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:P77">
-    <cfRule type="expression" dxfId="449" priority="187">
+    <cfRule type="expression" dxfId="491" priority="187">
       <formula>$Q77 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="188">
+    <cfRule type="expression" dxfId="490" priority="188">
       <formula>$Q77 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="189">
+    <cfRule type="expression" dxfId="489" priority="189">
       <formula>$Q77 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:L85">
-    <cfRule type="expression" dxfId="446" priority="184">
+    <cfRule type="expression" dxfId="488" priority="184">
       <formula>$Q85 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="185">
+    <cfRule type="expression" dxfId="487" priority="185">
       <formula>$Q85 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="186">
+    <cfRule type="expression" dxfId="486" priority="186">
       <formula>$Q85 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:L83">
-    <cfRule type="expression" dxfId="443" priority="181">
+    <cfRule type="expression" dxfId="485" priority="181">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="182">
+    <cfRule type="expression" dxfId="484" priority="182">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="183">
+    <cfRule type="expression" dxfId="483" priority="183">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P83 M85:P85">
-    <cfRule type="expression" dxfId="440" priority="178">
+    <cfRule type="expression" dxfId="482" priority="178">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="179">
+    <cfRule type="expression" dxfId="481" priority="179">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="180">
+    <cfRule type="expression" dxfId="480" priority="180">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:L82">
-    <cfRule type="expression" dxfId="437" priority="175">
+    <cfRule type="expression" dxfId="479" priority="175">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="176">
+    <cfRule type="expression" dxfId="478" priority="176">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="177">
+    <cfRule type="expression" dxfId="477" priority="177">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:P82">
-    <cfRule type="expression" dxfId="434" priority="172">
+    <cfRule type="expression" dxfId="476" priority="172">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="173">
+    <cfRule type="expression" dxfId="475" priority="173">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="174">
+    <cfRule type="expression" dxfId="474" priority="174">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:L84">
-    <cfRule type="expression" dxfId="431" priority="166">
+    <cfRule type="expression" dxfId="473" priority="166">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="167">
+    <cfRule type="expression" dxfId="472" priority="167">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="168">
+    <cfRule type="expression" dxfId="471" priority="168">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84:P84">
-    <cfRule type="expression" dxfId="428" priority="163">
+    <cfRule type="expression" dxfId="470" priority="163">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="164">
+    <cfRule type="expression" dxfId="469" priority="164">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="165">
+    <cfRule type="expression" dxfId="468" priority="165">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:P97">
-    <cfRule type="expression" dxfId="425" priority="142">
+    <cfRule type="expression" dxfId="467" priority="142">
       <formula>$Q94 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="143">
+    <cfRule type="expression" dxfId="466" priority="143">
       <formula>$Q94 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="144">
+    <cfRule type="expression" dxfId="465" priority="144">
       <formula>$Q94 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:P93">
-    <cfRule type="expression" dxfId="422" priority="160">
+    <cfRule type="expression" dxfId="464" priority="160">
       <formula>$Q93 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="161">
+    <cfRule type="expression" dxfId="463" priority="161">
       <formula>$Q93 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="162">
+    <cfRule type="expression" dxfId="462" priority="162">
       <formula>$Q93 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:L101">
-    <cfRule type="expression" dxfId="419" priority="157">
+    <cfRule type="expression" dxfId="461" priority="157">
       <formula>$Q101 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="158">
+    <cfRule type="expression" dxfId="460" priority="158">
       <formula>$Q101 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="159">
+    <cfRule type="expression" dxfId="459" priority="159">
       <formula>$Q101 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:L99">
-    <cfRule type="expression" dxfId="416" priority="154">
+    <cfRule type="expression" dxfId="458" priority="154">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="155">
+    <cfRule type="expression" dxfId="457" priority="155">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="156">
+    <cfRule type="expression" dxfId="456" priority="156">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99:P99 M101:P101">
-    <cfRule type="expression" dxfId="413" priority="151">
+    <cfRule type="expression" dxfId="455" priority="151">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="152">
+    <cfRule type="expression" dxfId="454" priority="152">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="153">
+    <cfRule type="expression" dxfId="453" priority="153">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:L98">
-    <cfRule type="expression" dxfId="410" priority="148">
+    <cfRule type="expression" dxfId="452" priority="148">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="149">
+    <cfRule type="expression" dxfId="451" priority="149">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="150">
+    <cfRule type="expression" dxfId="450" priority="150">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98:P98">
-    <cfRule type="expression" dxfId="407" priority="145">
+    <cfRule type="expression" dxfId="449" priority="145">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="146">
+    <cfRule type="expression" dxfId="448" priority="146">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="147">
+    <cfRule type="expression" dxfId="447" priority="147">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:L100">
-    <cfRule type="expression" dxfId="404" priority="139">
+    <cfRule type="expression" dxfId="446" priority="139">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="140">
+    <cfRule type="expression" dxfId="445" priority="140">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="141">
+    <cfRule type="expression" dxfId="444" priority="141">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100:P100">
-    <cfRule type="expression" dxfId="401" priority="136">
+    <cfRule type="expression" dxfId="443" priority="136">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="137">
+    <cfRule type="expression" dxfId="442" priority="137">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="138">
+    <cfRule type="expression" dxfId="441" priority="138">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:P113">
-    <cfRule type="expression" dxfId="398" priority="115">
+    <cfRule type="expression" dxfId="440" priority="115">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="116">
+    <cfRule type="expression" dxfId="439" priority="116">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="117">
+    <cfRule type="expression" dxfId="438" priority="117">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:P109">
-    <cfRule type="expression" dxfId="395" priority="133">
+    <cfRule type="expression" dxfId="437" priority="133">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="134">
+    <cfRule type="expression" dxfId="436" priority="134">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="135">
+    <cfRule type="expression" dxfId="435" priority="135">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:L117">
-    <cfRule type="expression" dxfId="392" priority="130">
+    <cfRule type="expression" dxfId="434" priority="130">
       <formula>$Q117 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="131">
+    <cfRule type="expression" dxfId="433" priority="131">
       <formula>$Q117 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="132">
+    <cfRule type="expression" dxfId="432" priority="132">
       <formula>$Q117 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:L115">
-    <cfRule type="expression" dxfId="389" priority="127">
+    <cfRule type="expression" dxfId="431" priority="127">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="128">
+    <cfRule type="expression" dxfId="430" priority="128">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="129">
+    <cfRule type="expression" dxfId="429" priority="129">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115:P115 M117:P117">
-    <cfRule type="expression" dxfId="386" priority="124">
+    <cfRule type="expression" dxfId="428" priority="124">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="125">
+    <cfRule type="expression" dxfId="427" priority="125">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="126">
+    <cfRule type="expression" dxfId="426" priority="126">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:L114">
-    <cfRule type="expression" dxfId="383" priority="121">
+    <cfRule type="expression" dxfId="425" priority="121">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="122">
+    <cfRule type="expression" dxfId="424" priority="122">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="123">
+    <cfRule type="expression" dxfId="423" priority="123">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M114:P114">
-    <cfRule type="expression" dxfId="380" priority="118">
+    <cfRule type="expression" dxfId="422" priority="118">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="119">
+    <cfRule type="expression" dxfId="421" priority="119">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="120">
+    <cfRule type="expression" dxfId="420" priority="120">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:L116">
-    <cfRule type="expression" dxfId="377" priority="112">
+    <cfRule type="expression" dxfId="419" priority="112">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="113">
+    <cfRule type="expression" dxfId="418" priority="113">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="114">
+    <cfRule type="expression" dxfId="417" priority="114">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M116:P116">
-    <cfRule type="expression" dxfId="374" priority="109">
+    <cfRule type="expression" dxfId="416" priority="109">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="110">
+    <cfRule type="expression" dxfId="415" priority="110">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="111">
+    <cfRule type="expression" dxfId="414" priority="111">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:P9">
-    <cfRule type="expression" dxfId="371" priority="88">
+    <cfRule type="expression" dxfId="413" priority="88">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="89">
+    <cfRule type="expression" dxfId="412" priority="89">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="90">
+    <cfRule type="expression" dxfId="411" priority="90">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="368" priority="106">
+    <cfRule type="expression" dxfId="410" priority="106">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="107">
+    <cfRule type="expression" dxfId="409" priority="107">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="108">
+    <cfRule type="expression" dxfId="408" priority="108">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="365" priority="103">
+    <cfRule type="expression" dxfId="407" priority="103">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="104">
+    <cfRule type="expression" dxfId="406" priority="104">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="105">
+    <cfRule type="expression" dxfId="405" priority="105">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="362" priority="100">
+    <cfRule type="expression" dxfId="404" priority="100">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="101">
+    <cfRule type="expression" dxfId="403" priority="101">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="102">
+    <cfRule type="expression" dxfId="402" priority="102">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:P11 M13:P13">
-    <cfRule type="expression" dxfId="359" priority="97">
+    <cfRule type="expression" dxfId="401" priority="97">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="98">
+    <cfRule type="expression" dxfId="400" priority="98">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="99">
+    <cfRule type="expression" dxfId="399" priority="99">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="356" priority="94">
+    <cfRule type="expression" dxfId="398" priority="94">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="95">
+    <cfRule type="expression" dxfId="397" priority="95">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="96">
+    <cfRule type="expression" dxfId="396" priority="96">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="353" priority="91">
+    <cfRule type="expression" dxfId="395" priority="91">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="92">
+    <cfRule type="expression" dxfId="394" priority="92">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="93">
+    <cfRule type="expression" dxfId="393" priority="93">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="350" priority="85">
+    <cfRule type="expression" dxfId="392" priority="85">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="86">
+    <cfRule type="expression" dxfId="391" priority="86">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="87">
+    <cfRule type="expression" dxfId="390" priority="87">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="347" priority="82">
+    <cfRule type="expression" dxfId="389" priority="82">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="83">
+    <cfRule type="expression" dxfId="388" priority="83">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="84">
+    <cfRule type="expression" dxfId="387" priority="84">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:P43">
-    <cfRule type="expression" dxfId="344" priority="7">
+    <cfRule type="expression" dxfId="386" priority="7">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="8">
+    <cfRule type="expression" dxfId="385" priority="8">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="9">
+    <cfRule type="expression" dxfId="384" priority="9">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:P39">
-    <cfRule type="expression" dxfId="341" priority="25">
+    <cfRule type="expression" dxfId="383" priority="25">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="26">
+    <cfRule type="expression" dxfId="382" priority="26">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="27">
+    <cfRule type="expression" dxfId="381" priority="27">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:L47">
-    <cfRule type="expression" dxfId="338" priority="22">
+    <cfRule type="expression" dxfId="380" priority="22">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="23">
+    <cfRule type="expression" dxfId="379" priority="23">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="24">
+    <cfRule type="expression" dxfId="378" priority="24">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="335" priority="19">
+    <cfRule type="expression" dxfId="377" priority="19">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="20">
+    <cfRule type="expression" dxfId="376" priority="20">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="21">
+    <cfRule type="expression" dxfId="375" priority="21">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45 M47:P47">
-    <cfRule type="expression" dxfId="332" priority="16">
+    <cfRule type="expression" dxfId="374" priority="16">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="17">
+    <cfRule type="expression" dxfId="373" priority="17">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="18">
+    <cfRule type="expression" dxfId="372" priority="18">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:L44">
-    <cfRule type="expression" dxfId="329" priority="13">
+    <cfRule type="expression" dxfId="371" priority="13">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="14">
+    <cfRule type="expression" dxfId="370" priority="14">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="15">
+    <cfRule type="expression" dxfId="369" priority="15">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P44">
-    <cfRule type="expression" dxfId="326" priority="10">
+    <cfRule type="expression" dxfId="368" priority="10">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="11">
+    <cfRule type="expression" dxfId="367" priority="11">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="12">
+    <cfRule type="expression" dxfId="366" priority="12">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L46">
-    <cfRule type="expression" dxfId="323" priority="4">
+    <cfRule type="expression" dxfId="365" priority="4">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="5">
+    <cfRule type="expression" dxfId="364" priority="5">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="6">
+    <cfRule type="expression" dxfId="363" priority="6">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:P46">
-    <cfRule type="expression" dxfId="320" priority="1">
+    <cfRule type="expression" dxfId="362" priority="1">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="2">
+    <cfRule type="expression" dxfId="361" priority="2">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="3">
+    <cfRule type="expression" dxfId="360" priority="3">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:P23">
-    <cfRule type="expression" dxfId="317" priority="34">
+    <cfRule type="expression" dxfId="359" priority="34">
       <formula>$Q20 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="35">
+    <cfRule type="expression" dxfId="358" priority="35">
       <formula>$Q20 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="36">
+    <cfRule type="expression" dxfId="357" priority="36">
       <formula>$Q20 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:P19">
-    <cfRule type="expression" dxfId="314" priority="52">
+    <cfRule type="expression" dxfId="356" priority="52">
       <formula>$Q19 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="53">
+    <cfRule type="expression" dxfId="355" priority="53">
       <formula>$Q19 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="54">
+    <cfRule type="expression" dxfId="354" priority="54">
       <formula>$Q19 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="311" priority="49">
+    <cfRule type="expression" dxfId="353" priority="49">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="50">
+    <cfRule type="expression" dxfId="352" priority="50">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="51">
+    <cfRule type="expression" dxfId="351" priority="51">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:L25">
-    <cfRule type="expression" dxfId="308" priority="46">
+    <cfRule type="expression" dxfId="350" priority="46">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="47">
+    <cfRule type="expression" dxfId="349" priority="47">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="48">
+    <cfRule type="expression" dxfId="348" priority="48">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P25 M27:P27">
-    <cfRule type="expression" dxfId="305" priority="43">
+    <cfRule type="expression" dxfId="347" priority="43">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="44">
+    <cfRule type="expression" dxfId="346" priority="44">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="45">
+    <cfRule type="expression" dxfId="345" priority="45">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:L24">
-    <cfRule type="expression" dxfId="302" priority="40">
+    <cfRule type="expression" dxfId="344" priority="40">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="41">
+    <cfRule type="expression" dxfId="343" priority="41">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="42">
+    <cfRule type="expression" dxfId="342" priority="42">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:P24">
-    <cfRule type="expression" dxfId="299" priority="37">
+    <cfRule type="expression" dxfId="341" priority="37">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="38">
+    <cfRule type="expression" dxfId="340" priority="38">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="39">
+    <cfRule type="expression" dxfId="339" priority="39">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:L26">
-    <cfRule type="expression" dxfId="296" priority="31">
+    <cfRule type="expression" dxfId="338" priority="31">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="32">
+    <cfRule type="expression" dxfId="337" priority="32">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="33">
+    <cfRule type="expression" dxfId="336" priority="33">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:P26">
-    <cfRule type="expression" dxfId="293" priority="28">
+    <cfRule type="expression" dxfId="335" priority="28">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="29">
+    <cfRule type="expression" dxfId="334" priority="29">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="30">
+    <cfRule type="expression" dxfId="333" priority="30">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19211,618 +19515,618 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A123:P123 A124:L128 M50:P50">
-    <cfRule type="expression" dxfId="290" priority="352">
+    <cfRule type="expression" dxfId="332" priority="352">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="353">
+    <cfRule type="expression" dxfId="331" priority="353">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="354">
+    <cfRule type="expression" dxfId="330" priority="354">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:L131">
-    <cfRule type="expression" dxfId="287" priority="229">
+    <cfRule type="expression" dxfId="329" priority="229">
       <formula>$Q131 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="230">
+    <cfRule type="expression" dxfId="328" priority="230">
       <formula>$Q131 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="231">
+    <cfRule type="expression" dxfId="327" priority="231">
       <formula>$Q131 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:L130">
-    <cfRule type="expression" dxfId="284" priority="226">
+    <cfRule type="expression" dxfId="326" priority="226">
       <formula>$Q130 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="227">
+    <cfRule type="expression" dxfId="325" priority="227">
       <formula>$Q130 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="228">
+    <cfRule type="expression" dxfId="324" priority="228">
       <formula>$Q130 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M124:P128 M130:P131">
-    <cfRule type="expression" dxfId="281" priority="220">
+    <cfRule type="expression" dxfId="323" priority="220">
       <formula>$Q124 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="221">
+    <cfRule type="expression" dxfId="322" priority="221">
       <formula>$Q124 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="222">
+    <cfRule type="expression" dxfId="321" priority="222">
       <formula>$Q124 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:L129">
-    <cfRule type="expression" dxfId="278" priority="202">
+    <cfRule type="expression" dxfId="320" priority="202">
       <formula>$Q129 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="203">
+    <cfRule type="expression" dxfId="319" priority="203">
       <formula>$Q129 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="204">
+    <cfRule type="expression" dxfId="318" priority="204">
       <formula>$Q129 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M129:P129">
-    <cfRule type="expression" dxfId="275" priority="199">
+    <cfRule type="expression" dxfId="317" priority="199">
       <formula>$Q129 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="200">
+    <cfRule type="expression" dxfId="316" priority="200">
       <formula>$Q129 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="201">
+    <cfRule type="expression" dxfId="315" priority="201">
       <formula>$Q129 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:L132">
-    <cfRule type="expression" dxfId="272" priority="196">
+    <cfRule type="expression" dxfId="314" priority="196">
       <formula>$Q132 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="197">
+    <cfRule type="expression" dxfId="313" priority="197">
       <formula>$Q132 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="198">
+    <cfRule type="expression" dxfId="312" priority="198">
       <formula>$Q132 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132:P132">
-    <cfRule type="expression" dxfId="269" priority="193">
+    <cfRule type="expression" dxfId="311" priority="193">
       <formula>$Q132 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="194">
+    <cfRule type="expression" dxfId="310" priority="194">
       <formula>$Q132 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="195">
+    <cfRule type="expression" dxfId="309" priority="195">
       <formula>$Q132 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:P102 A103:L107">
-    <cfRule type="expression" dxfId="266" priority="190">
+    <cfRule type="expression" dxfId="308" priority="190">
       <formula>$Q102 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="191">
+    <cfRule type="expression" dxfId="307" priority="191">
       <formula>$Q102 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="192">
+    <cfRule type="expression" dxfId="306" priority="192">
       <formula>$Q102 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:L110">
-    <cfRule type="expression" dxfId="263" priority="187">
+    <cfRule type="expression" dxfId="305" priority="187">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="188">
+    <cfRule type="expression" dxfId="304" priority="188">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="189">
+    <cfRule type="expression" dxfId="303" priority="189">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:L109">
-    <cfRule type="expression" dxfId="260" priority="184">
+    <cfRule type="expression" dxfId="302" priority="184">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="185">
+    <cfRule type="expression" dxfId="301" priority="185">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="186">
+    <cfRule type="expression" dxfId="300" priority="186">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103:P107 M109:P110">
-    <cfRule type="expression" dxfId="257" priority="181">
+    <cfRule type="expression" dxfId="299" priority="181">
       <formula>$Q103 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="182">
+    <cfRule type="expression" dxfId="298" priority="182">
       <formula>$Q103 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="183">
+    <cfRule type="expression" dxfId="297" priority="183">
       <formula>$Q103 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:L108">
-    <cfRule type="expression" dxfId="254" priority="178">
+    <cfRule type="expression" dxfId="296" priority="178">
       <formula>$Q108 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="179">
+    <cfRule type="expression" dxfId="295" priority="179">
       <formula>$Q108 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="180">
+    <cfRule type="expression" dxfId="294" priority="180">
       <formula>$Q108 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:P108">
-    <cfRule type="expression" dxfId="251" priority="175">
+    <cfRule type="expression" dxfId="293" priority="175">
       <formula>$Q108 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="176">
+    <cfRule type="expression" dxfId="292" priority="176">
       <formula>$Q108 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="177">
+    <cfRule type="expression" dxfId="291" priority="177">
       <formula>$Q108 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:L111">
-    <cfRule type="expression" dxfId="248" priority="172">
+    <cfRule type="expression" dxfId="290" priority="172">
       <formula>$Q111 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="173">
+    <cfRule type="expression" dxfId="289" priority="173">
       <formula>$Q111 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="174">
+    <cfRule type="expression" dxfId="288" priority="174">
       <formula>$Q111 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111:P111">
-    <cfRule type="expression" dxfId="245" priority="169">
+    <cfRule type="expression" dxfId="287" priority="169">
       <formula>$Q111 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="170">
+    <cfRule type="expression" dxfId="286" priority="170">
       <formula>$Q111 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="171">
+    <cfRule type="expression" dxfId="285" priority="171">
       <formula>$Q111 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:L112">
-    <cfRule type="expression" dxfId="242" priority="166">
+    <cfRule type="expression" dxfId="284" priority="166">
       <formula>$Q112 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="167">
+    <cfRule type="expression" dxfId="283" priority="167">
       <formula>$Q112 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="168">
+    <cfRule type="expression" dxfId="282" priority="168">
       <formula>$Q112 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:P112">
-    <cfRule type="expression" dxfId="239" priority="163">
+    <cfRule type="expression" dxfId="281" priority="163">
       <formula>$Q112 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="164">
+    <cfRule type="expression" dxfId="280" priority="164">
       <formula>$Q112 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="165">
+    <cfRule type="expression" dxfId="279" priority="165">
       <formula>$Q112 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:P82 A83:L87">
-    <cfRule type="expression" dxfId="236" priority="130">
+    <cfRule type="expression" dxfId="278" priority="130">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="131">
+    <cfRule type="expression" dxfId="277" priority="131">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="132">
+    <cfRule type="expression" dxfId="276" priority="132">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:L90">
-    <cfRule type="expression" dxfId="233" priority="127">
+    <cfRule type="expression" dxfId="275" priority="127">
       <formula>$Q90 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="128">
+    <cfRule type="expression" dxfId="274" priority="128">
       <formula>$Q90 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="129">
+    <cfRule type="expression" dxfId="273" priority="129">
       <formula>$Q90 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:L89">
-    <cfRule type="expression" dxfId="230" priority="124">
+    <cfRule type="expression" dxfId="272" priority="124">
       <formula>$Q89 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="125">
+    <cfRule type="expression" dxfId="271" priority="125">
       <formula>$Q89 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="126">
+    <cfRule type="expression" dxfId="270" priority="126">
       <formula>$Q89 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P87 M89:P90">
-    <cfRule type="expression" dxfId="227" priority="121">
+    <cfRule type="expression" dxfId="269" priority="121">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="122">
+    <cfRule type="expression" dxfId="268" priority="122">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="123">
+    <cfRule type="expression" dxfId="267" priority="123">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:L88">
-    <cfRule type="expression" dxfId="224" priority="118">
+    <cfRule type="expression" dxfId="266" priority="118">
       <formula>$Q88 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="119">
+    <cfRule type="expression" dxfId="265" priority="119">
       <formula>$Q88 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="120">
+    <cfRule type="expression" dxfId="264" priority="120">
       <formula>$Q88 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M88:P88">
-    <cfRule type="expression" dxfId="221" priority="115">
+    <cfRule type="expression" dxfId="263" priority="115">
       <formula>$Q88 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="116">
+    <cfRule type="expression" dxfId="262" priority="116">
       <formula>$Q88 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="117">
+    <cfRule type="expression" dxfId="261" priority="117">
       <formula>$Q88 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:L91">
-    <cfRule type="expression" dxfId="218" priority="112">
+    <cfRule type="expression" dxfId="260" priority="112">
       <formula>$Q91 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="113">
+    <cfRule type="expression" dxfId="259" priority="113">
       <formula>$Q91 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="114">
+    <cfRule type="expression" dxfId="258" priority="114">
       <formula>$Q91 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:P91">
-    <cfRule type="expression" dxfId="215" priority="109">
+    <cfRule type="expression" dxfId="257" priority="109">
       <formula>$Q91 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="110">
+    <cfRule type="expression" dxfId="256" priority="110">
       <formula>$Q91 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="111">
+    <cfRule type="expression" dxfId="255" priority="111">
       <formula>$Q91 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:P61 A62:L66">
-    <cfRule type="expression" dxfId="212" priority="100">
+    <cfRule type="expression" dxfId="254" priority="100">
       <formula>$Q61 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="101">
+    <cfRule type="expression" dxfId="253" priority="101">
       <formula>$Q61 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="102">
+    <cfRule type="expression" dxfId="252" priority="102">
       <formula>$Q61 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:L69">
-    <cfRule type="expression" dxfId="209" priority="97">
+    <cfRule type="expression" dxfId="251" priority="97">
       <formula>$Q69 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="98">
+    <cfRule type="expression" dxfId="250" priority="98">
       <formula>$Q69 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="99">
+    <cfRule type="expression" dxfId="249" priority="99">
       <formula>$Q69 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:L68">
-    <cfRule type="expression" dxfId="206" priority="94">
+    <cfRule type="expression" dxfId="248" priority="94">
       <formula>$Q68 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="95">
+    <cfRule type="expression" dxfId="247" priority="95">
       <formula>$Q68 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="96">
+    <cfRule type="expression" dxfId="246" priority="96">
       <formula>$Q68 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P66 M68:P69">
-    <cfRule type="expression" dxfId="203" priority="91">
+    <cfRule type="expression" dxfId="245" priority="91">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="92">
+    <cfRule type="expression" dxfId="244" priority="92">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="93">
+    <cfRule type="expression" dxfId="243" priority="93">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:L67">
-    <cfRule type="expression" dxfId="200" priority="88">
+    <cfRule type="expression" dxfId="242" priority="88">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="89">
+    <cfRule type="expression" dxfId="241" priority="89">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="90">
+    <cfRule type="expression" dxfId="240" priority="90">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:P67">
-    <cfRule type="expression" dxfId="197" priority="85">
+    <cfRule type="expression" dxfId="239" priority="85">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="86">
+    <cfRule type="expression" dxfId="238" priority="86">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="87">
+    <cfRule type="expression" dxfId="237" priority="87">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:L70">
-    <cfRule type="expression" dxfId="194" priority="82">
+    <cfRule type="expression" dxfId="236" priority="82">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="83">
+    <cfRule type="expression" dxfId="235" priority="83">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="84">
+    <cfRule type="expression" dxfId="234" priority="84">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70:P70">
-    <cfRule type="expression" dxfId="191" priority="79">
+    <cfRule type="expression" dxfId="233" priority="79">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="80">
+    <cfRule type="expression" dxfId="232" priority="80">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="81">
+    <cfRule type="expression" dxfId="231" priority="81">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:P43 A44:L46 B47:L48">
-    <cfRule type="expression" dxfId="188" priority="76">
+    <cfRule type="expression" dxfId="230" priority="76">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="77">
+    <cfRule type="expression" dxfId="229" priority="77">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="78">
+    <cfRule type="expression" dxfId="228" priority="78">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:L50">
-    <cfRule type="expression" dxfId="185" priority="70">
+    <cfRule type="expression" dxfId="227" priority="70">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="71">
+    <cfRule type="expression" dxfId="226" priority="71">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="72">
+    <cfRule type="expression" dxfId="225" priority="72">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P48">
-    <cfRule type="expression" dxfId="182" priority="67">
+    <cfRule type="expression" dxfId="224" priority="67">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="68">
+    <cfRule type="expression" dxfId="223" priority="68">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="69">
+    <cfRule type="expression" dxfId="222" priority="69">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:L49">
-    <cfRule type="expression" dxfId="179" priority="64">
+    <cfRule type="expression" dxfId="221" priority="64">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="65">
+    <cfRule type="expression" dxfId="220" priority="65">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="66">
+    <cfRule type="expression" dxfId="219" priority="66">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:P49">
-    <cfRule type="expression" dxfId="176" priority="61">
+    <cfRule type="expression" dxfId="218" priority="61">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="62">
+    <cfRule type="expression" dxfId="217" priority="62">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="63">
+    <cfRule type="expression" dxfId="216" priority="63">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="expression" dxfId="173" priority="52">
+    <cfRule type="expression" dxfId="215" priority="52">
       <formula>$Q48 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="53">
+    <cfRule type="expression" dxfId="214" priority="53">
       <formula>$Q48 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="54">
+    <cfRule type="expression" dxfId="213" priority="54">
       <formula>$Q48 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="170" priority="49">
+    <cfRule type="expression" dxfId="212" priority="49">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="50">
+    <cfRule type="expression" dxfId="211" priority="50">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="51">
+    <cfRule type="expression" dxfId="210" priority="51">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="167" priority="46">
+    <cfRule type="expression" dxfId="209" priority="46">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="47">
+    <cfRule type="expression" dxfId="208" priority="47">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="48">
+    <cfRule type="expression" dxfId="207" priority="48">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P14">
-    <cfRule type="expression" dxfId="164" priority="43">
+    <cfRule type="expression" dxfId="206" priority="43">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="44">
+    <cfRule type="expression" dxfId="205" priority="44">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="45">
+    <cfRule type="expression" dxfId="204" priority="45">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A7:L9 B10:L11">
-    <cfRule type="expression" dxfId="161" priority="40">
+    <cfRule type="expression" dxfId="203" priority="40">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="41">
+    <cfRule type="expression" dxfId="202" priority="41">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="42">
+    <cfRule type="expression" dxfId="201" priority="42">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L14">
-    <cfRule type="expression" dxfId="158" priority="37">
+    <cfRule type="expression" dxfId="200" priority="37">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="38">
+    <cfRule type="expression" dxfId="199" priority="38">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="39">
+    <cfRule type="expression" dxfId="198" priority="39">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:P11">
-    <cfRule type="expression" dxfId="155" priority="34">
+    <cfRule type="expression" dxfId="197" priority="34">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="35">
+    <cfRule type="expression" dxfId="196" priority="35">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="36">
+    <cfRule type="expression" dxfId="195" priority="36">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L12">
-    <cfRule type="expression" dxfId="152" priority="31">
+    <cfRule type="expression" dxfId="194" priority="31">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="32">
+    <cfRule type="expression" dxfId="193" priority="32">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="33">
+    <cfRule type="expression" dxfId="192" priority="33">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="149" priority="28">
+    <cfRule type="expression" dxfId="191" priority="28">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="29">
+    <cfRule type="expression" dxfId="190" priority="29">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="30">
+    <cfRule type="expression" dxfId="189" priority="30">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="146" priority="22">
+    <cfRule type="expression" dxfId="188" priority="22">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="23">
+    <cfRule type="expression" dxfId="187" priority="23">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="24">
+    <cfRule type="expression" dxfId="186" priority="24">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P6">
-    <cfRule type="expression" dxfId="143" priority="13">
+    <cfRule type="expression" dxfId="185" priority="13">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="14">
+    <cfRule type="expression" dxfId="184" priority="14">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="15">
+    <cfRule type="expression" dxfId="183" priority="15">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="140" priority="19">
+    <cfRule type="expression" dxfId="182" priority="19">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="20">
+    <cfRule type="expression" dxfId="181" priority="20">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="21">
+    <cfRule type="expression" dxfId="180" priority="21">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="137" priority="16">
+    <cfRule type="expression" dxfId="179" priority="16">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="17">
+    <cfRule type="expression" dxfId="178" priority="17">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="18">
+    <cfRule type="expression" dxfId="177" priority="18">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="134" priority="10">
+    <cfRule type="expression" dxfId="176" priority="10">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="11">
+    <cfRule type="expression" dxfId="175" priority="11">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="12">
+    <cfRule type="expression" dxfId="174" priority="12">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13">
-    <cfRule type="expression" dxfId="131" priority="7">
+    <cfRule type="expression" dxfId="173" priority="7">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="8">
+    <cfRule type="expression" dxfId="172" priority="8">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="9">
+    <cfRule type="expression" dxfId="171" priority="9">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="128" priority="4">
+    <cfRule type="expression" dxfId="170" priority="4">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="5">
+    <cfRule type="expression" dxfId="169" priority="5">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="6">
+    <cfRule type="expression" dxfId="168" priority="6">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="125" priority="1">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="166" priority="2">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="3">
+    <cfRule type="expression" dxfId="165" priority="3">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19835,8 +20139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF62D8F-529B-429B-AA18-57932D0B1C30}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20153,7 +20457,7 @@
       </c>
       <c r="Q10">
         <f>IF(P10 &lt; 1, 3, IF(P10 &gt;= P$11, 1, 2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -20162,13 +20466,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
         <v>25</v>
       </c>
       <c r="E11" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -20183,15 +20487,15 @@
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>2.0833333333333335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -20397,7 +20701,7 @@
       </c>
       <c r="Q18">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -20517,13 +20821,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4">
         <v>25</v>
       </c>
       <c r="E22" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -20538,15 +20842,15 @@
       </c>
       <c r="N22" s="4">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
+        <v>2.6315789473684212</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -20879,13 +21183,13 @@
         <v>25</v>
       </c>
       <c r="C33" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E33" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F33" s="4">
         <v>15</v>
@@ -20900,19 +21204,19 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N33" s="4">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P33" s="5">
         <f t="shared" si="11"/>
-        <v>1.2</v>
+        <v>1.2745098039215685</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -21242,7 +21546,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="4">
         <v>25</v>
@@ -21257,7 +21561,7 @@
         <v>15</v>
       </c>
       <c r="G44" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -21266,11 +21570,11 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" si="14"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="15"/>
@@ -21278,271 +21582,271 @@
       </c>
       <c r="P44" s="5">
         <f t="shared" si="16"/>
-        <v>1.0909090909090908</v>
+        <v>1.0925925925925926</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M7:P9">
-    <cfRule type="expression" dxfId="122" priority="73">
+    <cfRule type="expression" dxfId="164" priority="73">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="74">
+    <cfRule type="expression" dxfId="163" priority="74">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="75">
+    <cfRule type="expression" dxfId="162" priority="75">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="119" priority="112">
+    <cfRule type="expression" dxfId="161" priority="112">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="113">
+    <cfRule type="expression" dxfId="160" priority="113">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="114">
+    <cfRule type="expression" dxfId="159" priority="114">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A7:L9">
-    <cfRule type="expression" dxfId="116" priority="109">
+    <cfRule type="expression" dxfId="158" priority="109">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="110">
+    <cfRule type="expression" dxfId="157" priority="110">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="111">
+    <cfRule type="expression" dxfId="156" priority="111">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="113" priority="106">
+    <cfRule type="expression" dxfId="155" priority="106">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="107">
+    <cfRule type="expression" dxfId="154" priority="107">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="108">
+    <cfRule type="expression" dxfId="153" priority="108">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P6">
-    <cfRule type="expression" dxfId="110" priority="85">
+    <cfRule type="expression" dxfId="152" priority="85">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="86">
+    <cfRule type="expression" dxfId="151" priority="86">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="87">
+    <cfRule type="expression" dxfId="150" priority="87">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="107" priority="88">
+    <cfRule type="expression" dxfId="149" priority="88">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="89">
+    <cfRule type="expression" dxfId="148" priority="89">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="90">
+    <cfRule type="expression" dxfId="147" priority="90">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:P20">
-    <cfRule type="expression" dxfId="104" priority="55">
+    <cfRule type="expression" dxfId="146" priority="55">
       <formula>$Q18 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="56">
+    <cfRule type="expression" dxfId="145" priority="56">
       <formula>$Q18 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="57">
+    <cfRule type="expression" dxfId="144" priority="57">
       <formula>$Q18 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:P21">
-    <cfRule type="expression" dxfId="101" priority="70">
+    <cfRule type="expression" dxfId="143" priority="70">
       <formula>$Q21 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="71">
+    <cfRule type="expression" dxfId="142" priority="71">
       <formula>$Q21 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="72">
+    <cfRule type="expression" dxfId="141" priority="72">
       <formula>$Q21 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:P16 A18:L20">
-    <cfRule type="expression" dxfId="98" priority="67">
+    <cfRule type="expression" dxfId="140" priority="67">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="68">
+    <cfRule type="expression" dxfId="139" priority="68">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="69">
+    <cfRule type="expression" dxfId="138" priority="69">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:L21">
-    <cfRule type="expression" dxfId="95" priority="64">
+    <cfRule type="expression" dxfId="137" priority="64">
       <formula>$Q21 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="65">
+    <cfRule type="expression" dxfId="136" priority="65">
       <formula>$Q21 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="66">
+    <cfRule type="expression" dxfId="135" priority="66">
       <formula>$Q21 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:P17">
-    <cfRule type="expression" dxfId="92" priority="58">
+    <cfRule type="expression" dxfId="134" priority="58">
       <formula>$Q17 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="59">
+    <cfRule type="expression" dxfId="133" priority="59">
       <formula>$Q17 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="60">
+    <cfRule type="expression" dxfId="132" priority="60">
       <formula>$Q17 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:L17">
-    <cfRule type="expression" dxfId="89" priority="61">
+    <cfRule type="expression" dxfId="131" priority="61">
       <formula>$Q17 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="62">
+    <cfRule type="expression" dxfId="130" priority="62">
       <formula>$Q17 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="63">
+    <cfRule type="expression" dxfId="129" priority="63">
       <formula>$Q17 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:P31">
-    <cfRule type="expression" dxfId="53" priority="37">
+    <cfRule type="expression" dxfId="128" priority="37">
       <formula>$Q29 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="38">
+    <cfRule type="expression" dxfId="127" priority="38">
       <formula>$Q29 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="39">
+    <cfRule type="expression" dxfId="126" priority="39">
       <formula>$Q29 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:P32">
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="125" priority="52">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="124" priority="53">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="54">
+    <cfRule type="expression" dxfId="123" priority="54">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:P27 A29:L31">
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="122" priority="49">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="121" priority="50">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="120" priority="51">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L32">
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="119" priority="46">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="47">
+    <cfRule type="expression" dxfId="118" priority="47">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="117" priority="48">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:P28">
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="116" priority="40">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="115" priority="41">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42">
+    <cfRule type="expression" dxfId="114" priority="42">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:L28">
-    <cfRule type="expression" dxfId="38" priority="43">
+    <cfRule type="expression" dxfId="113" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="112" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="45">
+    <cfRule type="expression" dxfId="111" priority="45">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40:P42">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="110" priority="1">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="109" priority="2">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="108" priority="3">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:P43">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="107" priority="16">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="106" priority="17">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="105" priority="18">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:P38 A40:L42">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="104" priority="13">
       <formula>$Q38 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="103" priority="14">
       <formula>$Q38 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="102" priority="15">
       <formula>$Q38 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:L43">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="101" priority="10">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="100" priority="11">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="99" priority="12">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39:P39">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="98" priority="4">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="97" priority="5">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="96" priority="6">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:L39">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="95" priority="7">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="94" priority="8">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="93" priority="9">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21551,6 +21855,2404 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF14C0C-FCC8-4B01-8348-5DC5385039EA}">
+  <dimension ref="A1:Q68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="13" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>43590</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:N17" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O17" si="1">M5 - N5</f>
+        <v>-4</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P17" si="2" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>IF(P5 &lt; 1, 3, IF(P5 &gt;= P$17, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="3" xml:space="preserve"> B6 + D6 + F6 + H6 + J6</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N15" si="4" xml:space="preserve"> C6 + E6 + G6 + I6 + K6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O15" si="5">M6 - N6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6:P15" si="6" xml:space="preserve"> IF(M6+N6=0, 0, IF(N6=0, "MAX", M6/N6))</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f>IF(P7 &lt; 1, 3, IF(P7 &gt;= P$17, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>IF(P8 &lt; 1, 3, IF(P8 &gt;= P$17, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="Q10">
+        <f>IF(P10 &lt; 1, 3, IF(P10 &gt;= P$17, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q13">
+        <f>IF(P13 &lt; 1, 3, IF(P13 &gt;= P$17, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q15">
+        <f>IF(P15 &lt; 1, 3, IF(P15 &gt;= P$17, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>IF(P16 &lt; 1, 3, IF(P16 &gt;= P$17, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4">
+        <v>15</v>
+      </c>
+      <c r="G17" s="4">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0545454545454545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>43590</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M34" si="7" xml:space="preserve"> B22 + D22 + F22 + H22 + J22</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N34" si="8" xml:space="preserve"> C22 + E22 + G22 + I22 + K22</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" ref="O22:O34" si="9">M22 - N22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" ref="P22:P34" si="10" xml:space="preserve"> IF(M22+N22=0, 0, IF(N22=0, "MAX", M22/N22))</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23:Q33" si="11">IF(P23 &lt; 1, 3, IF(P23 &gt;= P$34, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4">
+        <v>15</v>
+      </c>
+      <c r="D34" s="4">
+        <v>25</v>
+      </c>
+      <c r="E34" s="4">
+        <v>18</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="10"/>
+        <v>1.5151515151515151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>43590</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:M51" si="12" xml:space="preserve"> B39 + D39 + F39 + H39 + J39</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:N51" si="13" xml:space="preserve"> C39 + E39 + G39 + I39 + K39</f>
+        <v>2</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" ref="O39:O51" si="14">M39 - N39</f>
+        <v>-2</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" ref="P39:P51" si="15" xml:space="preserve"> IF(M39+N39=0, 0, IF(N39=0, "MAX", M39/N39))</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f>IF(P39 &lt; 1, 3, IF(P39 &gt;= P$51, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="14"/>
+        <v>-3</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41:Q49" si="16">IF(P41 &lt; 1, 3, IF(P41 &gt;= P$51, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="15"/>
+        <v>1.25</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="14"/>
+        <v>-6</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="15"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4">
+        <v>18</v>
+      </c>
+      <c r="C51" s="4">
+        <v>25</v>
+      </c>
+      <c r="D51" s="4">
+        <v>18</v>
+      </c>
+      <c r="E51" s="4">
+        <v>25</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="14"/>
+        <v>-14</v>
+      </c>
+      <c r="P51" s="5">
+        <f t="shared" si="15"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>43590</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="10"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ref="M56:M68" si="17" xml:space="preserve"> B56 + D56 + F56 + H56 + J56</f>
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56:N68" si="18" xml:space="preserve"> C56 + E56 + G56 + I56 + K56</f>
+        <v>4</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" ref="O56:O68" si="19">M56 - N56</f>
+        <v>-1</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" ref="P56:P68" si="20" xml:space="preserve"> IF(M56+N56=0, 0, IF(N56=0, "MAX", M56/N56))</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q56">
+        <f>IF(P56 &lt; 1, 3, IF(P56 &gt;= P$68, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="19"/>
+        <v>-5</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="20"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ref="Q58:Q67" si="21">IF(P58 &lt; 1, 3, IF(P58 &gt;= P$68, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="19"/>
+        <v>-5</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="19"/>
+        <v>-7</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="20"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="19"/>
+        <v>-11</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" si="20"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="P67" s="3">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4">
+        <v>25</v>
+      </c>
+      <c r="D68" s="4">
+        <v>25</v>
+      </c>
+      <c r="E68" s="4">
+        <v>21</v>
+      </c>
+      <c r="F68" s="4">
+        <v>7</v>
+      </c>
+      <c r="G68" s="4">
+        <v>15</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4">
+        <f t="shared" si="17"/>
+        <v>44</v>
+      </c>
+      <c r="N68" s="4">
+        <f t="shared" si="18"/>
+        <v>61</v>
+      </c>
+      <c r="O68" s="4">
+        <f t="shared" si="19"/>
+        <v>-17</v>
+      </c>
+      <c r="P68" s="5">
+        <f t="shared" si="20"/>
+        <v>0.72131147540983609</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M16:P16">
+    <cfRule type="expression" dxfId="92" priority="121">
+      <formula>$Q16 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="122">
+      <formula>$Q16 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="123">
+      <formula>$Q16 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:P5">
+    <cfRule type="expression" dxfId="89" priority="118">
+      <formula>$Q5 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="119">
+      <formula>$Q5 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="120">
+      <formula>$Q5 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:L16">
+    <cfRule type="expression" dxfId="86" priority="115">
+      <formula>$Q16 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="116">
+      <formula>$Q16 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="117">
+      <formula>$Q16 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:P15">
+    <cfRule type="expression" dxfId="83" priority="46">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="47">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="48">
+      <formula>$Q6 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:L15">
+    <cfRule type="expression" dxfId="80" priority="49">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="50">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="51">
+      <formula>$Q6 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:P33">
+    <cfRule type="expression" dxfId="77" priority="43">
+      <formula>$Q33 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="44">
+      <formula>$Q33 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="45">
+      <formula>$Q33 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:P22">
+    <cfRule type="expression" dxfId="74" priority="40">
+      <formula>$Q22 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="41">
+      <formula>$Q22 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="42">
+      <formula>$Q22 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:L33">
+    <cfRule type="expression" dxfId="71" priority="37">
+      <formula>$Q33 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="38">
+      <formula>$Q33 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="39">
+      <formula>$Q33 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:P32">
+    <cfRule type="expression" dxfId="68" priority="31">
+      <formula>$Q23 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="32">
+      <formula>$Q23 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="33">
+      <formula>$Q23 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:L32">
+    <cfRule type="expression" dxfId="65" priority="34">
+      <formula>$Q23 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="35">
+      <formula>$Q23 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="36">
+      <formula>$Q23 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M50:P50">
+    <cfRule type="expression" dxfId="62" priority="28">
+      <formula>$Q50 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="29">
+      <formula>$Q50 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="30">
+      <formula>$Q50 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:P39">
+    <cfRule type="expression" dxfId="59" priority="25">
+      <formula>$Q39 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="26">
+      <formula>$Q39 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="27">
+      <formula>$Q39 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:L50">
+    <cfRule type="expression" dxfId="56" priority="22">
+      <formula>$Q50 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="23">
+      <formula>$Q50 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="24">
+      <formula>$Q50 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:P49">
+    <cfRule type="expression" dxfId="53" priority="16">
+      <formula>$Q40 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="17">
+      <formula>$Q40 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="18">
+      <formula>$Q40 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:L49">
+    <cfRule type="expression" dxfId="50" priority="19">
+      <formula>$Q40 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="20">
+      <formula>$Q40 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="21">
+      <formula>$Q40 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M67:P67">
+    <cfRule type="expression" dxfId="47" priority="13">
+      <formula>$Q67 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="14">
+      <formula>$Q67 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="15">
+      <formula>$Q67 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:P56">
+    <cfRule type="expression" dxfId="44" priority="10">
+      <formula>$Q56 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="11">
+      <formula>$Q56 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="12">
+      <formula>$Q56 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:L67">
+    <cfRule type="expression" dxfId="41" priority="7">
+      <formula>$Q67 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="8">
+      <formula>$Q67 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="9">
+      <formula>$Q67 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M57:P66">
+    <cfRule type="expression" dxfId="38" priority="1">
+      <formula>$Q57 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="2">
+      <formula>$Q57 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="3">
+      <formula>$Q57 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:L66">
+    <cfRule type="expression" dxfId="35" priority="4">
+      <formula>$Q57 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="5">
+      <formula>$Q57 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="6">
+      <formula>$Q57 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BDAFE5-3AEF-49E8-9ED9-A9BAA79160EC}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
@@ -23058,123 +25760,123 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="86" priority="22">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="23">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:P24 A25:L29">
-    <cfRule type="expression" dxfId="83" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="80" priority="37">
+    <cfRule type="expression" dxfId="26" priority="37">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="39">
+    <cfRule type="expression" dxfId="24" priority="39">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P29">
-    <cfRule type="expression" dxfId="77" priority="34">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="36">
+    <cfRule type="expression" dxfId="21" priority="36">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:L30">
-    <cfRule type="expression" dxfId="74" priority="31">
+    <cfRule type="expression" dxfId="20" priority="31">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="32">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="33">
+    <cfRule type="expression" dxfId="18" priority="33">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:P30">
-    <cfRule type="expression" dxfId="71" priority="28">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="29">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="30">
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:P15">
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9 A10:L13 B14:L14">
-    <cfRule type="expression" dxfId="65" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:L15">
-    <cfRule type="expression" dxfId="62" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="18">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P14">
-    <cfRule type="expression" dxfId="59" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C5422020-2724-4B05-B37E-95CE9B09898A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F383B08E-D841-409E-A3A7-7C984DB9E1FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpieleUL" sheetId="7" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="SpieleAR" sheetId="6" r:id="rId3"/>
     <sheet name="U13F" sheetId="10" r:id="rId4"/>
     <sheet name="U15F" sheetId="11" r:id="rId5"/>
-    <sheet name="SpieleMPO" sheetId="8" r:id="rId6"/>
+    <sheet name="U12F" sheetId="12" r:id="rId6"/>
+    <sheet name="SpieleMPO" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="quot_m1">SpieleAR!#REF!</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="354">
   <si>
     <t>Lea</t>
   </si>
@@ -1067,6 +1068,24 @@
   </si>
   <si>
     <t>Brückl hotvolleys - WSL 1</t>
+  </si>
+  <si>
+    <t>Jojo</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - hotvolleys</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Graz</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Dornbirn</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Inzing</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1198,700 @@
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="576">
+  <dxfs count="675">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8269,200 +8981,200 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M46:P47 A40:P44">
-    <cfRule type="expression" dxfId="575" priority="91">
+    <cfRule type="expression" dxfId="674" priority="91">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="92">
+    <cfRule type="expression" dxfId="673" priority="92">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="93">
+    <cfRule type="expression" dxfId="672" priority="93">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L47">
-    <cfRule type="expression" dxfId="572" priority="85">
+    <cfRule type="expression" dxfId="671" priority="85">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="86">
+    <cfRule type="expression" dxfId="670" priority="86">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="87">
+    <cfRule type="expression" dxfId="669" priority="87">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="569" priority="79">
+    <cfRule type="expression" dxfId="668" priority="79">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="80">
+    <cfRule type="expression" dxfId="667" priority="80">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="81">
+    <cfRule type="expression" dxfId="666" priority="81">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45">
-    <cfRule type="expression" dxfId="566" priority="76">
+    <cfRule type="expression" dxfId="665" priority="76">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="77">
+    <cfRule type="expression" dxfId="664" priority="77">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="78">
+    <cfRule type="expression" dxfId="663" priority="78">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:P33 A23:P25 A29:P30">
-    <cfRule type="expression" dxfId="563" priority="61">
+    <cfRule type="expression" dxfId="662" priority="61">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="62">
+    <cfRule type="expression" dxfId="661" priority="62">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="63">
+    <cfRule type="expression" dxfId="660" priority="63">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L33">
-    <cfRule type="expression" dxfId="560" priority="58">
+    <cfRule type="expression" dxfId="659" priority="58">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="59">
+    <cfRule type="expression" dxfId="658" priority="59">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="60">
+    <cfRule type="expression" dxfId="657" priority="60">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="557" priority="55">
+    <cfRule type="expression" dxfId="656" priority="55">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="56">
+    <cfRule type="expression" dxfId="655" priority="56">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="57">
+    <cfRule type="expression" dxfId="654" priority="57">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="554" priority="52">
+    <cfRule type="expression" dxfId="653" priority="52">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="53">
+    <cfRule type="expression" dxfId="652" priority="53">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="54">
+    <cfRule type="expression" dxfId="651" priority="54">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:P26">
-    <cfRule type="expression" dxfId="551" priority="49">
+    <cfRule type="expression" dxfId="650" priority="49">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="50">
+    <cfRule type="expression" dxfId="649" priority="50">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="51">
+    <cfRule type="expression" dxfId="648" priority="51">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:P27">
-    <cfRule type="expression" dxfId="548" priority="46">
+    <cfRule type="expression" dxfId="647" priority="46">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="47">
+    <cfRule type="expression" dxfId="646" priority="47">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="48">
+    <cfRule type="expression" dxfId="645" priority="48">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:P28">
-    <cfRule type="expression" dxfId="545" priority="43">
+    <cfRule type="expression" dxfId="644" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="44">
+    <cfRule type="expression" dxfId="643" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="45">
+    <cfRule type="expression" dxfId="642" priority="45">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P15 A5:P7 A11:P12">
-    <cfRule type="expression" dxfId="542" priority="19">
+    <cfRule type="expression" dxfId="641" priority="19">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="20">
+    <cfRule type="expression" dxfId="640" priority="20">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="21">
+    <cfRule type="expression" dxfId="639" priority="21">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L15">
-    <cfRule type="expression" dxfId="539" priority="16">
+    <cfRule type="expression" dxfId="638" priority="16">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="17">
+    <cfRule type="expression" dxfId="637" priority="17">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="18">
+    <cfRule type="expression" dxfId="636" priority="18">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="536" priority="13">
+    <cfRule type="expression" dxfId="635" priority="13">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="14">
+    <cfRule type="expression" dxfId="634" priority="14">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="15">
+    <cfRule type="expression" dxfId="633" priority="15">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="533" priority="10">
+    <cfRule type="expression" dxfId="632" priority="10">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="11">
+    <cfRule type="expression" dxfId="631" priority="11">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="12">
+    <cfRule type="expression" dxfId="630" priority="12">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:P8">
-    <cfRule type="expression" dxfId="530" priority="7">
+    <cfRule type="expression" dxfId="629" priority="7">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="8">
+    <cfRule type="expression" dxfId="628" priority="8">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="9">
+    <cfRule type="expression" dxfId="627" priority="9">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9">
-    <cfRule type="expression" dxfId="527" priority="4">
+    <cfRule type="expression" dxfId="626" priority="4">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="5">
+    <cfRule type="expression" dxfId="625" priority="5">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="6">
+    <cfRule type="expression" dxfId="624" priority="6">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:P10">
-    <cfRule type="expression" dxfId="524" priority="1">
+    <cfRule type="expression" dxfId="623" priority="1">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="2">
+    <cfRule type="expression" dxfId="622" priority="2">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="3">
+    <cfRule type="expression" dxfId="621" priority="3">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13296,695 +14008,695 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A58:P61">
-    <cfRule type="expression" dxfId="521" priority="196">
+    <cfRule type="expression" dxfId="620" priority="196">
       <formula>$Q58 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="197">
+    <cfRule type="expression" dxfId="619" priority="197">
       <formula>$Q58 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="198">
+    <cfRule type="expression" dxfId="618" priority="198">
       <formula>$Q58 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:P57">
-    <cfRule type="expression" dxfId="518" priority="217">
+    <cfRule type="expression" dxfId="617" priority="217">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="218">
+    <cfRule type="expression" dxfId="616" priority="218">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="219">
+    <cfRule type="expression" dxfId="615" priority="219">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:L65">
-    <cfRule type="expression" dxfId="515" priority="214">
+    <cfRule type="expression" dxfId="614" priority="214">
       <formula>$Q65 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="215">
+    <cfRule type="expression" dxfId="613" priority="215">
       <formula>$Q65 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="216">
+    <cfRule type="expression" dxfId="612" priority="216">
       <formula>$Q65 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:L63">
-    <cfRule type="expression" dxfId="512" priority="211">
+    <cfRule type="expression" dxfId="611" priority="211">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="212">
+    <cfRule type="expression" dxfId="610" priority="212">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="213">
+    <cfRule type="expression" dxfId="609" priority="213">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:P63 M65:P65">
-    <cfRule type="expression" dxfId="509" priority="208">
+    <cfRule type="expression" dxfId="608" priority="208">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="209">
+    <cfRule type="expression" dxfId="607" priority="209">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="210">
+    <cfRule type="expression" dxfId="606" priority="210">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:L62">
-    <cfRule type="expression" dxfId="506" priority="205">
+    <cfRule type="expression" dxfId="605" priority="205">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="206">
+    <cfRule type="expression" dxfId="604" priority="206">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="207">
+    <cfRule type="expression" dxfId="603" priority="207">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P62">
-    <cfRule type="expression" dxfId="503" priority="202">
+    <cfRule type="expression" dxfId="602" priority="202">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="203">
+    <cfRule type="expression" dxfId="601" priority="203">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="204">
+    <cfRule type="expression" dxfId="600" priority="204">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:L64">
-    <cfRule type="expression" dxfId="500" priority="193">
+    <cfRule type="expression" dxfId="599" priority="193">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="194">
+    <cfRule type="expression" dxfId="598" priority="194">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="195">
+    <cfRule type="expression" dxfId="597" priority="195">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:P64">
-    <cfRule type="expression" dxfId="497" priority="190">
+    <cfRule type="expression" dxfId="596" priority="190">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="191">
+    <cfRule type="expression" dxfId="595" priority="191">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="192">
+    <cfRule type="expression" dxfId="594" priority="192">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:P81">
-    <cfRule type="expression" dxfId="494" priority="169">
+    <cfRule type="expression" dxfId="593" priority="169">
       <formula>$Q78 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="170">
+    <cfRule type="expression" dxfId="592" priority="170">
       <formula>$Q78 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="171">
+    <cfRule type="expression" dxfId="591" priority="171">
       <formula>$Q78 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:P77">
-    <cfRule type="expression" dxfId="491" priority="187">
+    <cfRule type="expression" dxfId="590" priority="187">
       <formula>$Q77 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="188">
+    <cfRule type="expression" dxfId="589" priority="188">
       <formula>$Q77 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="189">
+    <cfRule type="expression" dxfId="588" priority="189">
       <formula>$Q77 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:L85">
-    <cfRule type="expression" dxfId="488" priority="184">
+    <cfRule type="expression" dxfId="587" priority="184">
       <formula>$Q85 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="185">
+    <cfRule type="expression" dxfId="586" priority="185">
       <formula>$Q85 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="186">
+    <cfRule type="expression" dxfId="585" priority="186">
       <formula>$Q85 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:L83">
-    <cfRule type="expression" dxfId="485" priority="181">
+    <cfRule type="expression" dxfId="584" priority="181">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="182">
+    <cfRule type="expression" dxfId="583" priority="182">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="183">
+    <cfRule type="expression" dxfId="582" priority="183">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P83 M85:P85">
-    <cfRule type="expression" dxfId="482" priority="178">
+    <cfRule type="expression" dxfId="581" priority="178">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="179">
+    <cfRule type="expression" dxfId="580" priority="179">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="180">
+    <cfRule type="expression" dxfId="579" priority="180">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:L82">
-    <cfRule type="expression" dxfId="479" priority="175">
+    <cfRule type="expression" dxfId="578" priority="175">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="176">
+    <cfRule type="expression" dxfId="577" priority="176">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="177">
+    <cfRule type="expression" dxfId="576" priority="177">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:P82">
-    <cfRule type="expression" dxfId="476" priority="172">
+    <cfRule type="expression" dxfId="575" priority="172">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="173">
+    <cfRule type="expression" dxfId="574" priority="173">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="174">
+    <cfRule type="expression" dxfId="573" priority="174">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:L84">
-    <cfRule type="expression" dxfId="473" priority="166">
+    <cfRule type="expression" dxfId="572" priority="166">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="167">
+    <cfRule type="expression" dxfId="571" priority="167">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="168">
+    <cfRule type="expression" dxfId="570" priority="168">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84:P84">
-    <cfRule type="expression" dxfId="470" priority="163">
+    <cfRule type="expression" dxfId="569" priority="163">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="164">
+    <cfRule type="expression" dxfId="568" priority="164">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="165">
+    <cfRule type="expression" dxfId="567" priority="165">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:P97">
-    <cfRule type="expression" dxfId="467" priority="142">
+    <cfRule type="expression" dxfId="566" priority="142">
       <formula>$Q94 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="143">
+    <cfRule type="expression" dxfId="565" priority="143">
       <formula>$Q94 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="144">
+    <cfRule type="expression" dxfId="564" priority="144">
       <formula>$Q94 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:P93">
-    <cfRule type="expression" dxfId="464" priority="160">
+    <cfRule type="expression" dxfId="563" priority="160">
       <formula>$Q93 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="161">
+    <cfRule type="expression" dxfId="562" priority="161">
       <formula>$Q93 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="162">
+    <cfRule type="expression" dxfId="561" priority="162">
       <formula>$Q93 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:L101">
-    <cfRule type="expression" dxfId="461" priority="157">
+    <cfRule type="expression" dxfId="560" priority="157">
       <formula>$Q101 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="158">
+    <cfRule type="expression" dxfId="559" priority="158">
       <formula>$Q101 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="159">
+    <cfRule type="expression" dxfId="558" priority="159">
       <formula>$Q101 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:L99">
-    <cfRule type="expression" dxfId="458" priority="154">
+    <cfRule type="expression" dxfId="557" priority="154">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="155">
+    <cfRule type="expression" dxfId="556" priority="155">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="156">
+    <cfRule type="expression" dxfId="555" priority="156">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99:P99 M101:P101">
-    <cfRule type="expression" dxfId="455" priority="151">
+    <cfRule type="expression" dxfId="554" priority="151">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="152">
+    <cfRule type="expression" dxfId="553" priority="152">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="153">
+    <cfRule type="expression" dxfId="552" priority="153">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:L98">
-    <cfRule type="expression" dxfId="452" priority="148">
+    <cfRule type="expression" dxfId="551" priority="148">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="149">
+    <cfRule type="expression" dxfId="550" priority="149">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="150">
+    <cfRule type="expression" dxfId="549" priority="150">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98:P98">
-    <cfRule type="expression" dxfId="449" priority="145">
+    <cfRule type="expression" dxfId="548" priority="145">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="146">
+    <cfRule type="expression" dxfId="547" priority="146">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="147">
+    <cfRule type="expression" dxfId="546" priority="147">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:L100">
-    <cfRule type="expression" dxfId="446" priority="139">
+    <cfRule type="expression" dxfId="545" priority="139">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="140">
+    <cfRule type="expression" dxfId="544" priority="140">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="141">
+    <cfRule type="expression" dxfId="543" priority="141">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100:P100">
-    <cfRule type="expression" dxfId="443" priority="136">
+    <cfRule type="expression" dxfId="542" priority="136">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="137">
+    <cfRule type="expression" dxfId="541" priority="137">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="138">
+    <cfRule type="expression" dxfId="540" priority="138">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:P113">
-    <cfRule type="expression" dxfId="440" priority="115">
+    <cfRule type="expression" dxfId="539" priority="115">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="116">
+    <cfRule type="expression" dxfId="538" priority="116">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="117">
+    <cfRule type="expression" dxfId="537" priority="117">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:P109">
-    <cfRule type="expression" dxfId="437" priority="133">
+    <cfRule type="expression" dxfId="536" priority="133">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="134">
+    <cfRule type="expression" dxfId="535" priority="134">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="135">
+    <cfRule type="expression" dxfId="534" priority="135">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:L117">
-    <cfRule type="expression" dxfId="434" priority="130">
+    <cfRule type="expression" dxfId="533" priority="130">
       <formula>$Q117 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="131">
+    <cfRule type="expression" dxfId="532" priority="131">
       <formula>$Q117 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="132">
+    <cfRule type="expression" dxfId="531" priority="132">
       <formula>$Q117 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:L115">
-    <cfRule type="expression" dxfId="431" priority="127">
+    <cfRule type="expression" dxfId="530" priority="127">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="128">
+    <cfRule type="expression" dxfId="529" priority="128">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="129">
+    <cfRule type="expression" dxfId="528" priority="129">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115:P115 M117:P117">
-    <cfRule type="expression" dxfId="428" priority="124">
+    <cfRule type="expression" dxfId="527" priority="124">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="125">
+    <cfRule type="expression" dxfId="526" priority="125">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="126">
+    <cfRule type="expression" dxfId="525" priority="126">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:L114">
-    <cfRule type="expression" dxfId="425" priority="121">
+    <cfRule type="expression" dxfId="524" priority="121">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="122">
+    <cfRule type="expression" dxfId="523" priority="122">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="123">
+    <cfRule type="expression" dxfId="522" priority="123">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M114:P114">
-    <cfRule type="expression" dxfId="422" priority="118">
+    <cfRule type="expression" dxfId="521" priority="118">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="119">
+    <cfRule type="expression" dxfId="520" priority="119">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="120">
+    <cfRule type="expression" dxfId="519" priority="120">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:L116">
-    <cfRule type="expression" dxfId="419" priority="112">
+    <cfRule type="expression" dxfId="518" priority="112">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="113">
+    <cfRule type="expression" dxfId="517" priority="113">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="114">
+    <cfRule type="expression" dxfId="516" priority="114">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M116:P116">
-    <cfRule type="expression" dxfId="416" priority="109">
+    <cfRule type="expression" dxfId="515" priority="109">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="110">
+    <cfRule type="expression" dxfId="514" priority="110">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="111">
+    <cfRule type="expression" dxfId="513" priority="111">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:P9">
-    <cfRule type="expression" dxfId="413" priority="88">
+    <cfRule type="expression" dxfId="512" priority="88">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="89">
+    <cfRule type="expression" dxfId="511" priority="89">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="90">
+    <cfRule type="expression" dxfId="510" priority="90">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="410" priority="106">
+    <cfRule type="expression" dxfId="509" priority="106">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="107">
+    <cfRule type="expression" dxfId="508" priority="107">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="108">
+    <cfRule type="expression" dxfId="507" priority="108">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="407" priority="103">
+    <cfRule type="expression" dxfId="506" priority="103">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="104">
+    <cfRule type="expression" dxfId="505" priority="104">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="105">
+    <cfRule type="expression" dxfId="504" priority="105">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="404" priority="100">
+    <cfRule type="expression" dxfId="503" priority="100">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="101">
+    <cfRule type="expression" dxfId="502" priority="101">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="102">
+    <cfRule type="expression" dxfId="501" priority="102">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:P11 M13:P13">
-    <cfRule type="expression" dxfId="401" priority="97">
+    <cfRule type="expression" dxfId="500" priority="97">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="98">
+    <cfRule type="expression" dxfId="499" priority="98">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="99">
+    <cfRule type="expression" dxfId="498" priority="99">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="398" priority="94">
+    <cfRule type="expression" dxfId="497" priority="94">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="95">
+    <cfRule type="expression" dxfId="496" priority="95">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="96">
+    <cfRule type="expression" dxfId="495" priority="96">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="395" priority="91">
+    <cfRule type="expression" dxfId="494" priority="91">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="92">
+    <cfRule type="expression" dxfId="493" priority="92">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="93">
+    <cfRule type="expression" dxfId="492" priority="93">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="392" priority="85">
+    <cfRule type="expression" dxfId="491" priority="85">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="86">
+    <cfRule type="expression" dxfId="490" priority="86">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="87">
+    <cfRule type="expression" dxfId="489" priority="87">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="389" priority="82">
+    <cfRule type="expression" dxfId="488" priority="82">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="83">
+    <cfRule type="expression" dxfId="487" priority="83">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="84">
+    <cfRule type="expression" dxfId="486" priority="84">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:P43">
-    <cfRule type="expression" dxfId="386" priority="7">
+    <cfRule type="expression" dxfId="485" priority="7">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="8">
+    <cfRule type="expression" dxfId="484" priority="8">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="9">
+    <cfRule type="expression" dxfId="483" priority="9">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:P39">
-    <cfRule type="expression" dxfId="383" priority="25">
+    <cfRule type="expression" dxfId="482" priority="25">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="26">
+    <cfRule type="expression" dxfId="481" priority="26">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="27">
+    <cfRule type="expression" dxfId="480" priority="27">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:L47">
-    <cfRule type="expression" dxfId="380" priority="22">
+    <cfRule type="expression" dxfId="479" priority="22">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="23">
+    <cfRule type="expression" dxfId="478" priority="23">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="24">
+    <cfRule type="expression" dxfId="477" priority="24">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="377" priority="19">
+    <cfRule type="expression" dxfId="476" priority="19">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="20">
+    <cfRule type="expression" dxfId="475" priority="20">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="21">
+    <cfRule type="expression" dxfId="474" priority="21">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45 M47:P47">
-    <cfRule type="expression" dxfId="374" priority="16">
+    <cfRule type="expression" dxfId="473" priority="16">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="17">
+    <cfRule type="expression" dxfId="472" priority="17">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="18">
+    <cfRule type="expression" dxfId="471" priority="18">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:L44">
-    <cfRule type="expression" dxfId="371" priority="13">
+    <cfRule type="expression" dxfId="470" priority="13">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="14">
+    <cfRule type="expression" dxfId="469" priority="14">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="15">
+    <cfRule type="expression" dxfId="468" priority="15">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P44">
-    <cfRule type="expression" dxfId="368" priority="10">
+    <cfRule type="expression" dxfId="467" priority="10">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="11">
+    <cfRule type="expression" dxfId="466" priority="11">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="12">
+    <cfRule type="expression" dxfId="465" priority="12">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L46">
-    <cfRule type="expression" dxfId="365" priority="4">
+    <cfRule type="expression" dxfId="464" priority="4">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="5">
+    <cfRule type="expression" dxfId="463" priority="5">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="6">
+    <cfRule type="expression" dxfId="462" priority="6">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:P46">
-    <cfRule type="expression" dxfId="362" priority="1">
+    <cfRule type="expression" dxfId="461" priority="1">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="2">
+    <cfRule type="expression" dxfId="460" priority="2">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="3">
+    <cfRule type="expression" dxfId="459" priority="3">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:P23">
-    <cfRule type="expression" dxfId="359" priority="34">
+    <cfRule type="expression" dxfId="458" priority="34">
       <formula>$Q20 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="35">
+    <cfRule type="expression" dxfId="457" priority="35">
       <formula>$Q20 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="36">
+    <cfRule type="expression" dxfId="456" priority="36">
       <formula>$Q20 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:P19">
-    <cfRule type="expression" dxfId="356" priority="52">
+    <cfRule type="expression" dxfId="455" priority="52">
       <formula>$Q19 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="53">
+    <cfRule type="expression" dxfId="454" priority="53">
       <formula>$Q19 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="54">
+    <cfRule type="expression" dxfId="453" priority="54">
       <formula>$Q19 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="353" priority="49">
+    <cfRule type="expression" dxfId="452" priority="49">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="50">
+    <cfRule type="expression" dxfId="451" priority="50">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="51">
+    <cfRule type="expression" dxfId="450" priority="51">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:L25">
-    <cfRule type="expression" dxfId="350" priority="46">
+    <cfRule type="expression" dxfId="449" priority="46">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="47">
+    <cfRule type="expression" dxfId="448" priority="47">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="48">
+    <cfRule type="expression" dxfId="447" priority="48">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P25 M27:P27">
-    <cfRule type="expression" dxfId="347" priority="43">
+    <cfRule type="expression" dxfId="446" priority="43">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="44">
+    <cfRule type="expression" dxfId="445" priority="44">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="45">
+    <cfRule type="expression" dxfId="444" priority="45">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:L24">
-    <cfRule type="expression" dxfId="344" priority="40">
+    <cfRule type="expression" dxfId="443" priority="40">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="41">
+    <cfRule type="expression" dxfId="442" priority="41">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="42">
+    <cfRule type="expression" dxfId="441" priority="42">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:P24">
-    <cfRule type="expression" dxfId="341" priority="37">
+    <cfRule type="expression" dxfId="440" priority="37">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="38">
+    <cfRule type="expression" dxfId="439" priority="38">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="39">
+    <cfRule type="expression" dxfId="438" priority="39">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:L26">
-    <cfRule type="expression" dxfId="338" priority="31">
+    <cfRule type="expression" dxfId="437" priority="31">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="32">
+    <cfRule type="expression" dxfId="436" priority="32">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="33">
+    <cfRule type="expression" dxfId="435" priority="33">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:P26">
-    <cfRule type="expression" dxfId="335" priority="28">
+    <cfRule type="expression" dxfId="434" priority="28">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="29">
+    <cfRule type="expression" dxfId="433" priority="29">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="30">
+    <cfRule type="expression" dxfId="432" priority="30">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19515,618 +20227,618 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A123:P123 A124:L128 M50:P50">
-    <cfRule type="expression" dxfId="332" priority="352">
+    <cfRule type="expression" dxfId="431" priority="352">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="353">
+    <cfRule type="expression" dxfId="430" priority="353">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="354">
+    <cfRule type="expression" dxfId="429" priority="354">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:L131">
-    <cfRule type="expression" dxfId="329" priority="229">
+    <cfRule type="expression" dxfId="428" priority="229">
       <formula>$Q131 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="230">
+    <cfRule type="expression" dxfId="427" priority="230">
       <formula>$Q131 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="231">
+    <cfRule type="expression" dxfId="426" priority="231">
       <formula>$Q131 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:L130">
-    <cfRule type="expression" dxfId="326" priority="226">
+    <cfRule type="expression" dxfId="425" priority="226">
       <formula>$Q130 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="227">
+    <cfRule type="expression" dxfId="424" priority="227">
       <formula>$Q130 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="228">
+    <cfRule type="expression" dxfId="423" priority="228">
       <formula>$Q130 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M124:P128 M130:P131">
-    <cfRule type="expression" dxfId="323" priority="220">
+    <cfRule type="expression" dxfId="422" priority="220">
       <formula>$Q124 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="221">
+    <cfRule type="expression" dxfId="421" priority="221">
       <formula>$Q124 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="222">
+    <cfRule type="expression" dxfId="420" priority="222">
       <formula>$Q124 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:L129">
-    <cfRule type="expression" dxfId="320" priority="202">
+    <cfRule type="expression" dxfId="419" priority="202">
       <formula>$Q129 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="203">
+    <cfRule type="expression" dxfId="418" priority="203">
       <formula>$Q129 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="204">
+    <cfRule type="expression" dxfId="417" priority="204">
       <formula>$Q129 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M129:P129">
-    <cfRule type="expression" dxfId="317" priority="199">
+    <cfRule type="expression" dxfId="416" priority="199">
       <formula>$Q129 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="200">
+    <cfRule type="expression" dxfId="415" priority="200">
       <formula>$Q129 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="201">
+    <cfRule type="expression" dxfId="414" priority="201">
       <formula>$Q129 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:L132">
-    <cfRule type="expression" dxfId="314" priority="196">
+    <cfRule type="expression" dxfId="413" priority="196">
       <formula>$Q132 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="197">
+    <cfRule type="expression" dxfId="412" priority="197">
       <formula>$Q132 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="198">
+    <cfRule type="expression" dxfId="411" priority="198">
       <formula>$Q132 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132:P132">
-    <cfRule type="expression" dxfId="311" priority="193">
+    <cfRule type="expression" dxfId="410" priority="193">
       <formula>$Q132 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="194">
+    <cfRule type="expression" dxfId="409" priority="194">
       <formula>$Q132 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="195">
+    <cfRule type="expression" dxfId="408" priority="195">
       <formula>$Q132 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:P102 A103:L107">
-    <cfRule type="expression" dxfId="308" priority="190">
+    <cfRule type="expression" dxfId="407" priority="190">
       <formula>$Q102 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="191">
+    <cfRule type="expression" dxfId="406" priority="191">
       <formula>$Q102 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="192">
+    <cfRule type="expression" dxfId="405" priority="192">
       <formula>$Q102 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:L110">
-    <cfRule type="expression" dxfId="305" priority="187">
+    <cfRule type="expression" dxfId="404" priority="187">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="188">
+    <cfRule type="expression" dxfId="403" priority="188">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="189">
+    <cfRule type="expression" dxfId="402" priority="189">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:L109">
-    <cfRule type="expression" dxfId="302" priority="184">
+    <cfRule type="expression" dxfId="401" priority="184">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="185">
+    <cfRule type="expression" dxfId="400" priority="185">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="186">
+    <cfRule type="expression" dxfId="399" priority="186">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103:P107 M109:P110">
-    <cfRule type="expression" dxfId="299" priority="181">
+    <cfRule type="expression" dxfId="398" priority="181">
       <formula>$Q103 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="182">
+    <cfRule type="expression" dxfId="397" priority="182">
       <formula>$Q103 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="183">
+    <cfRule type="expression" dxfId="396" priority="183">
       <formula>$Q103 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:L108">
-    <cfRule type="expression" dxfId="296" priority="178">
+    <cfRule type="expression" dxfId="395" priority="178">
       <formula>$Q108 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="179">
+    <cfRule type="expression" dxfId="394" priority="179">
       <formula>$Q108 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="180">
+    <cfRule type="expression" dxfId="393" priority="180">
       <formula>$Q108 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:P108">
-    <cfRule type="expression" dxfId="293" priority="175">
+    <cfRule type="expression" dxfId="392" priority="175">
       <formula>$Q108 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="176">
+    <cfRule type="expression" dxfId="391" priority="176">
       <formula>$Q108 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="177">
+    <cfRule type="expression" dxfId="390" priority="177">
       <formula>$Q108 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:L111">
-    <cfRule type="expression" dxfId="290" priority="172">
+    <cfRule type="expression" dxfId="389" priority="172">
       <formula>$Q111 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="173">
+    <cfRule type="expression" dxfId="388" priority="173">
       <formula>$Q111 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="174">
+    <cfRule type="expression" dxfId="387" priority="174">
       <formula>$Q111 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111:P111">
-    <cfRule type="expression" dxfId="287" priority="169">
+    <cfRule type="expression" dxfId="386" priority="169">
       <formula>$Q111 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="170">
+    <cfRule type="expression" dxfId="385" priority="170">
       <formula>$Q111 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="171">
+    <cfRule type="expression" dxfId="384" priority="171">
       <formula>$Q111 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:L112">
-    <cfRule type="expression" dxfId="284" priority="166">
+    <cfRule type="expression" dxfId="383" priority="166">
       <formula>$Q112 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="167">
+    <cfRule type="expression" dxfId="382" priority="167">
       <formula>$Q112 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="168">
+    <cfRule type="expression" dxfId="381" priority="168">
       <formula>$Q112 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:P112">
-    <cfRule type="expression" dxfId="281" priority="163">
+    <cfRule type="expression" dxfId="380" priority="163">
       <formula>$Q112 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="164">
+    <cfRule type="expression" dxfId="379" priority="164">
       <formula>$Q112 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="165">
+    <cfRule type="expression" dxfId="378" priority="165">
       <formula>$Q112 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:P82 A83:L87">
-    <cfRule type="expression" dxfId="278" priority="130">
+    <cfRule type="expression" dxfId="377" priority="130">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="131">
+    <cfRule type="expression" dxfId="376" priority="131">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="132">
+    <cfRule type="expression" dxfId="375" priority="132">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:L90">
-    <cfRule type="expression" dxfId="275" priority="127">
+    <cfRule type="expression" dxfId="374" priority="127">
       <formula>$Q90 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="128">
+    <cfRule type="expression" dxfId="373" priority="128">
       <formula>$Q90 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="129">
+    <cfRule type="expression" dxfId="372" priority="129">
       <formula>$Q90 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:L89">
-    <cfRule type="expression" dxfId="272" priority="124">
+    <cfRule type="expression" dxfId="371" priority="124">
       <formula>$Q89 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="125">
+    <cfRule type="expression" dxfId="370" priority="125">
       <formula>$Q89 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="126">
+    <cfRule type="expression" dxfId="369" priority="126">
       <formula>$Q89 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P87 M89:P90">
-    <cfRule type="expression" dxfId="269" priority="121">
+    <cfRule type="expression" dxfId="368" priority="121">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="122">
+    <cfRule type="expression" dxfId="367" priority="122">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="123">
+    <cfRule type="expression" dxfId="366" priority="123">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:L88">
-    <cfRule type="expression" dxfId="266" priority="118">
+    <cfRule type="expression" dxfId="365" priority="118">
       <formula>$Q88 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="119">
+    <cfRule type="expression" dxfId="364" priority="119">
       <formula>$Q88 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="120">
+    <cfRule type="expression" dxfId="363" priority="120">
       <formula>$Q88 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M88:P88">
-    <cfRule type="expression" dxfId="263" priority="115">
+    <cfRule type="expression" dxfId="362" priority="115">
       <formula>$Q88 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="116">
+    <cfRule type="expression" dxfId="361" priority="116">
       <formula>$Q88 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="117">
+    <cfRule type="expression" dxfId="360" priority="117">
       <formula>$Q88 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:L91">
-    <cfRule type="expression" dxfId="260" priority="112">
+    <cfRule type="expression" dxfId="359" priority="112">
       <formula>$Q91 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="113">
+    <cfRule type="expression" dxfId="358" priority="113">
       <formula>$Q91 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="114">
+    <cfRule type="expression" dxfId="357" priority="114">
       <formula>$Q91 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:P91">
-    <cfRule type="expression" dxfId="257" priority="109">
+    <cfRule type="expression" dxfId="356" priority="109">
       <formula>$Q91 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="110">
+    <cfRule type="expression" dxfId="355" priority="110">
       <formula>$Q91 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="111">
+    <cfRule type="expression" dxfId="354" priority="111">
       <formula>$Q91 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:P61 A62:L66">
-    <cfRule type="expression" dxfId="254" priority="100">
+    <cfRule type="expression" dxfId="353" priority="100">
       <formula>$Q61 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="101">
+    <cfRule type="expression" dxfId="352" priority="101">
       <formula>$Q61 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="102">
+    <cfRule type="expression" dxfId="351" priority="102">
       <formula>$Q61 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:L69">
-    <cfRule type="expression" dxfId="251" priority="97">
+    <cfRule type="expression" dxfId="350" priority="97">
       <formula>$Q69 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="98">
+    <cfRule type="expression" dxfId="349" priority="98">
       <formula>$Q69 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="99">
+    <cfRule type="expression" dxfId="348" priority="99">
       <formula>$Q69 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:L68">
-    <cfRule type="expression" dxfId="248" priority="94">
+    <cfRule type="expression" dxfId="347" priority="94">
       <formula>$Q68 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="95">
+    <cfRule type="expression" dxfId="346" priority="95">
       <formula>$Q68 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="96">
+    <cfRule type="expression" dxfId="345" priority="96">
       <formula>$Q68 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P66 M68:P69">
-    <cfRule type="expression" dxfId="245" priority="91">
+    <cfRule type="expression" dxfId="344" priority="91">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="92">
+    <cfRule type="expression" dxfId="343" priority="92">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="93">
+    <cfRule type="expression" dxfId="342" priority="93">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:L67">
-    <cfRule type="expression" dxfId="242" priority="88">
+    <cfRule type="expression" dxfId="341" priority="88">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="89">
+    <cfRule type="expression" dxfId="340" priority="89">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="90">
+    <cfRule type="expression" dxfId="339" priority="90">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:P67">
-    <cfRule type="expression" dxfId="239" priority="85">
+    <cfRule type="expression" dxfId="338" priority="85">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="86">
+    <cfRule type="expression" dxfId="337" priority="86">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="87">
+    <cfRule type="expression" dxfId="336" priority="87">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:L70">
-    <cfRule type="expression" dxfId="236" priority="82">
+    <cfRule type="expression" dxfId="335" priority="82">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="83">
+    <cfRule type="expression" dxfId="334" priority="83">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="84">
+    <cfRule type="expression" dxfId="333" priority="84">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70:P70">
-    <cfRule type="expression" dxfId="233" priority="79">
+    <cfRule type="expression" dxfId="332" priority="79">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="80">
+    <cfRule type="expression" dxfId="331" priority="80">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="81">
+    <cfRule type="expression" dxfId="330" priority="81">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:P43 A44:L46 B47:L48">
-    <cfRule type="expression" dxfId="230" priority="76">
+    <cfRule type="expression" dxfId="329" priority="76">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="77">
+    <cfRule type="expression" dxfId="328" priority="77">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="78">
+    <cfRule type="expression" dxfId="327" priority="78">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:L50">
-    <cfRule type="expression" dxfId="227" priority="70">
+    <cfRule type="expression" dxfId="326" priority="70">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="71">
+    <cfRule type="expression" dxfId="325" priority="71">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="72">
+    <cfRule type="expression" dxfId="324" priority="72">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P48">
-    <cfRule type="expression" dxfId="224" priority="67">
+    <cfRule type="expression" dxfId="323" priority="67">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="68">
+    <cfRule type="expression" dxfId="322" priority="68">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="69">
+    <cfRule type="expression" dxfId="321" priority="69">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:L49">
-    <cfRule type="expression" dxfId="221" priority="64">
+    <cfRule type="expression" dxfId="320" priority="64">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="65">
+    <cfRule type="expression" dxfId="319" priority="65">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="66">
+    <cfRule type="expression" dxfId="318" priority="66">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:P49">
-    <cfRule type="expression" dxfId="218" priority="61">
+    <cfRule type="expression" dxfId="317" priority="61">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="62">
+    <cfRule type="expression" dxfId="316" priority="62">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="63">
+    <cfRule type="expression" dxfId="315" priority="63">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="expression" dxfId="215" priority="52">
+    <cfRule type="expression" dxfId="314" priority="52">
       <formula>$Q48 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="53">
+    <cfRule type="expression" dxfId="313" priority="53">
       <formula>$Q48 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="54">
+    <cfRule type="expression" dxfId="312" priority="54">
       <formula>$Q48 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="212" priority="49">
+    <cfRule type="expression" dxfId="311" priority="49">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="50">
+    <cfRule type="expression" dxfId="310" priority="50">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="51">
+    <cfRule type="expression" dxfId="309" priority="51">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="209" priority="46">
+    <cfRule type="expression" dxfId="308" priority="46">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="47">
+    <cfRule type="expression" dxfId="307" priority="47">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="48">
+    <cfRule type="expression" dxfId="306" priority="48">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P14">
-    <cfRule type="expression" dxfId="206" priority="43">
+    <cfRule type="expression" dxfId="305" priority="43">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="44">
+    <cfRule type="expression" dxfId="304" priority="44">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="45">
+    <cfRule type="expression" dxfId="303" priority="45">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A7:L9 B10:L11">
-    <cfRule type="expression" dxfId="203" priority="40">
+    <cfRule type="expression" dxfId="302" priority="40">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="41">
+    <cfRule type="expression" dxfId="301" priority="41">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="42">
+    <cfRule type="expression" dxfId="300" priority="42">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L14">
-    <cfRule type="expression" dxfId="200" priority="37">
+    <cfRule type="expression" dxfId="299" priority="37">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="38">
+    <cfRule type="expression" dxfId="298" priority="38">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="39">
+    <cfRule type="expression" dxfId="297" priority="39">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:P11">
-    <cfRule type="expression" dxfId="197" priority="34">
+    <cfRule type="expression" dxfId="296" priority="34">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="35">
+    <cfRule type="expression" dxfId="295" priority="35">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="36">
+    <cfRule type="expression" dxfId="294" priority="36">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L12">
-    <cfRule type="expression" dxfId="194" priority="31">
+    <cfRule type="expression" dxfId="293" priority="31">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="32">
+    <cfRule type="expression" dxfId="292" priority="32">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="33">
+    <cfRule type="expression" dxfId="291" priority="33">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="191" priority="28">
+    <cfRule type="expression" dxfId="290" priority="28">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="29">
+    <cfRule type="expression" dxfId="289" priority="29">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="30">
+    <cfRule type="expression" dxfId="288" priority="30">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="188" priority="22">
+    <cfRule type="expression" dxfId="287" priority="22">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="23">
+    <cfRule type="expression" dxfId="286" priority="23">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="24">
+    <cfRule type="expression" dxfId="285" priority="24">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P6">
-    <cfRule type="expression" dxfId="185" priority="13">
+    <cfRule type="expression" dxfId="284" priority="13">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="14">
+    <cfRule type="expression" dxfId="283" priority="14">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="15">
+    <cfRule type="expression" dxfId="282" priority="15">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="182" priority="19">
+    <cfRule type="expression" dxfId="281" priority="19">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="20">
+    <cfRule type="expression" dxfId="280" priority="20">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="21">
+    <cfRule type="expression" dxfId="279" priority="21">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="179" priority="16">
+    <cfRule type="expression" dxfId="278" priority="16">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="17">
+    <cfRule type="expression" dxfId="277" priority="17">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="18">
+    <cfRule type="expression" dxfId="276" priority="18">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="176" priority="10">
+    <cfRule type="expression" dxfId="275" priority="10">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="11">
+    <cfRule type="expression" dxfId="274" priority="11">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="12">
+    <cfRule type="expression" dxfId="273" priority="12">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13">
-    <cfRule type="expression" dxfId="173" priority="7">
+    <cfRule type="expression" dxfId="272" priority="7">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="8">
+    <cfRule type="expression" dxfId="271" priority="8">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="9">
+    <cfRule type="expression" dxfId="270" priority="9">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="170" priority="4">
+    <cfRule type="expression" dxfId="269" priority="4">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="5">
+    <cfRule type="expression" dxfId="268" priority="5">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="6">
+    <cfRule type="expression" dxfId="267" priority="6">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="167" priority="1">
+    <cfRule type="expression" dxfId="266" priority="1">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="2">
+    <cfRule type="expression" dxfId="265" priority="2">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="3">
+    <cfRule type="expression" dxfId="264" priority="3">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20140,7 +20852,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21587,266 +22299,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M7:P9">
-    <cfRule type="expression" dxfId="164" priority="73">
+    <cfRule type="expression" dxfId="263" priority="73">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="74">
+    <cfRule type="expression" dxfId="262" priority="74">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="75">
+    <cfRule type="expression" dxfId="261" priority="75">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="161" priority="112">
+    <cfRule type="expression" dxfId="260" priority="112">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="113">
+    <cfRule type="expression" dxfId="259" priority="113">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="114">
+    <cfRule type="expression" dxfId="258" priority="114">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A7:L9">
-    <cfRule type="expression" dxfId="158" priority="109">
+    <cfRule type="expression" dxfId="257" priority="109">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="110">
+    <cfRule type="expression" dxfId="256" priority="110">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="111">
+    <cfRule type="expression" dxfId="255" priority="111">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="155" priority="106">
+    <cfRule type="expression" dxfId="254" priority="106">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="107">
+    <cfRule type="expression" dxfId="253" priority="107">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="108">
+    <cfRule type="expression" dxfId="252" priority="108">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P6">
-    <cfRule type="expression" dxfId="152" priority="85">
+    <cfRule type="expression" dxfId="251" priority="85">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="86">
+    <cfRule type="expression" dxfId="250" priority="86">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="87">
+    <cfRule type="expression" dxfId="249" priority="87">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="149" priority="88">
+    <cfRule type="expression" dxfId="248" priority="88">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="89">
+    <cfRule type="expression" dxfId="247" priority="89">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="90">
+    <cfRule type="expression" dxfId="246" priority="90">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:P20">
-    <cfRule type="expression" dxfId="146" priority="55">
+    <cfRule type="expression" dxfId="245" priority="55">
       <formula>$Q18 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="56">
+    <cfRule type="expression" dxfId="244" priority="56">
       <formula>$Q18 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="57">
+    <cfRule type="expression" dxfId="243" priority="57">
       <formula>$Q18 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:P21">
-    <cfRule type="expression" dxfId="143" priority="70">
+    <cfRule type="expression" dxfId="242" priority="70">
       <formula>$Q21 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="71">
+    <cfRule type="expression" dxfId="241" priority="71">
       <formula>$Q21 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="72">
+    <cfRule type="expression" dxfId="240" priority="72">
       <formula>$Q21 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:P16 A18:L20">
-    <cfRule type="expression" dxfId="140" priority="67">
+    <cfRule type="expression" dxfId="239" priority="67">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="68">
+    <cfRule type="expression" dxfId="238" priority="68">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="69">
+    <cfRule type="expression" dxfId="237" priority="69">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:L21">
-    <cfRule type="expression" dxfId="137" priority="64">
+    <cfRule type="expression" dxfId="236" priority="64">
       <formula>$Q21 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="65">
+    <cfRule type="expression" dxfId="235" priority="65">
       <formula>$Q21 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="66">
+    <cfRule type="expression" dxfId="234" priority="66">
       <formula>$Q21 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:P17">
-    <cfRule type="expression" dxfId="134" priority="58">
+    <cfRule type="expression" dxfId="233" priority="58">
       <formula>$Q17 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="59">
+    <cfRule type="expression" dxfId="232" priority="59">
       <formula>$Q17 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="60">
+    <cfRule type="expression" dxfId="231" priority="60">
       <formula>$Q17 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:L17">
-    <cfRule type="expression" dxfId="131" priority="61">
+    <cfRule type="expression" dxfId="230" priority="61">
       <formula>$Q17 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="62">
+    <cfRule type="expression" dxfId="229" priority="62">
       <formula>$Q17 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="63">
+    <cfRule type="expression" dxfId="228" priority="63">
       <formula>$Q17 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:P31">
-    <cfRule type="expression" dxfId="128" priority="37">
+    <cfRule type="expression" dxfId="227" priority="37">
       <formula>$Q29 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="38">
+    <cfRule type="expression" dxfId="226" priority="38">
       <formula>$Q29 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="39">
+    <cfRule type="expression" dxfId="225" priority="39">
       <formula>$Q29 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:P32">
-    <cfRule type="expression" dxfId="125" priority="52">
+    <cfRule type="expression" dxfId="224" priority="52">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="53">
+    <cfRule type="expression" dxfId="223" priority="53">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="54">
+    <cfRule type="expression" dxfId="222" priority="54">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:P27 A29:L31">
-    <cfRule type="expression" dxfId="122" priority="49">
+    <cfRule type="expression" dxfId="221" priority="49">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="50">
+    <cfRule type="expression" dxfId="220" priority="50">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="51">
+    <cfRule type="expression" dxfId="219" priority="51">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L32">
-    <cfRule type="expression" dxfId="119" priority="46">
+    <cfRule type="expression" dxfId="218" priority="46">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="47">
+    <cfRule type="expression" dxfId="217" priority="47">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="48">
+    <cfRule type="expression" dxfId="216" priority="48">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:P28">
-    <cfRule type="expression" dxfId="116" priority="40">
+    <cfRule type="expression" dxfId="215" priority="40">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="41">
+    <cfRule type="expression" dxfId="214" priority="41">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="42">
+    <cfRule type="expression" dxfId="213" priority="42">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:L28">
-    <cfRule type="expression" dxfId="113" priority="43">
+    <cfRule type="expression" dxfId="212" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="44">
+    <cfRule type="expression" dxfId="211" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="45">
+    <cfRule type="expression" dxfId="210" priority="45">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40:P42">
-    <cfRule type="expression" dxfId="110" priority="1">
+    <cfRule type="expression" dxfId="209" priority="1">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="2">
+    <cfRule type="expression" dxfId="208" priority="2">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="3">
+    <cfRule type="expression" dxfId="207" priority="3">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:P43">
-    <cfRule type="expression" dxfId="107" priority="16">
+    <cfRule type="expression" dxfId="206" priority="16">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="17">
+    <cfRule type="expression" dxfId="205" priority="17">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="18">
+    <cfRule type="expression" dxfId="204" priority="18">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:P38 A40:L42">
-    <cfRule type="expression" dxfId="104" priority="13">
+    <cfRule type="expression" dxfId="203" priority="13">
       <formula>$Q38 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="14">
+    <cfRule type="expression" dxfId="202" priority="14">
       <formula>$Q38 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="15">
+    <cfRule type="expression" dxfId="201" priority="15">
       <formula>$Q38 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:L43">
-    <cfRule type="expression" dxfId="101" priority="10">
+    <cfRule type="expression" dxfId="200" priority="10">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="11">
+    <cfRule type="expression" dxfId="199" priority="11">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="12">
+    <cfRule type="expression" dxfId="198" priority="12">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39:P39">
-    <cfRule type="expression" dxfId="98" priority="4">
+    <cfRule type="expression" dxfId="197" priority="4">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="5">
+    <cfRule type="expression" dxfId="196" priority="5">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="6">
+    <cfRule type="expression" dxfId="195" priority="6">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:L39">
-    <cfRule type="expression" dxfId="95" priority="7">
+    <cfRule type="expression" dxfId="194" priority="7">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="8">
+    <cfRule type="expression" dxfId="193" priority="8">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="9">
+    <cfRule type="expression" dxfId="192" priority="9">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21858,7 +22570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF14C0C-FCC8-4B01-8348-5DC5385039EA}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
@@ -24029,222 +24741,222 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M16:P16">
-    <cfRule type="expression" dxfId="92" priority="121">
+    <cfRule type="expression" dxfId="191" priority="121">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="122">
+    <cfRule type="expression" dxfId="190" priority="122">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="123">
+    <cfRule type="expression" dxfId="189" priority="123">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="89" priority="118">
+    <cfRule type="expression" dxfId="188" priority="118">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="119">
+    <cfRule type="expression" dxfId="187" priority="119">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="120">
+    <cfRule type="expression" dxfId="186" priority="120">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:L16">
-    <cfRule type="expression" dxfId="86" priority="115">
+    <cfRule type="expression" dxfId="185" priority="115">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="116">
+    <cfRule type="expression" dxfId="184" priority="116">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="117">
+    <cfRule type="expression" dxfId="183" priority="117">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P15">
-    <cfRule type="expression" dxfId="83" priority="46">
+    <cfRule type="expression" dxfId="182" priority="46">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="47">
+    <cfRule type="expression" dxfId="181" priority="47">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="48">
+    <cfRule type="expression" dxfId="180" priority="48">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L15">
-    <cfRule type="expression" dxfId="80" priority="49">
+    <cfRule type="expression" dxfId="179" priority="49">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="50">
+    <cfRule type="expression" dxfId="178" priority="50">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="51">
+    <cfRule type="expression" dxfId="177" priority="51">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:P33">
-    <cfRule type="expression" dxfId="77" priority="43">
+    <cfRule type="expression" dxfId="176" priority="43">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="44">
+    <cfRule type="expression" dxfId="175" priority="44">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="45">
+    <cfRule type="expression" dxfId="174" priority="45">
       <formula>$Q33 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:P22">
-    <cfRule type="expression" dxfId="74" priority="40">
+    <cfRule type="expression" dxfId="173" priority="40">
       <formula>$Q22 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="41">
+    <cfRule type="expression" dxfId="172" priority="41">
       <formula>$Q22 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="42">
+    <cfRule type="expression" dxfId="171" priority="42">
       <formula>$Q22 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:L33">
-    <cfRule type="expression" dxfId="71" priority="37">
+    <cfRule type="expression" dxfId="170" priority="37">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="38">
+    <cfRule type="expression" dxfId="169" priority="38">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="39">
+    <cfRule type="expression" dxfId="168" priority="39">
       <formula>$Q33 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:P32">
-    <cfRule type="expression" dxfId="68" priority="31">
+    <cfRule type="expression" dxfId="167" priority="31">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="32">
+    <cfRule type="expression" dxfId="166" priority="32">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="33">
+    <cfRule type="expression" dxfId="165" priority="33">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:L32">
-    <cfRule type="expression" dxfId="65" priority="34">
+    <cfRule type="expression" dxfId="164" priority="34">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="35">
+    <cfRule type="expression" dxfId="163" priority="35">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="36">
+    <cfRule type="expression" dxfId="162" priority="36">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50:P50">
-    <cfRule type="expression" dxfId="62" priority="28">
+    <cfRule type="expression" dxfId="161" priority="28">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="29">
+    <cfRule type="expression" dxfId="160" priority="29">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="30">
+    <cfRule type="expression" dxfId="159" priority="30">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:P39">
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="158" priority="25">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="26">
+    <cfRule type="expression" dxfId="157" priority="26">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="27">
+    <cfRule type="expression" dxfId="156" priority="27">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:L50">
-    <cfRule type="expression" dxfId="56" priority="22">
+    <cfRule type="expression" dxfId="155" priority="22">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="23">
+    <cfRule type="expression" dxfId="154" priority="23">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="153" priority="24">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40:P49">
-    <cfRule type="expression" dxfId="53" priority="16">
+    <cfRule type="expression" dxfId="152" priority="16">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="17">
+    <cfRule type="expression" dxfId="151" priority="17">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="18">
+    <cfRule type="expression" dxfId="150" priority="18">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:L49">
-    <cfRule type="expression" dxfId="50" priority="19">
+    <cfRule type="expression" dxfId="149" priority="19">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="20">
+    <cfRule type="expression" dxfId="148" priority="20">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="21">
+    <cfRule type="expression" dxfId="147" priority="21">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:P67">
-    <cfRule type="expression" dxfId="47" priority="13">
+    <cfRule type="expression" dxfId="146" priority="13">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="14">
+    <cfRule type="expression" dxfId="145" priority="14">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="15">
+    <cfRule type="expression" dxfId="144" priority="15">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:P56">
-    <cfRule type="expression" dxfId="44" priority="10">
+    <cfRule type="expression" dxfId="143" priority="10">
       <formula>$Q56 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="11">
+    <cfRule type="expression" dxfId="142" priority="11">
       <formula>$Q56 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="12">
+    <cfRule type="expression" dxfId="141" priority="12">
       <formula>$Q56 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:L67">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="140" priority="7">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="139" priority="8">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="138" priority="9">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57:P66">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="137" priority="1">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="136" priority="2">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="135" priority="3">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:L66">
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="134" priority="4">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="133" priority="5">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="132" priority="6">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24253,6 +24965,1938 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E150DB-D658-4DDE-B17D-F312B2D0E58E}">
+  <dimension ref="A1:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="13" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>43596</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M8" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N8" si="1" xml:space="preserve"> C5 + E5 + G5 + I5 + K5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O8" si="2">M5 - N5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P8" si="3" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q7">
+        <f>IF(P7 &lt; 1, 3, IF(P7 &gt;= P$14, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:N14" si="4" xml:space="preserve"> B9 + D9 + F9 + H9 + J9</f>
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O14" si="5">M9 - N9</f>
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" ref="P9:P14" si="6" xml:space="preserve"> IF(M9+N9=0, 0, IF(N9=0, "MAX", M9/N9))</f>
+        <v>2.25</v>
+      </c>
+      <c r="Q9">
+        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= P$14, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <f>IF(P12 &lt; 1, 3, IF(P12 &gt;= P$14, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13" si="7" xml:space="preserve"> B13 + D13 + F13 + H13 + J13</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13" si="8" xml:space="preserve"> C13 + E13 + G13 + I13 + K13</f>
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ref="O13" si="9">M13 - N13</f>
+        <v>-2</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13" si="10" xml:space="preserve"> IF(M13+N13=0, 0, IF(N13=0, "MAX", M13/N13))</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>IF(P13 &lt; 1, 3, IF(P13 &gt;= P$14, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>43596</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M27" si="11" xml:space="preserve"> B19 + D19 + F19 + H19 + J19</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N27" si="12" xml:space="preserve"> C19 + E19 + G19 + I19 + K19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" ref="O19:O27" si="13">M19 - N19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19:P27" si="14" xml:space="preserve"> IF(M19+N19=0, 0, IF(N19=0, "MAX", M19/N19))</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="14"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q19:Q25" si="15">IF(P21 &lt; 1, 3, IF(P21 &gt;= P$27, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="13"/>
+        <v>-3</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="14"/>
+        <v>1.625</v>
+      </c>
+      <c r="Q26">
+        <f>IF(P26 &lt; 1, 3, IF(P26 &gt;= P$27, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4">
+        <v>19</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="14"/>
+        <v>1.3513513513513513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>43596</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M40" si="16" xml:space="preserve"> B32 + D32 + F32 + H32 + J32</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:N40" si="17" xml:space="preserve"> C32 + E32 + G32 + I32 + K32</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" ref="O32:O40" si="18">M32 - N32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" ref="P32:P40" si="19" xml:space="preserve"> IF(M32+N32=0, 0, IF(N32=0, "MAX", M32/N32))</f>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="19"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q32:Q38" si="20">IF(P34 &lt; 1, 3, IF(P34 &gt;= P$40, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="19"/>
+        <v>2.25</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="19"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="Q39">
+        <f>IF(P39 &lt; 1, 3, IF(P39 &gt;= P$40, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4">
+        <v>25</v>
+      </c>
+      <c r="C40" s="4">
+        <v>17</v>
+      </c>
+      <c r="D40" s="4">
+        <v>25</v>
+      </c>
+      <c r="E40" s="4">
+        <v>19</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3888888888888888</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>43596</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ref="M45:M53" si="21" xml:space="preserve"> B45 + D45 + F45 + H45 + J45</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ref="N45:N53" si="22" xml:space="preserve"> C45 + E45 + G45 + I45 + K45</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" ref="O45:O53" si="23">M45 - N45</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" ref="P45:P53" si="24" xml:space="preserve"> IF(M45+N45=0, 0, IF(N45=0, "MAX", M45/N45))</f>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="24"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ref="Q45:Q51" si="25">IF(P47 &lt; 1, 3, IF(P47 &gt;= P$53, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="23"/>
+        <v>-7</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="24"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="24"/>
+        <v>1.25</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="24"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="Q52">
+        <f>IF(P52 &lt; 1, 3, IF(P52 &gt;= P$53, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4">
+        <v>25</v>
+      </c>
+      <c r="C53" s="4">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4">
+        <v>25</v>
+      </c>
+      <c r="E53" s="4">
+        <v>22</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="22"/>
+        <v>34</v>
+      </c>
+      <c r="O53" s="4">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="P53" s="5">
+        <f t="shared" si="24"/>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A11:P12">
+    <cfRule type="expression" dxfId="131" priority="148">
+      <formula>$Q11 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="149">
+      <formula>$Q11 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="150">
+      <formula>$Q11 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:P9">
+    <cfRule type="expression" dxfId="128" priority="160">
+      <formula>$Q9 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="161">
+      <formula>$Q9 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="162">
+      <formula>$Q9 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:P10">
+    <cfRule type="expression" dxfId="125" priority="151">
+      <formula>$Q10 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="152">
+      <formula>$Q10 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="153">
+      <formula>$Q10 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:L10">
+    <cfRule type="expression" dxfId="122" priority="154">
+      <formula>$Q10 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="155">
+      <formula>$Q10 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="156">
+      <formula>$Q10 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:P5">
+    <cfRule type="expression" dxfId="119" priority="91">
+      <formula>$Q5 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="92">
+      <formula>$Q5 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="93">
+      <formula>$Q5 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:P6">
+    <cfRule type="expression" dxfId="116" priority="88">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="89">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="90">
+      <formula>$Q6 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:P7">
+    <cfRule type="expression" dxfId="113" priority="85">
+      <formula>$Q7 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="86">
+      <formula>$Q7 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="87">
+      <formula>$Q7 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:P8">
+    <cfRule type="expression" dxfId="110" priority="79">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="80">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="81">
+      <formula>$Q8 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:P13">
+    <cfRule type="expression" dxfId="107" priority="76">
+      <formula>$Q13 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="77">
+      <formula>$Q13 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="78">
+      <formula>$Q13 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:P26">
+    <cfRule type="expression" dxfId="104" priority="64">
+      <formula>$Q25 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="65">
+      <formula>$Q25 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="66">
+      <formula>$Q25 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:P23">
+    <cfRule type="expression" dxfId="101" priority="73">
+      <formula>$Q23 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="74">
+      <formula>$Q23 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="75">
+      <formula>$Q23 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:P24">
+    <cfRule type="expression" dxfId="98" priority="67">
+      <formula>$Q24 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="68">
+      <formula>$Q24 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="69">
+      <formula>$Q24 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:L24">
+    <cfRule type="expression" dxfId="95" priority="70">
+      <formula>$Q24 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="71">
+      <formula>$Q24 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="72">
+      <formula>$Q24 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:P19">
+    <cfRule type="expression" dxfId="92" priority="61">
+      <formula>$Q19 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="62">
+      <formula>$Q19 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="63">
+      <formula>$Q19 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:P20">
+    <cfRule type="expression" dxfId="89" priority="58">
+      <formula>$Q20 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="59">
+      <formula>$Q20 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="60">
+      <formula>$Q20 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:P21">
+    <cfRule type="expression" dxfId="86" priority="55">
+      <formula>$Q21 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="56">
+      <formula>$Q21 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="57">
+      <formula>$Q21 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:P22">
+    <cfRule type="expression" dxfId="83" priority="52">
+      <formula>$Q22 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="53">
+      <formula>$Q22 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="54">
+      <formula>$Q22 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:P39">
+    <cfRule type="expression" dxfId="47" priority="37">
+      <formula>$Q38 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="38">
+      <formula>$Q38 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="39">
+      <formula>$Q38 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:P36">
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>$Q36 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="47">
+      <formula>$Q36 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="48">
+      <formula>$Q36 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37:P37">
+    <cfRule type="expression" dxfId="41" priority="40">
+      <formula>$Q37 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$Q37 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="42">
+      <formula>$Q37 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:L37">
+    <cfRule type="expression" dxfId="38" priority="43">
+      <formula>$Q37 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="44">
+      <formula>$Q37 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="45">
+      <formula>$Q37 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:P32">
+    <cfRule type="expression" dxfId="35" priority="34">
+      <formula>$Q32 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>$Q32 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="36">
+      <formula>$Q32 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:P33">
+    <cfRule type="expression" dxfId="32" priority="31">
+      <formula>$Q33 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$Q33 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>$Q33 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:P34">
+    <cfRule type="expression" dxfId="29" priority="28">
+      <formula>$Q34 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$Q34 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="30">
+      <formula>$Q34 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:P35">
+    <cfRule type="expression" dxfId="26" priority="25">
+      <formula>$Q35 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$Q35 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>$Q35 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:P52">
+    <cfRule type="expression" dxfId="23" priority="13">
+      <formula>$Q51 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="14">
+      <formula>$Q51 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="15">
+      <formula>$Q51 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:P49">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$Q49 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>$Q49 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="24">
+      <formula>$Q49 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M50:P50">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>$Q50 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$Q50 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>$Q50 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:L50">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>$Q50 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>$Q50 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="21">
+      <formula>$Q50 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:P45">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>$Q45 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$Q45 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>$Q45 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:P46">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$Q46 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$Q46 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$Q46 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:P47">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$Q47 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$Q47 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$Q47 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:P48">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$Q48 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q48 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$Q48 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BDAFE5-3AEF-49E8-9ED9-A9BAA79160EC}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
@@ -25760,123 +28404,123 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="32" priority="22">
+    <cfRule type="expression" dxfId="80" priority="22">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="79" priority="23">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="78" priority="24">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:P24 A25:L29">
-    <cfRule type="expression" dxfId="29" priority="43">
+    <cfRule type="expression" dxfId="77" priority="43">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="44">
+    <cfRule type="expression" dxfId="76" priority="44">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="45">
+    <cfRule type="expression" dxfId="75" priority="45">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="26" priority="37">
+    <cfRule type="expression" dxfId="74" priority="37">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="73" priority="38">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="72" priority="39">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P29">
-    <cfRule type="expression" dxfId="23" priority="34">
+    <cfRule type="expression" dxfId="71" priority="34">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="70" priority="35">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="36">
+    <cfRule type="expression" dxfId="69" priority="36">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:L30">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="68" priority="31">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="32">
+    <cfRule type="expression" dxfId="67" priority="32">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="33">
+    <cfRule type="expression" dxfId="66" priority="33">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:P30">
-    <cfRule type="expression" dxfId="17" priority="28">
+    <cfRule type="expression" dxfId="65" priority="28">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="29">
+    <cfRule type="expression" dxfId="64" priority="29">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="30">
+    <cfRule type="expression" dxfId="63" priority="30">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:P15">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="61" priority="5">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="60" priority="6">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9 A10:L13 B14:L14">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="59" priority="19">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="58" priority="20">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="57" priority="21">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:L15">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="56" priority="16">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="55" priority="17">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="54" priority="18">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P14">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="53" priority="13">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="52" priority="14">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="51" priority="15">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F383B08E-D841-409E-A3A7-7C984DB9E1FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B90F1EF-312A-4D13-BD0B-319A7E88447B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="356">
   <si>
     <t>Lea</t>
   </si>
@@ -1086,6 +1086,12 @@
   </si>
   <si>
     <t>Brückl hotvolleys - Inzing</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Wildcats</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Hollabrunn</t>
   </si>
 </sst>
 </file>
@@ -24966,10 +24972,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E150DB-D658-4DDE-B17D-F312B2D0E58E}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24983,127 +24989,146 @@
     <col min="17" max="17" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>43596</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10"/>
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8">
+        <v>43597</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M12" si="0" xml:space="preserve"> B4 + D4 + F4 + H4 + J4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="1" xml:space="preserve"> C4 + E4 + G4 + I4 + K4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O12" si="2">M4 - N4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P12" si="3" xml:space="preserve"> IF(M4+N4=0, 0, IF(N4=0, "MAX", M4/N4))</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M8" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N8" si="1" xml:space="preserve"> C5 + E5 + G5 + I5 + K5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:O8" si="2">M5 - N5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" ref="P5:P8" si="3" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q5">
@@ -25112,15 +25137,27 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>348</v>
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
@@ -25128,128 +25165,122 @@
       </c>
       <c r="P6" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
+        <f>IF(P6 &lt; 1, 3, IF(P6 &gt;= P$25, 1, 2))</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>IF(P7 &lt; 1, 3, IF(P7 &gt;= P$14, 1, 2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <f>IF(P8 &lt; 1, 3, IF(P8 &gt;= P$25, 1, 2))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:N14" si="4" xml:space="preserve"> B9 + D9 + F9 + H9 + J9</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" ref="O9:O14" si="5">M9 - N9</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" ref="P9:P14" si="6" xml:space="preserve"> IF(M9+N9=0, 0, IF(N9=0, "MAX", M9/N9))</f>
-        <v>2.25</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= P$14, 1, 2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>349</v>
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10">
@@ -25258,274 +25289,286 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
       </c>
       <c r="M11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q11">
+        <f>IF(P11 &lt; 1, 3, IF(P11 &gt;= P$25, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>43597</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M25" si="4" xml:space="preserve"> B17 + D17 + F17 + H17 + J17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N25" si="5" xml:space="preserve"> C17 + E17 + G17 + I17 + K17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" ref="O17:O25" si="6">M17 - N17</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" ref="P17:P25" si="7" xml:space="preserve"> IF(M17+N17=0, 0, IF(N17=0, "MAX", M17/N17))</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="N18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P11" s="3">
+      <c r="O18" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="P18" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="N19">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="P12" s="3">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="Q12">
-        <f>IF(P12 &lt; 1, 3, IF(P12 &gt;= P$14, 1, 2))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ref="M13" si="7" xml:space="preserve"> B13 + D13 + F13 + H13 + J13</f>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ref="N13" si="8" xml:space="preserve"> C13 + E13 + G13 + I13 + K13</f>
-        <v>2</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" ref="O13" si="9">M13 - N13</f>
-        <v>-2</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" ref="P13" si="10" xml:space="preserve"> IF(M13+N13=0, 0, IF(N13=0, "MAX", M13/N13))</f>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f>IF(P13 &lt; 1, 3, IF(P13 &gt;= P$14, 1, 2))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4">
-        <v>25</v>
-      </c>
-      <c r="E14" s="4">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="6"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P15"/>
-    </row>
-    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>43596</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ref="M19:M27" si="11" xml:space="preserve"> B19 + D19 + F19 + H19 + J19</f>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ref="N19:N27" si="12" xml:space="preserve"> C19 + E19 + G19 + I19 + K19</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" ref="O19:O27" si="13">M19 - N19</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" ref="P19:P27" si="14" xml:space="preserve"> IF(M19+N19=0, 0, IF(N19=0, "MAX", M19/N19))</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.5</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <f>IF(P19 &lt; 1, 3, IF(P19 &gt;= P$25, 1, 2))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>348</v>
+        <v>159</v>
       </c>
       <c r="M20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q20">
@@ -25534,379 +25577,381 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
       <c r="P21" s="3">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
+        <f t="shared" si="7"/>
+        <v>2.6</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q19:Q25" si="15">IF(P21 &lt; 1, 3, IF(P21 &gt;= P$27, 1, 2))</f>
+        <f>IF(P21 &lt; 1, 3, IF(P21 &gt;= P$25, 1, 2))</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
+        <v>349</v>
       </c>
       <c r="M22">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="M23">
-        <f t="shared" si="11"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="13"/>
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>349</v>
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
       <c r="M24">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="7"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="Q24">
+        <f>IF(P24 &lt; 1, 3, IF(P24 &gt;= P$25, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4">
+        <v>15</v>
+      </c>
+      <c r="G25" s="4">
+        <v>7</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="7"/>
+        <v>1.4358974358974359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>43596</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30:M33" si="8" xml:space="preserve"> B30 + D30 + F30 + H30 + J30</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N33" si="9" xml:space="preserve"> C30 + E30 + G30 + I30 + K30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" ref="O30:O33" si="10">M30 - N30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" ref="P30:P33" si="11" xml:space="preserve"> IF(M30+N30=0, 0, IF(N30=0, "MAX", M30/N30))</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="13"/>
-        <v>-3</v>
-      </c>
-      <c r="P25" s="3">
-        <f t="shared" si="14"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
-        <f t="shared" si="14"/>
-        <v>1.625</v>
-      </c>
-      <c r="Q26">
-        <f>IF(P26 &lt; 1, 3, IF(P26 &gt;= P$27, 1, 2))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4">
-        <v>18</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25</v>
-      </c>
-      <c r="E27" s="4">
-        <v>19</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="N27" s="4">
-        <f t="shared" si="12"/>
-        <v>37</v>
-      </c>
-      <c r="O27" s="4">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="P27" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3513513513513513</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>43596</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>12</v>
+      <c r="Q31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:M40" si="16" xml:space="preserve"> B32 + D32 + F32 + H32 + J32</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32:N40" si="17" xml:space="preserve"> C32 + E32 + G32 + I32 + K32</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" ref="O32:O40" si="18">M32 - N32</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" ref="P32:P40" si="19" xml:space="preserve"> IF(M32+N32=0, 0, IF(N32=0, "MAX", M32/N32))</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.6</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <f>IF(P32 &lt; 1, 3, IF(P32 &gt;= P$39, 1, 2))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>348</v>
+        <v>159</v>
       </c>
       <c r="M33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q33">
@@ -25915,59 +25960,59 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f t="shared" ref="M34:N39" si="12" xml:space="preserve"> B34 + D34 + F34 + H34 + J34</f>
+        <v>9</v>
       </c>
       <c r="N34">
-        <f t="shared" si="17"/>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" ref="O34:O39" si="13">M34 - N34</f>
+        <v>5</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="19"/>
-        <v>1.1111111111111112</v>
+        <f t="shared" ref="P34:P39" si="14" xml:space="preserve"> IF(M34+N34=0, 0, IF(N34=0, "MAX", M34/N34))</f>
+        <v>2.25</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q32:Q38" si="20">IF(P34 &lt; 1, 3, IF(P34 &gt;= P$40, 1, 2))</f>
-        <v>2</v>
+        <f>IF(P34 &lt; 1, 3, IF(P34 &gt;= P$39, 1, 2))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="M35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q35">
@@ -25976,287 +26021,274 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="17"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="19"/>
-        <v>2.25</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>349</v>
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="N37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>9</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <f>IF(P37 &lt; 1, 3, IF(P37 &gt;= P$39, 1, 2))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="M38" si="15" xml:space="preserve"> B38 + D38 + F38 + H38 + J38</f>
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" ref="N38" si="16" xml:space="preserve"> C38 + E38 + G38 + I38 + K38</f>
+        <v>2</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="18"/>
-        <v>-1</v>
+        <f t="shared" ref="O38" si="17">M38 - N38</f>
+        <v>-2</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="P38" si="18" xml:space="preserve"> IF(M38+N38=0, 0, IF(N38=0, "MAX", M38/N38))</f>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="20"/>
+        <f>IF(P38 &lt; 1, 3, IF(P38 &gt;= P$39, 1, 2))</f>
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4">
+        <v>25</v>
+      </c>
+      <c r="C39" s="4">
+        <v>19</v>
+      </c>
+      <c r="D39" s="4">
+        <v>25</v>
+      </c>
+      <c r="E39" s="4">
+        <v>21</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="14"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P40"/>
+    </row>
+    <row r="41" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>43596</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="16"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="P39" s="3">
-        <f t="shared" si="19"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="Q39">
-        <f>IF(P39 &lt; 1, 3, IF(P39 &gt;= P$40, 1, 2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4">
-        <v>25</v>
-      </c>
-      <c r="C40" s="4">
-        <v>17</v>
-      </c>
-      <c r="D40" s="4">
-        <v>25</v>
-      </c>
-      <c r="E40" s="4">
-        <v>19</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4">
-        <f t="shared" si="16"/>
-        <v>50</v>
-      </c>
-      <c r="N40" s="4">
-        <f t="shared" si="17"/>
-        <v>36</v>
-      </c>
-      <c r="O40" s="4">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="P40" s="5">
-        <f t="shared" si="19"/>
-        <v>1.3888888888888888</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>43596</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="10"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="6"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="6"/>
+      <c r="B43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>12</v>
+      <c r="A44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ref="M44:M52" si="19" xml:space="preserve"> B44 + D44 + F44 + H44 + J44</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ref="N44:N52" si="20" xml:space="preserve"> C44 + E44 + G44 + I44 + K44</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" ref="O44:O52" si="21">M44 - N44</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" ref="P44:P52" si="22" xml:space="preserve"> IF(M44+N44=0, 0, IF(N44=0, "MAX", M44/N44))</f>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="M45">
-        <f t="shared" ref="M45:M53" si="21" xml:space="preserve"> B45 + D45 + F45 + H45 + J45</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" ref="N45:N53" si="22" xml:space="preserve"> C45 + E45 + G45 + I45 + K45</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" ref="O45:O53" si="23">M45 - N45</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" ref="P45:P53" si="24" xml:space="preserve"> IF(M45+N45=0, 0, IF(N45=0, "MAX", M45/N45))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q45">
@@ -26265,631 +26297,1362 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>348</v>
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="M46">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="O46" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <f t="shared" ref="Q46:Q50" si="23">IF(P46 &lt; 1, 3, IF(P46 &gt;= P$52, 1, 2))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>5</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="O47" s="1">
         <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3">
         <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="O47" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Q47">
         <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
-        <f t="shared" si="24"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" ref="Q45:Q51" si="25">IF(P47 &lt; 1, 3, IF(P47 &gt;= P$53, 1, 2))</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>159</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
       </c>
       <c r="M48">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="O48" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N48">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q48">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>7</v>
+        <v>349</v>
       </c>
       <c r="M49">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <f t="shared" si="22"/>
-        <v>9</v>
-      </c>
-      <c r="O49" s="1">
-        <f t="shared" si="23"/>
-        <v>-7</v>
-      </c>
-      <c r="P49" s="3">
-        <f t="shared" si="24"/>
-        <v>0.22222222222222221</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="25"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>349</v>
+        <v>53</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M50">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="O50" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N50">
+        <v>-3</v>
+      </c>
+      <c r="P50" s="3">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="O50" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="P50" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="25"/>
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>3</v>
       </c>
       <c r="M51">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="O51" s="1">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="N51">
+      <c r="P51" s="3">
         <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="O51" s="1">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="P51" s="3">
+        <v>1.625</v>
+      </c>
+      <c r="Q51">
+        <f>IF(P51 &lt; 1, 3, IF(P51 &gt;= P$52, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4">
+        <v>25</v>
+      </c>
+      <c r="C52" s="4">
+        <v>18</v>
+      </c>
+      <c r="D52" s="4">
+        <v>25</v>
+      </c>
+      <c r="E52" s="4">
+        <v>19</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="20"/>
+        <v>37</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P52" s="5">
+        <f t="shared" si="22"/>
+        <v>1.3513513513513513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>43596</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="10"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ref="M57:M65" si="24" xml:space="preserve"> B57 + D57 + F57 + H57 + J57</f>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ref="N57:N65" si="25" xml:space="preserve"> C57 + E57 + G57 + I57 + K57</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" ref="O57:O65" si="26">M57 - N57</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" ref="P57:P65" si="27" xml:space="preserve"> IF(M57+N57=0, 0, IF(N57=0, "MAX", M57/N57))</f>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="27"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ref="Q59:Q63" si="28">IF(P59 &lt; 1, 3, IF(P59 &gt;= P$65, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="27"/>
+        <v>2.25</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" si="27"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="Q64">
+        <f>IF(P64 &lt; 1, 3, IF(P64 &gt;= P$65, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4">
+        <v>25</v>
+      </c>
+      <c r="C65" s="4">
+        <v>17</v>
+      </c>
+      <c r="D65" s="4">
+        <v>25</v>
+      </c>
+      <c r="E65" s="4">
+        <v>19</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="25"/>
+        <v>36</v>
+      </c>
+      <c r="O65" s="4">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="P65" s="5">
+        <f t="shared" si="27"/>
+        <v>1.3888888888888888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>43596</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="10"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70:M78" si="29" xml:space="preserve"> B70 + D70 + F70 + H70 + J70</f>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ref="N70:N78" si="30" xml:space="preserve"> C70 + E70 + G70 + I70 + K70</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" ref="O70:O78" si="31">M70 - N70</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <f t="shared" ref="P70:P78" si="32" xml:space="preserve"> IF(M70+N70=0, 0, IF(N70=0, "MAX", M70/N70))</f>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
+        <f t="shared" si="32"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ref="Q72:Q76" si="33">IF(P72 &lt; 1, 3, IF(P72 &gt;= P$78, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="31"/>
+        <v>-7</v>
+      </c>
+      <c r="P74" s="3">
+        <f t="shared" si="32"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="P75" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="P76" s="3">
+        <f t="shared" si="32"/>
         <v>1.25</v>
       </c>
-      <c r="Q51">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="Q76">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B52">
+      <c r="B77">
         <v>5</v>
       </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52">
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
         <v>5</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="21"/>
+      <c r="M77">
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="22"/>
+      <c r="N77">
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
-      <c r="O52" s="1">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="P52" s="3">
-        <f t="shared" si="24"/>
+      <c r="O77" s="1">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="P77" s="3">
+        <f t="shared" si="32"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="Q52">
-        <f>IF(P52 &lt; 1, 3, IF(P52 &gt;= P$53, 1, 2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4">
+      <c r="Q77">
+        <f>IF(P77 &lt; 1, 3, IF(P77 &gt;= P$78, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4">
         <v>25</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C78" s="4">
         <v>12</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D78" s="4">
         <v>25</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E78" s="4">
         <v>22</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4">
-        <f t="shared" si="21"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4">
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
-      <c r="N53" s="4">
-        <f t="shared" si="22"/>
+      <c r="N78" s="4">
+        <f t="shared" si="30"/>
         <v>34</v>
       </c>
-      <c r="O53" s="4">
-        <f t="shared" si="23"/>
+      <c r="O78" s="4">
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
-      <c r="P53" s="5">
-        <f t="shared" si="24"/>
+      <c r="P78" s="5">
+        <f t="shared" si="32"/>
         <v>1.4705882352941178</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:P12">
-    <cfRule type="expression" dxfId="131" priority="148">
-      <formula>$Q11 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="149">
-      <formula>$Q11 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="150">
-      <formula>$Q11 = 1</formula>
+  <conditionalFormatting sqref="A36:P37 A4:P11 A17:P24">
+    <cfRule type="expression" dxfId="131" priority="196">
+      <formula>$Q4 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="197">
+      <formula>$Q4 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="198">
+      <formula>$Q4 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:P9">
-    <cfRule type="expression" dxfId="128" priority="160">
-      <formula>$Q9 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="161">
-      <formula>$Q9 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="162">
-      <formula>$Q9 = 1</formula>
+  <conditionalFormatting sqref="A34:P34">
+    <cfRule type="expression" dxfId="128" priority="208">
+      <formula>$Q34 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="209">
+      <formula>$Q34 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="210">
+      <formula>$Q34 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="125" priority="151">
-      <formula>$Q10 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="152">
-      <formula>$Q10 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="153">
-      <formula>$Q10 = 1</formula>
+  <conditionalFormatting sqref="M35:P35">
+    <cfRule type="expression" dxfId="125" priority="199">
+      <formula>$Q35 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="200">
+      <formula>$Q35 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="201">
+      <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="122" priority="154">
-      <formula>$Q10 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="155">
-      <formula>$Q10 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="156">
-      <formula>$Q10 = 1</formula>
+  <conditionalFormatting sqref="A35:L35">
+    <cfRule type="expression" dxfId="122" priority="202">
+      <formula>$Q35 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="203">
+      <formula>$Q35 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="204">
+      <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="119" priority="91">
-      <formula>$Q5 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="92">
-      <formula>$Q5 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="93">
-      <formula>$Q5 = 1</formula>
+  <conditionalFormatting sqref="A30:P30">
+    <cfRule type="expression" dxfId="119" priority="139">
+      <formula>$Q30 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="140">
+      <formula>$Q30 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="141">
+      <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:P6">
-    <cfRule type="expression" dxfId="116" priority="88">
-      <formula>$Q6 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="89">
-      <formula>$Q6 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="90">
-      <formula>$Q6 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:P7">
-    <cfRule type="expression" dxfId="113" priority="85">
-      <formula>$Q7 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="86">
-      <formula>$Q7 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="87">
-      <formula>$Q7 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:P8">
-    <cfRule type="expression" dxfId="110" priority="79">
-      <formula>$Q8 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="80">
-      <formula>$Q8 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="81">
-      <formula>$Q8 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:P13">
-    <cfRule type="expression" dxfId="107" priority="76">
-      <formula>$Q13 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="77">
-      <formula>$Q13 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="78">
-      <formula>$Q13 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:P26">
-    <cfRule type="expression" dxfId="104" priority="64">
-      <formula>$Q25 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="65">
-      <formula>$Q25 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="66">
-      <formula>$Q25 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:P23">
-    <cfRule type="expression" dxfId="101" priority="73">
-      <formula>$Q23 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="74">
-      <formula>$Q23 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="75">
-      <formula>$Q23 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:P24">
-    <cfRule type="expression" dxfId="98" priority="67">
-      <formula>$Q24 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="68">
-      <formula>$Q24 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="69">
-      <formula>$Q24 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:L24">
-    <cfRule type="expression" dxfId="95" priority="70">
-      <formula>$Q24 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="71">
-      <formula>$Q24 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="72">
-      <formula>$Q24 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:P19">
-    <cfRule type="expression" dxfId="92" priority="61">
-      <formula>$Q19 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="62">
-      <formula>$Q19 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="63">
-      <formula>$Q19 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:P20">
-    <cfRule type="expression" dxfId="89" priority="58">
-      <formula>$Q20 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="59">
-      <formula>$Q20 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="60">
-      <formula>$Q20 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:P21">
-    <cfRule type="expression" dxfId="86" priority="55">
-      <formula>$Q21 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="56">
-      <formula>$Q21 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="57">
-      <formula>$Q21 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:P22">
-    <cfRule type="expression" dxfId="83" priority="52">
-      <formula>$Q22 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="53">
-      <formula>$Q22 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="54">
-      <formula>$Q22 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:P39">
-    <cfRule type="expression" dxfId="47" priority="37">
-      <formula>$Q38 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38">
-      <formula>$Q38 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="39">
-      <formula>$Q38 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:P36">
-    <cfRule type="expression" dxfId="44" priority="46">
-      <formula>$Q36 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$Q36 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="48">
-      <formula>$Q36 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37:P37">
-    <cfRule type="expression" dxfId="41" priority="40">
-      <formula>$Q37 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>$Q37 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42">
-      <formula>$Q37 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:L37">
-    <cfRule type="expression" dxfId="38" priority="43">
-      <formula>$Q37 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="44">
-      <formula>$Q37 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="45">
-      <formula>$Q37 = 1</formula>
+  <conditionalFormatting sqref="A31:P31">
+    <cfRule type="expression" dxfId="116" priority="136">
+      <formula>$Q31 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="137">
+      <formula>$Q31 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="138">
+      <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:P32">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="113" priority="133">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="112" priority="134">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="111" priority="135">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:P33">
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="110" priority="127">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="109" priority="128">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="108" priority="129">
       <formula>$Q33 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:P34">
-    <cfRule type="expression" dxfId="29" priority="28">
-      <formula>$Q34 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$Q34 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
-      <formula>$Q34 = 1</formula>
+  <conditionalFormatting sqref="A38:P38">
+    <cfRule type="expression" dxfId="107" priority="124">
+      <formula>$Q38 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="125">
+      <formula>$Q38 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="126">
+      <formula>$Q38 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:P35">
-    <cfRule type="expression" dxfId="26" priority="25">
-      <formula>$Q35 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$Q35 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>$Q35 = 1</formula>
+  <conditionalFormatting sqref="A50:P51">
+    <cfRule type="expression" dxfId="104" priority="112">
+      <formula>$Q50 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="113">
+      <formula>$Q50 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="114">
+      <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:P52">
-    <cfRule type="expression" dxfId="23" priority="13">
-      <formula>$Q51 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
-      <formula>$Q51 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15">
-      <formula>$Q51 = 1</formula>
+  <conditionalFormatting sqref="A48:P48">
+    <cfRule type="expression" dxfId="101" priority="121">
+      <formula>$Q48 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="122">
+      <formula>$Q48 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="123">
+      <formula>$Q48 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:P49">
-    <cfRule type="expression" dxfId="20" priority="22">
+  <conditionalFormatting sqref="M49:P49">
+    <cfRule type="expression" dxfId="98" priority="115">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="97" priority="116">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="96" priority="117">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M50:P50">
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>$Q50 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$Q50 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>$Q50 = 1</formula>
+  <conditionalFormatting sqref="A49:L49">
+    <cfRule type="expression" dxfId="95" priority="118">
+      <formula>$Q49 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="119">
+      <formula>$Q49 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="120">
+      <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:L50">
-    <cfRule type="expression" dxfId="14" priority="19">
-      <formula>$Q50 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20">
-      <formula>$Q50 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="21">
-      <formula>$Q50 = 1</formula>
+  <conditionalFormatting sqref="A44:P44">
+    <cfRule type="expression" dxfId="92" priority="109">
+      <formula>$Q44 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="110">
+      <formula>$Q44 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="111">
+      <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:P45">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="89" priority="106">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="88" priority="107">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="87" priority="108">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:P46">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="86" priority="103">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="85" priority="104">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="84" priority="105">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:P47">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="83" priority="100">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="82" priority="101">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="81" priority="102">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:P48">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$Q48 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q48 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$Q48 = 1</formula>
+  <conditionalFormatting sqref="A63:P64">
+    <cfRule type="expression" dxfId="80" priority="85">
+      <formula>$Q63 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="86">
+      <formula>$Q63 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="87">
+      <formula>$Q63 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:P61">
+    <cfRule type="expression" dxfId="77" priority="94">
+      <formula>$Q61 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="95">
+      <formula>$Q61 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="96">
+      <formula>$Q61 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M62:P62">
+    <cfRule type="expression" dxfId="74" priority="88">
+      <formula>$Q62 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="89">
+      <formula>$Q62 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="90">
+      <formula>$Q62 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:L62">
+    <cfRule type="expression" dxfId="71" priority="91">
+      <formula>$Q62 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="92">
+      <formula>$Q62 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="93">
+      <formula>$Q62 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:P57">
+    <cfRule type="expression" dxfId="68" priority="82">
+      <formula>$Q57 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="83">
+      <formula>$Q57 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="84">
+      <formula>$Q57 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:P58">
+    <cfRule type="expression" dxfId="65" priority="79">
+      <formula>$Q58 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="80">
+      <formula>$Q58 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="81">
+      <formula>$Q58 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:P59">
+    <cfRule type="expression" dxfId="62" priority="76">
+      <formula>$Q59 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="77">
+      <formula>$Q59 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="78">
+      <formula>$Q59 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:P60">
+    <cfRule type="expression" dxfId="59" priority="73">
+      <formula>$Q60 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="74">
+      <formula>$Q60 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="75">
+      <formula>$Q60 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:P77">
+    <cfRule type="expression" dxfId="56" priority="61">
+      <formula>$Q76 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="62">
+      <formula>$Q76 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="63">
+      <formula>$Q76 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:P74">
+    <cfRule type="expression" dxfId="53" priority="70">
+      <formula>$Q74 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="71">
+      <formula>$Q74 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="72">
+      <formula>$Q74 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M75:P75">
+    <cfRule type="expression" dxfId="50" priority="64">
+      <formula>$Q75 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="65">
+      <formula>$Q75 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="66">
+      <formula>$Q75 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:L75">
+    <cfRule type="expression" dxfId="47" priority="67">
+      <formula>$Q75 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="68">
+      <formula>$Q75 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="69">
+      <formula>$Q75 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:P70">
+    <cfRule type="expression" dxfId="44" priority="58">
+      <formula>$Q70 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="59">
+      <formula>$Q70 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="60">
+      <formula>$Q70 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:P71">
+    <cfRule type="expression" dxfId="41" priority="55">
+      <formula>$Q71 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="56">
+      <formula>$Q71 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="57">
+      <formula>$Q71 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:P72">
+    <cfRule type="expression" dxfId="38" priority="52">
+      <formula>$Q72 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="53">
+      <formula>$Q72 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="54">
+      <formula>$Q72 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:P73">
+    <cfRule type="expression" dxfId="35" priority="49">
+      <formula>$Q73 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="50">
+      <formula>$Q73 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="51">
+      <formula>$Q73 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28404,123 +29167,123 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="80" priority="22">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="23">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:P24 A25:L29">
-    <cfRule type="expression" dxfId="77" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="74" priority="37">
+    <cfRule type="expression" dxfId="26" priority="37">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="39">
+    <cfRule type="expression" dxfId="24" priority="39">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P29">
-    <cfRule type="expression" dxfId="71" priority="34">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="36">
+    <cfRule type="expression" dxfId="21" priority="36">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:L30">
-    <cfRule type="expression" dxfId="68" priority="31">
+    <cfRule type="expression" dxfId="20" priority="31">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="32">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="33">
+    <cfRule type="expression" dxfId="18" priority="33">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:P30">
-    <cfRule type="expression" dxfId="65" priority="28">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="29">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="30">
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:P15">
-    <cfRule type="expression" dxfId="62" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9 A10:L13 B14:L14">
-    <cfRule type="expression" dxfId="59" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:L15">
-    <cfRule type="expression" dxfId="56" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="18">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P14">
-    <cfRule type="expression" dxfId="53" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B90F1EF-312A-4D13-BD0B-319A7E88447B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2748E308-BE3F-4695-B7E0-065567D69887}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpieleUL" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="U13F" sheetId="10" r:id="rId4"/>
     <sheet name="U15F" sheetId="11" r:id="rId5"/>
     <sheet name="U12F" sheetId="12" r:id="rId6"/>
-    <sheet name="SpieleMPO" sheetId="8" r:id="rId7"/>
+    <sheet name="U13X" sheetId="13" r:id="rId7"/>
+    <sheet name="SpieleMPO" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="quot_m1">SpieleAR!#REF!</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="358">
   <si>
     <t>Lea</t>
   </si>
@@ -1092,6 +1093,12 @@
   </si>
   <si>
     <t>Brückl hotvolleys - Hollabrunn</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - St. Pölten</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Seekirchen</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1211,1225 @@
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="675">
+  <dxfs count="849">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8987,200 +10212,200 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M46:P47 A40:P44">
-    <cfRule type="expression" dxfId="674" priority="91">
+    <cfRule type="expression" dxfId="848" priority="91">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="92">
+    <cfRule type="expression" dxfId="847" priority="92">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="93">
+    <cfRule type="expression" dxfId="846" priority="93">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L47">
-    <cfRule type="expression" dxfId="671" priority="85">
+    <cfRule type="expression" dxfId="845" priority="85">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="86">
+    <cfRule type="expression" dxfId="844" priority="86">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="87">
+    <cfRule type="expression" dxfId="843" priority="87">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="668" priority="79">
+    <cfRule type="expression" dxfId="842" priority="79">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="80">
+    <cfRule type="expression" dxfId="841" priority="80">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="81">
+    <cfRule type="expression" dxfId="840" priority="81">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45">
-    <cfRule type="expression" dxfId="665" priority="76">
+    <cfRule type="expression" dxfId="839" priority="76">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="77">
+    <cfRule type="expression" dxfId="838" priority="77">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="78">
+    <cfRule type="expression" dxfId="837" priority="78">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:P33 A23:P25 A29:P30">
-    <cfRule type="expression" dxfId="662" priority="61">
+    <cfRule type="expression" dxfId="836" priority="61">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="62">
+    <cfRule type="expression" dxfId="835" priority="62">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="63">
+    <cfRule type="expression" dxfId="834" priority="63">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L33">
-    <cfRule type="expression" dxfId="659" priority="58">
+    <cfRule type="expression" dxfId="833" priority="58">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="59">
+    <cfRule type="expression" dxfId="832" priority="59">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="60">
+    <cfRule type="expression" dxfId="831" priority="60">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="656" priority="55">
+    <cfRule type="expression" dxfId="830" priority="55">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="56">
+    <cfRule type="expression" dxfId="829" priority="56">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="57">
+    <cfRule type="expression" dxfId="828" priority="57">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="653" priority="52">
+    <cfRule type="expression" dxfId="827" priority="52">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="53">
+    <cfRule type="expression" dxfId="826" priority="53">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="54">
+    <cfRule type="expression" dxfId="825" priority="54">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:P26">
-    <cfRule type="expression" dxfId="650" priority="49">
+    <cfRule type="expression" dxfId="824" priority="49">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="50">
+    <cfRule type="expression" dxfId="823" priority="50">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="51">
+    <cfRule type="expression" dxfId="822" priority="51">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:P27">
-    <cfRule type="expression" dxfId="647" priority="46">
+    <cfRule type="expression" dxfId="821" priority="46">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="47">
+    <cfRule type="expression" dxfId="820" priority="47">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="48">
+    <cfRule type="expression" dxfId="819" priority="48">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:P28">
-    <cfRule type="expression" dxfId="644" priority="43">
+    <cfRule type="expression" dxfId="818" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="44">
+    <cfRule type="expression" dxfId="817" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="45">
+    <cfRule type="expression" dxfId="816" priority="45">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P15 A5:P7 A11:P12">
-    <cfRule type="expression" dxfId="641" priority="19">
+    <cfRule type="expression" dxfId="815" priority="19">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="20">
+    <cfRule type="expression" dxfId="814" priority="20">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="21">
+    <cfRule type="expression" dxfId="813" priority="21">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L15">
-    <cfRule type="expression" dxfId="638" priority="16">
+    <cfRule type="expression" dxfId="812" priority="16">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="17">
+    <cfRule type="expression" dxfId="811" priority="17">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="18">
+    <cfRule type="expression" dxfId="810" priority="18">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="635" priority="13">
+    <cfRule type="expression" dxfId="809" priority="13">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="14">
+    <cfRule type="expression" dxfId="808" priority="14">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="15">
+    <cfRule type="expression" dxfId="807" priority="15">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="632" priority="10">
+    <cfRule type="expression" dxfId="806" priority="10">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="11">
+    <cfRule type="expression" dxfId="805" priority="11">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="12">
+    <cfRule type="expression" dxfId="804" priority="12">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:P8">
-    <cfRule type="expression" dxfId="629" priority="7">
+    <cfRule type="expression" dxfId="803" priority="7">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="8">
+    <cfRule type="expression" dxfId="802" priority="8">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="9">
+    <cfRule type="expression" dxfId="801" priority="9">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9">
-    <cfRule type="expression" dxfId="626" priority="4">
+    <cfRule type="expression" dxfId="800" priority="4">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="5">
+    <cfRule type="expression" dxfId="799" priority="5">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="6">
+    <cfRule type="expression" dxfId="798" priority="6">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:P10">
-    <cfRule type="expression" dxfId="623" priority="1">
+    <cfRule type="expression" dxfId="797" priority="1">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="2">
+    <cfRule type="expression" dxfId="796" priority="2">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="3">
+    <cfRule type="expression" dxfId="795" priority="3">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14014,695 +15239,695 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A58:P61">
-    <cfRule type="expression" dxfId="620" priority="196">
+    <cfRule type="expression" dxfId="794" priority="196">
       <formula>$Q58 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="197">
+    <cfRule type="expression" dxfId="793" priority="197">
       <formula>$Q58 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="198">
+    <cfRule type="expression" dxfId="792" priority="198">
       <formula>$Q58 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:P57">
-    <cfRule type="expression" dxfId="617" priority="217">
+    <cfRule type="expression" dxfId="791" priority="217">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="218">
+    <cfRule type="expression" dxfId="790" priority="218">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="219">
+    <cfRule type="expression" dxfId="789" priority="219">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:L65">
-    <cfRule type="expression" dxfId="614" priority="214">
+    <cfRule type="expression" dxfId="788" priority="214">
       <formula>$Q65 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="215">
+    <cfRule type="expression" dxfId="787" priority="215">
       <formula>$Q65 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="216">
+    <cfRule type="expression" dxfId="786" priority="216">
       <formula>$Q65 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:L63">
-    <cfRule type="expression" dxfId="611" priority="211">
+    <cfRule type="expression" dxfId="785" priority="211">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="212">
+    <cfRule type="expression" dxfId="784" priority="212">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="213">
+    <cfRule type="expression" dxfId="783" priority="213">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:P63 M65:P65">
-    <cfRule type="expression" dxfId="608" priority="208">
+    <cfRule type="expression" dxfId="782" priority="208">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="209">
+    <cfRule type="expression" dxfId="781" priority="209">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="210">
+    <cfRule type="expression" dxfId="780" priority="210">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:L62">
-    <cfRule type="expression" dxfId="605" priority="205">
+    <cfRule type="expression" dxfId="779" priority="205">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="206">
+    <cfRule type="expression" dxfId="778" priority="206">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="207">
+    <cfRule type="expression" dxfId="777" priority="207">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P62">
-    <cfRule type="expression" dxfId="602" priority="202">
+    <cfRule type="expression" dxfId="776" priority="202">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="203">
+    <cfRule type="expression" dxfId="775" priority="203">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="204">
+    <cfRule type="expression" dxfId="774" priority="204">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:L64">
-    <cfRule type="expression" dxfId="599" priority="193">
+    <cfRule type="expression" dxfId="773" priority="193">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="194">
+    <cfRule type="expression" dxfId="772" priority="194">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="195">
+    <cfRule type="expression" dxfId="771" priority="195">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:P64">
-    <cfRule type="expression" dxfId="596" priority="190">
+    <cfRule type="expression" dxfId="770" priority="190">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="191">
+    <cfRule type="expression" dxfId="769" priority="191">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="192">
+    <cfRule type="expression" dxfId="768" priority="192">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:P81">
-    <cfRule type="expression" dxfId="593" priority="169">
+    <cfRule type="expression" dxfId="767" priority="169">
       <formula>$Q78 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="170">
+    <cfRule type="expression" dxfId="766" priority="170">
       <formula>$Q78 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="171">
+    <cfRule type="expression" dxfId="765" priority="171">
       <formula>$Q78 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:P77">
-    <cfRule type="expression" dxfId="590" priority="187">
+    <cfRule type="expression" dxfId="764" priority="187">
       <formula>$Q77 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="188">
+    <cfRule type="expression" dxfId="763" priority="188">
       <formula>$Q77 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="189">
+    <cfRule type="expression" dxfId="762" priority="189">
       <formula>$Q77 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:L85">
-    <cfRule type="expression" dxfId="587" priority="184">
+    <cfRule type="expression" dxfId="761" priority="184">
       <formula>$Q85 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="185">
+    <cfRule type="expression" dxfId="760" priority="185">
       <formula>$Q85 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="186">
+    <cfRule type="expression" dxfId="759" priority="186">
       <formula>$Q85 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:L83">
-    <cfRule type="expression" dxfId="584" priority="181">
+    <cfRule type="expression" dxfId="758" priority="181">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="182">
+    <cfRule type="expression" dxfId="757" priority="182">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="183">
+    <cfRule type="expression" dxfId="756" priority="183">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P83 M85:P85">
-    <cfRule type="expression" dxfId="581" priority="178">
+    <cfRule type="expression" dxfId="755" priority="178">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="179">
+    <cfRule type="expression" dxfId="754" priority="179">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="180">
+    <cfRule type="expression" dxfId="753" priority="180">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:L82">
-    <cfRule type="expression" dxfId="578" priority="175">
+    <cfRule type="expression" dxfId="752" priority="175">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="176">
+    <cfRule type="expression" dxfId="751" priority="176">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="177">
+    <cfRule type="expression" dxfId="750" priority="177">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:P82">
-    <cfRule type="expression" dxfId="575" priority="172">
+    <cfRule type="expression" dxfId="749" priority="172">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="173">
+    <cfRule type="expression" dxfId="748" priority="173">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="174">
+    <cfRule type="expression" dxfId="747" priority="174">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:L84">
-    <cfRule type="expression" dxfId="572" priority="166">
+    <cfRule type="expression" dxfId="746" priority="166">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="167">
+    <cfRule type="expression" dxfId="745" priority="167">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="168">
+    <cfRule type="expression" dxfId="744" priority="168">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84:P84">
-    <cfRule type="expression" dxfId="569" priority="163">
+    <cfRule type="expression" dxfId="743" priority="163">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="164">
+    <cfRule type="expression" dxfId="742" priority="164">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="165">
+    <cfRule type="expression" dxfId="741" priority="165">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:P97">
-    <cfRule type="expression" dxfId="566" priority="142">
+    <cfRule type="expression" dxfId="740" priority="142">
       <formula>$Q94 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="143">
+    <cfRule type="expression" dxfId="739" priority="143">
       <formula>$Q94 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="144">
+    <cfRule type="expression" dxfId="738" priority="144">
       <formula>$Q94 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:P93">
-    <cfRule type="expression" dxfId="563" priority="160">
+    <cfRule type="expression" dxfId="737" priority="160">
       <formula>$Q93 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="161">
+    <cfRule type="expression" dxfId="736" priority="161">
       <formula>$Q93 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="162">
+    <cfRule type="expression" dxfId="735" priority="162">
       <formula>$Q93 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:L101">
-    <cfRule type="expression" dxfId="560" priority="157">
+    <cfRule type="expression" dxfId="734" priority="157">
       <formula>$Q101 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="158">
+    <cfRule type="expression" dxfId="733" priority="158">
       <formula>$Q101 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="159">
+    <cfRule type="expression" dxfId="732" priority="159">
       <formula>$Q101 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:L99">
-    <cfRule type="expression" dxfId="557" priority="154">
+    <cfRule type="expression" dxfId="731" priority="154">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="155">
+    <cfRule type="expression" dxfId="730" priority="155">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="156">
+    <cfRule type="expression" dxfId="729" priority="156">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99:P99 M101:P101">
-    <cfRule type="expression" dxfId="554" priority="151">
+    <cfRule type="expression" dxfId="728" priority="151">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="152">
+    <cfRule type="expression" dxfId="727" priority="152">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="153">
+    <cfRule type="expression" dxfId="726" priority="153">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:L98">
-    <cfRule type="expression" dxfId="551" priority="148">
+    <cfRule type="expression" dxfId="725" priority="148">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="149">
+    <cfRule type="expression" dxfId="724" priority="149">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="150">
+    <cfRule type="expression" dxfId="723" priority="150">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98:P98">
-    <cfRule type="expression" dxfId="548" priority="145">
+    <cfRule type="expression" dxfId="722" priority="145">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="146">
+    <cfRule type="expression" dxfId="721" priority="146">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="147">
+    <cfRule type="expression" dxfId="720" priority="147">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:L100">
-    <cfRule type="expression" dxfId="545" priority="139">
+    <cfRule type="expression" dxfId="719" priority="139">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="140">
+    <cfRule type="expression" dxfId="718" priority="140">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="141">
+    <cfRule type="expression" dxfId="717" priority="141">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100:P100">
-    <cfRule type="expression" dxfId="542" priority="136">
+    <cfRule type="expression" dxfId="716" priority="136">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="137">
+    <cfRule type="expression" dxfId="715" priority="137">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="138">
+    <cfRule type="expression" dxfId="714" priority="138">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:P113">
-    <cfRule type="expression" dxfId="539" priority="115">
+    <cfRule type="expression" dxfId="713" priority="115">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="116">
+    <cfRule type="expression" dxfId="712" priority="116">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="117">
+    <cfRule type="expression" dxfId="711" priority="117">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:P109">
-    <cfRule type="expression" dxfId="536" priority="133">
+    <cfRule type="expression" dxfId="710" priority="133">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="134">
+    <cfRule type="expression" dxfId="709" priority="134">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="135">
+    <cfRule type="expression" dxfId="708" priority="135">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:L117">
-    <cfRule type="expression" dxfId="533" priority="130">
+    <cfRule type="expression" dxfId="707" priority="130">
       <formula>$Q117 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="131">
+    <cfRule type="expression" dxfId="706" priority="131">
       <formula>$Q117 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="132">
+    <cfRule type="expression" dxfId="705" priority="132">
       <formula>$Q117 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:L115">
-    <cfRule type="expression" dxfId="530" priority="127">
+    <cfRule type="expression" dxfId="704" priority="127">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="128">
+    <cfRule type="expression" dxfId="703" priority="128">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="129">
+    <cfRule type="expression" dxfId="702" priority="129">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115:P115 M117:P117">
-    <cfRule type="expression" dxfId="527" priority="124">
+    <cfRule type="expression" dxfId="701" priority="124">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="125">
+    <cfRule type="expression" dxfId="700" priority="125">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="126">
+    <cfRule type="expression" dxfId="699" priority="126">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:L114">
-    <cfRule type="expression" dxfId="524" priority="121">
+    <cfRule type="expression" dxfId="698" priority="121">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="122">
+    <cfRule type="expression" dxfId="697" priority="122">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="123">
+    <cfRule type="expression" dxfId="696" priority="123">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M114:P114">
-    <cfRule type="expression" dxfId="521" priority="118">
+    <cfRule type="expression" dxfId="695" priority="118">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="119">
+    <cfRule type="expression" dxfId="694" priority="119">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="120">
+    <cfRule type="expression" dxfId="693" priority="120">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:L116">
-    <cfRule type="expression" dxfId="518" priority="112">
+    <cfRule type="expression" dxfId="692" priority="112">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="113">
+    <cfRule type="expression" dxfId="691" priority="113">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="114">
+    <cfRule type="expression" dxfId="690" priority="114">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M116:P116">
-    <cfRule type="expression" dxfId="515" priority="109">
+    <cfRule type="expression" dxfId="689" priority="109">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="110">
+    <cfRule type="expression" dxfId="688" priority="110">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="111">
+    <cfRule type="expression" dxfId="687" priority="111">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:P9">
-    <cfRule type="expression" dxfId="512" priority="88">
+    <cfRule type="expression" dxfId="686" priority="88">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="89">
+    <cfRule type="expression" dxfId="685" priority="89">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="90">
+    <cfRule type="expression" dxfId="684" priority="90">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="509" priority="106">
+    <cfRule type="expression" dxfId="683" priority="106">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="107">
+    <cfRule type="expression" dxfId="682" priority="107">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="108">
+    <cfRule type="expression" dxfId="681" priority="108">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="506" priority="103">
+    <cfRule type="expression" dxfId="680" priority="103">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="104">
+    <cfRule type="expression" dxfId="679" priority="104">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="105">
+    <cfRule type="expression" dxfId="678" priority="105">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="503" priority="100">
+    <cfRule type="expression" dxfId="677" priority="100">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="101">
+    <cfRule type="expression" dxfId="676" priority="101">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="102">
+    <cfRule type="expression" dxfId="675" priority="102">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:P11 M13:P13">
-    <cfRule type="expression" dxfId="500" priority="97">
+    <cfRule type="expression" dxfId="674" priority="97">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="98">
+    <cfRule type="expression" dxfId="673" priority="98">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="99">
+    <cfRule type="expression" dxfId="672" priority="99">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="497" priority="94">
+    <cfRule type="expression" dxfId="671" priority="94">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="95">
+    <cfRule type="expression" dxfId="670" priority="95">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="96">
+    <cfRule type="expression" dxfId="669" priority="96">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="494" priority="91">
+    <cfRule type="expression" dxfId="668" priority="91">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="92">
+    <cfRule type="expression" dxfId="667" priority="92">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="93">
+    <cfRule type="expression" dxfId="666" priority="93">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="491" priority="85">
+    <cfRule type="expression" dxfId="665" priority="85">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="86">
+    <cfRule type="expression" dxfId="664" priority="86">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="87">
+    <cfRule type="expression" dxfId="663" priority="87">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="488" priority="82">
+    <cfRule type="expression" dxfId="662" priority="82">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="83">
+    <cfRule type="expression" dxfId="661" priority="83">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="84">
+    <cfRule type="expression" dxfId="660" priority="84">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:P43">
-    <cfRule type="expression" dxfId="485" priority="7">
+    <cfRule type="expression" dxfId="659" priority="7">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="8">
+    <cfRule type="expression" dxfId="658" priority="8">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="9">
+    <cfRule type="expression" dxfId="657" priority="9">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:P39">
-    <cfRule type="expression" dxfId="482" priority="25">
+    <cfRule type="expression" dxfId="656" priority="25">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="26">
+    <cfRule type="expression" dxfId="655" priority="26">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="27">
+    <cfRule type="expression" dxfId="654" priority="27">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:L47">
-    <cfRule type="expression" dxfId="479" priority="22">
+    <cfRule type="expression" dxfId="653" priority="22">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="23">
+    <cfRule type="expression" dxfId="652" priority="23">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="24">
+    <cfRule type="expression" dxfId="651" priority="24">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="476" priority="19">
+    <cfRule type="expression" dxfId="650" priority="19">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="20">
+    <cfRule type="expression" dxfId="649" priority="20">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="21">
+    <cfRule type="expression" dxfId="648" priority="21">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45 M47:P47">
-    <cfRule type="expression" dxfId="473" priority="16">
+    <cfRule type="expression" dxfId="647" priority="16">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="17">
+    <cfRule type="expression" dxfId="646" priority="17">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="18">
+    <cfRule type="expression" dxfId="645" priority="18">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:L44">
-    <cfRule type="expression" dxfId="470" priority="13">
+    <cfRule type="expression" dxfId="644" priority="13">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="14">
+    <cfRule type="expression" dxfId="643" priority="14">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="15">
+    <cfRule type="expression" dxfId="642" priority="15">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P44">
-    <cfRule type="expression" dxfId="467" priority="10">
+    <cfRule type="expression" dxfId="641" priority="10">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="11">
+    <cfRule type="expression" dxfId="640" priority="11">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="12">
+    <cfRule type="expression" dxfId="639" priority="12">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L46">
-    <cfRule type="expression" dxfId="464" priority="4">
+    <cfRule type="expression" dxfId="638" priority="4">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="5">
+    <cfRule type="expression" dxfId="637" priority="5">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="6">
+    <cfRule type="expression" dxfId="636" priority="6">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:P46">
-    <cfRule type="expression" dxfId="461" priority="1">
+    <cfRule type="expression" dxfId="635" priority="1">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="2">
+    <cfRule type="expression" dxfId="634" priority="2">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="3">
+    <cfRule type="expression" dxfId="633" priority="3">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:P23">
-    <cfRule type="expression" dxfId="458" priority="34">
+    <cfRule type="expression" dxfId="632" priority="34">
       <formula>$Q20 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="35">
+    <cfRule type="expression" dxfId="631" priority="35">
       <formula>$Q20 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="36">
+    <cfRule type="expression" dxfId="630" priority="36">
       <formula>$Q20 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:P19">
-    <cfRule type="expression" dxfId="455" priority="52">
+    <cfRule type="expression" dxfId="629" priority="52">
       <formula>$Q19 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="53">
+    <cfRule type="expression" dxfId="628" priority="53">
       <formula>$Q19 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="54">
+    <cfRule type="expression" dxfId="627" priority="54">
       <formula>$Q19 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="452" priority="49">
+    <cfRule type="expression" dxfId="626" priority="49">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="50">
+    <cfRule type="expression" dxfId="625" priority="50">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="51">
+    <cfRule type="expression" dxfId="624" priority="51">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:L25">
-    <cfRule type="expression" dxfId="449" priority="46">
+    <cfRule type="expression" dxfId="623" priority="46">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="47">
+    <cfRule type="expression" dxfId="622" priority="47">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="48">
+    <cfRule type="expression" dxfId="621" priority="48">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P25 M27:P27">
-    <cfRule type="expression" dxfId="446" priority="43">
+    <cfRule type="expression" dxfId="620" priority="43">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="44">
+    <cfRule type="expression" dxfId="619" priority="44">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="45">
+    <cfRule type="expression" dxfId="618" priority="45">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:L24">
-    <cfRule type="expression" dxfId="443" priority="40">
+    <cfRule type="expression" dxfId="617" priority="40">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="41">
+    <cfRule type="expression" dxfId="616" priority="41">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="42">
+    <cfRule type="expression" dxfId="615" priority="42">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:P24">
-    <cfRule type="expression" dxfId="440" priority="37">
+    <cfRule type="expression" dxfId="614" priority="37">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="38">
+    <cfRule type="expression" dxfId="613" priority="38">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="39">
+    <cfRule type="expression" dxfId="612" priority="39">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:L26">
-    <cfRule type="expression" dxfId="437" priority="31">
+    <cfRule type="expression" dxfId="611" priority="31">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="32">
+    <cfRule type="expression" dxfId="610" priority="32">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="33">
+    <cfRule type="expression" dxfId="609" priority="33">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:P26">
-    <cfRule type="expression" dxfId="434" priority="28">
+    <cfRule type="expression" dxfId="608" priority="28">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="29">
+    <cfRule type="expression" dxfId="607" priority="29">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="30">
+    <cfRule type="expression" dxfId="606" priority="30">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20233,618 +21458,618 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A123:P123 A124:L128 M50:P50">
-    <cfRule type="expression" dxfId="431" priority="352">
+    <cfRule type="expression" dxfId="605" priority="352">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="353">
+    <cfRule type="expression" dxfId="604" priority="353">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="354">
+    <cfRule type="expression" dxfId="603" priority="354">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:L131">
-    <cfRule type="expression" dxfId="428" priority="229">
+    <cfRule type="expression" dxfId="602" priority="229">
       <formula>$Q131 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="230">
+    <cfRule type="expression" dxfId="601" priority="230">
       <formula>$Q131 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="231">
+    <cfRule type="expression" dxfId="600" priority="231">
       <formula>$Q131 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:L130">
-    <cfRule type="expression" dxfId="425" priority="226">
+    <cfRule type="expression" dxfId="599" priority="226">
       <formula>$Q130 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="227">
+    <cfRule type="expression" dxfId="598" priority="227">
       <formula>$Q130 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="228">
+    <cfRule type="expression" dxfId="597" priority="228">
       <formula>$Q130 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M124:P128 M130:P131">
-    <cfRule type="expression" dxfId="422" priority="220">
+    <cfRule type="expression" dxfId="596" priority="220">
       <formula>$Q124 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="221">
+    <cfRule type="expression" dxfId="595" priority="221">
       <formula>$Q124 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="222">
+    <cfRule type="expression" dxfId="594" priority="222">
       <formula>$Q124 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:L129">
-    <cfRule type="expression" dxfId="419" priority="202">
+    <cfRule type="expression" dxfId="593" priority="202">
       <formula>$Q129 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="203">
+    <cfRule type="expression" dxfId="592" priority="203">
       <formula>$Q129 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="204">
+    <cfRule type="expression" dxfId="591" priority="204">
       <formula>$Q129 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M129:P129">
-    <cfRule type="expression" dxfId="416" priority="199">
+    <cfRule type="expression" dxfId="590" priority="199">
       <formula>$Q129 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="200">
+    <cfRule type="expression" dxfId="589" priority="200">
       <formula>$Q129 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="201">
+    <cfRule type="expression" dxfId="588" priority="201">
       <formula>$Q129 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:L132">
-    <cfRule type="expression" dxfId="413" priority="196">
+    <cfRule type="expression" dxfId="587" priority="196">
       <formula>$Q132 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="197">
+    <cfRule type="expression" dxfId="586" priority="197">
       <formula>$Q132 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="198">
+    <cfRule type="expression" dxfId="585" priority="198">
       <formula>$Q132 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132:P132">
-    <cfRule type="expression" dxfId="410" priority="193">
+    <cfRule type="expression" dxfId="584" priority="193">
       <formula>$Q132 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="194">
+    <cfRule type="expression" dxfId="583" priority="194">
       <formula>$Q132 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="195">
+    <cfRule type="expression" dxfId="582" priority="195">
       <formula>$Q132 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:P102 A103:L107">
-    <cfRule type="expression" dxfId="407" priority="190">
+    <cfRule type="expression" dxfId="581" priority="190">
       <formula>$Q102 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="191">
+    <cfRule type="expression" dxfId="580" priority="191">
       <formula>$Q102 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="192">
+    <cfRule type="expression" dxfId="579" priority="192">
       <formula>$Q102 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:L110">
-    <cfRule type="expression" dxfId="404" priority="187">
+    <cfRule type="expression" dxfId="578" priority="187">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="188">
+    <cfRule type="expression" dxfId="577" priority="188">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="189">
+    <cfRule type="expression" dxfId="576" priority="189">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:L109">
-    <cfRule type="expression" dxfId="401" priority="184">
+    <cfRule type="expression" dxfId="575" priority="184">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="185">
+    <cfRule type="expression" dxfId="574" priority="185">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="186">
+    <cfRule type="expression" dxfId="573" priority="186">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103:P107 M109:P110">
-    <cfRule type="expression" dxfId="398" priority="181">
+    <cfRule type="expression" dxfId="572" priority="181">
       <formula>$Q103 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="182">
+    <cfRule type="expression" dxfId="571" priority="182">
       <formula>$Q103 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="183">
+    <cfRule type="expression" dxfId="570" priority="183">
       <formula>$Q103 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:L108">
-    <cfRule type="expression" dxfId="395" priority="178">
+    <cfRule type="expression" dxfId="569" priority="178">
       <formula>$Q108 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="179">
+    <cfRule type="expression" dxfId="568" priority="179">
       <formula>$Q108 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="180">
+    <cfRule type="expression" dxfId="567" priority="180">
       <formula>$Q108 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:P108">
-    <cfRule type="expression" dxfId="392" priority="175">
+    <cfRule type="expression" dxfId="566" priority="175">
       <formula>$Q108 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="176">
+    <cfRule type="expression" dxfId="565" priority="176">
       <formula>$Q108 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="177">
+    <cfRule type="expression" dxfId="564" priority="177">
       <formula>$Q108 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:L111">
-    <cfRule type="expression" dxfId="389" priority="172">
+    <cfRule type="expression" dxfId="563" priority="172">
       <formula>$Q111 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="173">
+    <cfRule type="expression" dxfId="562" priority="173">
       <formula>$Q111 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="174">
+    <cfRule type="expression" dxfId="561" priority="174">
       <formula>$Q111 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111:P111">
-    <cfRule type="expression" dxfId="386" priority="169">
+    <cfRule type="expression" dxfId="560" priority="169">
       <formula>$Q111 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="170">
+    <cfRule type="expression" dxfId="559" priority="170">
       <formula>$Q111 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="171">
+    <cfRule type="expression" dxfId="558" priority="171">
       <formula>$Q111 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:L112">
-    <cfRule type="expression" dxfId="383" priority="166">
+    <cfRule type="expression" dxfId="557" priority="166">
       <formula>$Q112 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="167">
+    <cfRule type="expression" dxfId="556" priority="167">
       <formula>$Q112 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="168">
+    <cfRule type="expression" dxfId="555" priority="168">
       <formula>$Q112 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:P112">
-    <cfRule type="expression" dxfId="380" priority="163">
+    <cfRule type="expression" dxfId="554" priority="163">
       <formula>$Q112 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="164">
+    <cfRule type="expression" dxfId="553" priority="164">
       <formula>$Q112 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="165">
+    <cfRule type="expression" dxfId="552" priority="165">
       <formula>$Q112 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:P82 A83:L87">
-    <cfRule type="expression" dxfId="377" priority="130">
+    <cfRule type="expression" dxfId="551" priority="130">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="131">
+    <cfRule type="expression" dxfId="550" priority="131">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="132">
+    <cfRule type="expression" dxfId="549" priority="132">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:L90">
-    <cfRule type="expression" dxfId="374" priority="127">
+    <cfRule type="expression" dxfId="548" priority="127">
       <formula>$Q90 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="128">
+    <cfRule type="expression" dxfId="547" priority="128">
       <formula>$Q90 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="129">
+    <cfRule type="expression" dxfId="546" priority="129">
       <formula>$Q90 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:L89">
-    <cfRule type="expression" dxfId="371" priority="124">
+    <cfRule type="expression" dxfId="545" priority="124">
       <formula>$Q89 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="125">
+    <cfRule type="expression" dxfId="544" priority="125">
       <formula>$Q89 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="126">
+    <cfRule type="expression" dxfId="543" priority="126">
       <formula>$Q89 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P87 M89:P90">
-    <cfRule type="expression" dxfId="368" priority="121">
+    <cfRule type="expression" dxfId="542" priority="121">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="122">
+    <cfRule type="expression" dxfId="541" priority="122">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="123">
+    <cfRule type="expression" dxfId="540" priority="123">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:L88">
-    <cfRule type="expression" dxfId="365" priority="118">
+    <cfRule type="expression" dxfId="539" priority="118">
       <formula>$Q88 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="119">
+    <cfRule type="expression" dxfId="538" priority="119">
       <formula>$Q88 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="120">
+    <cfRule type="expression" dxfId="537" priority="120">
       <formula>$Q88 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M88:P88">
-    <cfRule type="expression" dxfId="362" priority="115">
+    <cfRule type="expression" dxfId="536" priority="115">
       <formula>$Q88 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="116">
+    <cfRule type="expression" dxfId="535" priority="116">
       <formula>$Q88 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="117">
+    <cfRule type="expression" dxfId="534" priority="117">
       <formula>$Q88 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:L91">
-    <cfRule type="expression" dxfId="359" priority="112">
+    <cfRule type="expression" dxfId="533" priority="112">
       <formula>$Q91 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="113">
+    <cfRule type="expression" dxfId="532" priority="113">
       <formula>$Q91 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="114">
+    <cfRule type="expression" dxfId="531" priority="114">
       <formula>$Q91 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:P91">
-    <cfRule type="expression" dxfId="356" priority="109">
+    <cfRule type="expression" dxfId="530" priority="109">
       <formula>$Q91 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="110">
+    <cfRule type="expression" dxfId="529" priority="110">
       <formula>$Q91 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="111">
+    <cfRule type="expression" dxfId="528" priority="111">
       <formula>$Q91 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:P61 A62:L66">
-    <cfRule type="expression" dxfId="353" priority="100">
+    <cfRule type="expression" dxfId="527" priority="100">
       <formula>$Q61 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="101">
+    <cfRule type="expression" dxfId="526" priority="101">
       <formula>$Q61 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="102">
+    <cfRule type="expression" dxfId="525" priority="102">
       <formula>$Q61 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:L69">
-    <cfRule type="expression" dxfId="350" priority="97">
+    <cfRule type="expression" dxfId="524" priority="97">
       <formula>$Q69 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="98">
+    <cfRule type="expression" dxfId="523" priority="98">
       <formula>$Q69 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="99">
+    <cfRule type="expression" dxfId="522" priority="99">
       <formula>$Q69 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:L68">
-    <cfRule type="expression" dxfId="347" priority="94">
+    <cfRule type="expression" dxfId="521" priority="94">
       <formula>$Q68 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="95">
+    <cfRule type="expression" dxfId="520" priority="95">
       <formula>$Q68 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="96">
+    <cfRule type="expression" dxfId="519" priority="96">
       <formula>$Q68 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P66 M68:P69">
-    <cfRule type="expression" dxfId="344" priority="91">
+    <cfRule type="expression" dxfId="518" priority="91">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="92">
+    <cfRule type="expression" dxfId="517" priority="92">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="93">
+    <cfRule type="expression" dxfId="516" priority="93">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:L67">
-    <cfRule type="expression" dxfId="341" priority="88">
+    <cfRule type="expression" dxfId="515" priority="88">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="89">
+    <cfRule type="expression" dxfId="514" priority="89">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="90">
+    <cfRule type="expression" dxfId="513" priority="90">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:P67">
-    <cfRule type="expression" dxfId="338" priority="85">
+    <cfRule type="expression" dxfId="512" priority="85">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="86">
+    <cfRule type="expression" dxfId="511" priority="86">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="87">
+    <cfRule type="expression" dxfId="510" priority="87">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:L70">
-    <cfRule type="expression" dxfId="335" priority="82">
+    <cfRule type="expression" dxfId="509" priority="82">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="83">
+    <cfRule type="expression" dxfId="508" priority="83">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="84">
+    <cfRule type="expression" dxfId="507" priority="84">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70:P70">
-    <cfRule type="expression" dxfId="332" priority="79">
+    <cfRule type="expression" dxfId="506" priority="79">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="80">
+    <cfRule type="expression" dxfId="505" priority="80">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="81">
+    <cfRule type="expression" dxfId="504" priority="81">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:P43 A44:L46 B47:L48">
-    <cfRule type="expression" dxfId="329" priority="76">
+    <cfRule type="expression" dxfId="503" priority="76">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="77">
+    <cfRule type="expression" dxfId="502" priority="77">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="78">
+    <cfRule type="expression" dxfId="501" priority="78">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:L50">
-    <cfRule type="expression" dxfId="326" priority="70">
+    <cfRule type="expression" dxfId="500" priority="70">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="71">
+    <cfRule type="expression" dxfId="499" priority="71">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="72">
+    <cfRule type="expression" dxfId="498" priority="72">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P48">
-    <cfRule type="expression" dxfId="323" priority="67">
+    <cfRule type="expression" dxfId="497" priority="67">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="68">
+    <cfRule type="expression" dxfId="496" priority="68">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="69">
+    <cfRule type="expression" dxfId="495" priority="69">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:L49">
-    <cfRule type="expression" dxfId="320" priority="64">
+    <cfRule type="expression" dxfId="494" priority="64">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="65">
+    <cfRule type="expression" dxfId="493" priority="65">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="66">
+    <cfRule type="expression" dxfId="492" priority="66">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:P49">
-    <cfRule type="expression" dxfId="317" priority="61">
+    <cfRule type="expression" dxfId="491" priority="61">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="62">
+    <cfRule type="expression" dxfId="490" priority="62">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="63">
+    <cfRule type="expression" dxfId="489" priority="63">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="expression" dxfId="314" priority="52">
+    <cfRule type="expression" dxfId="488" priority="52">
       <formula>$Q48 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="53">
+    <cfRule type="expression" dxfId="487" priority="53">
       <formula>$Q48 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="54">
+    <cfRule type="expression" dxfId="486" priority="54">
       <formula>$Q48 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="311" priority="49">
+    <cfRule type="expression" dxfId="485" priority="49">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="50">
+    <cfRule type="expression" dxfId="484" priority="50">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="51">
+    <cfRule type="expression" dxfId="483" priority="51">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="308" priority="46">
+    <cfRule type="expression" dxfId="482" priority="46">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="47">
+    <cfRule type="expression" dxfId="481" priority="47">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="48">
+    <cfRule type="expression" dxfId="480" priority="48">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P14">
-    <cfRule type="expression" dxfId="305" priority="43">
+    <cfRule type="expression" dxfId="479" priority="43">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="44">
+    <cfRule type="expression" dxfId="478" priority="44">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="45">
+    <cfRule type="expression" dxfId="477" priority="45">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A7:L9 B10:L11">
-    <cfRule type="expression" dxfId="302" priority="40">
+    <cfRule type="expression" dxfId="476" priority="40">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="41">
+    <cfRule type="expression" dxfId="475" priority="41">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="42">
+    <cfRule type="expression" dxfId="474" priority="42">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L14">
-    <cfRule type="expression" dxfId="299" priority="37">
+    <cfRule type="expression" dxfId="473" priority="37">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="38">
+    <cfRule type="expression" dxfId="472" priority="38">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="39">
+    <cfRule type="expression" dxfId="471" priority="39">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:P11">
-    <cfRule type="expression" dxfId="296" priority="34">
+    <cfRule type="expression" dxfId="470" priority="34">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="35">
+    <cfRule type="expression" dxfId="469" priority="35">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="36">
+    <cfRule type="expression" dxfId="468" priority="36">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L12">
-    <cfRule type="expression" dxfId="293" priority="31">
+    <cfRule type="expression" dxfId="467" priority="31">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="32">
+    <cfRule type="expression" dxfId="466" priority="32">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="33">
+    <cfRule type="expression" dxfId="465" priority="33">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="290" priority="28">
+    <cfRule type="expression" dxfId="464" priority="28">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="29">
+    <cfRule type="expression" dxfId="463" priority="29">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="30">
+    <cfRule type="expression" dxfId="462" priority="30">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="287" priority="22">
+    <cfRule type="expression" dxfId="461" priority="22">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="23">
+    <cfRule type="expression" dxfId="460" priority="23">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="24">
+    <cfRule type="expression" dxfId="459" priority="24">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P6">
-    <cfRule type="expression" dxfId="284" priority="13">
+    <cfRule type="expression" dxfId="458" priority="13">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="14">
+    <cfRule type="expression" dxfId="457" priority="14">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="15">
+    <cfRule type="expression" dxfId="456" priority="15">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="281" priority="19">
+    <cfRule type="expression" dxfId="455" priority="19">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="20">
+    <cfRule type="expression" dxfId="454" priority="20">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="21">
+    <cfRule type="expression" dxfId="453" priority="21">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="278" priority="16">
+    <cfRule type="expression" dxfId="452" priority="16">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="17">
+    <cfRule type="expression" dxfId="451" priority="17">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="18">
+    <cfRule type="expression" dxfId="450" priority="18">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="275" priority="10">
+    <cfRule type="expression" dxfId="449" priority="10">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="11">
+    <cfRule type="expression" dxfId="448" priority="11">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="12">
+    <cfRule type="expression" dxfId="447" priority="12">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13">
-    <cfRule type="expression" dxfId="272" priority="7">
+    <cfRule type="expression" dxfId="446" priority="7">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="8">
+    <cfRule type="expression" dxfId="445" priority="8">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="9">
+    <cfRule type="expression" dxfId="444" priority="9">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="269" priority="4">
+    <cfRule type="expression" dxfId="443" priority="4">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="5">
+    <cfRule type="expression" dxfId="442" priority="5">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="6">
+    <cfRule type="expression" dxfId="441" priority="6">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="266" priority="1">
+    <cfRule type="expression" dxfId="440" priority="1">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="2">
+    <cfRule type="expression" dxfId="439" priority="2">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="3">
+    <cfRule type="expression" dxfId="438" priority="3">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22305,266 +23530,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M7:P9">
-    <cfRule type="expression" dxfId="263" priority="73">
+    <cfRule type="expression" dxfId="437" priority="73">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="74">
+    <cfRule type="expression" dxfId="436" priority="74">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="75">
+    <cfRule type="expression" dxfId="435" priority="75">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="260" priority="112">
+    <cfRule type="expression" dxfId="434" priority="112">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="113">
+    <cfRule type="expression" dxfId="433" priority="113">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="114">
+    <cfRule type="expression" dxfId="432" priority="114">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A7:L9">
-    <cfRule type="expression" dxfId="257" priority="109">
+    <cfRule type="expression" dxfId="431" priority="109">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="110">
+    <cfRule type="expression" dxfId="430" priority="110">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="111">
+    <cfRule type="expression" dxfId="429" priority="111">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="254" priority="106">
+    <cfRule type="expression" dxfId="428" priority="106">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="107">
+    <cfRule type="expression" dxfId="427" priority="107">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="108">
+    <cfRule type="expression" dxfId="426" priority="108">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P6">
-    <cfRule type="expression" dxfId="251" priority="85">
+    <cfRule type="expression" dxfId="425" priority="85">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="86">
+    <cfRule type="expression" dxfId="424" priority="86">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="87">
+    <cfRule type="expression" dxfId="423" priority="87">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="248" priority="88">
+    <cfRule type="expression" dxfId="422" priority="88">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="89">
+    <cfRule type="expression" dxfId="421" priority="89">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="90">
+    <cfRule type="expression" dxfId="420" priority="90">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:P20">
-    <cfRule type="expression" dxfId="245" priority="55">
+    <cfRule type="expression" dxfId="419" priority="55">
       <formula>$Q18 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="56">
+    <cfRule type="expression" dxfId="418" priority="56">
       <formula>$Q18 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="57">
+    <cfRule type="expression" dxfId="417" priority="57">
       <formula>$Q18 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:P21">
-    <cfRule type="expression" dxfId="242" priority="70">
+    <cfRule type="expression" dxfId="416" priority="70">
       <formula>$Q21 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="71">
+    <cfRule type="expression" dxfId="415" priority="71">
       <formula>$Q21 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="72">
+    <cfRule type="expression" dxfId="414" priority="72">
       <formula>$Q21 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:P16 A18:L20">
-    <cfRule type="expression" dxfId="239" priority="67">
+    <cfRule type="expression" dxfId="413" priority="67">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="68">
+    <cfRule type="expression" dxfId="412" priority="68">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="69">
+    <cfRule type="expression" dxfId="411" priority="69">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:L21">
-    <cfRule type="expression" dxfId="236" priority="64">
+    <cfRule type="expression" dxfId="410" priority="64">
       <formula>$Q21 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="65">
+    <cfRule type="expression" dxfId="409" priority="65">
       <formula>$Q21 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="66">
+    <cfRule type="expression" dxfId="408" priority="66">
       <formula>$Q21 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:P17">
-    <cfRule type="expression" dxfId="233" priority="58">
+    <cfRule type="expression" dxfId="407" priority="58">
       <formula>$Q17 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="59">
+    <cfRule type="expression" dxfId="406" priority="59">
       <formula>$Q17 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="60">
+    <cfRule type="expression" dxfId="405" priority="60">
       <formula>$Q17 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:L17">
-    <cfRule type="expression" dxfId="230" priority="61">
+    <cfRule type="expression" dxfId="404" priority="61">
       <formula>$Q17 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="62">
+    <cfRule type="expression" dxfId="403" priority="62">
       <formula>$Q17 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="63">
+    <cfRule type="expression" dxfId="402" priority="63">
       <formula>$Q17 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:P31">
-    <cfRule type="expression" dxfId="227" priority="37">
+    <cfRule type="expression" dxfId="401" priority="37">
       <formula>$Q29 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="38">
+    <cfRule type="expression" dxfId="400" priority="38">
       <formula>$Q29 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="39">
+    <cfRule type="expression" dxfId="399" priority="39">
       <formula>$Q29 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:P32">
-    <cfRule type="expression" dxfId="224" priority="52">
+    <cfRule type="expression" dxfId="398" priority="52">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="53">
+    <cfRule type="expression" dxfId="397" priority="53">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="54">
+    <cfRule type="expression" dxfId="396" priority="54">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:P27 A29:L31">
-    <cfRule type="expression" dxfId="221" priority="49">
+    <cfRule type="expression" dxfId="395" priority="49">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="50">
+    <cfRule type="expression" dxfId="394" priority="50">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="51">
+    <cfRule type="expression" dxfId="393" priority="51">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L32">
-    <cfRule type="expression" dxfId="218" priority="46">
+    <cfRule type="expression" dxfId="392" priority="46">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="47">
+    <cfRule type="expression" dxfId="391" priority="47">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="48">
+    <cfRule type="expression" dxfId="390" priority="48">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:P28">
-    <cfRule type="expression" dxfId="215" priority="40">
+    <cfRule type="expression" dxfId="389" priority="40">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="41">
+    <cfRule type="expression" dxfId="388" priority="41">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="42">
+    <cfRule type="expression" dxfId="387" priority="42">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:L28">
-    <cfRule type="expression" dxfId="212" priority="43">
+    <cfRule type="expression" dxfId="386" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="44">
+    <cfRule type="expression" dxfId="385" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="45">
+    <cfRule type="expression" dxfId="384" priority="45">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40:P42">
-    <cfRule type="expression" dxfId="209" priority="1">
+    <cfRule type="expression" dxfId="383" priority="1">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="2">
+    <cfRule type="expression" dxfId="382" priority="2">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="3">
+    <cfRule type="expression" dxfId="381" priority="3">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:P43">
-    <cfRule type="expression" dxfId="206" priority="16">
+    <cfRule type="expression" dxfId="380" priority="16">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="17">
+    <cfRule type="expression" dxfId="379" priority="17">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="18">
+    <cfRule type="expression" dxfId="378" priority="18">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:P38 A40:L42">
-    <cfRule type="expression" dxfId="203" priority="13">
+    <cfRule type="expression" dxfId="377" priority="13">
       <formula>$Q38 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="14">
+    <cfRule type="expression" dxfId="376" priority="14">
       <formula>$Q38 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="15">
+    <cfRule type="expression" dxfId="375" priority="15">
       <formula>$Q38 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:L43">
-    <cfRule type="expression" dxfId="200" priority="10">
+    <cfRule type="expression" dxfId="374" priority="10">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="11">
+    <cfRule type="expression" dxfId="373" priority="11">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="12">
+    <cfRule type="expression" dxfId="372" priority="12">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39:P39">
-    <cfRule type="expression" dxfId="197" priority="4">
+    <cfRule type="expression" dxfId="371" priority="4">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="5">
+    <cfRule type="expression" dxfId="370" priority="5">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="6">
+    <cfRule type="expression" dxfId="369" priority="6">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:L39">
-    <cfRule type="expression" dxfId="194" priority="7">
+    <cfRule type="expression" dxfId="368" priority="7">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="8">
+    <cfRule type="expression" dxfId="367" priority="8">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="9">
+    <cfRule type="expression" dxfId="366" priority="9">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24747,222 +25972,222 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M16:P16">
-    <cfRule type="expression" dxfId="191" priority="121">
+    <cfRule type="expression" dxfId="365" priority="121">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="122">
+    <cfRule type="expression" dxfId="364" priority="122">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="123">
+    <cfRule type="expression" dxfId="363" priority="123">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="188" priority="118">
+    <cfRule type="expression" dxfId="362" priority="118">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="119">
+    <cfRule type="expression" dxfId="361" priority="119">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="120">
+    <cfRule type="expression" dxfId="360" priority="120">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:L16">
-    <cfRule type="expression" dxfId="185" priority="115">
+    <cfRule type="expression" dxfId="359" priority="115">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="116">
+    <cfRule type="expression" dxfId="358" priority="116">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="117">
+    <cfRule type="expression" dxfId="357" priority="117">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P15">
-    <cfRule type="expression" dxfId="182" priority="46">
+    <cfRule type="expression" dxfId="356" priority="46">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="47">
+    <cfRule type="expression" dxfId="355" priority="47">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="48">
+    <cfRule type="expression" dxfId="354" priority="48">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L15">
-    <cfRule type="expression" dxfId="179" priority="49">
+    <cfRule type="expression" dxfId="353" priority="49">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="50">
+    <cfRule type="expression" dxfId="352" priority="50">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="51">
+    <cfRule type="expression" dxfId="351" priority="51">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:P33">
-    <cfRule type="expression" dxfId="176" priority="43">
+    <cfRule type="expression" dxfId="350" priority="43">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="44">
+    <cfRule type="expression" dxfId="349" priority="44">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="45">
+    <cfRule type="expression" dxfId="348" priority="45">
       <formula>$Q33 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:P22">
-    <cfRule type="expression" dxfId="173" priority="40">
+    <cfRule type="expression" dxfId="347" priority="40">
       <formula>$Q22 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="41">
+    <cfRule type="expression" dxfId="346" priority="41">
       <formula>$Q22 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="42">
+    <cfRule type="expression" dxfId="345" priority="42">
       <formula>$Q22 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:L33">
-    <cfRule type="expression" dxfId="170" priority="37">
+    <cfRule type="expression" dxfId="344" priority="37">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="38">
+    <cfRule type="expression" dxfId="343" priority="38">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="39">
+    <cfRule type="expression" dxfId="342" priority="39">
       <formula>$Q33 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:P32">
-    <cfRule type="expression" dxfId="167" priority="31">
+    <cfRule type="expression" dxfId="341" priority="31">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="32">
+    <cfRule type="expression" dxfId="340" priority="32">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="33">
+    <cfRule type="expression" dxfId="339" priority="33">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:L32">
-    <cfRule type="expression" dxfId="164" priority="34">
+    <cfRule type="expression" dxfId="338" priority="34">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="35">
+    <cfRule type="expression" dxfId="337" priority="35">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="36">
+    <cfRule type="expression" dxfId="336" priority="36">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50:P50">
-    <cfRule type="expression" dxfId="161" priority="28">
+    <cfRule type="expression" dxfId="335" priority="28">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="29">
+    <cfRule type="expression" dxfId="334" priority="29">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="30">
+    <cfRule type="expression" dxfId="333" priority="30">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:P39">
-    <cfRule type="expression" dxfId="158" priority="25">
+    <cfRule type="expression" dxfId="332" priority="25">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="26">
+    <cfRule type="expression" dxfId="331" priority="26">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="27">
+    <cfRule type="expression" dxfId="330" priority="27">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:L50">
-    <cfRule type="expression" dxfId="155" priority="22">
+    <cfRule type="expression" dxfId="329" priority="22">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="23">
+    <cfRule type="expression" dxfId="328" priority="23">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="24">
+    <cfRule type="expression" dxfId="327" priority="24">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40:P49">
-    <cfRule type="expression" dxfId="152" priority="16">
+    <cfRule type="expression" dxfId="326" priority="16">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="17">
+    <cfRule type="expression" dxfId="325" priority="17">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="18">
+    <cfRule type="expression" dxfId="324" priority="18">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:L49">
-    <cfRule type="expression" dxfId="149" priority="19">
+    <cfRule type="expression" dxfId="323" priority="19">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="20">
+    <cfRule type="expression" dxfId="322" priority="20">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="21">
+    <cfRule type="expression" dxfId="321" priority="21">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:P67">
-    <cfRule type="expression" dxfId="146" priority="13">
+    <cfRule type="expression" dxfId="320" priority="13">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="14">
+    <cfRule type="expression" dxfId="319" priority="14">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="15">
+    <cfRule type="expression" dxfId="318" priority="15">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:P56">
-    <cfRule type="expression" dxfId="143" priority="10">
+    <cfRule type="expression" dxfId="317" priority="10">
       <formula>$Q56 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="11">
+    <cfRule type="expression" dxfId="316" priority="11">
       <formula>$Q56 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="12">
+    <cfRule type="expression" dxfId="315" priority="12">
       <formula>$Q56 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:L67">
-    <cfRule type="expression" dxfId="140" priority="7">
+    <cfRule type="expression" dxfId="314" priority="7">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="8">
+    <cfRule type="expression" dxfId="313" priority="8">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="9">
+    <cfRule type="expression" dxfId="312" priority="9">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57:P66">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="311" priority="1">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="2">
+    <cfRule type="expression" dxfId="310" priority="2">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="3">
+    <cfRule type="expression" dxfId="309" priority="3">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:L66">
-    <cfRule type="expression" dxfId="134" priority="4">
+    <cfRule type="expression" dxfId="308" priority="4">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="5">
+    <cfRule type="expression" dxfId="307" priority="5">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="6">
+    <cfRule type="expression" dxfId="306" priority="6">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24974,8 +26199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E150DB-D658-4DDE-B17D-F312B2D0E58E}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27293,365 +28518,365 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A36:P37 A4:P11 A17:P24">
-    <cfRule type="expression" dxfId="131" priority="196">
+    <cfRule type="expression" dxfId="305" priority="196">
       <formula>$Q4 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="197">
+    <cfRule type="expression" dxfId="304" priority="197">
       <formula>$Q4 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="198">
+    <cfRule type="expression" dxfId="303" priority="198">
       <formula>$Q4 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:P34">
-    <cfRule type="expression" dxfId="128" priority="208">
+    <cfRule type="expression" dxfId="302" priority="208">
       <formula>$Q34 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="209">
+    <cfRule type="expression" dxfId="301" priority="209">
       <formula>$Q34 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="210">
+    <cfRule type="expression" dxfId="300" priority="210">
       <formula>$Q34 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:P35">
-    <cfRule type="expression" dxfId="125" priority="199">
+    <cfRule type="expression" dxfId="299" priority="199">
       <formula>$Q35 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="200">
+    <cfRule type="expression" dxfId="298" priority="200">
       <formula>$Q35 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="201">
+    <cfRule type="expression" dxfId="297" priority="201">
       <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:L35">
-    <cfRule type="expression" dxfId="122" priority="202">
+    <cfRule type="expression" dxfId="296" priority="202">
       <formula>$Q35 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="203">
+    <cfRule type="expression" dxfId="295" priority="203">
       <formula>$Q35 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="204">
+    <cfRule type="expression" dxfId="294" priority="204">
       <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:P30">
-    <cfRule type="expression" dxfId="119" priority="139">
+    <cfRule type="expression" dxfId="293" priority="139">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="140">
+    <cfRule type="expression" dxfId="292" priority="140">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="141">
+    <cfRule type="expression" dxfId="291" priority="141">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:P31">
-    <cfRule type="expression" dxfId="116" priority="136">
+    <cfRule type="expression" dxfId="290" priority="136">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="137">
+    <cfRule type="expression" dxfId="289" priority="137">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="138">
+    <cfRule type="expression" dxfId="288" priority="138">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:P32">
-    <cfRule type="expression" dxfId="113" priority="133">
+    <cfRule type="expression" dxfId="287" priority="133">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="134">
+    <cfRule type="expression" dxfId="286" priority="134">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="135">
+    <cfRule type="expression" dxfId="285" priority="135">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:P33">
-    <cfRule type="expression" dxfId="110" priority="127">
+    <cfRule type="expression" dxfId="284" priority="127">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="128">
+    <cfRule type="expression" dxfId="283" priority="128">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="129">
+    <cfRule type="expression" dxfId="282" priority="129">
       <formula>$Q33 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:P38">
-    <cfRule type="expression" dxfId="107" priority="124">
+    <cfRule type="expression" dxfId="281" priority="124">
       <formula>$Q38 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="125">
+    <cfRule type="expression" dxfId="280" priority="125">
       <formula>$Q38 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="126">
+    <cfRule type="expression" dxfId="279" priority="126">
       <formula>$Q38 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:P51">
-    <cfRule type="expression" dxfId="104" priority="112">
+    <cfRule type="expression" dxfId="278" priority="112">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="113">
+    <cfRule type="expression" dxfId="277" priority="113">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="114">
+    <cfRule type="expression" dxfId="276" priority="114">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:P48">
-    <cfRule type="expression" dxfId="101" priority="121">
+    <cfRule type="expression" dxfId="275" priority="121">
       <formula>$Q48 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="122">
+    <cfRule type="expression" dxfId="274" priority="122">
       <formula>$Q48 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="123">
+    <cfRule type="expression" dxfId="273" priority="123">
       <formula>$Q48 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:P49">
-    <cfRule type="expression" dxfId="98" priority="115">
+    <cfRule type="expression" dxfId="272" priority="115">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="116">
+    <cfRule type="expression" dxfId="271" priority="116">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="117">
+    <cfRule type="expression" dxfId="270" priority="117">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:L49">
-    <cfRule type="expression" dxfId="95" priority="118">
+    <cfRule type="expression" dxfId="269" priority="118">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="119">
+    <cfRule type="expression" dxfId="268" priority="119">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="120">
+    <cfRule type="expression" dxfId="267" priority="120">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:P44">
-    <cfRule type="expression" dxfId="92" priority="109">
+    <cfRule type="expression" dxfId="266" priority="109">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="110">
+    <cfRule type="expression" dxfId="265" priority="110">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="111">
+    <cfRule type="expression" dxfId="264" priority="111">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:P45">
-    <cfRule type="expression" dxfId="89" priority="106">
+    <cfRule type="expression" dxfId="263" priority="106">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="107">
+    <cfRule type="expression" dxfId="262" priority="107">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="108">
+    <cfRule type="expression" dxfId="261" priority="108">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:P46">
-    <cfRule type="expression" dxfId="86" priority="103">
+    <cfRule type="expression" dxfId="260" priority="103">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="104">
+    <cfRule type="expression" dxfId="259" priority="104">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="105">
+    <cfRule type="expression" dxfId="258" priority="105">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:P47">
-    <cfRule type="expression" dxfId="83" priority="100">
+    <cfRule type="expression" dxfId="257" priority="100">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="101">
+    <cfRule type="expression" dxfId="256" priority="101">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="102">
+    <cfRule type="expression" dxfId="255" priority="102">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:P64">
-    <cfRule type="expression" dxfId="80" priority="85">
+    <cfRule type="expression" dxfId="254" priority="85">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="86">
+    <cfRule type="expression" dxfId="253" priority="86">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="87">
+    <cfRule type="expression" dxfId="252" priority="87">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:P61">
-    <cfRule type="expression" dxfId="77" priority="94">
+    <cfRule type="expression" dxfId="251" priority="94">
       <formula>$Q61 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="95">
+    <cfRule type="expression" dxfId="250" priority="95">
       <formula>$Q61 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="96">
+    <cfRule type="expression" dxfId="249" priority="96">
       <formula>$Q61 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P62">
-    <cfRule type="expression" dxfId="74" priority="88">
+    <cfRule type="expression" dxfId="248" priority="88">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="89">
+    <cfRule type="expression" dxfId="247" priority="89">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="90">
+    <cfRule type="expression" dxfId="246" priority="90">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:L62">
-    <cfRule type="expression" dxfId="71" priority="91">
+    <cfRule type="expression" dxfId="245" priority="91">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="92">
+    <cfRule type="expression" dxfId="244" priority="92">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="93">
+    <cfRule type="expression" dxfId="243" priority="93">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:P57">
-    <cfRule type="expression" dxfId="68" priority="82">
+    <cfRule type="expression" dxfId="242" priority="82">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="83">
+    <cfRule type="expression" dxfId="241" priority="83">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="84">
+    <cfRule type="expression" dxfId="240" priority="84">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:P58">
-    <cfRule type="expression" dxfId="65" priority="79">
+    <cfRule type="expression" dxfId="239" priority="79">
       <formula>$Q58 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="80">
+    <cfRule type="expression" dxfId="238" priority="80">
       <formula>$Q58 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="81">
+    <cfRule type="expression" dxfId="237" priority="81">
       <formula>$Q58 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:P59">
-    <cfRule type="expression" dxfId="62" priority="76">
+    <cfRule type="expression" dxfId="236" priority="76">
       <formula>$Q59 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="77">
+    <cfRule type="expression" dxfId="235" priority="77">
       <formula>$Q59 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="78">
+    <cfRule type="expression" dxfId="234" priority="78">
       <formula>$Q59 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:P60">
-    <cfRule type="expression" dxfId="59" priority="73">
+    <cfRule type="expression" dxfId="233" priority="73">
       <formula>$Q60 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="74">
+    <cfRule type="expression" dxfId="232" priority="74">
       <formula>$Q60 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="75">
+    <cfRule type="expression" dxfId="231" priority="75">
       <formula>$Q60 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:P77">
-    <cfRule type="expression" dxfId="56" priority="61">
+    <cfRule type="expression" dxfId="230" priority="61">
       <formula>$Q76 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="62">
+    <cfRule type="expression" dxfId="229" priority="62">
       <formula>$Q76 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="63">
+    <cfRule type="expression" dxfId="228" priority="63">
       <formula>$Q76 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:P74">
-    <cfRule type="expression" dxfId="53" priority="70">
+    <cfRule type="expression" dxfId="227" priority="70">
       <formula>$Q74 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="71">
+    <cfRule type="expression" dxfId="226" priority="71">
       <formula>$Q74 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="72">
+    <cfRule type="expression" dxfId="225" priority="72">
       <formula>$Q74 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75:P75">
-    <cfRule type="expression" dxfId="50" priority="64">
+    <cfRule type="expression" dxfId="224" priority="64">
       <formula>$Q75 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="65">
+    <cfRule type="expression" dxfId="223" priority="65">
       <formula>$Q75 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="66">
+    <cfRule type="expression" dxfId="222" priority="66">
       <formula>$Q75 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:L75">
-    <cfRule type="expression" dxfId="47" priority="67">
+    <cfRule type="expression" dxfId="221" priority="67">
       <formula>$Q75 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="68">
+    <cfRule type="expression" dxfId="220" priority="68">
       <formula>$Q75 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="69">
+    <cfRule type="expression" dxfId="219" priority="69">
       <formula>$Q75 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:P70">
-    <cfRule type="expression" dxfId="44" priority="58">
+    <cfRule type="expression" dxfId="218" priority="58">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="59">
+    <cfRule type="expression" dxfId="217" priority="59">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="60">
+    <cfRule type="expression" dxfId="216" priority="60">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:P71">
-    <cfRule type="expression" dxfId="41" priority="55">
+    <cfRule type="expression" dxfId="215" priority="55">
       <formula>$Q71 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="56">
+    <cfRule type="expression" dxfId="214" priority="56">
       <formula>$Q71 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="57">
+    <cfRule type="expression" dxfId="213" priority="57">
       <formula>$Q71 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:P72">
-    <cfRule type="expression" dxfId="38" priority="52">
+    <cfRule type="expression" dxfId="212" priority="52">
       <formula>$Q72 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="53">
+    <cfRule type="expression" dxfId="211" priority="53">
       <formula>$Q72 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="54">
+    <cfRule type="expression" dxfId="210" priority="54">
       <formula>$Q72 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:P73">
-    <cfRule type="expression" dxfId="35" priority="49">
+    <cfRule type="expression" dxfId="209" priority="49">
       <formula>$Q73 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="50">
+    <cfRule type="expression" dxfId="208" priority="50">
       <formula>$Q73 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="51">
+    <cfRule type="expression" dxfId="207" priority="51">
       <formula>$Q73 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27660,6 +28885,1299 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3343D979-C34D-40DE-9449-D06BF864DAD3}">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="13" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>43610</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:N10" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O10" si="1">M5 - N5</f>
+        <v>-2</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P10" si="2" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q5">
+        <f>IF(P5 &lt; 1, 3, IF(P5 &gt;= P$10, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="Q6">
+        <f>IF(P6 &lt; 1, 3, IF(P6 &gt;= P$10, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q7">
+        <f>IF(P7 &lt; 1, 3, IF(P7 &gt;= P$10, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q9">
+        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= P$10, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7241379310344827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>43610</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:N20" si="3" xml:space="preserve"> B15 + D15 + F15 + H15 + J15</f>
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" ref="O15:O20" si="4">M15 - N15</f>
+        <v>-1</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" ref="P15:P20" si="5" xml:space="preserve"> IF(M15+N15=0, 0, IF(N15=0, "MAX", M15/N15))</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q15">
+        <f>IF(P15 &lt; 1, 3, IF(P15 &gt;= P$20, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4615384615384615</v>
+      </c>
+      <c r="Q16">
+        <f>IF(P16 &lt; 1, 3, IF(P16 &gt;= P$20, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q17">
+        <f>IF(P17 &lt; 1, 3, IF(P17 &gt;= P$20, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>IF(P18 &lt; 1, 3, IF(P18 &gt;= P$20, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Q19">
+        <f>IF(P19 &lt; 1, 3, IF(P19 &gt;= P$20, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>43610</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:N30" si="6" xml:space="preserve"> B25 + D25 + F25 + H25 + J25</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" ref="O25:O30" si="7">M25 - N25</f>
+        <v>-6</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" ref="P25:P30" si="8" xml:space="preserve"> IF(M25+N25=0, 0, IF(N25=0, "MAX", M25/N25))</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>IF(P25 &lt; 1, 3, IF(P25 &gt;= P$30, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="Q26">
+        <f>IF(P26 &lt; 1, 3, IF(P26 &gt;= P$30, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f>IF(P27 &lt; 1, 3, IF(P27 &gt;= P$30, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>IF(P28 &lt; 1, 3, IF(P28 &gt;= P$30, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f>IF(P29 &lt; 1, 3, IF(P29 &gt;= P$30, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4">
+        <v>25</v>
+      </c>
+      <c r="F30" s="4">
+        <v>15</v>
+      </c>
+      <c r="G30" s="4">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A28:A29 H28:P29">
+    <cfRule type="expression" dxfId="206" priority="52">
+      <formula>$Q28 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="53">
+      <formula>$Q28 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="54">
+      <formula>$Q28 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="expression" dxfId="203" priority="37">
+      <formula>$Q18 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="38">
+      <formula>$Q18 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="39">
+      <formula>$Q18 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="expression" dxfId="200" priority="31">
+      <formula>$Q16 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="32">
+      <formula>$Q16 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="33">
+      <formula>$Q16 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="expression" dxfId="197" priority="34">
+      <formula>$Q15 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="35">
+      <formula>$Q15 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="36">
+      <formula>$Q15 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25 H25:P25">
+    <cfRule type="expression" dxfId="194" priority="49">
+      <formula>$Q25 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="50">
+      <formula>$Q25 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="51">
+      <formula>$Q25 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26 H26:P26">
+    <cfRule type="expression" dxfId="191" priority="46">
+      <formula>$Q26 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="47">
+      <formula>$Q26 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="48">
+      <formula>$Q26 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27 H27:P27">
+    <cfRule type="expression" dxfId="188" priority="43">
+      <formula>$Q27 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="44">
+      <formula>$Q27 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="45">
+      <formula>$Q27 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="185" priority="16">
+      <formula>$Q7 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="17">
+      <formula>$Q7 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="18">
+      <formula>$Q7 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:P9">
+    <cfRule type="expression" dxfId="152" priority="109">
+      <formula>$Q9 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="110">
+      <formula>$Q9 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="111">
+      <formula>$Q9 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:P5">
+    <cfRule type="expression" dxfId="143" priority="97">
+      <formula>$Q5 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="98">
+      <formula>$Q5 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="99">
+      <formula>$Q5 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:P6">
+    <cfRule type="expression" dxfId="140" priority="94">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="95">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="96">
+      <formula>$Q6 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:P7">
+    <cfRule type="expression" dxfId="137" priority="91">
+      <formula>$Q7 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="92">
+      <formula>$Q7 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="93">
+      <formula>$Q7 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:P8">
+    <cfRule type="expression" dxfId="134" priority="88">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="89">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="90">
+      <formula>$Q8 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:P19">
+    <cfRule type="expression" dxfId="128" priority="85">
+      <formula>$Q19 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="86">
+      <formula>$Q19 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="87">
+      <formula>$Q19 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:P15">
+    <cfRule type="expression" dxfId="119" priority="73">
+      <formula>$Q15 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="74">
+      <formula>$Q15 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="75">
+      <formula>$Q15 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:P16">
+    <cfRule type="expression" dxfId="116" priority="70">
+      <formula>$Q16 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="71">
+      <formula>$Q16 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="72">
+      <formula>$Q16 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:P17">
+    <cfRule type="expression" dxfId="113" priority="67">
+      <formula>$Q17 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="68">
+      <formula>$Q17 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="69">
+      <formula>$Q17 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:P18">
+    <cfRule type="expression" dxfId="110" priority="64">
+      <formula>$Q18 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="65">
+      <formula>$Q18 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="66">
+      <formula>$Q18 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="107" priority="28">
+      <formula>$Q17 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="29">
+      <formula>$Q17 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="30">
+      <formula>$Q17 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A9">
+    <cfRule type="expression" dxfId="95" priority="25">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="26">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="27">
+      <formula>$Q8 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="expression" dxfId="92" priority="22">
+      <formula>$Q5 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="23">
+      <formula>$Q5 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="24">
+      <formula>$Q5 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="89" priority="19">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="20">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="21">
+      <formula>$Q6 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:G29">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>$Q29 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$Q29 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>$Q29 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:G25">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>$Q25 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$Q25 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>$Q25 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:G26">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$Q26 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$Q26 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$Q26 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:G27">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$Q27 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$Q27 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$Q27 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:G28">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$Q28 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q28 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$Q28 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BDAFE5-3AEF-49E8-9ED9-A9BAA79160EC}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
@@ -29167,123 +31685,123 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="32" priority="22">
+    <cfRule type="expression" dxfId="47" priority="22">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="46" priority="23">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="45" priority="24">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:P24 A25:L29">
-    <cfRule type="expression" dxfId="29" priority="43">
+    <cfRule type="expression" dxfId="44" priority="43">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="44">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="45">
+    <cfRule type="expression" dxfId="42" priority="45">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="26" priority="37">
+    <cfRule type="expression" dxfId="41" priority="37">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="39" priority="39">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P29">
-    <cfRule type="expression" dxfId="23" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="36">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:L30">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="32">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="33">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:P30">
-    <cfRule type="expression" dxfId="17" priority="28">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="29">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:P15">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9 A10:L13 B14:L14">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:L15">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="23" priority="16">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="21" priority="18">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P14">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_work/Statistik15AR.xlsx
+++ b/_work/Statistik15AR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2748E308-BE3F-4695-B7E0-065567D69887}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC93D6D3-A911-4C64-9688-94316FDB14C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="359">
   <si>
     <t>Lea</t>
   </si>
@@ -1099,6 +1099,9 @@
   </si>
   <si>
     <t>Brückl hotvolleys - Seekirchen</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Eisenerz/T</t>
   </si>
 </sst>
 </file>
@@ -1211,91 +1214,7 @@
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="849">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="837">
     <dxf>
       <fill>
         <patternFill>
@@ -10212,200 +10131,200 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M46:P47 A40:P44">
-    <cfRule type="expression" dxfId="848" priority="91">
+    <cfRule type="expression" dxfId="836" priority="91">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="847" priority="92">
+    <cfRule type="expression" dxfId="835" priority="92">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="93">
+    <cfRule type="expression" dxfId="834" priority="93">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L47">
-    <cfRule type="expression" dxfId="845" priority="85">
+    <cfRule type="expression" dxfId="833" priority="85">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="86">
+    <cfRule type="expression" dxfId="832" priority="86">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="843" priority="87">
+    <cfRule type="expression" dxfId="831" priority="87">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="842" priority="79">
+    <cfRule type="expression" dxfId="830" priority="79">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="841" priority="80">
+    <cfRule type="expression" dxfId="829" priority="80">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="81">
+    <cfRule type="expression" dxfId="828" priority="81">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45">
-    <cfRule type="expression" dxfId="839" priority="76">
+    <cfRule type="expression" dxfId="827" priority="76">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="77">
+    <cfRule type="expression" dxfId="826" priority="77">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="837" priority="78">
+    <cfRule type="expression" dxfId="825" priority="78">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:P33 A23:P25 A29:P30">
-    <cfRule type="expression" dxfId="836" priority="61">
+    <cfRule type="expression" dxfId="824" priority="61">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="835" priority="62">
+    <cfRule type="expression" dxfId="823" priority="62">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="63">
+    <cfRule type="expression" dxfId="822" priority="63">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L33">
-    <cfRule type="expression" dxfId="833" priority="58">
+    <cfRule type="expression" dxfId="821" priority="58">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="59">
+    <cfRule type="expression" dxfId="820" priority="59">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="831" priority="60">
+    <cfRule type="expression" dxfId="819" priority="60">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="830" priority="55">
+    <cfRule type="expression" dxfId="818" priority="55">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="829" priority="56">
+    <cfRule type="expression" dxfId="817" priority="56">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="57">
+    <cfRule type="expression" dxfId="816" priority="57">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="827" priority="52">
+    <cfRule type="expression" dxfId="815" priority="52">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="53">
+    <cfRule type="expression" dxfId="814" priority="53">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="825" priority="54">
+    <cfRule type="expression" dxfId="813" priority="54">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:P26">
-    <cfRule type="expression" dxfId="824" priority="49">
+    <cfRule type="expression" dxfId="812" priority="49">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="823" priority="50">
+    <cfRule type="expression" dxfId="811" priority="50">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="51">
+    <cfRule type="expression" dxfId="810" priority="51">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:P27">
-    <cfRule type="expression" dxfId="821" priority="46">
+    <cfRule type="expression" dxfId="809" priority="46">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="47">
+    <cfRule type="expression" dxfId="808" priority="47">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="819" priority="48">
+    <cfRule type="expression" dxfId="807" priority="48">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:P28">
-    <cfRule type="expression" dxfId="818" priority="43">
+    <cfRule type="expression" dxfId="806" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="817" priority="44">
+    <cfRule type="expression" dxfId="805" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="45">
+    <cfRule type="expression" dxfId="804" priority="45">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P15 A5:P7 A11:P12">
-    <cfRule type="expression" dxfId="815" priority="19">
+    <cfRule type="expression" dxfId="803" priority="19">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="20">
+    <cfRule type="expression" dxfId="802" priority="20">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="813" priority="21">
+    <cfRule type="expression" dxfId="801" priority="21">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L15">
-    <cfRule type="expression" dxfId="812" priority="16">
+    <cfRule type="expression" dxfId="800" priority="16">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="17">
+    <cfRule type="expression" dxfId="799" priority="17">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="18">
+    <cfRule type="expression" dxfId="798" priority="18">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="809" priority="13">
+    <cfRule type="expression" dxfId="797" priority="13">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="14">
+    <cfRule type="expression" dxfId="796" priority="14">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="807" priority="15">
+    <cfRule type="expression" dxfId="795" priority="15">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="806" priority="10">
+    <cfRule type="expression" dxfId="794" priority="10">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="11">
+    <cfRule type="expression" dxfId="793" priority="11">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="12">
+    <cfRule type="expression" dxfId="792" priority="12">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:P8">
-    <cfRule type="expression" dxfId="803" priority="7">
+    <cfRule type="expression" dxfId="791" priority="7">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="8">
+    <cfRule type="expression" dxfId="790" priority="8">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="9">
+    <cfRule type="expression" dxfId="789" priority="9">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9">
-    <cfRule type="expression" dxfId="800" priority="4">
+    <cfRule type="expression" dxfId="788" priority="4">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="799" priority="5">
+    <cfRule type="expression" dxfId="787" priority="5">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="6">
+    <cfRule type="expression" dxfId="786" priority="6">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:P10">
-    <cfRule type="expression" dxfId="797" priority="1">
+    <cfRule type="expression" dxfId="785" priority="1">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="2">
+    <cfRule type="expression" dxfId="784" priority="2">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="795" priority="3">
+    <cfRule type="expression" dxfId="783" priority="3">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15239,695 +15158,695 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A58:P61">
-    <cfRule type="expression" dxfId="794" priority="196">
+    <cfRule type="expression" dxfId="782" priority="196">
       <formula>$Q58 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="197">
+    <cfRule type="expression" dxfId="781" priority="197">
       <formula>$Q58 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="198">
+    <cfRule type="expression" dxfId="780" priority="198">
       <formula>$Q58 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:P57">
-    <cfRule type="expression" dxfId="791" priority="217">
+    <cfRule type="expression" dxfId="779" priority="217">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="218">
+    <cfRule type="expression" dxfId="778" priority="218">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="789" priority="219">
+    <cfRule type="expression" dxfId="777" priority="219">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:L65">
-    <cfRule type="expression" dxfId="788" priority="214">
+    <cfRule type="expression" dxfId="776" priority="214">
       <formula>$Q65 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="215">
+    <cfRule type="expression" dxfId="775" priority="215">
       <formula>$Q65 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="216">
+    <cfRule type="expression" dxfId="774" priority="216">
       <formula>$Q65 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:L63">
-    <cfRule type="expression" dxfId="785" priority="211">
+    <cfRule type="expression" dxfId="773" priority="211">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="212">
+    <cfRule type="expression" dxfId="772" priority="212">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="783" priority="213">
+    <cfRule type="expression" dxfId="771" priority="213">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:P63 M65:P65">
-    <cfRule type="expression" dxfId="782" priority="208">
+    <cfRule type="expression" dxfId="770" priority="208">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="209">
+    <cfRule type="expression" dxfId="769" priority="209">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="210">
+    <cfRule type="expression" dxfId="768" priority="210">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:L62">
-    <cfRule type="expression" dxfId="779" priority="205">
+    <cfRule type="expression" dxfId="767" priority="205">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="206">
+    <cfRule type="expression" dxfId="766" priority="206">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="207">
+    <cfRule type="expression" dxfId="765" priority="207">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P62">
-    <cfRule type="expression" dxfId="776" priority="202">
+    <cfRule type="expression" dxfId="764" priority="202">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="775" priority="203">
+    <cfRule type="expression" dxfId="763" priority="203">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="204">
+    <cfRule type="expression" dxfId="762" priority="204">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:L64">
-    <cfRule type="expression" dxfId="773" priority="193">
+    <cfRule type="expression" dxfId="761" priority="193">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="194">
+    <cfRule type="expression" dxfId="760" priority="194">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="195">
+    <cfRule type="expression" dxfId="759" priority="195">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:P64">
-    <cfRule type="expression" dxfId="770" priority="190">
+    <cfRule type="expression" dxfId="758" priority="190">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="191">
+    <cfRule type="expression" dxfId="757" priority="191">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="192">
+    <cfRule type="expression" dxfId="756" priority="192">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:P81">
-    <cfRule type="expression" dxfId="767" priority="169">
+    <cfRule type="expression" dxfId="755" priority="169">
       <formula>$Q78 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="170">
+    <cfRule type="expression" dxfId="754" priority="170">
       <formula>$Q78 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="171">
+    <cfRule type="expression" dxfId="753" priority="171">
       <formula>$Q78 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:P77">
-    <cfRule type="expression" dxfId="764" priority="187">
+    <cfRule type="expression" dxfId="752" priority="187">
       <formula>$Q77 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="188">
+    <cfRule type="expression" dxfId="751" priority="188">
       <formula>$Q77 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="189">
+    <cfRule type="expression" dxfId="750" priority="189">
       <formula>$Q77 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:L85">
-    <cfRule type="expression" dxfId="761" priority="184">
+    <cfRule type="expression" dxfId="749" priority="184">
       <formula>$Q85 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="185">
+    <cfRule type="expression" dxfId="748" priority="185">
       <formula>$Q85 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="759" priority="186">
+    <cfRule type="expression" dxfId="747" priority="186">
       <formula>$Q85 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:L83">
-    <cfRule type="expression" dxfId="758" priority="181">
+    <cfRule type="expression" dxfId="746" priority="181">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="182">
+    <cfRule type="expression" dxfId="745" priority="182">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="183">
+    <cfRule type="expression" dxfId="744" priority="183">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P83 M85:P85">
-    <cfRule type="expression" dxfId="755" priority="178">
+    <cfRule type="expression" dxfId="743" priority="178">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="179">
+    <cfRule type="expression" dxfId="742" priority="179">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="180">
+    <cfRule type="expression" dxfId="741" priority="180">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:L82">
-    <cfRule type="expression" dxfId="752" priority="175">
+    <cfRule type="expression" dxfId="740" priority="175">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="751" priority="176">
+    <cfRule type="expression" dxfId="739" priority="176">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="177">
+    <cfRule type="expression" dxfId="738" priority="177">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:P82">
-    <cfRule type="expression" dxfId="749" priority="172">
+    <cfRule type="expression" dxfId="737" priority="172">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="173">
+    <cfRule type="expression" dxfId="736" priority="173">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="174">
+    <cfRule type="expression" dxfId="735" priority="174">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:L84">
-    <cfRule type="expression" dxfId="746" priority="166">
+    <cfRule type="expression" dxfId="734" priority="166">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="167">
+    <cfRule type="expression" dxfId="733" priority="167">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="168">
+    <cfRule type="expression" dxfId="732" priority="168">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84:P84">
-    <cfRule type="expression" dxfId="743" priority="163">
+    <cfRule type="expression" dxfId="731" priority="163">
       <formula>$Q84 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="164">
+    <cfRule type="expression" dxfId="730" priority="164">
       <formula>$Q84 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="165">
+    <cfRule type="expression" dxfId="729" priority="165">
       <formula>$Q84 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:P97">
-    <cfRule type="expression" dxfId="740" priority="142">
+    <cfRule type="expression" dxfId="728" priority="142">
       <formula>$Q94 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="143">
+    <cfRule type="expression" dxfId="727" priority="143">
       <formula>$Q94 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="144">
+    <cfRule type="expression" dxfId="726" priority="144">
       <formula>$Q94 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:P93">
-    <cfRule type="expression" dxfId="737" priority="160">
+    <cfRule type="expression" dxfId="725" priority="160">
       <formula>$Q93 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="161">
+    <cfRule type="expression" dxfId="724" priority="161">
       <formula>$Q93 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="735" priority="162">
+    <cfRule type="expression" dxfId="723" priority="162">
       <formula>$Q93 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:L101">
-    <cfRule type="expression" dxfId="734" priority="157">
+    <cfRule type="expression" dxfId="722" priority="157">
       <formula>$Q101 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="158">
+    <cfRule type="expression" dxfId="721" priority="158">
       <formula>$Q101 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="159">
+    <cfRule type="expression" dxfId="720" priority="159">
       <formula>$Q101 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:L99">
-    <cfRule type="expression" dxfId="731" priority="154">
+    <cfRule type="expression" dxfId="719" priority="154">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="155">
+    <cfRule type="expression" dxfId="718" priority="155">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="156">
+    <cfRule type="expression" dxfId="717" priority="156">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99:P99 M101:P101">
-    <cfRule type="expression" dxfId="728" priority="151">
+    <cfRule type="expression" dxfId="716" priority="151">
       <formula>$Q99 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="727" priority="152">
+    <cfRule type="expression" dxfId="715" priority="152">
       <formula>$Q99 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="153">
+    <cfRule type="expression" dxfId="714" priority="153">
       <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:L98">
-    <cfRule type="expression" dxfId="725" priority="148">
+    <cfRule type="expression" dxfId="713" priority="148">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="149">
+    <cfRule type="expression" dxfId="712" priority="149">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="150">
+    <cfRule type="expression" dxfId="711" priority="150">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98:P98">
-    <cfRule type="expression" dxfId="722" priority="145">
+    <cfRule type="expression" dxfId="710" priority="145">
       <formula>$Q98 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="146">
+    <cfRule type="expression" dxfId="709" priority="146">
       <formula>$Q98 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="147">
+    <cfRule type="expression" dxfId="708" priority="147">
       <formula>$Q98 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:L100">
-    <cfRule type="expression" dxfId="719" priority="139">
+    <cfRule type="expression" dxfId="707" priority="139">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="140">
+    <cfRule type="expression" dxfId="706" priority="140">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="141">
+    <cfRule type="expression" dxfId="705" priority="141">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100:P100">
-    <cfRule type="expression" dxfId="716" priority="136">
+    <cfRule type="expression" dxfId="704" priority="136">
       <formula>$Q100 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="137">
+    <cfRule type="expression" dxfId="703" priority="137">
       <formula>$Q100 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="138">
+    <cfRule type="expression" dxfId="702" priority="138">
       <formula>$Q100 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:P113">
-    <cfRule type="expression" dxfId="713" priority="115">
+    <cfRule type="expression" dxfId="701" priority="115">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="116">
+    <cfRule type="expression" dxfId="700" priority="116">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="117">
+    <cfRule type="expression" dxfId="699" priority="117">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:P109">
-    <cfRule type="expression" dxfId="710" priority="133">
+    <cfRule type="expression" dxfId="698" priority="133">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="134">
+    <cfRule type="expression" dxfId="697" priority="134">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="135">
+    <cfRule type="expression" dxfId="696" priority="135">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:L117">
-    <cfRule type="expression" dxfId="707" priority="130">
+    <cfRule type="expression" dxfId="695" priority="130">
       <formula>$Q117 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="131">
+    <cfRule type="expression" dxfId="694" priority="131">
       <formula>$Q117 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="132">
+    <cfRule type="expression" dxfId="693" priority="132">
       <formula>$Q117 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:L115">
-    <cfRule type="expression" dxfId="704" priority="127">
+    <cfRule type="expression" dxfId="692" priority="127">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="703" priority="128">
+    <cfRule type="expression" dxfId="691" priority="128">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="129">
+    <cfRule type="expression" dxfId="690" priority="129">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115:P115 M117:P117">
-    <cfRule type="expression" dxfId="701" priority="124">
+    <cfRule type="expression" dxfId="689" priority="124">
       <formula>$Q115 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="125">
+    <cfRule type="expression" dxfId="688" priority="125">
       <formula>$Q115 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="126">
+    <cfRule type="expression" dxfId="687" priority="126">
       <formula>$Q115 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:L114">
-    <cfRule type="expression" dxfId="698" priority="121">
+    <cfRule type="expression" dxfId="686" priority="121">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="122">
+    <cfRule type="expression" dxfId="685" priority="122">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="123">
+    <cfRule type="expression" dxfId="684" priority="123">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M114:P114">
-    <cfRule type="expression" dxfId="695" priority="118">
+    <cfRule type="expression" dxfId="683" priority="118">
       <formula>$Q114 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="119">
+    <cfRule type="expression" dxfId="682" priority="119">
       <formula>$Q114 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="120">
+    <cfRule type="expression" dxfId="681" priority="120">
       <formula>$Q114 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:L116">
-    <cfRule type="expression" dxfId="692" priority="112">
+    <cfRule type="expression" dxfId="680" priority="112">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="113">
+    <cfRule type="expression" dxfId="679" priority="113">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="114">
+    <cfRule type="expression" dxfId="678" priority="114">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M116:P116">
-    <cfRule type="expression" dxfId="689" priority="109">
+    <cfRule type="expression" dxfId="677" priority="109">
       <formula>$Q116 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="110">
+    <cfRule type="expression" dxfId="676" priority="110">
       <formula>$Q116 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="111">
+    <cfRule type="expression" dxfId="675" priority="111">
       <formula>$Q116 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:P9">
-    <cfRule type="expression" dxfId="686" priority="88">
+    <cfRule type="expression" dxfId="674" priority="88">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="89">
+    <cfRule type="expression" dxfId="673" priority="89">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="90">
+    <cfRule type="expression" dxfId="672" priority="90">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="683" priority="106">
+    <cfRule type="expression" dxfId="671" priority="106">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="107">
+    <cfRule type="expression" dxfId="670" priority="107">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="108">
+    <cfRule type="expression" dxfId="669" priority="108">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="680" priority="103">
+    <cfRule type="expression" dxfId="668" priority="103">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="104">
+    <cfRule type="expression" dxfId="667" priority="104">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="105">
+    <cfRule type="expression" dxfId="666" priority="105">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="677" priority="100">
+    <cfRule type="expression" dxfId="665" priority="100">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="101">
+    <cfRule type="expression" dxfId="664" priority="101">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="102">
+    <cfRule type="expression" dxfId="663" priority="102">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:P11 M13:P13">
-    <cfRule type="expression" dxfId="674" priority="97">
+    <cfRule type="expression" dxfId="662" priority="97">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="98">
+    <cfRule type="expression" dxfId="661" priority="98">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="99">
+    <cfRule type="expression" dxfId="660" priority="99">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="671" priority="94">
+    <cfRule type="expression" dxfId="659" priority="94">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="95">
+    <cfRule type="expression" dxfId="658" priority="95">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="96">
+    <cfRule type="expression" dxfId="657" priority="96">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="668" priority="91">
+    <cfRule type="expression" dxfId="656" priority="91">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="92">
+    <cfRule type="expression" dxfId="655" priority="92">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="93">
+    <cfRule type="expression" dxfId="654" priority="93">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="665" priority="85">
+    <cfRule type="expression" dxfId="653" priority="85">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="86">
+    <cfRule type="expression" dxfId="652" priority="86">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="87">
+    <cfRule type="expression" dxfId="651" priority="87">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="662" priority="82">
+    <cfRule type="expression" dxfId="650" priority="82">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="83">
+    <cfRule type="expression" dxfId="649" priority="83">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="84">
+    <cfRule type="expression" dxfId="648" priority="84">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:P43">
-    <cfRule type="expression" dxfId="659" priority="7">
+    <cfRule type="expression" dxfId="647" priority="7">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="8">
+    <cfRule type="expression" dxfId="646" priority="8">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="9">
+    <cfRule type="expression" dxfId="645" priority="9">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:P39">
-    <cfRule type="expression" dxfId="656" priority="25">
+    <cfRule type="expression" dxfId="644" priority="25">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="26">
+    <cfRule type="expression" dxfId="643" priority="26">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="27">
+    <cfRule type="expression" dxfId="642" priority="27">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:L47">
-    <cfRule type="expression" dxfId="653" priority="22">
+    <cfRule type="expression" dxfId="641" priority="22">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="23">
+    <cfRule type="expression" dxfId="640" priority="23">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="24">
+    <cfRule type="expression" dxfId="639" priority="24">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:L45">
-    <cfRule type="expression" dxfId="650" priority="19">
+    <cfRule type="expression" dxfId="638" priority="19">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="20">
+    <cfRule type="expression" dxfId="637" priority="20">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="21">
+    <cfRule type="expression" dxfId="636" priority="21">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:P45 M47:P47">
-    <cfRule type="expression" dxfId="647" priority="16">
+    <cfRule type="expression" dxfId="635" priority="16">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="17">
+    <cfRule type="expression" dxfId="634" priority="17">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="18">
+    <cfRule type="expression" dxfId="633" priority="18">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:L44">
-    <cfRule type="expression" dxfId="644" priority="13">
+    <cfRule type="expression" dxfId="632" priority="13">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="14">
+    <cfRule type="expression" dxfId="631" priority="14">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="15">
+    <cfRule type="expression" dxfId="630" priority="15">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P44">
-    <cfRule type="expression" dxfId="641" priority="10">
+    <cfRule type="expression" dxfId="629" priority="10">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="11">
+    <cfRule type="expression" dxfId="628" priority="11">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="12">
+    <cfRule type="expression" dxfId="627" priority="12">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:L46">
-    <cfRule type="expression" dxfId="638" priority="4">
+    <cfRule type="expression" dxfId="626" priority="4">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="5">
+    <cfRule type="expression" dxfId="625" priority="5">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="6">
+    <cfRule type="expression" dxfId="624" priority="6">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:P46">
-    <cfRule type="expression" dxfId="635" priority="1">
+    <cfRule type="expression" dxfId="623" priority="1">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="2">
+    <cfRule type="expression" dxfId="622" priority="2">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="3">
+    <cfRule type="expression" dxfId="621" priority="3">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:P23">
-    <cfRule type="expression" dxfId="632" priority="34">
+    <cfRule type="expression" dxfId="620" priority="34">
       <formula>$Q20 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="35">
+    <cfRule type="expression" dxfId="619" priority="35">
       <formula>$Q20 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="36">
+    <cfRule type="expression" dxfId="618" priority="36">
       <formula>$Q20 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:P19">
-    <cfRule type="expression" dxfId="629" priority="52">
+    <cfRule type="expression" dxfId="617" priority="52">
       <formula>$Q19 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="53">
+    <cfRule type="expression" dxfId="616" priority="53">
       <formula>$Q19 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="54">
+    <cfRule type="expression" dxfId="615" priority="54">
       <formula>$Q19 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="626" priority="49">
+    <cfRule type="expression" dxfId="614" priority="49">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="50">
+    <cfRule type="expression" dxfId="613" priority="50">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="51">
+    <cfRule type="expression" dxfId="612" priority="51">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:L25">
-    <cfRule type="expression" dxfId="623" priority="46">
+    <cfRule type="expression" dxfId="611" priority="46">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="47">
+    <cfRule type="expression" dxfId="610" priority="47">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="48">
+    <cfRule type="expression" dxfId="609" priority="48">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P25 M27:P27">
-    <cfRule type="expression" dxfId="620" priority="43">
+    <cfRule type="expression" dxfId="608" priority="43">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="44">
+    <cfRule type="expression" dxfId="607" priority="44">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="45">
+    <cfRule type="expression" dxfId="606" priority="45">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:L24">
-    <cfRule type="expression" dxfId="617" priority="40">
+    <cfRule type="expression" dxfId="605" priority="40">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="41">
+    <cfRule type="expression" dxfId="604" priority="41">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="42">
+    <cfRule type="expression" dxfId="603" priority="42">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:P24">
-    <cfRule type="expression" dxfId="614" priority="37">
+    <cfRule type="expression" dxfId="602" priority="37">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="38">
+    <cfRule type="expression" dxfId="601" priority="38">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="39">
+    <cfRule type="expression" dxfId="600" priority="39">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:L26">
-    <cfRule type="expression" dxfId="611" priority="31">
+    <cfRule type="expression" dxfId="599" priority="31">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="32">
+    <cfRule type="expression" dxfId="598" priority="32">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="33">
+    <cfRule type="expression" dxfId="597" priority="33">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:P26">
-    <cfRule type="expression" dxfId="608" priority="28">
+    <cfRule type="expression" dxfId="596" priority="28">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="29">
+    <cfRule type="expression" dxfId="595" priority="29">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="30">
+    <cfRule type="expression" dxfId="594" priority="30">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21458,618 +21377,618 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A123:P123 A124:L128 M50:P50">
-    <cfRule type="expression" dxfId="605" priority="352">
+    <cfRule type="expression" dxfId="593" priority="352">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="353">
+    <cfRule type="expression" dxfId="592" priority="353">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="354">
+    <cfRule type="expression" dxfId="591" priority="354">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:L131">
-    <cfRule type="expression" dxfId="602" priority="229">
+    <cfRule type="expression" dxfId="590" priority="229">
       <formula>$Q131 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="230">
+    <cfRule type="expression" dxfId="589" priority="230">
       <formula>$Q131 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="231">
+    <cfRule type="expression" dxfId="588" priority="231">
       <formula>$Q131 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:L130">
-    <cfRule type="expression" dxfId="599" priority="226">
+    <cfRule type="expression" dxfId="587" priority="226">
       <formula>$Q130 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="227">
+    <cfRule type="expression" dxfId="586" priority="227">
       <formula>$Q130 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="228">
+    <cfRule type="expression" dxfId="585" priority="228">
       <formula>$Q130 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M124:P128 M130:P131">
-    <cfRule type="expression" dxfId="596" priority="220">
+    <cfRule type="expression" dxfId="584" priority="220">
       <formula>$Q124 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="221">
+    <cfRule type="expression" dxfId="583" priority="221">
       <formula>$Q124 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="222">
+    <cfRule type="expression" dxfId="582" priority="222">
       <formula>$Q124 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:L129">
-    <cfRule type="expression" dxfId="593" priority="202">
+    <cfRule type="expression" dxfId="581" priority="202">
       <formula>$Q129 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="203">
+    <cfRule type="expression" dxfId="580" priority="203">
       <formula>$Q129 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="204">
+    <cfRule type="expression" dxfId="579" priority="204">
       <formula>$Q129 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M129:P129">
-    <cfRule type="expression" dxfId="590" priority="199">
+    <cfRule type="expression" dxfId="578" priority="199">
       <formula>$Q129 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="200">
+    <cfRule type="expression" dxfId="577" priority="200">
       <formula>$Q129 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="201">
+    <cfRule type="expression" dxfId="576" priority="201">
       <formula>$Q129 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:L132">
-    <cfRule type="expression" dxfId="587" priority="196">
+    <cfRule type="expression" dxfId="575" priority="196">
       <formula>$Q132 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="197">
+    <cfRule type="expression" dxfId="574" priority="197">
       <formula>$Q132 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="198">
+    <cfRule type="expression" dxfId="573" priority="198">
       <formula>$Q132 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132:P132">
-    <cfRule type="expression" dxfId="584" priority="193">
+    <cfRule type="expression" dxfId="572" priority="193">
       <formula>$Q132 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="194">
+    <cfRule type="expression" dxfId="571" priority="194">
       <formula>$Q132 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="195">
+    <cfRule type="expression" dxfId="570" priority="195">
       <formula>$Q132 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:P102 A103:L107">
-    <cfRule type="expression" dxfId="581" priority="190">
+    <cfRule type="expression" dxfId="569" priority="190">
       <formula>$Q102 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="191">
+    <cfRule type="expression" dxfId="568" priority="191">
       <formula>$Q102 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="192">
+    <cfRule type="expression" dxfId="567" priority="192">
       <formula>$Q102 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:L110">
-    <cfRule type="expression" dxfId="578" priority="187">
+    <cfRule type="expression" dxfId="566" priority="187">
       <formula>$Q110 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="188">
+    <cfRule type="expression" dxfId="565" priority="188">
       <formula>$Q110 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="189">
+    <cfRule type="expression" dxfId="564" priority="189">
       <formula>$Q110 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:L109">
-    <cfRule type="expression" dxfId="575" priority="184">
+    <cfRule type="expression" dxfId="563" priority="184">
       <formula>$Q109 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="185">
+    <cfRule type="expression" dxfId="562" priority="185">
       <formula>$Q109 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="186">
+    <cfRule type="expression" dxfId="561" priority="186">
       <formula>$Q109 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103:P107 M109:P110">
-    <cfRule type="expression" dxfId="572" priority="181">
+    <cfRule type="expression" dxfId="560" priority="181">
       <formula>$Q103 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="182">
+    <cfRule type="expression" dxfId="559" priority="182">
       <formula>$Q103 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="183">
+    <cfRule type="expression" dxfId="558" priority="183">
       <formula>$Q103 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:L108">
-    <cfRule type="expression" dxfId="569" priority="178">
+    <cfRule type="expression" dxfId="557" priority="178">
       <formula>$Q108 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="179">
+    <cfRule type="expression" dxfId="556" priority="179">
       <formula>$Q108 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="180">
+    <cfRule type="expression" dxfId="555" priority="180">
       <formula>$Q108 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:P108">
-    <cfRule type="expression" dxfId="566" priority="175">
+    <cfRule type="expression" dxfId="554" priority="175">
       <formula>$Q108 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="176">
+    <cfRule type="expression" dxfId="553" priority="176">
       <formula>$Q108 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="177">
+    <cfRule type="expression" dxfId="552" priority="177">
       <formula>$Q108 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:L111">
-    <cfRule type="expression" dxfId="563" priority="172">
+    <cfRule type="expression" dxfId="551" priority="172">
       <formula>$Q111 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="173">
+    <cfRule type="expression" dxfId="550" priority="173">
       <formula>$Q111 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="174">
+    <cfRule type="expression" dxfId="549" priority="174">
       <formula>$Q111 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111:P111">
-    <cfRule type="expression" dxfId="560" priority="169">
+    <cfRule type="expression" dxfId="548" priority="169">
       <formula>$Q111 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="170">
+    <cfRule type="expression" dxfId="547" priority="170">
       <formula>$Q111 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="171">
+    <cfRule type="expression" dxfId="546" priority="171">
       <formula>$Q111 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:L112">
-    <cfRule type="expression" dxfId="557" priority="166">
+    <cfRule type="expression" dxfId="545" priority="166">
       <formula>$Q112 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="167">
+    <cfRule type="expression" dxfId="544" priority="167">
       <formula>$Q112 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="168">
+    <cfRule type="expression" dxfId="543" priority="168">
       <formula>$Q112 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:P112">
-    <cfRule type="expression" dxfId="554" priority="163">
+    <cfRule type="expression" dxfId="542" priority="163">
       <formula>$Q112 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="164">
+    <cfRule type="expression" dxfId="541" priority="164">
       <formula>$Q112 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="165">
+    <cfRule type="expression" dxfId="540" priority="165">
       <formula>$Q112 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:P82 A83:L87">
-    <cfRule type="expression" dxfId="551" priority="130">
+    <cfRule type="expression" dxfId="539" priority="130">
       <formula>$Q82 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="131">
+    <cfRule type="expression" dxfId="538" priority="131">
       <formula>$Q82 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="132">
+    <cfRule type="expression" dxfId="537" priority="132">
       <formula>$Q82 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:L90">
-    <cfRule type="expression" dxfId="548" priority="127">
+    <cfRule type="expression" dxfId="536" priority="127">
       <formula>$Q90 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="128">
+    <cfRule type="expression" dxfId="535" priority="128">
       <formula>$Q90 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="129">
+    <cfRule type="expression" dxfId="534" priority="129">
       <formula>$Q90 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:L89">
-    <cfRule type="expression" dxfId="545" priority="124">
+    <cfRule type="expression" dxfId="533" priority="124">
       <formula>$Q89 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="125">
+    <cfRule type="expression" dxfId="532" priority="125">
       <formula>$Q89 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="126">
+    <cfRule type="expression" dxfId="531" priority="126">
       <formula>$Q89 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:P87 M89:P90">
-    <cfRule type="expression" dxfId="542" priority="121">
+    <cfRule type="expression" dxfId="530" priority="121">
       <formula>$Q83 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="122">
+    <cfRule type="expression" dxfId="529" priority="122">
       <formula>$Q83 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="123">
+    <cfRule type="expression" dxfId="528" priority="123">
       <formula>$Q83 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:L88">
-    <cfRule type="expression" dxfId="539" priority="118">
+    <cfRule type="expression" dxfId="527" priority="118">
       <formula>$Q88 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="119">
+    <cfRule type="expression" dxfId="526" priority="119">
       <formula>$Q88 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="120">
+    <cfRule type="expression" dxfId="525" priority="120">
       <formula>$Q88 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M88:P88">
-    <cfRule type="expression" dxfId="536" priority="115">
+    <cfRule type="expression" dxfId="524" priority="115">
       <formula>$Q88 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="116">
+    <cfRule type="expression" dxfId="523" priority="116">
       <formula>$Q88 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="117">
+    <cfRule type="expression" dxfId="522" priority="117">
       <formula>$Q88 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:L91">
-    <cfRule type="expression" dxfId="533" priority="112">
+    <cfRule type="expression" dxfId="521" priority="112">
       <formula>$Q91 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="113">
+    <cfRule type="expression" dxfId="520" priority="113">
       <formula>$Q91 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="114">
+    <cfRule type="expression" dxfId="519" priority="114">
       <formula>$Q91 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:P91">
-    <cfRule type="expression" dxfId="530" priority="109">
+    <cfRule type="expression" dxfId="518" priority="109">
       <formula>$Q91 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="110">
+    <cfRule type="expression" dxfId="517" priority="110">
       <formula>$Q91 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="111">
+    <cfRule type="expression" dxfId="516" priority="111">
       <formula>$Q91 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:P61 A62:L66">
-    <cfRule type="expression" dxfId="527" priority="100">
+    <cfRule type="expression" dxfId="515" priority="100">
       <formula>$Q61 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="101">
+    <cfRule type="expression" dxfId="514" priority="101">
       <formula>$Q61 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="102">
+    <cfRule type="expression" dxfId="513" priority="102">
       <formula>$Q61 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:L69">
-    <cfRule type="expression" dxfId="524" priority="97">
+    <cfRule type="expression" dxfId="512" priority="97">
       <formula>$Q69 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="98">
+    <cfRule type="expression" dxfId="511" priority="98">
       <formula>$Q69 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="99">
+    <cfRule type="expression" dxfId="510" priority="99">
       <formula>$Q69 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:L68">
-    <cfRule type="expression" dxfId="521" priority="94">
+    <cfRule type="expression" dxfId="509" priority="94">
       <formula>$Q68 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="95">
+    <cfRule type="expression" dxfId="508" priority="95">
       <formula>$Q68 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="96">
+    <cfRule type="expression" dxfId="507" priority="96">
       <formula>$Q68 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P66 M68:P69">
-    <cfRule type="expression" dxfId="518" priority="91">
+    <cfRule type="expression" dxfId="506" priority="91">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="92">
+    <cfRule type="expression" dxfId="505" priority="92">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="93">
+    <cfRule type="expression" dxfId="504" priority="93">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:L67">
-    <cfRule type="expression" dxfId="515" priority="88">
+    <cfRule type="expression" dxfId="503" priority="88">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="89">
+    <cfRule type="expression" dxfId="502" priority="89">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="90">
+    <cfRule type="expression" dxfId="501" priority="90">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:P67">
-    <cfRule type="expression" dxfId="512" priority="85">
+    <cfRule type="expression" dxfId="500" priority="85">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="86">
+    <cfRule type="expression" dxfId="499" priority="86">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="87">
+    <cfRule type="expression" dxfId="498" priority="87">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:L70">
-    <cfRule type="expression" dxfId="509" priority="82">
+    <cfRule type="expression" dxfId="497" priority="82">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="83">
+    <cfRule type="expression" dxfId="496" priority="83">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="84">
+    <cfRule type="expression" dxfId="495" priority="84">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70:P70">
-    <cfRule type="expression" dxfId="506" priority="79">
+    <cfRule type="expression" dxfId="494" priority="79">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="80">
+    <cfRule type="expression" dxfId="493" priority="80">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="81">
+    <cfRule type="expression" dxfId="492" priority="81">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:P43 A44:L46 B47:L48">
-    <cfRule type="expression" dxfId="503" priority="76">
+    <cfRule type="expression" dxfId="491" priority="76">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="77">
+    <cfRule type="expression" dxfId="490" priority="77">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="78">
+    <cfRule type="expression" dxfId="489" priority="78">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:L50">
-    <cfRule type="expression" dxfId="500" priority="70">
+    <cfRule type="expression" dxfId="488" priority="70">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="71">
+    <cfRule type="expression" dxfId="487" priority="71">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="72">
+    <cfRule type="expression" dxfId="486" priority="72">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:P48">
-    <cfRule type="expression" dxfId="497" priority="67">
+    <cfRule type="expression" dxfId="485" priority="67">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="68">
+    <cfRule type="expression" dxfId="484" priority="68">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="69">
+    <cfRule type="expression" dxfId="483" priority="69">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:L49">
-    <cfRule type="expression" dxfId="494" priority="64">
+    <cfRule type="expression" dxfId="482" priority="64">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="65">
+    <cfRule type="expression" dxfId="481" priority="65">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="66">
+    <cfRule type="expression" dxfId="480" priority="66">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:P49">
-    <cfRule type="expression" dxfId="491" priority="61">
+    <cfRule type="expression" dxfId="479" priority="61">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="62">
+    <cfRule type="expression" dxfId="478" priority="62">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="63">
+    <cfRule type="expression" dxfId="477" priority="63">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="expression" dxfId="488" priority="52">
+    <cfRule type="expression" dxfId="476" priority="52">
       <formula>$Q48 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="53">
+    <cfRule type="expression" dxfId="475" priority="53">
       <formula>$Q48 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="54">
+    <cfRule type="expression" dxfId="474" priority="54">
       <formula>$Q48 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="485" priority="49">
+    <cfRule type="expression" dxfId="473" priority="49">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="50">
+    <cfRule type="expression" dxfId="472" priority="50">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="51">
+    <cfRule type="expression" dxfId="471" priority="51">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="482" priority="46">
+    <cfRule type="expression" dxfId="470" priority="46">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="47">
+    <cfRule type="expression" dxfId="469" priority="47">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="48">
+    <cfRule type="expression" dxfId="468" priority="48">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:P14">
-    <cfRule type="expression" dxfId="479" priority="43">
+    <cfRule type="expression" dxfId="467" priority="43">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="44">
+    <cfRule type="expression" dxfId="466" priority="44">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="45">
+    <cfRule type="expression" dxfId="465" priority="45">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A7:L9 B10:L11">
-    <cfRule type="expression" dxfId="476" priority="40">
+    <cfRule type="expression" dxfId="464" priority="40">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="41">
+    <cfRule type="expression" dxfId="463" priority="41">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="42">
+    <cfRule type="expression" dxfId="462" priority="42">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L14">
-    <cfRule type="expression" dxfId="473" priority="37">
+    <cfRule type="expression" dxfId="461" priority="37">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="38">
+    <cfRule type="expression" dxfId="460" priority="38">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="39">
+    <cfRule type="expression" dxfId="459" priority="39">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:P11">
-    <cfRule type="expression" dxfId="470" priority="34">
+    <cfRule type="expression" dxfId="458" priority="34">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="35">
+    <cfRule type="expression" dxfId="457" priority="35">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="36">
+    <cfRule type="expression" dxfId="456" priority="36">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L12">
-    <cfRule type="expression" dxfId="467" priority="31">
+    <cfRule type="expression" dxfId="455" priority="31">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="32">
+    <cfRule type="expression" dxfId="454" priority="32">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="33">
+    <cfRule type="expression" dxfId="453" priority="33">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="464" priority="28">
+    <cfRule type="expression" dxfId="452" priority="28">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="29">
+    <cfRule type="expression" dxfId="451" priority="29">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="30">
+    <cfRule type="expression" dxfId="450" priority="30">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="461" priority="22">
+    <cfRule type="expression" dxfId="449" priority="22">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="23">
+    <cfRule type="expression" dxfId="448" priority="23">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="24">
+    <cfRule type="expression" dxfId="447" priority="24">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P6">
-    <cfRule type="expression" dxfId="458" priority="13">
+    <cfRule type="expression" dxfId="446" priority="13">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="14">
+    <cfRule type="expression" dxfId="445" priority="14">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="15">
+    <cfRule type="expression" dxfId="444" priority="15">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="455" priority="19">
+    <cfRule type="expression" dxfId="443" priority="19">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="20">
+    <cfRule type="expression" dxfId="442" priority="20">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="21">
+    <cfRule type="expression" dxfId="441" priority="21">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="452" priority="16">
+    <cfRule type="expression" dxfId="440" priority="16">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="17">
+    <cfRule type="expression" dxfId="439" priority="17">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="18">
+    <cfRule type="expression" dxfId="438" priority="18">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="449" priority="10">
+    <cfRule type="expression" dxfId="437" priority="10">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="11">
+    <cfRule type="expression" dxfId="436" priority="11">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="12">
+    <cfRule type="expression" dxfId="435" priority="12">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13">
-    <cfRule type="expression" dxfId="446" priority="7">
+    <cfRule type="expression" dxfId="434" priority="7">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="8">
+    <cfRule type="expression" dxfId="433" priority="8">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="9">
+    <cfRule type="expression" dxfId="432" priority="9">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="443" priority="4">
+    <cfRule type="expression" dxfId="431" priority="4">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="5">
+    <cfRule type="expression" dxfId="430" priority="5">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="6">
+    <cfRule type="expression" dxfId="429" priority="6">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="440" priority="1">
+    <cfRule type="expression" dxfId="428" priority="1">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="2">
+    <cfRule type="expression" dxfId="427" priority="2">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="3">
+    <cfRule type="expression" dxfId="426" priority="3">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23530,266 +23449,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M7:P9">
-    <cfRule type="expression" dxfId="437" priority="73">
+    <cfRule type="expression" dxfId="425" priority="73">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="74">
+    <cfRule type="expression" dxfId="424" priority="74">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="75">
+    <cfRule type="expression" dxfId="423" priority="75">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P10">
-    <cfRule type="expression" dxfId="434" priority="112">
+    <cfRule type="expression" dxfId="422" priority="112">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="113">
+    <cfRule type="expression" dxfId="421" priority="113">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="114">
+    <cfRule type="expression" dxfId="420" priority="114">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5 A7:L9">
-    <cfRule type="expression" dxfId="431" priority="109">
+    <cfRule type="expression" dxfId="419" priority="109">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="110">
+    <cfRule type="expression" dxfId="418" priority="110">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="111">
+    <cfRule type="expression" dxfId="417" priority="111">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:L10">
-    <cfRule type="expression" dxfId="428" priority="106">
+    <cfRule type="expression" dxfId="416" priority="106">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="107">
+    <cfRule type="expression" dxfId="415" priority="107">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="108">
+    <cfRule type="expression" dxfId="414" priority="108">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P6">
-    <cfRule type="expression" dxfId="425" priority="85">
+    <cfRule type="expression" dxfId="413" priority="85">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="86">
+    <cfRule type="expression" dxfId="412" priority="86">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="87">
+    <cfRule type="expression" dxfId="411" priority="87">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="422" priority="88">
+    <cfRule type="expression" dxfId="410" priority="88">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="89">
+    <cfRule type="expression" dxfId="409" priority="89">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="90">
+    <cfRule type="expression" dxfId="408" priority="90">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:P20">
-    <cfRule type="expression" dxfId="419" priority="55">
+    <cfRule type="expression" dxfId="407" priority="55">
       <formula>$Q18 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="56">
+    <cfRule type="expression" dxfId="406" priority="56">
       <formula>$Q18 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="57">
+    <cfRule type="expression" dxfId="405" priority="57">
       <formula>$Q18 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:P21">
-    <cfRule type="expression" dxfId="416" priority="70">
+    <cfRule type="expression" dxfId="404" priority="70">
       <formula>$Q21 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="71">
+    <cfRule type="expression" dxfId="403" priority="71">
       <formula>$Q21 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="72">
+    <cfRule type="expression" dxfId="402" priority="72">
       <formula>$Q21 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:P16 A18:L20">
-    <cfRule type="expression" dxfId="413" priority="67">
+    <cfRule type="expression" dxfId="401" priority="67">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="68">
+    <cfRule type="expression" dxfId="400" priority="68">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="69">
+    <cfRule type="expression" dxfId="399" priority="69">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:L21">
-    <cfRule type="expression" dxfId="410" priority="64">
+    <cfRule type="expression" dxfId="398" priority="64">
       <formula>$Q21 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="65">
+    <cfRule type="expression" dxfId="397" priority="65">
       <formula>$Q21 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="66">
+    <cfRule type="expression" dxfId="396" priority="66">
       <formula>$Q21 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:P17">
-    <cfRule type="expression" dxfId="407" priority="58">
+    <cfRule type="expression" dxfId="395" priority="58">
       <formula>$Q17 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="59">
+    <cfRule type="expression" dxfId="394" priority="59">
       <formula>$Q17 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="60">
+    <cfRule type="expression" dxfId="393" priority="60">
       <formula>$Q17 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:L17">
-    <cfRule type="expression" dxfId="404" priority="61">
+    <cfRule type="expression" dxfId="392" priority="61">
       <formula>$Q17 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="62">
+    <cfRule type="expression" dxfId="391" priority="62">
       <formula>$Q17 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="63">
+    <cfRule type="expression" dxfId="390" priority="63">
       <formula>$Q17 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:P31">
-    <cfRule type="expression" dxfId="401" priority="37">
+    <cfRule type="expression" dxfId="389" priority="37">
       <formula>$Q29 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="38">
+    <cfRule type="expression" dxfId="388" priority="38">
       <formula>$Q29 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="39">
+    <cfRule type="expression" dxfId="387" priority="39">
       <formula>$Q29 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:P32">
-    <cfRule type="expression" dxfId="398" priority="52">
+    <cfRule type="expression" dxfId="386" priority="52">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="53">
+    <cfRule type="expression" dxfId="385" priority="53">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="54">
+    <cfRule type="expression" dxfId="384" priority="54">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:P27 A29:L31">
-    <cfRule type="expression" dxfId="395" priority="49">
+    <cfRule type="expression" dxfId="383" priority="49">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="50">
+    <cfRule type="expression" dxfId="382" priority="50">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="51">
+    <cfRule type="expression" dxfId="381" priority="51">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:L32">
-    <cfRule type="expression" dxfId="392" priority="46">
+    <cfRule type="expression" dxfId="380" priority="46">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="47">
+    <cfRule type="expression" dxfId="379" priority="47">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="48">
+    <cfRule type="expression" dxfId="378" priority="48">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:P28">
-    <cfRule type="expression" dxfId="389" priority="40">
+    <cfRule type="expression" dxfId="377" priority="40">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="41">
+    <cfRule type="expression" dxfId="376" priority="41">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="42">
+    <cfRule type="expression" dxfId="375" priority="42">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:L28">
-    <cfRule type="expression" dxfId="386" priority="43">
+    <cfRule type="expression" dxfId="374" priority="43">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="44">
+    <cfRule type="expression" dxfId="373" priority="44">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="45">
+    <cfRule type="expression" dxfId="372" priority="45">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40:P42">
-    <cfRule type="expression" dxfId="383" priority="1">
+    <cfRule type="expression" dxfId="371" priority="1">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="2">
+    <cfRule type="expression" dxfId="370" priority="2">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="3">
+    <cfRule type="expression" dxfId="369" priority="3">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:P43">
-    <cfRule type="expression" dxfId="380" priority="16">
+    <cfRule type="expression" dxfId="368" priority="16">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="17">
+    <cfRule type="expression" dxfId="367" priority="17">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="18">
+    <cfRule type="expression" dxfId="366" priority="18">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:P38 A40:L42">
-    <cfRule type="expression" dxfId="377" priority="13">
+    <cfRule type="expression" dxfId="365" priority="13">
       <formula>$Q38 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="14">
+    <cfRule type="expression" dxfId="364" priority="14">
       <formula>$Q38 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="15">
+    <cfRule type="expression" dxfId="363" priority="15">
       <formula>$Q38 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:L43">
-    <cfRule type="expression" dxfId="374" priority="10">
+    <cfRule type="expression" dxfId="362" priority="10">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="11">
+    <cfRule type="expression" dxfId="361" priority="11">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="12">
+    <cfRule type="expression" dxfId="360" priority="12">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39:P39">
-    <cfRule type="expression" dxfId="371" priority="4">
+    <cfRule type="expression" dxfId="359" priority="4">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="5">
+    <cfRule type="expression" dxfId="358" priority="5">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="6">
+    <cfRule type="expression" dxfId="357" priority="6">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:L39">
-    <cfRule type="expression" dxfId="368" priority="7">
+    <cfRule type="expression" dxfId="356" priority="7">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="8">
+    <cfRule type="expression" dxfId="355" priority="8">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="9">
+    <cfRule type="expression" dxfId="354" priority="9">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25972,222 +25891,222 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M16:P16">
-    <cfRule type="expression" dxfId="365" priority="121">
+    <cfRule type="expression" dxfId="353" priority="121">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="122">
+    <cfRule type="expression" dxfId="352" priority="122">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="123">
+    <cfRule type="expression" dxfId="351" priority="123">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="362" priority="118">
+    <cfRule type="expression" dxfId="350" priority="118">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="119">
+    <cfRule type="expression" dxfId="349" priority="119">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="120">
+    <cfRule type="expression" dxfId="348" priority="120">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:L16">
-    <cfRule type="expression" dxfId="359" priority="115">
+    <cfRule type="expression" dxfId="347" priority="115">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="116">
+    <cfRule type="expression" dxfId="346" priority="116">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="117">
+    <cfRule type="expression" dxfId="345" priority="117">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P15">
-    <cfRule type="expression" dxfId="356" priority="46">
+    <cfRule type="expression" dxfId="344" priority="46">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="47">
+    <cfRule type="expression" dxfId="343" priority="47">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="48">
+    <cfRule type="expression" dxfId="342" priority="48">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L15">
-    <cfRule type="expression" dxfId="353" priority="49">
+    <cfRule type="expression" dxfId="341" priority="49">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="50">
+    <cfRule type="expression" dxfId="340" priority="50">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="51">
+    <cfRule type="expression" dxfId="339" priority="51">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:P33">
-    <cfRule type="expression" dxfId="350" priority="43">
+    <cfRule type="expression" dxfId="338" priority="43">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="44">
+    <cfRule type="expression" dxfId="337" priority="44">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="45">
+    <cfRule type="expression" dxfId="336" priority="45">
       <formula>$Q33 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:P22">
-    <cfRule type="expression" dxfId="347" priority="40">
+    <cfRule type="expression" dxfId="335" priority="40">
       <formula>$Q22 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="41">
+    <cfRule type="expression" dxfId="334" priority="41">
       <formula>$Q22 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="42">
+    <cfRule type="expression" dxfId="333" priority="42">
       <formula>$Q22 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:L33">
-    <cfRule type="expression" dxfId="344" priority="37">
+    <cfRule type="expression" dxfId="332" priority="37">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="38">
+    <cfRule type="expression" dxfId="331" priority="38">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="39">
+    <cfRule type="expression" dxfId="330" priority="39">
       <formula>$Q33 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:P32">
-    <cfRule type="expression" dxfId="341" priority="31">
+    <cfRule type="expression" dxfId="329" priority="31">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="32">
+    <cfRule type="expression" dxfId="328" priority="32">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="33">
+    <cfRule type="expression" dxfId="327" priority="33">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:L32">
-    <cfRule type="expression" dxfId="338" priority="34">
+    <cfRule type="expression" dxfId="326" priority="34">
       <formula>$Q23 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="35">
+    <cfRule type="expression" dxfId="325" priority="35">
       <formula>$Q23 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="36">
+    <cfRule type="expression" dxfId="324" priority="36">
       <formula>$Q23 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50:P50">
-    <cfRule type="expression" dxfId="335" priority="28">
+    <cfRule type="expression" dxfId="323" priority="28">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="29">
+    <cfRule type="expression" dxfId="322" priority="29">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="30">
+    <cfRule type="expression" dxfId="321" priority="30">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:P39">
-    <cfRule type="expression" dxfId="332" priority="25">
+    <cfRule type="expression" dxfId="320" priority="25">
       <formula>$Q39 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="26">
+    <cfRule type="expression" dxfId="319" priority="26">
       <formula>$Q39 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="27">
+    <cfRule type="expression" dxfId="318" priority="27">
       <formula>$Q39 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:L50">
-    <cfRule type="expression" dxfId="329" priority="22">
+    <cfRule type="expression" dxfId="317" priority="22">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="23">
+    <cfRule type="expression" dxfId="316" priority="23">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="24">
+    <cfRule type="expression" dxfId="315" priority="24">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40:P49">
-    <cfRule type="expression" dxfId="326" priority="16">
+    <cfRule type="expression" dxfId="314" priority="16">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="17">
+    <cfRule type="expression" dxfId="313" priority="17">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="18">
+    <cfRule type="expression" dxfId="312" priority="18">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:L49">
-    <cfRule type="expression" dxfId="323" priority="19">
+    <cfRule type="expression" dxfId="311" priority="19">
       <formula>$Q40 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="20">
+    <cfRule type="expression" dxfId="310" priority="20">
       <formula>$Q40 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="21">
+    <cfRule type="expression" dxfId="309" priority="21">
       <formula>$Q40 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:P67">
-    <cfRule type="expression" dxfId="320" priority="13">
+    <cfRule type="expression" dxfId="308" priority="13">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="14">
+    <cfRule type="expression" dxfId="307" priority="14">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="15">
+    <cfRule type="expression" dxfId="306" priority="15">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:P56">
-    <cfRule type="expression" dxfId="317" priority="10">
+    <cfRule type="expression" dxfId="305" priority="10">
       <formula>$Q56 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="11">
+    <cfRule type="expression" dxfId="304" priority="11">
       <formula>$Q56 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="12">
+    <cfRule type="expression" dxfId="303" priority="12">
       <formula>$Q56 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:L67">
-    <cfRule type="expression" dxfId="314" priority="7">
+    <cfRule type="expression" dxfId="302" priority="7">
       <formula>$Q67 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="8">
+    <cfRule type="expression" dxfId="301" priority="8">
       <formula>$Q67 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="9">
+    <cfRule type="expression" dxfId="300" priority="9">
       <formula>$Q67 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57:P66">
-    <cfRule type="expression" dxfId="311" priority="1">
+    <cfRule type="expression" dxfId="299" priority="1">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="2">
+    <cfRule type="expression" dxfId="298" priority="2">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="3">
+    <cfRule type="expression" dxfId="297" priority="3">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:L66">
-    <cfRule type="expression" dxfId="308" priority="4">
+    <cfRule type="expression" dxfId="296" priority="4">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="5">
+    <cfRule type="expression" dxfId="295" priority="5">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="6">
+    <cfRule type="expression" dxfId="294" priority="6">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28518,365 +28437,365 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A36:P37 A4:P11 A17:P24">
-    <cfRule type="expression" dxfId="305" priority="196">
+    <cfRule type="expression" dxfId="293" priority="196">
       <formula>$Q4 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="197">
+    <cfRule type="expression" dxfId="292" priority="197">
       <formula>$Q4 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="198">
+    <cfRule type="expression" dxfId="291" priority="198">
       <formula>$Q4 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:P34">
-    <cfRule type="expression" dxfId="302" priority="208">
+    <cfRule type="expression" dxfId="290" priority="208">
       <formula>$Q34 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="209">
+    <cfRule type="expression" dxfId="289" priority="209">
       <formula>$Q34 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="210">
+    <cfRule type="expression" dxfId="288" priority="210">
       <formula>$Q34 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:P35">
-    <cfRule type="expression" dxfId="299" priority="199">
+    <cfRule type="expression" dxfId="287" priority="199">
       <formula>$Q35 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="200">
+    <cfRule type="expression" dxfId="286" priority="200">
       <formula>$Q35 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="201">
+    <cfRule type="expression" dxfId="285" priority="201">
       <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:L35">
-    <cfRule type="expression" dxfId="296" priority="202">
+    <cfRule type="expression" dxfId="284" priority="202">
       <formula>$Q35 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="203">
+    <cfRule type="expression" dxfId="283" priority="203">
       <formula>$Q35 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="204">
+    <cfRule type="expression" dxfId="282" priority="204">
       <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:P30">
-    <cfRule type="expression" dxfId="293" priority="139">
+    <cfRule type="expression" dxfId="281" priority="139">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="140">
+    <cfRule type="expression" dxfId="280" priority="140">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="141">
+    <cfRule type="expression" dxfId="279" priority="141">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:P31">
-    <cfRule type="expression" dxfId="290" priority="136">
+    <cfRule type="expression" dxfId="278" priority="136">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="137">
+    <cfRule type="expression" dxfId="277" priority="137">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="138">
+    <cfRule type="expression" dxfId="276" priority="138">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:P32">
-    <cfRule type="expression" dxfId="287" priority="133">
+    <cfRule type="expression" dxfId="275" priority="133">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="134">
+    <cfRule type="expression" dxfId="274" priority="134">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="135">
+    <cfRule type="expression" dxfId="273" priority="135">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:P33">
-    <cfRule type="expression" dxfId="284" priority="127">
+    <cfRule type="expression" dxfId="272" priority="127">
       <formula>$Q33 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="128">
+    <cfRule type="expression" dxfId="271" priority="128">
       <formula>$Q33 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="129">
+    <cfRule type="expression" dxfId="270" priority="129">
       <formula>$Q33 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:P38">
-    <cfRule type="expression" dxfId="281" priority="124">
+    <cfRule type="expression" dxfId="269" priority="124">
       <formula>$Q38 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="125">
+    <cfRule type="expression" dxfId="268" priority="125">
       <formula>$Q38 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="126">
+    <cfRule type="expression" dxfId="267" priority="126">
       <formula>$Q38 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:P51">
-    <cfRule type="expression" dxfId="278" priority="112">
+    <cfRule type="expression" dxfId="266" priority="112">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="113">
+    <cfRule type="expression" dxfId="265" priority="113">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="114">
+    <cfRule type="expression" dxfId="264" priority="114">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:P48">
-    <cfRule type="expression" dxfId="275" priority="121">
+    <cfRule type="expression" dxfId="263" priority="121">
       <formula>$Q48 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="122">
+    <cfRule type="expression" dxfId="262" priority="122">
       <formula>$Q48 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="123">
+    <cfRule type="expression" dxfId="261" priority="123">
       <formula>$Q48 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:P49">
-    <cfRule type="expression" dxfId="272" priority="115">
+    <cfRule type="expression" dxfId="260" priority="115">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="116">
+    <cfRule type="expression" dxfId="259" priority="116">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="117">
+    <cfRule type="expression" dxfId="258" priority="117">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:L49">
-    <cfRule type="expression" dxfId="269" priority="118">
+    <cfRule type="expression" dxfId="257" priority="118">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="119">
+    <cfRule type="expression" dxfId="256" priority="119">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="120">
+    <cfRule type="expression" dxfId="255" priority="120">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:P44">
-    <cfRule type="expression" dxfId="266" priority="109">
+    <cfRule type="expression" dxfId="254" priority="109">
       <formula>$Q44 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="110">
+    <cfRule type="expression" dxfId="253" priority="110">
       <formula>$Q44 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="111">
+    <cfRule type="expression" dxfId="252" priority="111">
       <formula>$Q44 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:P45">
-    <cfRule type="expression" dxfId="263" priority="106">
+    <cfRule type="expression" dxfId="251" priority="106">
       <formula>$Q45 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="107">
+    <cfRule type="expression" dxfId="250" priority="107">
       <formula>$Q45 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="108">
+    <cfRule type="expression" dxfId="249" priority="108">
       <formula>$Q45 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:P46">
-    <cfRule type="expression" dxfId="260" priority="103">
+    <cfRule type="expression" dxfId="248" priority="103">
       <formula>$Q46 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="104">
+    <cfRule type="expression" dxfId="247" priority="104">
       <formula>$Q46 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="105">
+    <cfRule type="expression" dxfId="246" priority="105">
       <formula>$Q46 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:P47">
-    <cfRule type="expression" dxfId="257" priority="100">
+    <cfRule type="expression" dxfId="245" priority="100">
       <formula>$Q47 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="101">
+    <cfRule type="expression" dxfId="244" priority="101">
       <formula>$Q47 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="102">
+    <cfRule type="expression" dxfId="243" priority="102">
       <formula>$Q47 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:P64">
-    <cfRule type="expression" dxfId="254" priority="85">
+    <cfRule type="expression" dxfId="242" priority="85">
       <formula>$Q63 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="86">
+    <cfRule type="expression" dxfId="241" priority="86">
       <formula>$Q63 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="87">
+    <cfRule type="expression" dxfId="240" priority="87">
       <formula>$Q63 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:P61">
-    <cfRule type="expression" dxfId="251" priority="94">
+    <cfRule type="expression" dxfId="239" priority="94">
       <formula>$Q61 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="95">
+    <cfRule type="expression" dxfId="238" priority="95">
       <formula>$Q61 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="96">
+    <cfRule type="expression" dxfId="237" priority="96">
       <formula>$Q61 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:P62">
-    <cfRule type="expression" dxfId="248" priority="88">
+    <cfRule type="expression" dxfId="236" priority="88">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="89">
+    <cfRule type="expression" dxfId="235" priority="89">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="90">
+    <cfRule type="expression" dxfId="234" priority="90">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:L62">
-    <cfRule type="expression" dxfId="245" priority="91">
+    <cfRule type="expression" dxfId="233" priority="91">
       <formula>$Q62 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="92">
+    <cfRule type="expression" dxfId="232" priority="92">
       <formula>$Q62 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="93">
+    <cfRule type="expression" dxfId="231" priority="93">
       <formula>$Q62 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:P57">
-    <cfRule type="expression" dxfId="242" priority="82">
+    <cfRule type="expression" dxfId="230" priority="82">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="83">
+    <cfRule type="expression" dxfId="229" priority="83">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="84">
+    <cfRule type="expression" dxfId="228" priority="84">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:P58">
-    <cfRule type="expression" dxfId="239" priority="79">
+    <cfRule type="expression" dxfId="227" priority="79">
       <formula>$Q58 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="80">
+    <cfRule type="expression" dxfId="226" priority="80">
       <formula>$Q58 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="81">
+    <cfRule type="expression" dxfId="225" priority="81">
       <formula>$Q58 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:P59">
-    <cfRule type="expression" dxfId="236" priority="76">
+    <cfRule type="expression" dxfId="224" priority="76">
       <formula>$Q59 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="77">
+    <cfRule type="expression" dxfId="223" priority="77">
       <formula>$Q59 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="78">
+    <cfRule type="expression" dxfId="222" priority="78">
       <formula>$Q59 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:P60">
-    <cfRule type="expression" dxfId="233" priority="73">
+    <cfRule type="expression" dxfId="221" priority="73">
       <formula>$Q60 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="74">
+    <cfRule type="expression" dxfId="220" priority="74">
       <formula>$Q60 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="75">
+    <cfRule type="expression" dxfId="219" priority="75">
       <formula>$Q60 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:P77">
-    <cfRule type="expression" dxfId="230" priority="61">
+    <cfRule type="expression" dxfId="218" priority="61">
       <formula>$Q76 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="62">
+    <cfRule type="expression" dxfId="217" priority="62">
       <formula>$Q76 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="63">
+    <cfRule type="expression" dxfId="216" priority="63">
       <formula>$Q76 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:P74">
-    <cfRule type="expression" dxfId="227" priority="70">
+    <cfRule type="expression" dxfId="215" priority="70">
       <formula>$Q74 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="71">
+    <cfRule type="expression" dxfId="214" priority="71">
       <formula>$Q74 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="72">
+    <cfRule type="expression" dxfId="213" priority="72">
       <formula>$Q74 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75:P75">
-    <cfRule type="expression" dxfId="224" priority="64">
+    <cfRule type="expression" dxfId="212" priority="64">
       <formula>$Q75 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="65">
+    <cfRule type="expression" dxfId="211" priority="65">
       <formula>$Q75 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="66">
+    <cfRule type="expression" dxfId="210" priority="66">
       <formula>$Q75 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:L75">
-    <cfRule type="expression" dxfId="221" priority="67">
+    <cfRule type="expression" dxfId="209" priority="67">
       <formula>$Q75 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="68">
+    <cfRule type="expression" dxfId="208" priority="68">
       <formula>$Q75 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="69">
+    <cfRule type="expression" dxfId="207" priority="69">
       <formula>$Q75 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:P70">
-    <cfRule type="expression" dxfId="218" priority="58">
+    <cfRule type="expression" dxfId="206" priority="58">
       <formula>$Q70 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="59">
+    <cfRule type="expression" dxfId="205" priority="59">
       <formula>$Q70 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="60">
+    <cfRule type="expression" dxfId="204" priority="60">
       <formula>$Q70 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:P71">
-    <cfRule type="expression" dxfId="215" priority="55">
+    <cfRule type="expression" dxfId="203" priority="55">
       <formula>$Q71 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="56">
+    <cfRule type="expression" dxfId="202" priority="56">
       <formula>$Q71 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="57">
+    <cfRule type="expression" dxfId="201" priority="57">
       <formula>$Q71 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:P72">
-    <cfRule type="expression" dxfId="212" priority="52">
+    <cfRule type="expression" dxfId="200" priority="52">
       <formula>$Q72 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="53">
+    <cfRule type="expression" dxfId="199" priority="53">
       <formula>$Q72 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="54">
+    <cfRule type="expression" dxfId="198" priority="54">
       <formula>$Q72 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:P73">
-    <cfRule type="expression" dxfId="209" priority="49">
+    <cfRule type="expression" dxfId="197" priority="49">
       <formula>$Q73 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="50">
+    <cfRule type="expression" dxfId="196" priority="50">
       <formula>$Q73 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="51">
+    <cfRule type="expression" dxfId="195" priority="51">
       <formula>$Q73 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28886,10 +28805,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3343D979-C34D-40DE-9449-D06BF864DAD3}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28903,245 +28822,250 @@
     <col min="17" max="17" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>43610</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10"/>
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8">
+        <v>43611</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M11" si="0" xml:space="preserve"> B4 + D4 + F4 + H4 + J4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N11" si="1" xml:space="preserve"> C4 + E4 + G4 + I4 + K4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O11" si="2">M4 - N4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P11" si="3" xml:space="preserve"> IF(M4+N4=0, 0, IF(N4=0, "MAX", M4/N4))</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:N10" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:O10" si="1">M5 - N5</f>
-        <v>-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" ref="P5:P10" si="2" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
-        <v>0.6</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>IF(P5 &lt; 1, 3, IF(P5 &gt;= P$10, 1, 2))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="N6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q4:Q9" si="4">IF(P6 &lt; 1, 3, IF(P6 &gt;= P$11, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O6" s="1">
+      <c r="N7">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="P6" s="3">
+        <v>11</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="2"/>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="Q6">
-        <f>IF(P6 &lt; 1, 3, IF(P6 &gt;= P$10, 1, 2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>1.2727272727272727</v>
       </c>
       <c r="Q7">
-        <f>IF(P7 &lt; 1, 3, IF(P7 &gt;= P$10, 1, 2))</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q8">
@@ -29150,1027 +29074,2074 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="P9" s="3">
+        <v>9</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q9">
-        <f>IF(P9 &lt; 1, 3, IF(P9 &gt;= P$10, 1, 2))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4">
+        <v>-7</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Q10">
+        <f>IF(P10 &lt; 1, 3, IF(P10 &gt;= P$11, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
         <v>25</v>
       </c>
-      <c r="C10" s="4">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="D11" s="4">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="O10" s="4">
+        <v>38</v>
+      </c>
+      <c r="N11" s="4">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="P10" s="5">
+        <v>51</v>
+      </c>
+      <c r="O11" s="4">
         <f t="shared" si="2"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>43610</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="6"/>
+        <v>-13</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="3"/>
+        <v>0.74509803921568629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>43611</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ref="M15:N20" si="3" xml:space="preserve"> B15 + D15 + F15 + H15 + J15</f>
-        <v>6</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" ref="O15:O20" si="4">M15 - N15</f>
-        <v>-1</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" ref="P15:P20" si="5" xml:space="preserve"> IF(M15+N15=0, 0, IF(N15=0, "MAX", M15/N15))</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Q15">
-        <f>IF(P15 &lt; 1, 3, IF(P15 &gt;= P$20, 1, 2))</f>
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
+        <v>348</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" ref="M16" si="5" xml:space="preserve"> B16 + D16 + F16 + H16 + J16</f>
+        <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" ref="N16" si="6" xml:space="preserve"> C16 + E16 + G16 + I16 + K16</f>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" ref="O16" si="7">M16 - N16</f>
+        <v>0</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="5"/>
-        <v>1.4615384615384615</v>
+        <f t="shared" ref="P16" si="8" xml:space="preserve"> IF(M16+N16=0, 0, IF(N16=0, "MAX", M16/N16))</f>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <f>IF(P16 &lt; 1, 3, IF(P16 &gt;= P$20, 1, 2))</f>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" ref="M17" si="9" xml:space="preserve"> B17 + D17 + F17 + H17 + J17</f>
+        <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" ref="N17" si="10" xml:space="preserve"> C17 + E17 + G17 + I17 + K17</f>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="4"/>
-        <v>-2</v>
+        <f t="shared" ref="O17" si="11">M17 - N17</f>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
+        <f t="shared" ref="P17" si="12" xml:space="preserve"> IF(M17+N17=0, 0, IF(N17=0, "MAX", M17/N17))</f>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <f>IF(P17 &lt; 1, 3, IF(P17 &gt;= P$20, 1, 2))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="M18:M23" si="13" xml:space="preserve"> B18 + D18 + F18 + H18 + J18</f>
+        <v>3</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="N18:N23" si="14" xml:space="preserve"> C18 + E18 + G18 + I18 + K18</f>
+        <v>4</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="O18:O23" si="15">M18 - N18</f>
+        <v>-1</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="P18:P23" si="16" xml:space="preserve"> IF(M18+N18=0, 0, IF(N18=0, "MAX", M18/N18))</f>
+        <v>0.75</v>
       </c>
       <c r="Q18">
-        <f>IF(P18 &lt; 1, 3, IF(P18 &gt;= P$20, 1, 2))</f>
+        <f>IF(P18 &lt; 1, 3, IF(P18 &gt;= P$23, 1, 2))</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="16"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="Q19">
+        <f>IF(P19 &lt; 1, 3, IF(P19 &gt;= P$23, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="17" xml:space="preserve"> B20 + D20 + F20 + H20 + J20</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20" si="18" xml:space="preserve"> C20 + E20 + G20 + I20 + K20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ref="O20" si="19">M20 - N20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" ref="P20" si="20" xml:space="preserve"> IF(M20+N20=0, 0, IF(N20=0, "MAX", M20/N20))</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="Q21">
+        <f>IF(P21 &lt; 1, 3, IF(P21 &gt;= P$23, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" si="5"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="Q19">
-        <f>IF(P19 &lt; 1, 3, IF(P19 &gt;= P$20, 1, 2))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4">
-        <v>11</v>
-      </c>
-      <c r="D20" s="4">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4">
-        <v>19</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="P20" s="5">
-        <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>43610</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
+      <c r="O22" s="1">
+        <f t="shared" si="15"/>
+        <v>-3</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="16"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q22">
+        <f>IF(P22 &lt; 1, 3, IF(P22 &gt;= P$23, 1, 2))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B23" s="4">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4">
+        <v>14</v>
+      </c>
+      <c r="G23" s="4">
+        <v>16</v>
+      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="4">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="16"/>
+        <v>0.98550724637681164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>43610</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="4" t="s">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P27" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f t="shared" ref="M25:N30" si="6" xml:space="preserve"> B25 + D25 + F25 + H25 + J25</f>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" ref="O25:O30" si="7">M25 - N25</f>
-        <v>-6</v>
-      </c>
-      <c r="P25" s="3">
-        <f t="shared" ref="P25:P30" si="8" xml:space="preserve"> IF(M25+N25=0, 0, IF(N25=0, "MAX", M25/N25))</f>
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f>IF(P25 &lt; 1, 3, IF(P25 &gt;= P$30, 1, 2))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="P26" s="3">
-        <f t="shared" si="8"/>
-        <v>0.95454545454545459</v>
-      </c>
-      <c r="Q26">
-        <f>IF(P26 &lt; 1, 3, IF(P26 &gt;= P$30, 1, 2))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <f>IF(P27 &lt; 1, 3, IF(P27 &gt;= P$30, 1, 2))</f>
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="M28:N33" si="21" xml:space="preserve"> B28 + D28 + F28 + H28 + J28</f>
+        <v>3</v>
       </c>
       <c r="N28">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>5</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" ref="O28:O33" si="22">M28 - N28</f>
+        <v>-2</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="P28:P33" si="23" xml:space="preserve"> IF(M28+N28=0, 0, IF(N28=0, "MAX", M28/N28))</f>
+        <v>0.6</v>
       </c>
       <c r="Q28">
-        <f>IF(P28 &lt; 1, 3, IF(P28 &gt;= P$30, 1, 2))</f>
+        <f>IF(P28 &lt; 1, 3, IF(P28 &gt;= P$33, 1, 2))</f>
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="21"/>
+        <v>22</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="23"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="Q29">
+        <f>IF(P29 &lt; 1, 3, IF(P29 &gt;= P$33, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q30">
+        <f>IF(P30 &lt; 1, 3, IF(P30 &gt;= P$33, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <f>IF(P29 &lt; 1, 3, IF(P29 &gt;= P$30, 1, 2))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="23"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q32">
+        <f>IF(P32 &lt; 1, 3, IF(P32 &gt;= P$33, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4">
         <v>25</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C33" s="4">
+        <v>16</v>
+      </c>
+      <c r="D33" s="4">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="23"/>
+        <v>1.7241379310344827</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>43610</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38:N43" si="24" xml:space="preserve"> B38 + D38 + F38 + H38 + J38</f>
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" ref="O38:O43" si="25">M38 - N38</f>
+        <v>-1</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" ref="P38:P43" si="26" xml:space="preserve"> IF(M38+N38=0, 0, IF(N38=0, "MAX", M38/N38))</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q38">
+        <f>IF(P38 &lt; 1, 3, IF(P38 &gt;= P$43, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="24"/>
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="26"/>
+        <v>1.4615384615384615</v>
+      </c>
+      <c r="Q39">
+        <f>IF(P39 &lt; 1, 3, IF(P39 &gt;= P$43, 1, 2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="25"/>
+        <v>-2</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="26"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q40">
+        <f>IF(P40 &lt; 1, 3, IF(P40 &gt;= P$43, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f>IF(P41 &lt; 1, 3, IF(P41 &gt;= P$43, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="25"/>
+        <v>-2</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="26"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Q42">
+        <f>IF(P42 &lt; 1, 3, IF(P42 &gt;= P$43, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4">
+        <v>25</v>
+      </c>
+      <c r="C43" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" s="4">
+        <v>25</v>
+      </c>
+      <c r="E43" s="4">
+        <v>19</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="26"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>43610</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="10"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:N53" si="27" xml:space="preserve"> B48 + D48 + F48 + H48 + J48</f>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" ref="O48:O53" si="28">M48 - N48</f>
+        <v>-6</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" ref="P48:P53" si="29" xml:space="preserve"> IF(M48+N48=0, 0, IF(N48=0, "MAX", M48/N48))</f>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f>IF(P48 &lt; 1, 3, IF(P48 &gt;= P$53, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="27"/>
+        <v>21</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="29"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="Q49">
+        <f>IF(P49 &lt; 1, 3, IF(P49 &gt;= P$53, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <f>IF(P50 &lt; 1, 3, IF(P50 &gt;= P$53, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f>IF(P51 &lt; 1, 3, IF(P51 &gt;= P$53, 1, 2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <f>IF(P52 &lt; 1, 3, IF(P52 &gt;= P$53, 1, 2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4">
+        <v>25</v>
+      </c>
+      <c r="C53" s="4">
         <v>23</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D53" s="4">
         <v>18</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E53" s="4">
         <v>25</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F53" s="4">
         <v>15</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G53" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4">
-        <f t="shared" si="6"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4">
+        <f t="shared" si="27"/>
         <v>58</v>
       </c>
-      <c r="N30" s="4">
-        <f t="shared" si="6"/>
+      <c r="N53" s="4">
+        <f t="shared" si="27"/>
         <v>58</v>
       </c>
-      <c r="O30" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="5">
-        <f t="shared" si="8"/>
+      <c r="O53" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="5">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:A29 H28:P29">
-    <cfRule type="expression" dxfId="206" priority="52">
+  <conditionalFormatting sqref="A51:A52 H51:P52 A22">
+    <cfRule type="expression" dxfId="194" priority="139">
+      <formula>$Q22 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="140">
+      <formula>$Q22 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="141">
+      <formula>$Q22 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="expression" dxfId="191" priority="124">
+      <formula>$Q41 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="125">
+      <formula>$Q41 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="126">
+      <formula>$Q41 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="expression" dxfId="188" priority="118">
+      <formula>$Q39 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="119">
+      <formula>$Q39 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="120">
+      <formula>$Q39 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="expression" dxfId="185" priority="121">
+      <formula>$Q38 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="122">
+      <formula>$Q38 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="123">
+      <formula>$Q38 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48 H48:P48">
+    <cfRule type="expression" dxfId="182" priority="136">
+      <formula>$Q48 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="137">
+      <formula>$Q48 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="138">
+      <formula>$Q48 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49 H49:P49">
+    <cfRule type="expression" dxfId="179" priority="133">
+      <formula>$Q49 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="134">
+      <formula>$Q49 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="135">
+      <formula>$Q49 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50 H50:P50">
+    <cfRule type="expression" dxfId="176" priority="130">
+      <formula>$Q50 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="131">
+      <formula>$Q50 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="132">
+      <formula>$Q50 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="173" priority="103">
+      <formula>$Q30 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="104">
+      <formula>$Q30 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="105">
+      <formula>$Q30 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:P32">
+    <cfRule type="expression" dxfId="170" priority="196">
+      <formula>$Q32 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="197">
+      <formula>$Q32 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="198">
+      <formula>$Q32 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:P28">
+    <cfRule type="expression" dxfId="167" priority="184">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="53">
+    <cfRule type="expression" dxfId="166" priority="185">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="54">
+    <cfRule type="expression" dxfId="165" priority="186">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A19">
-    <cfRule type="expression" dxfId="203" priority="37">
+  <conditionalFormatting sqref="B29:P29">
+    <cfRule type="expression" dxfId="164" priority="181">
+      <formula>$Q29 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="182">
+      <formula>$Q29 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="183">
+      <formula>$Q29 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:P30">
+    <cfRule type="expression" dxfId="161" priority="178">
+      <formula>$Q30 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="179">
+      <formula>$Q30 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="180">
+      <formula>$Q30 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:P31">
+    <cfRule type="expression" dxfId="158" priority="175">
+      <formula>$Q31 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="176">
+      <formula>$Q31 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="177">
+      <formula>$Q31 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:P42">
+    <cfRule type="expression" dxfId="155" priority="172">
+      <formula>$Q42 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="173">
+      <formula>$Q42 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="174">
+      <formula>$Q42 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:P38">
+    <cfRule type="expression" dxfId="152" priority="160">
+      <formula>$Q38 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="161">
+      <formula>$Q38 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="162">
+      <formula>$Q38 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:P39">
+    <cfRule type="expression" dxfId="149" priority="157">
+      <formula>$Q39 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="158">
+      <formula>$Q39 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="159">
+      <formula>$Q39 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:P40">
+    <cfRule type="expression" dxfId="146" priority="154">
+      <formula>$Q40 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="155">
+      <formula>$Q40 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="156">
+      <formula>$Q40 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:P41">
+    <cfRule type="expression" dxfId="143" priority="151">
+      <formula>$Q41 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="152">
+      <formula>$Q41 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="153">
+      <formula>$Q41 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="140" priority="115">
+      <formula>$Q40 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="116">
+      <formula>$Q40 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="117">
+      <formula>$Q40 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="expression" dxfId="137" priority="112">
+      <formula>$Q31 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="113">
+      <formula>$Q31 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="114">
+      <formula>$Q31 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="expression" dxfId="134" priority="109">
+      <formula>$Q28 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="110">
+      <formula>$Q28 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="111">
+      <formula>$Q28 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="131" priority="106">
+      <formula>$Q29 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="107">
+      <formula>$Q29 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="108">
+      <formula>$Q29 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:G52">
+    <cfRule type="expression" dxfId="128" priority="100">
+      <formula>$Q52 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="101">
+      <formula>$Q52 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="102">
+      <formula>$Q52 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:G48">
+    <cfRule type="expression" dxfId="125" priority="97">
+      <formula>$Q48 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="98">
+      <formula>$Q48 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="99">
+      <formula>$Q48 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:G49">
+    <cfRule type="expression" dxfId="122" priority="94">
+      <formula>$Q49 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="95">
+      <formula>$Q49 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="96">
+      <formula>$Q49 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:G50">
+    <cfRule type="expression" dxfId="119" priority="91">
+      <formula>$Q50 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="92">
+      <formula>$Q50 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="93">
+      <formula>$Q50 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:G51">
+    <cfRule type="expression" dxfId="116" priority="88">
+      <formula>$Q51 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="89">
+      <formula>$Q51 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="90">
+      <formula>$Q51 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="expression" dxfId="113" priority="61">
+      <formula>$Q21 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="62">
+      <formula>$Q21 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="63">
+      <formula>$Q21 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:P22">
+    <cfRule type="expression" dxfId="110" priority="85">
+      <formula>$Q22 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="86">
+      <formula>$Q22 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="87">
+      <formula>$Q22 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:P18">
+    <cfRule type="expression" dxfId="107" priority="82">
       <formula>$Q18 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="38">
+    <cfRule type="expression" dxfId="106" priority="83">
       <formula>$Q18 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="39">
+    <cfRule type="expression" dxfId="105" priority="84">
       <formula>$Q18 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:P19">
+    <cfRule type="expression" dxfId="104" priority="79">
+      <formula>$Q19 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="80">
+      <formula>$Q19 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="81">
+      <formula>$Q19 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:P21">
+    <cfRule type="expression" dxfId="101" priority="76">
+      <formula>$Q21 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="77">
+      <formula>$Q21 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="78">
+      <formula>$Q21 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="expression" dxfId="98" priority="67">
+      <formula>$Q18 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="68">
+      <formula>$Q18 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="69">
+      <formula>$Q18 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="expression" dxfId="95" priority="64">
+      <formula>$Q19 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="65">
+      <formula>$Q19 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="66">
+      <formula>$Q19 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:P16">
+    <cfRule type="expression" dxfId="92" priority="58">
+      <formula>$Q16 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="59">
+      <formula>$Q16 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="60">
+      <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="200" priority="31">
+    <cfRule type="expression" dxfId="89" priority="55">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="32">
+    <cfRule type="expression" dxfId="88" priority="56">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="33">
+    <cfRule type="expression" dxfId="87" priority="57">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="197" priority="34">
-      <formula>$Q15 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="35">
-      <formula>$Q15 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="36">
-      <formula>$Q15 = 1</formula>
+  <conditionalFormatting sqref="B20:P20">
+    <cfRule type="expression" dxfId="86" priority="52">
+      <formula>$Q20 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="53">
+      <formula>$Q20 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="54">
+      <formula>$Q20 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25 H25:P25">
-    <cfRule type="expression" dxfId="194" priority="49">
-      <formula>$Q25 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="50">
-      <formula>$Q25 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="51">
-      <formula>$Q25 = 1</formula>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="expression" dxfId="83" priority="49">
+      <formula>$Q20 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="50">
+      <formula>$Q20 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="51">
+      <formula>$Q20 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26 H26:P26">
-    <cfRule type="expression" dxfId="191" priority="46">
-      <formula>$Q26 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="47">
-      <formula>$Q26 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="48">
-      <formula>$Q26 = 1</formula>
+  <conditionalFormatting sqref="B17:P17">
+    <cfRule type="expression" dxfId="80" priority="46">
+      <formula>$Q17 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="47">
+      <formula>$Q17 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="48">
+      <formula>$Q17 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27 H27:P27">
-    <cfRule type="expression" dxfId="188" priority="43">
-      <formula>$Q27 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="44">
-      <formula>$Q27 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="45">
-      <formula>$Q27 = 1</formula>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="77" priority="43">
+      <formula>$Q17 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="44">
+      <formula>$Q17 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="45">
+      <formula>$Q17 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="74" priority="40">
+      <formula>$Q10 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="41">
+      <formula>$Q10 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="42">
+      <formula>$Q10 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="71" priority="19">
+      <formula>$Q9 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="20">
+      <formula>$Q9 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="21">
+      <formula>$Q9 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:P10">
+    <cfRule type="expression" dxfId="68" priority="37">
+      <formula>$Q10 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="38">
+      <formula>$Q10 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="39">
+      <formula>$Q10 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:P6">
+    <cfRule type="expression" dxfId="65" priority="34">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="35">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="36">
+      <formula>$Q6 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:P7">
+    <cfRule type="expression" dxfId="62" priority="31">
+      <formula>$Q7 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="32">
+      <formula>$Q7 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="33">
+      <formula>$Q7 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:P9">
+    <cfRule type="expression" dxfId="59" priority="28">
+      <formula>$Q9 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="29">
+      <formula>$Q9 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="30">
+      <formula>$Q9 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="56" priority="25">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="26">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="27">
+      <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="185" priority="16">
+    <cfRule type="expression" dxfId="53" priority="22">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="17">
+    <cfRule type="expression" dxfId="52" priority="23">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="18">
+    <cfRule type="expression" dxfId="51" priority="24">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:P9">
-    <cfRule type="expression" dxfId="152" priority="109">
-      <formula>$Q9 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="110">
-      <formula>$Q9 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="111">
-      <formula>$Q9 = 1</formula>
+  <conditionalFormatting sqref="B4:P4">
+    <cfRule type="expression" dxfId="50" priority="16">
+      <formula>$Q4 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="17">
+      <formula>$Q4 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="18">
+      <formula>$Q4 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="expression" dxfId="47" priority="13">
+      <formula>$Q4 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="14">
+      <formula>$Q4 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="15">
+      <formula>$Q4 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:P8">
+    <cfRule type="expression" dxfId="44" priority="10">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="11">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="12">
+      <formula>$Q8 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="41" priority="7">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="8">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="9">
+      <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:P5">
-    <cfRule type="expression" dxfId="143" priority="97">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="98">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="99">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>$Q5 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:P6">
-    <cfRule type="expression" dxfId="140" priority="94">
-      <formula>$Q6 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="95">
-      <formula>$Q6 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="96">
-      <formula>$Q6 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:P7">
-    <cfRule type="expression" dxfId="137" priority="91">
-      <formula>$Q7 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="92">
-      <formula>$Q7 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="93">
-      <formula>$Q7 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:P8">
-    <cfRule type="expression" dxfId="134" priority="88">
-      <formula>$Q8 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="89">
-      <formula>$Q8 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="90">
-      <formula>$Q8 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:P19">
-    <cfRule type="expression" dxfId="128" priority="85">
-      <formula>$Q19 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="86">
-      <formula>$Q19 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="87">
-      <formula>$Q19 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:P15">
-    <cfRule type="expression" dxfId="119" priority="73">
-      <formula>$Q15 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="74">
-      <formula>$Q15 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="75">
-      <formula>$Q15 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:P16">
-    <cfRule type="expression" dxfId="116" priority="70">
-      <formula>$Q16 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="71">
-      <formula>$Q16 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="72">
-      <formula>$Q16 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:P17">
-    <cfRule type="expression" dxfId="113" priority="67">
-      <formula>$Q17 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="68">
-      <formula>$Q17 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="69">
-      <formula>$Q17 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:P18">
-    <cfRule type="expression" dxfId="110" priority="64">
-      <formula>$Q18 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="65">
-      <formula>$Q18 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="66">
-      <formula>$Q18 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="107" priority="28">
-      <formula>$Q17 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="29">
-      <formula>$Q17 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="30">
-      <formula>$Q17 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
-    <cfRule type="expression" dxfId="95" priority="25">
-      <formula>$Q8 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="26">
-      <formula>$Q8 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="27">
-      <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="92" priority="22">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="23">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="24">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>$Q5 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="89" priority="19">
-      <formula>$Q6 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="20">
-      <formula>$Q6 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="21">
-      <formula>$Q6 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:G29">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>$Q29 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$Q29 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>$Q29 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:G25">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>$Q25 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$Q25 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>$Q25 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:G26">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>$Q26 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$Q26 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>$Q26 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:G27">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>$Q27 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$Q27 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$Q27 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:G28">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$Q28 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q28 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31685,123 +32656,123 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="47" priority="22">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="23">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:P24 A25:L29">
-    <cfRule type="expression" dxfId="44" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$Q24 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>$Q24 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>$Q24 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:L31">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="26" priority="37">
       <formula>$Q31 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>$Q31 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="24" priority="39">
       <formula>$Q31 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:P29">
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="21" priority="36">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:L30">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="20" priority="31">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="18" priority="33">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:P30">
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>$Q30 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>$Q30 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>$Q30 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:P15">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:P9 A10:L13 B14:L14">
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:L15">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$Q15 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>$Q15 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>$Q15 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P14">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>$Q10 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>$Q10 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$Q10 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$Q14 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$Q14 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$Q14 = 1</formula>
     </cfRule>
   </conditionalFormatting>
